--- a/public/data/incidents.xlsx
+++ b/public/data/incidents.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlie/Downloads/Footage Data To Karlie - Updated/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlie/Documents/GitHub/whitephosphorus/public/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDB97D7-2E8B-A94C-ABA7-599051DE4E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69525315-7427-2346-A6EF-A65C853F2266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="500" windowWidth="34960" windowHeight="21900" xr2:uid="{17A8EE8E-FE20-45E7-B555-7436B0063D4F}"/>
+    <workbookView xWindow="900" yWindow="500" windowWidth="34960" windowHeight="21900" xr2:uid="{17A8EE8E-FE20-45E7-B555-7436B0063D4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Footage Data To Karlie-Updated" sheetId="14" r:id="rId1"/>
@@ -483,9 +483,6 @@
     <t>20231206\20231206_Meiss El Jabal\GreenSoutherners135 _20231206 ميس الجبل وأطراف حولا فوسفوري.mp4</t>
   </si>
   <si>
-    <t>20231207\20231207_Rmaysh1\GreenSoutherners136 _20231207 أطراف رميش فوسفوري.jpeg</t>
-  </si>
-  <si>
     <t>20231207\20231207_Rmaysh1\HRW22_20231207.mp4</t>
   </si>
   <si>
@@ -949,6 +946,9 @@
   </si>
   <si>
     <t>Number</t>
+  </si>
+  <si>
+    <t>20231207/20231207_Rmaysh1/GreenSoutherners136+_20231207+%D8%A7%D9%94%D8%B7%D8%B1%D8%A7%D9%81+%D8%B1%D9%85%D9%8A%D8%B4+%D9%81%D9%88%D8%B3%D9%81%D9%88%D8%B1%D9%8A.jpeg</t>
   </si>
 </sst>
 </file>
@@ -1473,10 +1473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A08A01A-F062-4B76-B193-0C678F68B2B9}">
-  <dimension ref="A1:AG397"/>
+  <dimension ref="A1:AG396"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1491,78 +1491,80 @@
   <sheetData>
     <row r="1" spans="1:24" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D1" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="K1" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="L1" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="M1" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="N1" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="O1" s="22" t="s">
         <v>293</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>294</v>
       </c>
       <c r="P1" s="22">
         <v>13</v>
       </c>
       <c r="Q1" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="R1" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="S1" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="T1" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="U1" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="V1" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="V1" s="23" t="s">
+      <c r="W1" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="W1" s="23" t="s">
-        <v>301</v>
-      </c>
       <c r="X1" s="3"/>
     </row>
-    <row r="2" spans="1:24" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16">
+        <v>45200</v>
+      </c>
       <c r="B2" s="8"/>
       <c r="C2" s="6"/>
       <c r="D2" s="3"/>
@@ -1589,7 +1591,7 @@
     </row>
     <row r="3" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
-        <v>45200</v>
+        <v>45201</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="6"/>
@@ -1617,7 +1619,7 @@
     </row>
     <row r="4" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
-        <v>45201</v>
+        <v>45202</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="6"/>
@@ -1645,7 +1647,7 @@
     </row>
     <row r="5" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="6"/>
@@ -1673,7 +1675,7 @@
     </row>
     <row r="6" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="6"/>
@@ -1701,7 +1703,7 @@
     </row>
     <row r="7" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="6"/>
@@ -1729,7 +1731,7 @@
     </row>
     <row r="8" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="6"/>
@@ -1757,7 +1759,7 @@
     </row>
     <row r="9" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
-        <v>45206</v>
+        <v>45207</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="6"/>
@@ -1785,7 +1787,7 @@
     </row>
     <row r="10" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="6"/>
@@ -1811,46 +1813,32 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
-    <row r="11" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16">
-        <v>45208</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17">
+        <v>45209</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
         <v>45209</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>1</v>
+      <c r="B12" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
@@ -1858,13 +1846,16 @@
         <v>45209</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C13" s="7">
         <v>3</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>47</v>
+      <c r="D13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
@@ -1872,160 +1863,160 @@
         <v>45209</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="17">
-        <v>45209</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="7">
         <v>10</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16">
+    <row r="15" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16">
         <v>45211</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A16" s="17">
+        <v>45212</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="17">
         <v>45212</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
+        <v>45213</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+    </row>
+    <row r="19" spans="1:24" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="17">
+        <v>45214</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
         <v>1</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="17">
-        <v>45212</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="7">
-        <v>2</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16">
-        <v>45213</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="1:24" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17">
         <v>45214</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>3</v>
+      <c r="B20" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="17">
         <v>45214</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C21" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
@@ -2033,75 +2024,86 @@
         <v>45214</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="17">
-        <v>45214</v>
+        <v>45215</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C23" s="7">
         <v>3</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>37</v>
+        <v>52</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="17">
-        <v>45215</v>
+        <v>45216</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="7">
         <v>2</v>
       </c>
-      <c r="C24" s="7">
-        <v>3</v>
-      </c>
       <c r="D24" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A25" s="17">
-        <v>45216</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="7">
-        <v>2</v>
-      </c>
-      <c r="D25" s="5" t="s">
         <v>57</v>
       </c>
+    </row>
+    <row r="25" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16">
+        <v>45217</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
     </row>
     <row r="26" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
-        <v>45217</v>
+        <v>45218</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="6"/>
@@ -2129,7 +2131,7 @@
     </row>
     <row r="27" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
-        <v>45218</v>
+        <v>45219</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="6"/>
@@ -2155,104 +2157,104 @@
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
     </row>
-    <row r="28" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="16">
-        <v>45219</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A28" s="17">
+        <v>45220</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="7">
+        <v>7</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A29" s="17">
-        <v>45220</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="7">
-        <v>7</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A29" s="16">
+        <v>45221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
-        <v>45221</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="16">
         <v>45222</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A32" s="17">
+      <c r="B30" s="8"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A31" s="17">
         <v>45223</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B31" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C31" s="7">
         <v>2</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>61</v>
       </c>
+    </row>
+    <row r="32" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="16">
+        <v>45224</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
     </row>
     <row r="33" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16">
-        <v>45224</v>
+        <v>45225</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="6"/>
@@ -2280,7 +2282,7 @@
     </row>
     <row r="34" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
-        <v>45225</v>
+        <v>45226</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="6"/>
@@ -2308,7 +2310,7 @@
     </row>
     <row r="35" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
-        <v>45226</v>
+        <v>45227</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="6"/>
@@ -2336,7 +2338,7 @@
     </row>
     <row r="36" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
-        <v>45227</v>
+        <v>45228</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="6"/>
@@ -2362,51 +2364,51 @@
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
     </row>
-    <row r="37" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="16">
-        <v>45228</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A38" s="17">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A37" s="17">
         <v>45229</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B37" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C37" s="7">
         <v>1</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>62</v>
       </c>
+    </row>
+    <row r="38" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="16">
+        <v>45230</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
     </row>
     <row r="39" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16">
-        <v>45230</v>
+        <v>45231</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="6"/>
@@ -2432,51 +2434,51 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
     </row>
-    <row r="40" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="16">
-        <v>45231</v>
-      </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A41" s="18">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A40" s="18">
         <v>45232</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B40" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C40" s="7">
         <v>1</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>63</v>
       </c>
+    </row>
+    <row r="41" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="16">
+        <v>45233</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
     </row>
     <row r="42" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16">
-        <v>45233</v>
+        <v>45234</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="6"/>
@@ -2504,7 +2506,7 @@
     </row>
     <row r="43" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16">
-        <v>45234</v>
+        <v>45235</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="6"/>
@@ -2532,7 +2534,7 @@
     </row>
     <row r="44" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
-        <v>45235</v>
+        <v>45236</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="6"/>
@@ -2560,7 +2562,7 @@
     </row>
     <row r="45" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16">
-        <v>45236</v>
+        <v>45237</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="6"/>
@@ -2588,7 +2590,7 @@
     </row>
     <row r="46" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16">
-        <v>45237</v>
+        <v>45238</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="6"/>
@@ -2614,111 +2616,100 @@
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
     </row>
-    <row r="47" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="16">
-        <v>45238</v>
-      </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
-      <c r="V47" s="3"/>
-      <c r="W47" s="3"/>
-      <c r="X47" s="3"/>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A47" s="17">
+        <v>45239</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="7">
+        <v>1</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="17">
-        <v>45239</v>
+        <v>45240</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C48" s="7">
-        <v>1</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A49" s="17">
-        <v>45240</v>
-      </c>
-      <c r="B49" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="16">
+        <v>45241</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A50" s="17">
+        <v>45242</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C49" s="7">
-        <v>3</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="16">
-        <v>45241</v>
-      </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
-      <c r="U50" s="3"/>
-      <c r="V50" s="3"/>
-      <c r="W50" s="3"/>
-      <c r="X50" s="3"/>
+      <c r="C50" s="7">
+        <v>4</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="17">
         <v>45242</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C51" s="7">
         <v>4</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
@@ -2726,38 +2717,49 @@
         <v>45242</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C52" s="7">
         <v>4</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A53" s="17">
-        <v>45242</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="7">
-        <v>4</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E53" s="5" t="s">
         <v>73</v>
       </c>
+    </row>
+    <row r="53" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="16">
+        <v>45243</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
     </row>
     <row r="54" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="6"/>
@@ -2783,37 +2785,26 @@
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
     </row>
-    <row r="55" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="16">
-        <v>45244</v>
-      </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-      <c r="U55" s="3"/>
-      <c r="V55" s="3"/>
-      <c r="W55" s="3"/>
-      <c r="X55" s="3"/>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A55" s="17">
+        <v>45245</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="7">
+        <v>1</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="17">
-        <v>45245</v>
+        <v>45246</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>12</v>
@@ -2822,100 +2813,111 @@
         <v>1</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="17">
-        <v>45246</v>
+        <v>45247</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C57" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="17">
         <v>45247</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C58" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="17">
-        <v>45247</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>21</v>
+        <v>45248</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="C59" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A60" s="17">
-        <v>45248</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>9</v>
+      <c r="A60" s="18">
+        <v>45249</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C60" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A61" s="18">
-        <v>45249</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" s="7">
-        <v>3</v>
-      </c>
-      <c r="D61" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E60" s="5" t="s">
         <v>85</v>
       </c>
+    </row>
+    <row r="61" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="16">
+        <v>45250</v>
+      </c>
+      <c r="B61" s="8"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3"/>
+      <c r="X61" s="3"/>
     </row>
     <row r="62" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="16">
-        <v>45250</v>
+        <v>45251</v>
       </c>
       <c r="B62" s="8"/>
       <c r="C62" s="6"/>
@@ -2941,124 +2943,134 @@
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
     </row>
-    <row r="63" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="16">
-        <v>45251</v>
-      </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
-      <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
-      <c r="U63" s="3"/>
-      <c r="V63" s="3"/>
-      <c r="W63" s="3"/>
-      <c r="X63" s="3"/>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A63" s="18">
+        <v>45252</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="7">
+        <v>1</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="18">
         <v>45252</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C64" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A65" s="18">
-        <v>45252</v>
+        <v>45253</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C65" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="18">
-        <v>45253</v>
+        <v>45255</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C66" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:33" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="18">
-        <v>45255</v>
+        <v>99</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A67" s="17">
+        <v>45256</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C67" s="7">
         <v>1</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>101</v>
+        <v>107</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.2">
@@ -3066,42 +3078,18 @@
         <v>45256</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C68" s="7">
         <v>1</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="J68" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="K68" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="L68" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A69" s="17">
-        <v>45256</v>
+        <v>45257</v>
       </c>
       <c r="B69" s="10" t="s">
         <v>5</v>
@@ -3110,27 +3098,93 @@
         <v>1</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" ht="306" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="17">
         <v>45257</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C70" s="7">
         <v>1</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="71" spans="1:33" ht="306" customHeight="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M70" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N70" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O70" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="P70" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q70" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="R70" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="S70" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="T70" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="U70" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="V70" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="W70" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="3"/>
+      <c r="AA70" s="3"/>
+      <c r="AB70" s="3"/>
+      <c r="AC70" s="3"/>
+      <c r="AD70" s="3"/>
+      <c r="AE70" s="3"/>
+      <c r="AF70" s="3"/>
+      <c r="AG70" s="3"/>
+    </row>
+    <row r="71" spans="1:33" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="17">
         <v>45257</v>
       </c>
@@ -3141,121 +3195,69 @@
         <v>1</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="M71" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="N71" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="O71" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="P71" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q71" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="R71" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="S71" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="T71" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="U71" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="V71" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="W71" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y71" s="3"/>
-      <c r="Z71" s="3"/>
-      <c r="AA71" s="3"/>
-      <c r="AB71" s="3"/>
-      <c r="AC71" s="3"/>
-      <c r="AD71" s="3"/>
-      <c r="AE71" s="3"/>
-      <c r="AF71" s="3"/>
-      <c r="AG71" s="3"/>
-    </row>
-    <row r="72" spans="1:33" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="17">
-        <v>45257</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C72" s="7">
-        <v>1</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="J72" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="K72" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="L72" s="5" t="s">
         <v>142</v>
       </c>
     </row>
+    <row r="72" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="16">
+        <v>45258</v>
+      </c>
+      <c r="B72" s="8"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+      <c r="W72" s="3"/>
+      <c r="X72" s="3"/>
+    </row>
     <row r="73" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="16">
-        <v>45258</v>
+      <c r="A73" s="19">
+        <v>45259</v>
       </c>
       <c r="B73" s="8"/>
       <c r="C73" s="6"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -3277,8 +3279,8 @@
       <c r="X73" s="3"/>
     </row>
     <row r="74" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="19">
-        <v>45259</v>
+      <c r="A74" s="16">
+        <v>45260</v>
       </c>
       <c r="B74" s="8"/>
       <c r="C74" s="6"/>
@@ -3306,7 +3308,7 @@
     </row>
     <row r="75" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="16">
-        <v>45260</v>
+        <v>45261</v>
       </c>
       <c r="B75" s="8"/>
       <c r="C75" s="6"/>
@@ -3333,15 +3335,27 @@
       <c r="X75" s="3"/>
     </row>
     <row r="76" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="16">
-        <v>45261</v>
-      </c>
-      <c r="B76" s="8"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
+      <c r="A76" s="18">
+        <v>45262</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="7">
+        <v>6</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
@@ -3361,27 +3375,15 @@
       <c r="X76" s="3"/>
     </row>
     <row r="77" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="18">
-        <v>45262</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C77" s="7">
-        <v>6</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>145</v>
-      </c>
+      <c r="A77" s="16">
+        <v>45263</v>
+      </c>
+      <c r="B77" s="8"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
@@ -3402,7 +3404,7 @@
     </row>
     <row r="78" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="16">
-        <v>45263</v>
+        <v>45264</v>
       </c>
       <c r="B78" s="8"/>
       <c r="C78" s="6"/>
@@ -3430,7 +3432,7 @@
     </row>
     <row r="79" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="16">
-        <v>45264</v>
+        <v>45265</v>
       </c>
       <c r="B79" s="8"/>
       <c r="C79" s="6"/>
@@ -3456,114 +3458,114 @@
       <c r="W79" s="3"/>
       <c r="X79" s="3"/>
     </row>
-    <row r="80" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="16">
-        <v>45265</v>
-      </c>
-      <c r="B80" s="8"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
-      <c r="N80" s="3"/>
-      <c r="O80" s="3"/>
-      <c r="P80" s="3"/>
-      <c r="Q80" s="3"/>
-      <c r="R80" s="3"/>
-      <c r="S80" s="3"/>
-      <c r="T80" s="3"/>
-      <c r="U80" s="3"/>
-      <c r="V80" s="3"/>
-      <c r="W80" s="3"/>
-      <c r="X80" s="3"/>
+    <row r="80" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="17">
+        <v>45266</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="7">
+        <v>2</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="81" spans="1:24" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="17">
-        <v>45266</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>5</v>
+        <v>45267</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="C81" s="7">
+        <v>6</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A82" s="18">
+        <v>45268</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="7">
         <v>2</v>
       </c>
-      <c r="D81" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="17">
-        <v>45267</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C82" s="7">
-        <v>6</v>
-      </c>
       <c r="D82" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="I82" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="J82" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="K82" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="18">
         <v>45268</v>
       </c>
-      <c r="B83" s="10" t="s">
-        <v>17</v>
+      <c r="B83" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="C83" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="18">
-        <v>45268</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C84" s="7">
-        <v>1</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>157</v>
-      </c>
+    <row r="84" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="16">
+        <v>45269</v>
+      </c>
+      <c r="B84" s="8"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
+      <c r="W84" s="3"/>
+      <c r="X84" s="3"/>
     </row>
     <row r="85" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="16">
-        <v>45269</v>
+        <v>45270</v>
       </c>
       <c r="B85" s="8"/>
       <c r="C85" s="6"/>
@@ -3591,7 +3593,7 @@
     </row>
     <row r="86" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="16">
-        <v>45270</v>
+        <v>45271</v>
       </c>
       <c r="B86" s="8"/>
       <c r="C86" s="6"/>
@@ -3619,7 +3621,7 @@
     </row>
     <row r="87" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="16">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="B87" s="8"/>
       <c r="C87" s="6"/>
@@ -3647,9 +3649,9 @@
     </row>
     <row r="88" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="16">
-        <v>45272</v>
-      </c>
-      <c r="B88" s="8"/>
+        <v>45273</v>
+      </c>
+      <c r="B88" s="12"/>
       <c r="C88" s="6"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -3675,9 +3677,9 @@
     </row>
     <row r="89" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="16">
-        <v>45273</v>
-      </c>
-      <c r="B89" s="12"/>
+        <v>45274</v>
+      </c>
+      <c r="B89" s="8"/>
       <c r="C89" s="6"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -3703,7 +3705,7 @@
     </row>
     <row r="90" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="16">
-        <v>45274</v>
+        <v>45275</v>
       </c>
       <c r="B90" s="8"/>
       <c r="C90" s="6"/>
@@ -3731,7 +3733,7 @@
     </row>
     <row r="91" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="16">
-        <v>45275</v>
+        <v>45276</v>
       </c>
       <c r="B91" s="8"/>
       <c r="C91" s="6"/>
@@ -3759,7 +3761,7 @@
     </row>
     <row r="92" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="16">
-        <v>45276</v>
+        <v>45277</v>
       </c>
       <c r="B92" s="8"/>
       <c r="C92" s="6"/>
@@ -3787,7 +3789,7 @@
     </row>
     <row r="93" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="16">
-        <v>45277</v>
+        <v>45278</v>
       </c>
       <c r="B93" s="8"/>
       <c r="C93" s="6"/>
@@ -3815,7 +3817,7 @@
     </row>
     <row r="94" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="16">
-        <v>45278</v>
+        <v>45279</v>
       </c>
       <c r="B94" s="8"/>
       <c r="C94" s="6"/>
@@ -3841,54 +3843,54 @@
       <c r="W94" s="3"/>
       <c r="X94" s="3"/>
     </row>
-    <row r="95" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="16">
-        <v>45279</v>
-      </c>
-      <c r="B95" s="8"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
-      <c r="L95" s="3"/>
-      <c r="M95" s="3"/>
-      <c r="N95" s="3"/>
-      <c r="O95" s="3"/>
-      <c r="P95" s="3"/>
-      <c r="Q95" s="3"/>
-      <c r="R95" s="3"/>
-      <c r="S95" s="3"/>
-      <c r="T95" s="3"/>
-      <c r="U95" s="3"/>
-      <c r="V95" s="3"/>
-      <c r="W95" s="3"/>
-      <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A96" s="18">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A95" s="18">
         <v>45280</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B95" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C96" s="7">
+      <c r="C95" s="7">
         <v>3</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D95" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E95" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E96" s="5" t="s">
-        <v>159</v>
-      </c>
+    </row>
+    <row r="96" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="16">
+        <v>45281</v>
+      </c>
+      <c r="B96" s="8"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3"/>
+      <c r="S96" s="3"/>
+      <c r="T96" s="3"/>
+      <c r="U96" s="3"/>
+      <c r="V96" s="3"/>
+      <c r="W96" s="3"/>
+      <c r="X96" s="3"/>
     </row>
     <row r="97" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="16">
-        <v>45281</v>
+        <v>45282</v>
       </c>
       <c r="B97" s="8"/>
       <c r="C97" s="6"/>
@@ -3916,7 +3918,7 @@
     </row>
     <row r="98" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="16">
-        <v>45282</v>
+        <v>45283</v>
       </c>
       <c r="B98" s="8"/>
       <c r="C98" s="6"/>
@@ -3944,7 +3946,7 @@
     </row>
     <row r="99" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="16">
-        <v>45283</v>
+        <v>45284</v>
       </c>
       <c r="B99" s="8"/>
       <c r="C99" s="6"/>
@@ -3972,7 +3974,7 @@
     </row>
     <row r="100" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="16">
-        <v>45284</v>
+        <v>45285</v>
       </c>
       <c r="B100" s="8"/>
       <c r="C100" s="6"/>
@@ -4000,7 +4002,7 @@
     </row>
     <row r="101" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="16">
-        <v>45285</v>
+        <v>45286</v>
       </c>
       <c r="B101" s="8"/>
       <c r="C101" s="6"/>
@@ -4028,7 +4030,7 @@
     </row>
     <row r="102" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="16">
-        <v>45286</v>
+        <v>45287</v>
       </c>
       <c r="B102" s="8"/>
       <c r="C102" s="6"/>
@@ -4056,7 +4058,7 @@
     </row>
     <row r="103" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="16">
-        <v>45287</v>
+        <v>45288</v>
       </c>
       <c r="B103" s="8"/>
       <c r="C103" s="6"/>
@@ -4084,7 +4086,7 @@
     </row>
     <row r="104" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="16">
-        <v>45288</v>
+        <v>45289</v>
       </c>
       <c r="B104" s="8"/>
       <c r="C104" s="6"/>
@@ -4112,7 +4114,7 @@
     </row>
     <row r="105" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="16">
-        <v>45289</v>
+        <v>45290</v>
       </c>
       <c r="B105" s="8"/>
       <c r="C105" s="6"/>
@@ -4140,7 +4142,7 @@
     </row>
     <row r="106" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="16">
-        <v>45290</v>
+        <v>45291</v>
       </c>
       <c r="B106" s="8"/>
       <c r="C106" s="6"/>
@@ -4168,7 +4170,7 @@
     </row>
     <row r="107" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="16">
-        <v>45291</v>
+        <v>45292</v>
       </c>
       <c r="B107" s="8"/>
       <c r="C107" s="6"/>
@@ -4196,7 +4198,7 @@
     </row>
     <row r="108" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="16">
-        <v>45292</v>
+        <v>45293</v>
       </c>
       <c r="B108" s="8"/>
       <c r="C108" s="6"/>
@@ -4224,7 +4226,7 @@
     </row>
     <row r="109" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="16">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="B109" s="8"/>
       <c r="C109" s="6"/>
@@ -4252,7 +4254,7 @@
     </row>
     <row r="110" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="16">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B110" s="8"/>
       <c r="C110" s="6"/>
@@ -4280,7 +4282,7 @@
     </row>
     <row r="111" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="16">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B111" s="8"/>
       <c r="C111" s="6"/>
@@ -4308,7 +4310,7 @@
     </row>
     <row r="112" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="16">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B112" s="8"/>
       <c r="C112" s="6"/>
@@ -4336,7 +4338,7 @@
     </row>
     <row r="113" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="16">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="B113" s="8"/>
       <c r="C113" s="6"/>
@@ -4364,7 +4366,7 @@
     </row>
     <row r="114" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="16">
-        <v>45298</v>
+        <v>45301</v>
       </c>
       <c r="B114" s="8"/>
       <c r="C114" s="6"/>
@@ -4392,7 +4394,7 @@
     </row>
     <row r="115" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="16">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="B115" s="8"/>
       <c r="C115" s="6"/>
@@ -4420,7 +4422,7 @@
     </row>
     <row r="116" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="16">
-        <v>45302</v>
+        <v>45303</v>
       </c>
       <c r="B116" s="8"/>
       <c r="C116" s="6"/>
@@ -4448,7 +4450,7 @@
     </row>
     <row r="117" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="16">
-        <v>45303</v>
+        <v>45304</v>
       </c>
       <c r="B117" s="8"/>
       <c r="C117" s="6"/>
@@ -4474,107 +4476,115 @@
       <c r="W117" s="3"/>
       <c r="X117" s="3"/>
     </row>
-    <row r="118" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="16">
-        <v>45304</v>
-      </c>
-      <c r="B118" s="8"/>
-      <c r="C118" s="6"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
-      <c r="I118" s="3"/>
-      <c r="J118" s="3"/>
-      <c r="K118" s="3"/>
-      <c r="L118" s="3"/>
-      <c r="M118" s="3"/>
-      <c r="N118" s="3"/>
-      <c r="O118" s="3"/>
-      <c r="P118" s="3"/>
-      <c r="Q118" s="3"/>
-      <c r="R118" s="3"/>
-      <c r="S118" s="3"/>
-      <c r="T118" s="3"/>
-      <c r="U118" s="3"/>
-      <c r="V118" s="3"/>
-      <c r="W118" s="3"/>
-      <c r="X118" s="3"/>
-    </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A119" s="17">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A118" s="17">
         <v>45305</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="B118" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C119" s="7">
+      <c r="C118" s="7">
         <v>4</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D118" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E118" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E119" s="5" t="s">
+      <c r="F118" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="F119" s="5" t="s">
+      <c r="G118" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="G119" s="5" t="s">
+    </row>
+    <row r="119" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="16">
+        <v>45306</v>
+      </c>
+      <c r="B119" s="8"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
+      <c r="K119" s="3"/>
+      <c r="L119" s="3"/>
+      <c r="M119" s="3"/>
+      <c r="N119" s="3"/>
+      <c r="O119" s="3"/>
+      <c r="P119" s="3"/>
+      <c r="Q119" s="3"/>
+      <c r="R119" s="3"/>
+      <c r="S119" s="3"/>
+      <c r="T119" s="3"/>
+      <c r="U119" s="3"/>
+      <c r="V119" s="3"/>
+      <c r="W119" s="3"/>
+      <c r="X119" s="3"/>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A120" s="17">
+        <v>45307</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" s="7">
+        <v>4</v>
+      </c>
+      <c r="D120" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="120" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="16">
-        <v>45306</v>
-      </c>
-      <c r="B120" s="8"/>
-      <c r="C120" s="6"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
-      <c r="I120" s="3"/>
-      <c r="J120" s="3"/>
-      <c r="K120" s="3"/>
-      <c r="L120" s="3"/>
-      <c r="M120" s="3"/>
-      <c r="N120" s="3"/>
-      <c r="O120" s="3"/>
-      <c r="P120" s="3"/>
-      <c r="Q120" s="3"/>
-      <c r="R120" s="3"/>
-      <c r="S120" s="3"/>
-      <c r="T120" s="3"/>
-      <c r="U120" s="3"/>
-      <c r="V120" s="3"/>
-      <c r="W120" s="3"/>
-      <c r="X120" s="3"/>
-    </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A121" s="17">
-        <v>45307</v>
-      </c>
-      <c r="B121" s="10" t="s">
+    <row r="121" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="16">
+        <v>45308</v>
+      </c>
+      <c r="B121" s="8"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="3"/>
+      <c r="M121" s="3"/>
+      <c r="N121" s="3"/>
+      <c r="O121" s="3"/>
+      <c r="P121" s="3"/>
+      <c r="Q121" s="3"/>
+      <c r="R121" s="3"/>
+      <c r="S121" s="3"/>
+      <c r="T121" s="3"/>
+      <c r="U121" s="3"/>
+      <c r="V121" s="3"/>
+      <c r="W121" s="3"/>
+      <c r="X121" s="3"/>
+    </row>
+    <row r="122" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="17">
+        <v>45309</v>
+      </c>
+      <c r="B122" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C121" s="7">
-        <v>4</v>
-      </c>
-      <c r="D121" s="5" t="s">
+      <c r="C122" s="7">
+        <v>5</v>
+      </c>
+      <c r="D122" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="122" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="16">
-        <v>45308</v>
-      </c>
-      <c r="B122" s="8"/>
-      <c r="C122" s="6"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
+      <c r="E122" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
@@ -4595,81 +4605,73 @@
       <c r="W122" s="3"/>
       <c r="X122" s="3"/>
     </row>
-    <row r="123" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A123" s="17">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C123" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E123" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F123" s="3"/>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
-      <c r="I123" s="3"/>
-      <c r="J123" s="3"/>
-      <c r="K123" s="3"/>
-      <c r="L123" s="3"/>
-      <c r="M123" s="3"/>
-      <c r="N123" s="3"/>
-      <c r="O123" s="3"/>
-      <c r="P123" s="3"/>
-      <c r="Q123" s="3"/>
-      <c r="R123" s="3"/>
-      <c r="S123" s="3"/>
-      <c r="T123" s="3"/>
-      <c r="U123" s="3"/>
-      <c r="V123" s="3"/>
-      <c r="W123" s="3"/>
-      <c r="X123" s="3"/>
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A124" s="17">
-        <v>45310</v>
-      </c>
-      <c r="B124" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C124" s="7">
-        <v>2</v>
-      </c>
-      <c r="D124" s="5" t="s">
+      <c r="A124" s="16">
+        <v>45311</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A125" s="17">
+        <v>45312</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125" s="7">
+        <v>6</v>
+      </c>
+      <c r="D125" s="5" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A125" s="16">
-        <v>45311</v>
-      </c>
-    </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A126" s="17">
-        <v>45312</v>
-      </c>
-      <c r="B126" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C126" s="7">
-        <v>6</v>
-      </c>
-      <c r="D126" s="5" t="s">
+      <c r="E125" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E126" s="5" t="s">
-        <v>169</v>
-      </c>
+    </row>
+    <row r="126" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="16">
+        <v>45313</v>
+      </c>
+      <c r="B126" s="8"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3"/>
+      <c r="K126" s="3"/>
+      <c r="L126" s="3"/>
+      <c r="M126" s="3"/>
+      <c r="N126" s="3"/>
+      <c r="O126" s="3"/>
+      <c r="P126" s="3"/>
+      <c r="Q126" s="3"/>
+      <c r="R126" s="3"/>
+      <c r="S126" s="3"/>
+      <c r="T126" s="3"/>
+      <c r="U126" s="3"/>
+      <c r="V126" s="3"/>
+      <c r="W126" s="3"/>
+      <c r="X126" s="3"/>
     </row>
     <row r="127" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="16">
-        <v>45313</v>
+        <v>45314</v>
       </c>
       <c r="B127" s="8"/>
       <c r="C127" s="6"/>
@@ -4697,7 +4699,7 @@
     </row>
     <row r="128" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="16">
-        <v>45314</v>
+        <v>45315</v>
       </c>
       <c r="B128" s="8"/>
       <c r="C128" s="6"/>
@@ -4725,7 +4727,7 @@
     </row>
     <row r="129" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="16">
-        <v>45315</v>
+        <v>45316</v>
       </c>
       <c r="B129" s="8"/>
       <c r="C129" s="6"/>
@@ -4753,7 +4755,7 @@
     </row>
     <row r="130" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="16">
-        <v>45316</v>
+        <v>45317</v>
       </c>
       <c r="B130" s="8"/>
       <c r="C130" s="6"/>
@@ -4781,7 +4783,7 @@
     </row>
     <row r="131" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="16">
-        <v>45317</v>
+        <v>45318</v>
       </c>
       <c r="B131" s="8"/>
       <c r="C131" s="6"/>
@@ -4809,7 +4811,7 @@
     </row>
     <row r="132" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="16">
-        <v>45318</v>
+        <v>45319</v>
       </c>
       <c r="B132" s="8"/>
       <c r="C132" s="6"/>
@@ -4837,7 +4839,7 @@
     </row>
     <row r="133" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="16">
-        <v>45319</v>
+        <v>45320</v>
       </c>
       <c r="B133" s="8"/>
       <c r="C133" s="6"/>
@@ -4865,7 +4867,7 @@
     </row>
     <row r="134" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="16">
-        <v>45320</v>
+        <v>45321</v>
       </c>
       <c r="B134" s="8"/>
       <c r="C134" s="6"/>
@@ -4891,82 +4893,82 @@
       <c r="W134" s="3"/>
       <c r="X134" s="3"/>
     </row>
-    <row r="135" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="16">
-        <v>45321</v>
-      </c>
-      <c r="B135" s="8"/>
-      <c r="C135" s="6"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
-      <c r="G135" s="3"/>
-      <c r="H135" s="3"/>
-      <c r="I135" s="3"/>
-      <c r="J135" s="3"/>
-      <c r="K135" s="3"/>
-      <c r="L135" s="3"/>
-      <c r="M135" s="3"/>
-      <c r="N135" s="3"/>
-      <c r="O135" s="3"/>
-      <c r="P135" s="3"/>
-      <c r="Q135" s="3"/>
-      <c r="R135" s="3"/>
-      <c r="S135" s="3"/>
-      <c r="T135" s="3"/>
-      <c r="U135" s="3"/>
-      <c r="V135" s="3"/>
-      <c r="W135" s="3"/>
-      <c r="X135" s="3"/>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A135" s="17">
+        <v>45322</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C135" s="7">
+        <v>3</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" s="17">
         <v>45322</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C136" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E136" s="5" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" s="17">
-        <v>45322</v>
+        <v>45323</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C137" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A138" s="17">
-        <v>45323</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C138" s="7">
-        <v>1</v>
-      </c>
-      <c r="D138" s="5" t="s">
-        <v>173</v>
-      </c>
+    <row r="138" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="16">
+        <v>45324</v>
+      </c>
+      <c r="B138" s="8"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="3"/>
+      <c r="J138" s="3"/>
+      <c r="K138" s="3"/>
+      <c r="L138" s="3"/>
+      <c r="M138" s="3"/>
+      <c r="N138" s="3"/>
+      <c r="O138" s="3"/>
+      <c r="P138" s="3"/>
+      <c r="Q138" s="3"/>
+      <c r="R138" s="3"/>
+      <c r="S138" s="3"/>
+      <c r="T138" s="3"/>
+      <c r="U138" s="3"/>
+      <c r="V138" s="3"/>
+      <c r="W138" s="3"/>
+      <c r="X138" s="3"/>
     </row>
     <row r="139" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="16">
-        <v>45324</v>
+        <v>45325</v>
       </c>
       <c r="B139" s="8"/>
       <c r="C139" s="6"/>
@@ -4994,7 +4996,7 @@
     </row>
     <row r="140" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="16">
-        <v>45325</v>
+        <v>45326</v>
       </c>
       <c r="B140" s="8"/>
       <c r="C140" s="6"/>
@@ -5022,7 +5024,7 @@
     </row>
     <row r="141" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="16">
-        <v>45326</v>
+        <v>45327</v>
       </c>
       <c r="B141" s="8"/>
       <c r="C141" s="6"/>
@@ -5050,7 +5052,7 @@
     </row>
     <row r="142" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="16">
-        <v>45327</v>
+        <v>45328</v>
       </c>
       <c r="B142" s="8"/>
       <c r="C142" s="6"/>
@@ -5078,7 +5080,7 @@
     </row>
     <row r="143" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="16">
-        <v>45328</v>
+        <v>45329</v>
       </c>
       <c r="B143" s="8"/>
       <c r="C143" s="6"/>
@@ -5106,7 +5108,7 @@
     </row>
     <row r="144" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="16">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="B144" s="8"/>
       <c r="C144" s="6"/>
@@ -5134,7 +5136,7 @@
     </row>
     <row r="145" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="16">
-        <v>45330</v>
+        <v>45331</v>
       </c>
       <c r="B145" s="8"/>
       <c r="C145" s="6"/>
@@ -5162,7 +5164,7 @@
     </row>
     <row r="146" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="16">
-        <v>45331</v>
+        <v>45332</v>
       </c>
       <c r="B146" s="8"/>
       <c r="C146" s="6"/>
@@ -5190,7 +5192,7 @@
     </row>
     <row r="147" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="16">
-        <v>45332</v>
+        <v>45333</v>
       </c>
       <c r="B147" s="8"/>
       <c r="C147" s="6"/>
@@ -5218,7 +5220,7 @@
     </row>
     <row r="148" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="16">
-        <v>45333</v>
+        <v>45334</v>
       </c>
       <c r="B148" s="8"/>
       <c r="C148" s="6"/>
@@ -5246,7 +5248,7 @@
     </row>
     <row r="149" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="16">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B149" s="8"/>
       <c r="C149" s="6"/>
@@ -5274,7 +5276,7 @@
     </row>
     <row r="150" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="16">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B150" s="8"/>
       <c r="C150" s="6"/>
@@ -5302,7 +5304,7 @@
     </row>
     <row r="151" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="16">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B151" s="8"/>
       <c r="C151" s="6"/>
@@ -5330,7 +5332,7 @@
     </row>
     <row r="152" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="16">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B152" s="8"/>
       <c r="C152" s="6"/>
@@ -5358,7 +5360,7 @@
     </row>
     <row r="153" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="16">
-        <v>45338</v>
+        <v>45339</v>
       </c>
       <c r="B153" s="8"/>
       <c r="C153" s="6"/>
@@ -5386,7 +5388,7 @@
     </row>
     <row r="154" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="16">
-        <v>45339</v>
+        <v>45340</v>
       </c>
       <c r="B154" s="8"/>
       <c r="C154" s="6"/>
@@ -5414,7 +5416,7 @@
     </row>
     <row r="155" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="16">
-        <v>45340</v>
+        <v>45341</v>
       </c>
       <c r="B155" s="8"/>
       <c r="C155" s="6"/>
@@ -5442,7 +5444,7 @@
     </row>
     <row r="156" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="16">
-        <v>45341</v>
+        <v>45342</v>
       </c>
       <c r="B156" s="8"/>
       <c r="C156" s="6"/>
@@ -5470,7 +5472,7 @@
     </row>
     <row r="157" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="16">
-        <v>45342</v>
+        <v>45343</v>
       </c>
       <c r="B157" s="8"/>
       <c r="C157" s="6"/>
@@ -5498,7 +5500,7 @@
     </row>
     <row r="158" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="16">
-        <v>45343</v>
+        <v>45344</v>
       </c>
       <c r="B158" s="8"/>
       <c r="C158" s="6"/>
@@ -5526,7 +5528,7 @@
     </row>
     <row r="159" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="16">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B159" s="8"/>
       <c r="C159" s="6"/>
@@ -5554,7 +5556,7 @@
     </row>
     <row r="160" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="16">
-        <v>45345</v>
+        <v>45346</v>
       </c>
       <c r="B160" s="8"/>
       <c r="C160" s="6"/>
@@ -5582,7 +5584,7 @@
     </row>
     <row r="161" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="16">
-        <v>45346</v>
+        <v>45347</v>
       </c>
       <c r="B161" s="8"/>
       <c r="C161" s="6"/>
@@ -5610,7 +5612,7 @@
     </row>
     <row r="162" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="16">
-        <v>45347</v>
+        <v>45348</v>
       </c>
       <c r="B162" s="8"/>
       <c r="C162" s="6"/>
@@ -5638,7 +5640,7 @@
     </row>
     <row r="163" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="16">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="B163" s="8"/>
       <c r="C163" s="6"/>
@@ -5666,7 +5668,7 @@
     </row>
     <row r="164" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="16">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B164" s="8"/>
       <c r="C164" s="6"/>
@@ -5694,7 +5696,7 @@
     </row>
     <row r="165" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="16">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B165" s="8"/>
       <c r="C165" s="6"/>
@@ -5722,7 +5724,7 @@
     </row>
     <row r="166" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="16">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B166" s="8"/>
       <c r="C166" s="6"/>
@@ -5749,13 +5751,21 @@
       <c r="X166" s="3"/>
     </row>
     <row r="167" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="16">
-        <v>45352</v>
-      </c>
-      <c r="B167" s="8"/>
-      <c r="C167" s="6"/>
-      <c r="D167" s="3"/>
-      <c r="E167" s="3"/>
+      <c r="A167" s="17">
+        <v>45353</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C167" s="7">
+        <v>2</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
@@ -5776,69 +5786,50 @@
       <c r="W167" s="3"/>
       <c r="X167" s="3"/>
     </row>
-    <row r="168" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A168" s="17">
-        <v>45353</v>
-      </c>
-      <c r="B168" s="10" t="s">
-        <v>14</v>
+        <v>45354</v>
+      </c>
+      <c r="B168" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="C168" s="7">
         <v>2</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F168" s="3"/>
-      <c r="G168" s="3"/>
-      <c r="H168" s="3"/>
-      <c r="I168" s="3"/>
-      <c r="J168" s="3"/>
-      <c r="K168" s="3"/>
-      <c r="L168" s="3"/>
-      <c r="M168" s="3"/>
-      <c r="N168" s="3"/>
-      <c r="O168" s="3"/>
-      <c r="P168" s="3"/>
-      <c r="Q168" s="3"/>
-      <c r="R168" s="3"/>
-      <c r="S168" s="3"/>
-      <c r="T168" s="3"/>
-      <c r="U168" s="3"/>
-      <c r="V168" s="3"/>
-      <c r="W168" s="3"/>
-      <c r="X168" s="3"/>
+        <v>176</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G168" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H168" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I168" s="5" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="169" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A169" s="17">
-        <v>45354</v>
-      </c>
-      <c r="B169" s="13" t="s">
-        <v>44</v>
+      <c r="A169" s="18">
+        <v>45355</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="C169" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="F169" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="G169" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H169" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="I169" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="170" spans="1:24" x14ac:dyDescent="0.2">
@@ -5846,35 +5837,46 @@
         <v>45355</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C170" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E170" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A171" s="18">
-        <v>45355</v>
-      </c>
-      <c r="B171" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C171" s="7">
-        <v>1</v>
-      </c>
-      <c r="D171" s="5" t="s">
-        <v>184</v>
-      </c>
+    <row r="171" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="16">
+        <v>45356</v>
+      </c>
+      <c r="B171" s="8"/>
+      <c r="C171" s="6"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3"/>
+      <c r="I171" s="3"/>
+      <c r="J171" s="3"/>
+      <c r="K171" s="3"/>
+      <c r="L171" s="3"/>
+      <c r="M171" s="3"/>
+      <c r="N171" s="3"/>
+      <c r="O171" s="3"/>
+      <c r="P171" s="3"/>
+      <c r="Q171" s="3"/>
+      <c r="R171" s="3"/>
+      <c r="S171" s="3"/>
+      <c r="T171" s="3"/>
+      <c r="U171" s="3"/>
+      <c r="V171" s="3"/>
+      <c r="W171" s="3"/>
+      <c r="X171" s="3"/>
     </row>
     <row r="172" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="16">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="B172" s="8"/>
       <c r="C172" s="6"/>
@@ -5902,7 +5904,7 @@
     </row>
     <row r="173" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="16">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B173" s="8"/>
       <c r="C173" s="6"/>
@@ -5930,7 +5932,7 @@
     </row>
     <row r="174" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="16">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="B174" s="8"/>
       <c r="C174" s="6"/>
@@ -5958,7 +5960,7 @@
     </row>
     <row r="175" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="16">
-        <v>45359</v>
+        <v>45360</v>
       </c>
       <c r="B175" s="8"/>
       <c r="C175" s="6"/>
@@ -5986,7 +5988,7 @@
     </row>
     <row r="176" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="16">
-        <v>45360</v>
+        <v>45361</v>
       </c>
       <c r="B176" s="8"/>
       <c r="C176" s="6"/>
@@ -6014,7 +6016,7 @@
     </row>
     <row r="177" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="16">
-        <v>45361</v>
+        <v>45362</v>
       </c>
       <c r="B177" s="8"/>
       <c r="C177" s="6"/>
@@ -6042,7 +6044,7 @@
     </row>
     <row r="178" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="16">
-        <v>45362</v>
+        <v>45363</v>
       </c>
       <c r="B178" s="8"/>
       <c r="C178" s="6"/>
@@ -6070,7 +6072,7 @@
     </row>
     <row r="179" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="16">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B179" s="8"/>
       <c r="C179" s="6"/>
@@ -6098,7 +6100,7 @@
     </row>
     <row r="180" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="16">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B180" s="8"/>
       <c r="C180" s="6"/>
@@ -6124,9 +6126,9 @@
       <c r="W180" s="3"/>
       <c r="X180" s="3"/>
     </row>
-    <row r="181" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="16">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B181" s="8"/>
       <c r="C181" s="6"/>
@@ -6154,7 +6156,7 @@
     </row>
     <row r="182" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="16">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B182" s="8"/>
       <c r="C182" s="6"/>
@@ -6180,51 +6182,51 @@
       <c r="W182" s="3"/>
       <c r="X182" s="3"/>
     </row>
-    <row r="183" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="16">
-        <v>45367</v>
-      </c>
-      <c r="B183" s="8"/>
-      <c r="C183" s="6"/>
-      <c r="D183" s="3"/>
-      <c r="E183" s="3"/>
-      <c r="F183" s="3"/>
-      <c r="G183" s="3"/>
-      <c r="H183" s="3"/>
-      <c r="I183" s="3"/>
-      <c r="J183" s="3"/>
-      <c r="K183" s="3"/>
-      <c r="L183" s="3"/>
-      <c r="M183" s="3"/>
-      <c r="N183" s="3"/>
-      <c r="O183" s="3"/>
-      <c r="P183" s="3"/>
-      <c r="Q183" s="3"/>
-      <c r="R183" s="3"/>
-      <c r="S183" s="3"/>
-      <c r="T183" s="3"/>
-      <c r="U183" s="3"/>
-      <c r="V183" s="3"/>
-      <c r="W183" s="3"/>
-      <c r="X183" s="3"/>
-    </row>
-    <row r="184" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="17">
+    <row r="183" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="17">
         <v>45368</v>
       </c>
-      <c r="B184" s="10" t="s">
+      <c r="B183" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C184" s="7">
+      <c r="C183" s="7">
         <v>3</v>
       </c>
-      <c r="D184" s="5" t="s">
-        <v>185</v>
-      </c>
+      <c r="D183" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="184" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="16">
+        <v>45369</v>
+      </c>
+      <c r="B184" s="8"/>
+      <c r="C184" s="6"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
+      <c r="F184" s="3"/>
+      <c r="G184" s="3"/>
+      <c r="H184" s="3"/>
+      <c r="I184" s="3"/>
+      <c r="J184" s="3"/>
+      <c r="K184" s="3"/>
+      <c r="L184" s="3"/>
+      <c r="M184" s="3"/>
+      <c r="N184" s="3"/>
+      <c r="O184" s="3"/>
+      <c r="P184" s="3"/>
+      <c r="Q184" s="3"/>
+      <c r="R184" s="3"/>
+      <c r="S184" s="3"/>
+      <c r="T184" s="3"/>
+      <c r="U184" s="3"/>
+      <c r="V184" s="3"/>
+      <c r="W184" s="3"/>
+      <c r="X184" s="3"/>
     </row>
     <row r="185" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="16">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B185" s="8"/>
       <c r="C185" s="6"/>
@@ -6252,7 +6254,7 @@
     </row>
     <row r="186" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="16">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B186" s="8"/>
       <c r="C186" s="6"/>
@@ -6280,7 +6282,7 @@
     </row>
     <row r="187" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="16">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B187" s="8"/>
       <c r="C187" s="6"/>
@@ -6308,7 +6310,7 @@
     </row>
     <row r="188" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="16">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B188" s="8"/>
       <c r="C188" s="6"/>
@@ -6336,7 +6338,7 @@
     </row>
     <row r="189" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="16">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B189" s="8"/>
       <c r="C189" s="6"/>
@@ -6364,7 +6366,7 @@
     </row>
     <row r="190" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="16">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B190" s="8"/>
       <c r="C190" s="6"/>
@@ -6392,7 +6394,7 @@
     </row>
     <row r="191" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="16">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B191" s="8"/>
       <c r="C191" s="6"/>
@@ -6420,7 +6422,7 @@
     </row>
     <row r="192" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="16">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B192" s="8"/>
       <c r="C192" s="6"/>
@@ -6448,7 +6450,7 @@
     </row>
     <row r="193" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="16">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B193" s="8"/>
       <c r="C193" s="6"/>
@@ -6476,7 +6478,7 @@
     </row>
     <row r="194" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="16">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B194" s="8"/>
       <c r="C194" s="6"/>
@@ -6504,7 +6506,7 @@
     </row>
     <row r="195" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="16">
-        <v>45379</v>
+        <v>45380</v>
       </c>
       <c r="B195" s="8"/>
       <c r="C195" s="6"/>
@@ -6532,7 +6534,7 @@
     </row>
     <row r="196" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="16">
-        <v>45380</v>
+        <v>45381</v>
       </c>
       <c r="B196" s="8"/>
       <c r="C196" s="6"/>
@@ -6560,7 +6562,7 @@
     </row>
     <row r="197" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="16">
-        <v>45381</v>
+        <v>45382</v>
       </c>
       <c r="B197" s="8"/>
       <c r="C197" s="6"/>
@@ -6588,7 +6590,7 @@
     </row>
     <row r="198" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="16">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B198" s="8"/>
       <c r="C198" s="6"/>
@@ -6616,7 +6618,7 @@
     </row>
     <row r="199" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="16">
-        <v>45383</v>
+        <v>45384</v>
       </c>
       <c r="B199" s="8"/>
       <c r="C199" s="6"/>
@@ -6642,66 +6644,66 @@
       <c r="W199" s="3"/>
       <c r="X199" s="3"/>
     </row>
-    <row r="200" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="16">
-        <v>45384</v>
-      </c>
-      <c r="B200" s="8"/>
-      <c r="C200" s="6"/>
-      <c r="D200" s="3"/>
-      <c r="E200" s="3"/>
-      <c r="F200" s="3"/>
-      <c r="G200" s="3"/>
-      <c r="H200" s="3"/>
-      <c r="I200" s="3"/>
-      <c r="J200" s="3"/>
-      <c r="K200" s="3"/>
-      <c r="L200" s="3"/>
-      <c r="M200" s="3"/>
-      <c r="N200" s="3"/>
-      <c r="O200" s="3"/>
-      <c r="P200" s="3"/>
-      <c r="Q200" s="3"/>
-      <c r="R200" s="3"/>
-      <c r="S200" s="3"/>
-      <c r="T200" s="3"/>
-      <c r="U200" s="3"/>
-      <c r="V200" s="3"/>
-      <c r="W200" s="3"/>
-      <c r="X200" s="3"/>
-    </row>
-    <row r="201" spans="1:24" ht="159" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="17">
+    <row r="200" spans="1:24" ht="159" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="17">
         <v>45385</v>
       </c>
-      <c r="B201" s="10" t="s">
+      <c r="B200" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C201" s="7">
+      <c r="C200" s="7">
         <v>3</v>
       </c>
-      <c r="D201" s="5" t="s">
+      <c r="D200" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E200" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E201" s="5" t="s">
+      <c r="F200" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="F201" s="5" t="s">
+      <c r="G200" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="G201" s="5" t="s">
+      <c r="H200" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="H201" s="5" t="s">
+      <c r="I200" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="I201" s="5" t="s">
-        <v>191</v>
-      </c>
+    </row>
+    <row r="201" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="16">
+        <v>45386</v>
+      </c>
+      <c r="B201" s="8"/>
+      <c r="C201" s="6"/>
+      <c r="D201" s="3"/>
+      <c r="E201" s="3"/>
+      <c r="F201" s="3"/>
+      <c r="G201" s="3"/>
+      <c r="H201" s="3"/>
+      <c r="I201" s="3"/>
+      <c r="J201" s="3"/>
+      <c r="K201" s="3"/>
+      <c r="L201" s="3"/>
+      <c r="M201" s="3"/>
+      <c r="N201" s="3"/>
+      <c r="O201" s="3"/>
+      <c r="P201" s="3"/>
+      <c r="Q201" s="3"/>
+      <c r="R201" s="3"/>
+      <c r="S201" s="3"/>
+      <c r="T201" s="3"/>
+      <c r="U201" s="3"/>
+      <c r="V201" s="3"/>
+      <c r="W201" s="3"/>
+      <c r="X201" s="3"/>
     </row>
     <row r="202" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="16">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B202" s="8"/>
       <c r="C202" s="6"/>
@@ -6729,7 +6731,7 @@
     </row>
     <row r="203" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="16">
-        <v>45387</v>
+        <v>45388</v>
       </c>
       <c r="B203" s="8"/>
       <c r="C203" s="6"/>
@@ -6757,7 +6759,7 @@
     </row>
     <row r="204" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="16">
-        <v>45388</v>
+        <v>45389</v>
       </c>
       <c r="B204" s="8"/>
       <c r="C204" s="6"/>
@@ -6785,7 +6787,7 @@
     </row>
     <row r="205" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="16">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="B205" s="8"/>
       <c r="C205" s="6"/>
@@ -6813,7 +6815,7 @@
     </row>
     <row r="206" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="16">
-        <v>45390</v>
+        <v>45391</v>
       </c>
       <c r="B206" s="8"/>
       <c r="C206" s="6"/>
@@ -6841,7 +6843,7 @@
     </row>
     <row r="207" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="16">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B207" s="8"/>
       <c r="C207" s="6"/>
@@ -6869,7 +6871,7 @@
     </row>
     <row r="208" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="16">
-        <v>45392</v>
+        <v>45393</v>
       </c>
       <c r="B208" s="8"/>
       <c r="C208" s="6"/>
@@ -6897,7 +6899,7 @@
     </row>
     <row r="209" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="16">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B209" s="8"/>
       <c r="C209" s="6"/>
@@ -6925,7 +6927,7 @@
     </row>
     <row r="210" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="16">
-        <v>45394</v>
+        <v>45395</v>
       </c>
       <c r="B210" s="8"/>
       <c r="C210" s="6"/>
@@ -6953,7 +6955,7 @@
     </row>
     <row r="211" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="16">
-        <v>45395</v>
+        <v>45396</v>
       </c>
       <c r="B211" s="8"/>
       <c r="C211" s="6"/>
@@ -6981,7 +6983,7 @@
     </row>
     <row r="212" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="16">
-        <v>45396</v>
+        <v>45397</v>
       </c>
       <c r="B212" s="8"/>
       <c r="C212" s="6"/>
@@ -7009,7 +7011,7 @@
     </row>
     <row r="213" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="16">
-        <v>45397</v>
+        <v>45398</v>
       </c>
       <c r="B213" s="8"/>
       <c r="C213" s="6"/>
@@ -7035,63 +7037,63 @@
       <c r="W213" s="3"/>
       <c r="X213" s="3"/>
     </row>
-    <row r="214" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="16">
-        <v>45398</v>
-      </c>
-      <c r="B214" s="8"/>
-      <c r="C214" s="6"/>
-      <c r="D214" s="3"/>
-      <c r="E214" s="3"/>
-      <c r="F214" s="3"/>
-      <c r="G214" s="3"/>
-      <c r="H214" s="3"/>
-      <c r="I214" s="3"/>
-      <c r="J214" s="3"/>
-      <c r="K214" s="3"/>
-      <c r="L214" s="3"/>
-      <c r="M214" s="3"/>
-      <c r="N214" s="3"/>
-      <c r="O214" s="3"/>
-      <c r="P214" s="3"/>
-      <c r="Q214" s="3"/>
-      <c r="R214" s="3"/>
-      <c r="S214" s="3"/>
-      <c r="T214" s="3"/>
-      <c r="U214" s="3"/>
-      <c r="V214" s="3"/>
-      <c r="W214" s="3"/>
-      <c r="X214" s="3"/>
-    </row>
-    <row r="215" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="17">
+    <row r="214" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="17">
         <v>45399</v>
       </c>
-      <c r="B215" s="10" t="s">
+      <c r="B214" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C215" s="7">
+      <c r="C214" s="7">
         <v>2</v>
       </c>
-      <c r="D215" s="5" t="s">
+      <c r="D214" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E214" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E215" s="5" t="s">
+      <c r="F214" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G214" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="F215" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="G215" s="5" t="s">
+      <c r="H214" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="H215" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="216" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="16">
+        <v>45400</v>
+      </c>
+      <c r="B215" s="8"/>
+      <c r="C215" s="6"/>
+      <c r="D215" s="3"/>
+      <c r="E215" s="3"/>
+      <c r="F215" s="3"/>
+      <c r="G215" s="3"/>
+      <c r="H215" s="3"/>
+      <c r="I215" s="3"/>
+      <c r="J215" s="3"/>
+      <c r="K215" s="3"/>
+      <c r="L215" s="3"/>
+      <c r="M215" s="3"/>
+      <c r="N215" s="3"/>
+      <c r="O215" s="3"/>
+      <c r="P215" s="3"/>
+      <c r="Q215" s="3"/>
+      <c r="R215" s="3"/>
+      <c r="S215" s="3"/>
+      <c r="T215" s="3"/>
+      <c r="U215" s="3"/>
+      <c r="V215" s="3"/>
+      <c r="W215" s="3"/>
+      <c r="X215" s="3"/>
+    </row>
+    <row r="216" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="16">
-        <v>45400</v>
+        <v>45401</v>
       </c>
       <c r="B216" s="8"/>
       <c r="C216" s="6"/>
@@ -7119,7 +7121,7 @@
     </row>
     <row r="217" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="16">
-        <v>45401</v>
+        <v>45402</v>
       </c>
       <c r="B217" s="8"/>
       <c r="C217" s="6"/>
@@ -7147,7 +7149,7 @@
     </row>
     <row r="218" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="16">
-        <v>45402</v>
+        <v>45403</v>
       </c>
       <c r="B218" s="8"/>
       <c r="C218" s="6"/>
@@ -7175,7 +7177,7 @@
     </row>
     <row r="219" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="16">
-        <v>45403</v>
+        <v>45404</v>
       </c>
       <c r="B219" s="8"/>
       <c r="C219" s="6"/>
@@ -7203,7 +7205,7 @@
     </row>
     <row r="220" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="16">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="B220" s="8"/>
       <c r="C220" s="6"/>
@@ -7231,7 +7233,7 @@
     </row>
     <row r="221" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="16">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="B221" s="8"/>
       <c r="C221" s="6"/>
@@ -7257,54 +7259,54 @@
       <c r="W221" s="3"/>
       <c r="X221" s="3"/>
     </row>
-    <row r="222" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="16">
-        <v>45406</v>
-      </c>
-      <c r="B222" s="8"/>
-      <c r="C222" s="6"/>
-      <c r="D222" s="3"/>
-      <c r="E222" s="3"/>
-      <c r="F222" s="3"/>
-      <c r="G222" s="3"/>
-      <c r="H222" s="3"/>
-      <c r="I222" s="3"/>
-      <c r="J222" s="3"/>
-      <c r="K222" s="3"/>
-      <c r="L222" s="3"/>
-      <c r="M222" s="3"/>
-      <c r="N222" s="3"/>
-      <c r="O222" s="3"/>
-      <c r="P222" s="3"/>
-      <c r="Q222" s="3"/>
-      <c r="R222" s="3"/>
-      <c r="S222" s="3"/>
-      <c r="T222" s="3"/>
-      <c r="U222" s="3"/>
-      <c r="V222" s="3"/>
-      <c r="W222" s="3"/>
-      <c r="X222" s="3"/>
-    </row>
-    <row r="223" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="17">
+    <row r="222" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="17">
         <v>45407</v>
       </c>
-      <c r="B223" s="10" t="s">
+      <c r="B222" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C223" s="7">
+      <c r="C222" s="7">
         <v>2</v>
       </c>
-      <c r="D223" s="5" t="s">
+      <c r="D222" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E222" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E223" s="5" t="s">
-        <v>198</v>
-      </c>
+    </row>
+    <row r="223" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="16">
+        <v>45408</v>
+      </c>
+      <c r="B223" s="8"/>
+      <c r="C223" s="6"/>
+      <c r="D223" s="3"/>
+      <c r="E223" s="3"/>
+      <c r="F223" s="3"/>
+      <c r="G223" s="3"/>
+      <c r="H223" s="3"/>
+      <c r="I223" s="3"/>
+      <c r="J223" s="3"/>
+      <c r="K223" s="3"/>
+      <c r="L223" s="3"/>
+      <c r="M223" s="3"/>
+      <c r="N223" s="3"/>
+      <c r="O223" s="3"/>
+      <c r="P223" s="3"/>
+      <c r="Q223" s="3"/>
+      <c r="R223" s="3"/>
+      <c r="S223" s="3"/>
+      <c r="T223" s="3"/>
+      <c r="U223" s="3"/>
+      <c r="V223" s="3"/>
+      <c r="W223" s="3"/>
+      <c r="X223" s="3"/>
     </row>
     <row r="224" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="16">
-        <v>45408</v>
+        <v>45409</v>
       </c>
       <c r="B224" s="8"/>
       <c r="C224" s="6"/>
@@ -7332,7 +7334,7 @@
     </row>
     <row r="225" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="16">
-        <v>45409</v>
+        <v>45410</v>
       </c>
       <c r="B225" s="8"/>
       <c r="C225" s="6"/>
@@ -7360,7 +7362,7 @@
     </row>
     <row r="226" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="16">
-        <v>45410</v>
+        <v>45411</v>
       </c>
       <c r="B226" s="8"/>
       <c r="C226" s="6"/>
@@ -7388,7 +7390,7 @@
     </row>
     <row r="227" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="16">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="B227" s="8"/>
       <c r="C227" s="6"/>
@@ -7416,7 +7418,7 @@
     </row>
     <row r="228" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="16">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="B228" s="8"/>
       <c r="C228" s="6"/>
@@ -7444,7 +7446,7 @@
     </row>
     <row r="229" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="16">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="B229" s="8"/>
       <c r="C229" s="6"/>
@@ -7472,7 +7474,7 @@
     </row>
     <row r="230" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="16">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="B230" s="8"/>
       <c r="C230" s="6"/>
@@ -7500,7 +7502,7 @@
     </row>
     <row r="231" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="16">
-        <v>45415</v>
+        <v>45416</v>
       </c>
       <c r="B231" s="8"/>
       <c r="C231" s="6"/>
@@ -7528,7 +7530,7 @@
     </row>
     <row r="232" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="16">
-        <v>45416</v>
+        <v>45417</v>
       </c>
       <c r="B232" s="8"/>
       <c r="C232" s="6"/>
@@ -7556,7 +7558,7 @@
     </row>
     <row r="233" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="16">
-        <v>45417</v>
+        <v>45418</v>
       </c>
       <c r="B233" s="8"/>
       <c r="C233" s="6"/>
@@ -7584,7 +7586,7 @@
     </row>
     <row r="234" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="16">
-        <v>45418</v>
+        <v>45419</v>
       </c>
       <c r="B234" s="8"/>
       <c r="C234" s="6"/>
@@ -7610,63 +7612,63 @@
       <c r="W234" s="3"/>
       <c r="X234" s="3"/>
     </row>
-    <row r="235" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="16">
-        <v>45419</v>
-      </c>
-      <c r="B235" s="8"/>
-      <c r="C235" s="6"/>
-      <c r="D235" s="3"/>
-      <c r="E235" s="3"/>
-      <c r="F235" s="3"/>
-      <c r="G235" s="3"/>
-      <c r="H235" s="3"/>
-      <c r="I235" s="3"/>
-      <c r="J235" s="3"/>
-      <c r="K235" s="3"/>
-      <c r="L235" s="3"/>
-      <c r="M235" s="3"/>
-      <c r="N235" s="3"/>
-      <c r="O235" s="3"/>
-      <c r="P235" s="3"/>
-      <c r="Q235" s="3"/>
-      <c r="R235" s="3"/>
-      <c r="S235" s="3"/>
-      <c r="T235" s="3"/>
-      <c r="U235" s="3"/>
-      <c r="V235" s="3"/>
-      <c r="W235" s="3"/>
-      <c r="X235" s="3"/>
-    </row>
-    <row r="236" spans="1:24" ht="133.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="17">
+    <row r="235" spans="1:24" ht="133.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="17">
         <v>45420</v>
       </c>
-      <c r="B236" s="9" t="s">
+      <c r="B235" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C236" s="7">
+      <c r="C235" s="7">
         <v>2</v>
       </c>
-      <c r="D236" s="5" t="s">
+      <c r="D235" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E235" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="E236" s="5" t="s">
+      <c r="F235" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="F236" s="5" t="s">
+      <c r="G235" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="G236" s="5" t="s">
+      <c r="H235" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="H236" s="5" t="s">
-        <v>203</v>
-      </c>
+    </row>
+    <row r="236" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="16">
+        <v>45421</v>
+      </c>
+      <c r="B236" s="8"/>
+      <c r="C236" s="6"/>
+      <c r="D236" s="3"/>
+      <c r="E236" s="3"/>
+      <c r="F236" s="3"/>
+      <c r="G236" s="3"/>
+      <c r="H236" s="3"/>
+      <c r="I236" s="3"/>
+      <c r="J236" s="3"/>
+      <c r="K236" s="3"/>
+      <c r="L236" s="3"/>
+      <c r="M236" s="3"/>
+      <c r="N236" s="3"/>
+      <c r="O236" s="3"/>
+      <c r="P236" s="3"/>
+      <c r="Q236" s="3"/>
+      <c r="R236" s="3"/>
+      <c r="S236" s="3"/>
+      <c r="T236" s="3"/>
+      <c r="U236" s="3"/>
+      <c r="V236" s="3"/>
+      <c r="W236" s="3"/>
+      <c r="X236" s="3"/>
     </row>
     <row r="237" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="16">
-        <v>45421</v>
+        <v>45422</v>
       </c>
       <c r="B237" s="8"/>
       <c r="C237" s="6"/>
@@ -7694,7 +7696,7 @@
     </row>
     <row r="238" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="16">
-        <v>45422</v>
+        <v>45423</v>
       </c>
       <c r="B238" s="8"/>
       <c r="C238" s="6"/>
@@ -7722,7 +7724,7 @@
     </row>
     <row r="239" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="16">
-        <v>45423</v>
+        <v>45424</v>
       </c>
       <c r="B239" s="8"/>
       <c r="C239" s="6"/>
@@ -7748,60 +7750,60 @@
       <c r="W239" s="3"/>
       <c r="X239" s="3"/>
     </row>
-    <row r="240" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="16">
-        <v>45424</v>
-      </c>
-      <c r="B240" s="8"/>
-      <c r="C240" s="6"/>
-      <c r="D240" s="3"/>
-      <c r="E240" s="3"/>
-      <c r="F240" s="3"/>
-      <c r="G240" s="3"/>
-      <c r="H240" s="3"/>
-      <c r="I240" s="3"/>
-      <c r="J240" s="3"/>
-      <c r="K240" s="3"/>
-      <c r="L240" s="3"/>
-      <c r="M240" s="3"/>
-      <c r="N240" s="3"/>
-      <c r="O240" s="3"/>
-      <c r="P240" s="3"/>
-      <c r="Q240" s="3"/>
-      <c r="R240" s="3"/>
-      <c r="S240" s="3"/>
-      <c r="T240" s="3"/>
-      <c r="U240" s="3"/>
-      <c r="V240" s="3"/>
-      <c r="W240" s="3"/>
-      <c r="X240" s="3"/>
-    </row>
-    <row r="241" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="17">
+    <row r="240" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="17">
         <v>45425</v>
       </c>
-      <c r="B241" s="10" t="s">
+      <c r="B240" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C241" s="7">
+      <c r="C240" s="7">
         <v>2</v>
       </c>
-      <c r="D241" s="5" t="s">
+      <c r="D240" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E240" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="E241" s="5" t="s">
+      <c r="F240" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="F241" s="5" t="s">
+      <c r="G240" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="G241" s="5" t="s">
-        <v>207</v>
-      </c>
+    </row>
+    <row r="241" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="16">
+        <v>45426</v>
+      </c>
+      <c r="B241" s="8"/>
+      <c r="C241" s="6"/>
+      <c r="D241" s="3"/>
+      <c r="E241" s="3"/>
+      <c r="F241" s="3"/>
+      <c r="G241" s="3"/>
+      <c r="H241" s="3"/>
+      <c r="I241" s="3"/>
+      <c r="J241" s="3"/>
+      <c r="K241" s="3"/>
+      <c r="L241" s="3"/>
+      <c r="M241" s="3"/>
+      <c r="N241" s="3"/>
+      <c r="O241" s="3"/>
+      <c r="P241" s="3"/>
+      <c r="Q241" s="3"/>
+      <c r="R241" s="3"/>
+      <c r="S241" s="3"/>
+      <c r="T241" s="3"/>
+      <c r="U241" s="3"/>
+      <c r="V241" s="3"/>
+      <c r="W241" s="3"/>
+      <c r="X241" s="3"/>
     </row>
     <row r="242" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A242" s="16">
-        <v>45426</v>
+        <v>45427</v>
       </c>
       <c r="B242" s="8"/>
       <c r="C242" s="6"/>
@@ -7827,51 +7829,51 @@
       <c r="W242" s="3"/>
       <c r="X242" s="3"/>
     </row>
-    <row r="243" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="16">
-        <v>45427</v>
-      </c>
-      <c r="B243" s="8"/>
-      <c r="C243" s="6"/>
-      <c r="D243" s="3"/>
-      <c r="E243" s="3"/>
-      <c r="F243" s="3"/>
-      <c r="G243" s="3"/>
-      <c r="H243" s="3"/>
-      <c r="I243" s="3"/>
-      <c r="J243" s="3"/>
-      <c r="K243" s="3"/>
-      <c r="L243" s="3"/>
-      <c r="M243" s="3"/>
-      <c r="N243" s="3"/>
-      <c r="O243" s="3"/>
-      <c r="P243" s="3"/>
-      <c r="Q243" s="3"/>
-      <c r="R243" s="3"/>
-      <c r="S243" s="3"/>
-      <c r="T243" s="3"/>
-      <c r="U243" s="3"/>
-      <c r="V243" s="3"/>
-      <c r="W243" s="3"/>
-      <c r="X243" s="3"/>
-    </row>
-    <row r="244" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A244" s="17">
+    <row r="243" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A243" s="17">
         <v>45428</v>
       </c>
-      <c r="B244" s="10" t="s">
+      <c r="B243" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C244" s="7">
+      <c r="C243" s="7">
         <v>2</v>
       </c>
-      <c r="D244" s="5" t="s">
-        <v>208</v>
-      </c>
+      <c r="D243" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="244" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="16">
+        <v>45429</v>
+      </c>
+      <c r="B244" s="8"/>
+      <c r="C244" s="6"/>
+      <c r="D244" s="3"/>
+      <c r="E244" s="3"/>
+      <c r="F244" s="3"/>
+      <c r="G244" s="3"/>
+      <c r="H244" s="3"/>
+      <c r="I244" s="3"/>
+      <c r="J244" s="3"/>
+      <c r="K244" s="3"/>
+      <c r="L244" s="3"/>
+      <c r="M244" s="3"/>
+      <c r="N244" s="3"/>
+      <c r="O244" s="3"/>
+      <c r="P244" s="3"/>
+      <c r="Q244" s="3"/>
+      <c r="R244" s="3"/>
+      <c r="S244" s="3"/>
+      <c r="T244" s="3"/>
+      <c r="U244" s="3"/>
+      <c r="V244" s="3"/>
+      <c r="W244" s="3"/>
+      <c r="X244" s="3"/>
     </row>
     <row r="245" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245" s="16">
-        <v>45429</v>
+        <v>45430</v>
       </c>
       <c r="B245" s="8"/>
       <c r="C245" s="6"/>
@@ -7899,7 +7901,7 @@
     </row>
     <row r="246" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A246" s="16">
-        <v>45430</v>
+        <v>45431</v>
       </c>
       <c r="B246" s="8"/>
       <c r="C246" s="6"/>
@@ -7927,7 +7929,7 @@
     </row>
     <row r="247" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A247" s="16">
-        <v>45431</v>
+        <v>45432</v>
       </c>
       <c r="B247" s="8"/>
       <c r="C247" s="6"/>
@@ -7953,51 +7955,51 @@
       <c r="W247" s="3"/>
       <c r="X247" s="3"/>
     </row>
-    <row r="248" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="16">
-        <v>45432</v>
-      </c>
-      <c r="B248" s="8"/>
-      <c r="C248" s="6"/>
-      <c r="D248" s="3"/>
-      <c r="E248" s="3"/>
-      <c r="F248" s="3"/>
-      <c r="G248" s="3"/>
-      <c r="H248" s="3"/>
-      <c r="I248" s="3"/>
-      <c r="J248" s="3"/>
-      <c r="K248" s="3"/>
-      <c r="L248" s="3"/>
-      <c r="M248" s="3"/>
-      <c r="N248" s="3"/>
-      <c r="O248" s="3"/>
-      <c r="P248" s="3"/>
-      <c r="Q248" s="3"/>
-      <c r="R248" s="3"/>
-      <c r="S248" s="3"/>
-      <c r="T248" s="3"/>
-      <c r="U248" s="3"/>
-      <c r="V248" s="3"/>
-      <c r="W248" s="3"/>
-      <c r="X248" s="3"/>
-    </row>
-    <row r="249" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A249" s="17">
+    <row r="248" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A248" s="17">
         <v>45433</v>
       </c>
-      <c r="B249" s="10" t="s">
+      <c r="B248" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C249" s="7">
+      <c r="C248" s="7">
         <v>1</v>
       </c>
-      <c r="D249" s="5" t="s">
-        <v>209</v>
-      </c>
+      <c r="D248" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="249" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="16">
+        <v>45434</v>
+      </c>
+      <c r="B249" s="8"/>
+      <c r="C249" s="6"/>
+      <c r="D249" s="3"/>
+      <c r="E249" s="3"/>
+      <c r="F249" s="3"/>
+      <c r="G249" s="3"/>
+      <c r="H249" s="3"/>
+      <c r="I249" s="3"/>
+      <c r="J249" s="3"/>
+      <c r="K249" s="3"/>
+      <c r="L249" s="3"/>
+      <c r="M249" s="3"/>
+      <c r="N249" s="3"/>
+      <c r="O249" s="3"/>
+      <c r="P249" s="3"/>
+      <c r="Q249" s="3"/>
+      <c r="R249" s="3"/>
+      <c r="S249" s="3"/>
+      <c r="T249" s="3"/>
+      <c r="U249" s="3"/>
+      <c r="V249" s="3"/>
+      <c r="W249" s="3"/>
+      <c r="X249" s="3"/>
     </row>
     <row r="250" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A250" s="16">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="B250" s="8"/>
       <c r="C250" s="6"/>
@@ -8025,7 +8027,7 @@
     </row>
     <row r="251" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A251" s="16">
-        <v>45435</v>
+        <v>45436</v>
       </c>
       <c r="B251" s="8"/>
       <c r="C251" s="6"/>
@@ -8053,7 +8055,7 @@
     </row>
     <row r="252" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A252" s="16">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="B252" s="8"/>
       <c r="C252" s="6"/>
@@ -8081,7 +8083,7 @@
     </row>
     <row r="253" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253" s="16">
-        <v>45437</v>
+        <v>45438</v>
       </c>
       <c r="B253" s="8"/>
       <c r="C253" s="6"/>
@@ -8109,7 +8111,7 @@
     </row>
     <row r="254" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A254" s="16">
-        <v>45438</v>
+        <v>45439</v>
       </c>
       <c r="B254" s="8"/>
       <c r="C254" s="6"/>
@@ -8137,7 +8139,7 @@
     </row>
     <row r="255" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A255" s="16">
-        <v>45439</v>
+        <v>45440</v>
       </c>
       <c r="B255" s="8"/>
       <c r="C255" s="6"/>
@@ -8165,7 +8167,7 @@
     </row>
     <row r="256" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A256" s="16">
-        <v>45440</v>
+        <v>45441</v>
       </c>
       <c r="B256" s="8"/>
       <c r="C256" s="6"/>
@@ -8193,7 +8195,7 @@
     </row>
     <row r="257" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A257" s="16">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="B257" s="8"/>
       <c r="C257" s="6"/>
@@ -8221,7 +8223,7 @@
     </row>
     <row r="258" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A258" s="16">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="B258" s="8"/>
       <c r="C258" s="6"/>
@@ -8249,7 +8251,7 @@
     </row>
     <row r="259" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A259" s="16">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="B259" s="8"/>
       <c r="C259" s="6"/>
@@ -8275,40 +8277,26 @@
       <c r="W259" s="3"/>
       <c r="X259" s="3"/>
     </row>
-    <row r="260" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="16">
-        <v>45444</v>
-      </c>
-      <c r="B260" s="8"/>
-      <c r="C260" s="6"/>
-      <c r="D260" s="3"/>
-      <c r="E260" s="3"/>
-      <c r="F260" s="3"/>
-      <c r="G260" s="3"/>
-      <c r="H260" s="3"/>
-      <c r="I260" s="3"/>
-      <c r="J260" s="3"/>
-      <c r="K260" s="3"/>
-      <c r="L260" s="3"/>
-      <c r="M260" s="3"/>
-      <c r="N260" s="3"/>
-      <c r="O260" s="3"/>
-      <c r="P260" s="3"/>
-      <c r="Q260" s="3"/>
-      <c r="R260" s="3"/>
-      <c r="S260" s="3"/>
-      <c r="T260" s="3"/>
-      <c r="U260" s="3"/>
-      <c r="V260" s="3"/>
-      <c r="W260" s="3"/>
-      <c r="X260" s="3"/>
+    <row r="260" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A260" s="18">
+        <v>45445</v>
+      </c>
+      <c r="B260" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C260" s="7">
+        <v>1</v>
+      </c>
+      <c r="D260" s="5" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="261" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A261" s="18">
-        <v>45445</v>
+        <v>45446</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C261" s="7">
         <v>1</v>
@@ -8318,11 +8306,11 @@
       </c>
     </row>
     <row r="262" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A262" s="18">
-        <v>45446</v>
+      <c r="A262" s="17">
+        <v>45447</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C262" s="7">
         <v>1</v>
@@ -8336,7 +8324,7 @@
         <v>45447</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C263" s="7">
         <v>1</v>
@@ -8344,42 +8332,42 @@
       <c r="D263" s="5" t="s">
         <v>212</v>
       </c>
+      <c r="E263" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F263" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G263" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H263" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="I263" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="J263" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="K263" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="L263" s="5" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="264" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A264" s="17">
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C264" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E264" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="F264" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G264" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="H264" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="I264" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="J264" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="K264" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="L264" s="5" t="s">
         <v>221</v>
       </c>
     </row>
@@ -8388,7 +8376,7 @@
         <v>45448</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C265" s="7">
         <v>2</v>
@@ -8397,23 +8385,37 @@
         <v>222</v>
       </c>
     </row>
-    <row r="266" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A266" s="17">
-        <v>45448</v>
-      </c>
-      <c r="B266" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C266" s="7">
-        <v>2</v>
-      </c>
-      <c r="D266" s="5" t="s">
-        <v>223</v>
-      </c>
+    <row r="266" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="16">
+        <v>45449</v>
+      </c>
+      <c r="B266" s="8"/>
+      <c r="C266" s="6"/>
+      <c r="D266" s="3"/>
+      <c r="E266" s="3"/>
+      <c r="F266" s="3"/>
+      <c r="G266" s="3"/>
+      <c r="H266" s="3"/>
+      <c r="I266" s="3"/>
+      <c r="J266" s="3"/>
+      <c r="K266" s="3"/>
+      <c r="L266" s="3"/>
+      <c r="M266" s="3"/>
+      <c r="N266" s="3"/>
+      <c r="O266" s="3"/>
+      <c r="P266" s="3"/>
+      <c r="Q266" s="3"/>
+      <c r="R266" s="3"/>
+      <c r="S266" s="3"/>
+      <c r="T266" s="3"/>
+      <c r="U266" s="3"/>
+      <c r="V266" s="3"/>
+      <c r="W266" s="3"/>
+      <c r="X266" s="3"/>
     </row>
     <row r="267" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A267" s="16">
-        <v>45449</v>
+        <v>45450</v>
       </c>
       <c r="B267" s="8"/>
       <c r="C267" s="6"/>
@@ -8441,7 +8443,7 @@
     </row>
     <row r="268" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A268" s="16">
-        <v>45450</v>
+        <v>45451</v>
       </c>
       <c r="B268" s="8"/>
       <c r="C268" s="6"/>
@@ -8469,9 +8471,9 @@
     </row>
     <row r="269" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A269" s="16">
-        <v>45451</v>
-      </c>
-      <c r="B269" s="8"/>
+        <v>45452</v>
+      </c>
+      <c r="B269" s="14"/>
       <c r="C269" s="6"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -8497,7 +8499,7 @@
     </row>
     <row r="270" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A270" s="16">
-        <v>45452</v>
+        <v>45453</v>
       </c>
       <c r="B270" s="14"/>
       <c r="C270" s="6"/>
@@ -8525,9 +8527,9 @@
     </row>
     <row r="271" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A271" s="16">
-        <v>45453</v>
-      </c>
-      <c r="B271" s="14"/>
+        <v>45454</v>
+      </c>
+      <c r="B271" s="8"/>
       <c r="C271" s="6"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -8553,7 +8555,7 @@
     </row>
     <row r="272" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A272" s="16">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="B272" s="8"/>
       <c r="C272" s="6"/>
@@ -8579,51 +8581,51 @@
       <c r="W272" s="3"/>
       <c r="X272" s="3"/>
     </row>
-    <row r="273" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="16">
-        <v>45455</v>
-      </c>
-      <c r="B273" s="8"/>
-      <c r="C273" s="6"/>
-      <c r="D273" s="3"/>
-      <c r="E273" s="3"/>
-      <c r="F273" s="3"/>
-      <c r="G273" s="3"/>
-      <c r="H273" s="3"/>
-      <c r="I273" s="3"/>
-      <c r="J273" s="3"/>
-      <c r="K273" s="3"/>
-      <c r="L273" s="3"/>
-      <c r="M273" s="3"/>
-      <c r="N273" s="3"/>
-      <c r="O273" s="3"/>
-      <c r="P273" s="3"/>
-      <c r="Q273" s="3"/>
-      <c r="R273" s="3"/>
-      <c r="S273" s="3"/>
-      <c r="T273" s="3"/>
-      <c r="U273" s="3"/>
-      <c r="V273" s="3"/>
-      <c r="W273" s="3"/>
-      <c r="X273" s="3"/>
-    </row>
-    <row r="274" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A274" s="17">
+    <row r="273" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A273" s="17">
         <v>45456</v>
       </c>
-      <c r="B274" s="10" t="s">
+      <c r="B273" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C274" s="7">
+      <c r="C273" s="7">
         <v>1</v>
       </c>
-      <c r="D274" s="5" t="s">
-        <v>224</v>
-      </c>
+      <c r="D273" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="274" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="16">
+        <v>45457</v>
+      </c>
+      <c r="B274" s="8"/>
+      <c r="C274" s="6"/>
+      <c r="D274" s="3"/>
+      <c r="E274" s="3"/>
+      <c r="F274" s="3"/>
+      <c r="G274" s="3"/>
+      <c r="H274" s="3"/>
+      <c r="I274" s="3"/>
+      <c r="J274" s="3"/>
+      <c r="K274" s="3"/>
+      <c r="L274" s="3"/>
+      <c r="M274" s="3"/>
+      <c r="N274" s="3"/>
+      <c r="O274" s="3"/>
+      <c r="P274" s="3"/>
+      <c r="Q274" s="3"/>
+      <c r="R274" s="3"/>
+      <c r="S274" s="3"/>
+      <c r="T274" s="3"/>
+      <c r="U274" s="3"/>
+      <c r="V274" s="3"/>
+      <c r="W274" s="3"/>
+      <c r="X274" s="3"/>
     </row>
     <row r="275" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A275" s="16">
-        <v>45457</v>
+        <v>45458</v>
       </c>
       <c r="B275" s="8"/>
       <c r="C275" s="6"/>
@@ -8651,7 +8653,7 @@
     </row>
     <row r="276" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" s="16">
-        <v>45458</v>
+        <v>45459</v>
       </c>
       <c r="B276" s="8"/>
       <c r="C276" s="6"/>
@@ -8679,7 +8681,7 @@
     </row>
     <row r="277" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A277" s="16">
-        <v>45459</v>
+        <v>45460</v>
       </c>
       <c r="B277" s="8"/>
       <c r="C277" s="6"/>
@@ -8707,7 +8709,7 @@
     </row>
     <row r="278" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" s="16">
-        <v>45460</v>
+        <v>45461</v>
       </c>
       <c r="B278" s="8"/>
       <c r="C278" s="6"/>
@@ -8735,7 +8737,7 @@
     </row>
     <row r="279" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A279" s="16">
-        <v>45461</v>
+        <v>45462</v>
       </c>
       <c r="B279" s="8"/>
       <c r="C279" s="6"/>
@@ -8763,7 +8765,7 @@
     </row>
     <row r="280" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="16">
-        <v>45462</v>
+        <v>45463</v>
       </c>
       <c r="B280" s="8"/>
       <c r="C280" s="6"/>
@@ -8791,7 +8793,7 @@
     </row>
     <row r="281" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" s="16">
-        <v>45463</v>
+        <v>45464</v>
       </c>
       <c r="B281" s="8"/>
       <c r="C281" s="6"/>
@@ -8819,7 +8821,7 @@
     </row>
     <row r="282" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A282" s="16">
-        <v>45464</v>
+        <v>45465</v>
       </c>
       <c r="B282" s="8"/>
       <c r="C282" s="6"/>
@@ -8845,72 +8847,72 @@
       <c r="W282" s="3"/>
       <c r="X282" s="3"/>
     </row>
-    <row r="283" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="16">
-        <v>45465</v>
-      </c>
-      <c r="B283" s="8"/>
-      <c r="C283" s="6"/>
-      <c r="D283" s="3"/>
-      <c r="E283" s="3"/>
-      <c r="F283" s="3"/>
-      <c r="G283" s="3"/>
-      <c r="H283" s="3"/>
-      <c r="I283" s="3"/>
-      <c r="J283" s="3"/>
-      <c r="K283" s="3"/>
-      <c r="L283" s="3"/>
-      <c r="M283" s="3"/>
-      <c r="N283" s="3"/>
-      <c r="O283" s="3"/>
-      <c r="P283" s="3"/>
-      <c r="Q283" s="3"/>
-      <c r="R283" s="3"/>
-      <c r="S283" s="3"/>
-      <c r="T283" s="3"/>
-      <c r="U283" s="3"/>
-      <c r="V283" s="3"/>
-      <c r="W283" s="3"/>
-      <c r="X283" s="3"/>
-    </row>
-    <row r="284" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A284" s="17">
+    <row r="283" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A283" s="17">
         <v>45466</v>
       </c>
-      <c r="B284" s="10" t="s">
+      <c r="B283" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C284" s="7">
+      <c r="C283" s="7">
         <v>3</v>
       </c>
-      <c r="D284" s="5" t="s">
+      <c r="D283" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E283" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="E284" s="5" t="s">
+      <c r="F283" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F284" s="5" t="s">
+      <c r="G283" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="G284" s="5" t="s">
+      <c r="H283" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="H284" s="5" t="s">
+      <c r="I283" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="I284" s="5" t="s">
+      <c r="J283" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="J284" s="5" t="s">
+      <c r="K283" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="K284" s="5" t="s">
-        <v>232</v>
-      </c>
+    </row>
+    <row r="284" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="16">
+        <v>45467</v>
+      </c>
+      <c r="B284" s="8"/>
+      <c r="C284" s="6"/>
+      <c r="D284" s="3"/>
+      <c r="E284" s="3"/>
+      <c r="F284" s="3"/>
+      <c r="G284" s="3"/>
+      <c r="H284" s="3"/>
+      <c r="I284" s="3"/>
+      <c r="J284" s="3"/>
+      <c r="K284" s="3"/>
+      <c r="L284" s="3"/>
+      <c r="M284" s="3"/>
+      <c r="N284" s="3"/>
+      <c r="O284" s="3"/>
+      <c r="P284" s="3"/>
+      <c r="Q284" s="3"/>
+      <c r="R284" s="3"/>
+      <c r="S284" s="3"/>
+      <c r="T284" s="3"/>
+      <c r="U284" s="3"/>
+      <c r="V284" s="3"/>
+      <c r="W284" s="3"/>
+      <c r="X284" s="3"/>
     </row>
     <row r="285" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="16">
-        <v>45467</v>
+        <v>45468</v>
       </c>
       <c r="B285" s="8"/>
       <c r="C285" s="6"/>
@@ -8938,7 +8940,7 @@
     </row>
     <row r="286" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A286" s="16">
-        <v>45468</v>
+        <v>45469</v>
       </c>
       <c r="B286" s="8"/>
       <c r="C286" s="6"/>
@@ -8966,7 +8968,7 @@
     </row>
     <row r="287" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" s="16">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="B287" s="8"/>
       <c r="C287" s="6"/>
@@ -8994,7 +8996,7 @@
     </row>
     <row r="288" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A288" s="16">
-        <v>45470</v>
+        <v>45471</v>
       </c>
       <c r="B288" s="8"/>
       <c r="C288" s="6"/>
@@ -9022,7 +9024,7 @@
     </row>
     <row r="289" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A289" s="16">
-        <v>45471</v>
+        <v>45472</v>
       </c>
       <c r="B289" s="8"/>
       <c r="C289" s="6"/>
@@ -9050,7 +9052,7 @@
     </row>
     <row r="290" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A290" s="16">
-        <v>45472</v>
+        <v>45473</v>
       </c>
       <c r="B290" s="8"/>
       <c r="C290" s="6"/>
@@ -9078,7 +9080,7 @@
     </row>
     <row r="291" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A291" s="16">
-        <v>45473</v>
+        <v>45474</v>
       </c>
       <c r="B291" s="8"/>
       <c r="C291" s="6"/>
@@ -9106,7 +9108,7 @@
     </row>
     <row r="292" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A292" s="16">
-        <v>45474</v>
+        <v>45475</v>
       </c>
       <c r="B292" s="8"/>
       <c r="C292" s="6"/>
@@ -9134,7 +9136,7 @@
     </row>
     <row r="293" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A293" s="16">
-        <v>45475</v>
+        <v>45476</v>
       </c>
       <c r="B293" s="8"/>
       <c r="C293" s="6"/>
@@ -9162,7 +9164,7 @@
     </row>
     <row r="294" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A294" s="16">
-        <v>45476</v>
+        <v>45477</v>
       </c>
       <c r="B294" s="8"/>
       <c r="C294" s="6"/>
@@ -9188,51 +9190,51 @@
       <c r="W294" s="3"/>
       <c r="X294" s="3"/>
     </row>
-    <row r="295" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="16">
-        <v>45477</v>
-      </c>
-      <c r="B295" s="8"/>
-      <c r="C295" s="6"/>
-      <c r="D295" s="3"/>
-      <c r="E295" s="3"/>
-      <c r="F295" s="3"/>
-      <c r="G295" s="3"/>
-      <c r="H295" s="3"/>
-      <c r="I295" s="3"/>
-      <c r="J295" s="3"/>
-      <c r="K295" s="3"/>
-      <c r="L295" s="3"/>
-      <c r="M295" s="3"/>
-      <c r="N295" s="3"/>
-      <c r="O295" s="3"/>
-      <c r="P295" s="3"/>
-      <c r="Q295" s="3"/>
-      <c r="R295" s="3"/>
-      <c r="S295" s="3"/>
-      <c r="T295" s="3"/>
-      <c r="U295" s="3"/>
-      <c r="V295" s="3"/>
-      <c r="W295" s="3"/>
-      <c r="X295" s="3"/>
-    </row>
-    <row r="296" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A296" s="17">
+    <row r="295" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A295" s="17">
         <v>45478</v>
       </c>
-      <c r="B296" s="10" t="s">
+      <c r="B295" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C296" s="7">
+      <c r="C295" s="7">
         <v>1</v>
       </c>
-      <c r="D296" s="5" t="s">
-        <v>233</v>
-      </c>
+      <c r="D295" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="296" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A296" s="16">
+        <v>45479</v>
+      </c>
+      <c r="B296" s="8"/>
+      <c r="C296" s="6"/>
+      <c r="D296" s="3"/>
+      <c r="E296" s="3"/>
+      <c r="F296" s="3"/>
+      <c r="G296" s="3"/>
+      <c r="H296" s="3"/>
+      <c r="I296" s="3"/>
+      <c r="J296" s="3"/>
+      <c r="K296" s="3"/>
+      <c r="L296" s="3"/>
+      <c r="M296" s="3"/>
+      <c r="N296" s="3"/>
+      <c r="O296" s="3"/>
+      <c r="P296" s="3"/>
+      <c r="Q296" s="3"/>
+      <c r="R296" s="3"/>
+      <c r="S296" s="3"/>
+      <c r="T296" s="3"/>
+      <c r="U296" s="3"/>
+      <c r="V296" s="3"/>
+      <c r="W296" s="3"/>
+      <c r="X296" s="3"/>
     </row>
     <row r="297" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A297" s="16">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B297" s="8"/>
       <c r="C297" s="6"/>
@@ -9260,7 +9262,7 @@
     </row>
     <row r="298" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A298" s="16">
-        <v>45480</v>
+        <v>45481</v>
       </c>
       <c r="B298" s="8"/>
       <c r="C298" s="6"/>
@@ -9288,7 +9290,7 @@
     </row>
     <row r="299" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A299" s="16">
-        <v>45481</v>
+        <v>45482</v>
       </c>
       <c r="B299" s="8"/>
       <c r="C299" s="6"/>
@@ -9316,7 +9318,7 @@
     </row>
     <row r="300" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A300" s="16">
-        <v>45482</v>
+        <v>45483</v>
       </c>
       <c r="B300" s="8"/>
       <c r="C300" s="6"/>
@@ -9344,7 +9346,7 @@
     </row>
     <row r="301" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A301" s="16">
-        <v>45483</v>
+        <v>45484</v>
       </c>
       <c r="B301" s="8"/>
       <c r="C301" s="6"/>
@@ -9370,68 +9372,68 @@
       <c r="W301" s="3"/>
       <c r="X301" s="3"/>
     </row>
-    <row r="302" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A302" s="16">
-        <v>45484</v>
-      </c>
-      <c r="B302" s="8"/>
-      <c r="C302" s="6"/>
-      <c r="D302" s="3"/>
-      <c r="E302" s="3"/>
-      <c r="F302" s="3"/>
-      <c r="G302" s="3"/>
-      <c r="H302" s="3"/>
-      <c r="I302" s="3"/>
-      <c r="J302" s="3"/>
-      <c r="K302" s="3"/>
-      <c r="L302" s="3"/>
-      <c r="M302" s="3"/>
-      <c r="N302" s="3"/>
-      <c r="O302" s="3"/>
-      <c r="P302" s="3"/>
-      <c r="Q302" s="3"/>
-      <c r="R302" s="3"/>
-      <c r="S302" s="3"/>
-      <c r="T302" s="3"/>
-      <c r="U302" s="3"/>
-      <c r="V302" s="3"/>
-      <c r="W302" s="3"/>
-      <c r="X302" s="3"/>
+    <row r="302" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A302" s="17">
+        <v>45485</v>
+      </c>
+      <c r="B302" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C302" s="7">
+        <v>1</v>
+      </c>
+      <c r="D302" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E302" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="303" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A303" s="17">
-        <v>45485</v>
+        <v>45486</v>
       </c>
       <c r="B303" s="10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C303" s="7">
         <v>1</v>
       </c>
       <c r="D303" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E303" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="304" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A304" s="17">
-        <v>45486</v>
-      </c>
-      <c r="B304" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C304" s="7">
-        <v>1</v>
-      </c>
-      <c r="D304" s="5" t="s">
-        <v>234</v>
-      </c>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="304" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A304" s="16">
+        <v>45487</v>
+      </c>
+      <c r="B304" s="8"/>
+      <c r="C304" s="6"/>
+      <c r="D304" s="3"/>
+      <c r="E304" s="3"/>
+      <c r="F304" s="3"/>
+      <c r="G304" s="3"/>
+      <c r="H304" s="3"/>
+      <c r="I304" s="3"/>
+      <c r="J304" s="3"/>
+      <c r="K304" s="3"/>
+      <c r="L304" s="3"/>
+      <c r="M304" s="3"/>
+      <c r="N304" s="3"/>
+      <c r="O304" s="3"/>
+      <c r="P304" s="3"/>
+      <c r="Q304" s="3"/>
+      <c r="R304" s="3"/>
+      <c r="S304" s="3"/>
+      <c r="T304" s="3"/>
+      <c r="U304" s="3"/>
+      <c r="V304" s="3"/>
+      <c r="W304" s="3"/>
+      <c r="X304" s="3"/>
     </row>
     <row r="305" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A305" s="16">
-        <v>45487</v>
+        <v>45488</v>
       </c>
       <c r="B305" s="8"/>
       <c r="C305" s="6"/>
@@ -9459,7 +9461,7 @@
     </row>
     <row r="306" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A306" s="16">
-        <v>45488</v>
+        <v>45489</v>
       </c>
       <c r="B306" s="8"/>
       <c r="C306" s="6"/>
@@ -9487,7 +9489,7 @@
     </row>
     <row r="307" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A307" s="16">
-        <v>45489</v>
+        <v>45490</v>
       </c>
       <c r="B307" s="8"/>
       <c r="C307" s="6"/>
@@ -9515,7 +9517,7 @@
     </row>
     <row r="308" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A308" s="16">
-        <v>45490</v>
+        <v>45491</v>
       </c>
       <c r="B308" s="8"/>
       <c r="C308" s="6"/>
@@ -9543,7 +9545,7 @@
     </row>
     <row r="309" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A309" s="16">
-        <v>45491</v>
+        <v>45492</v>
       </c>
       <c r="B309" s="8"/>
       <c r="C309" s="6"/>
@@ -9571,7 +9573,7 @@
     </row>
     <row r="310" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A310" s="16">
-        <v>45492</v>
+        <v>45493</v>
       </c>
       <c r="B310" s="8"/>
       <c r="C310" s="6"/>
@@ -9599,7 +9601,7 @@
     </row>
     <row r="311" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A311" s="16">
-        <v>45493</v>
+        <v>45494</v>
       </c>
       <c r="B311" s="8"/>
       <c r="C311" s="6"/>
@@ -9627,7 +9629,7 @@
     </row>
     <row r="312" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A312" s="16">
-        <v>45494</v>
+        <v>45495</v>
       </c>
       <c r="B312" s="8"/>
       <c r="C312" s="6"/>
@@ -9655,7 +9657,7 @@
     </row>
     <row r="313" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A313" s="16">
-        <v>45495</v>
+        <v>45496</v>
       </c>
       <c r="B313" s="8"/>
       <c r="C313" s="6"/>
@@ -9683,7 +9685,7 @@
     </row>
     <row r="314" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A314" s="16">
-        <v>45496</v>
+        <v>45497</v>
       </c>
       <c r="B314" s="8"/>
       <c r="C314" s="6"/>
@@ -9711,7 +9713,7 @@
     </row>
     <row r="315" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A315" s="16">
-        <v>45497</v>
+        <v>45498</v>
       </c>
       <c r="B315" s="8"/>
       <c r="C315" s="6"/>
@@ -9739,7 +9741,7 @@
     </row>
     <row r="316" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A316" s="16">
-        <v>45498</v>
+        <v>45499</v>
       </c>
       <c r="B316" s="8"/>
       <c r="C316" s="6"/>
@@ -9767,7 +9769,7 @@
     </row>
     <row r="317" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A317" s="16">
-        <v>45499</v>
+        <v>45500</v>
       </c>
       <c r="B317" s="8"/>
       <c r="C317" s="6"/>
@@ -9795,7 +9797,7 @@
     </row>
     <row r="318" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A318" s="16">
-        <v>45500</v>
+        <v>45501</v>
       </c>
       <c r="B318" s="8"/>
       <c r="C318" s="6"/>
@@ -9821,40 +9823,26 @@
       <c r="W318" s="3"/>
       <c r="X318" s="3"/>
     </row>
-    <row r="319" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A319" s="16">
-        <v>45501</v>
-      </c>
-      <c r="B319" s="8"/>
-      <c r="C319" s="6"/>
-      <c r="D319" s="3"/>
-      <c r="E319" s="3"/>
-      <c r="F319" s="3"/>
-      <c r="G319" s="3"/>
-      <c r="H319" s="3"/>
-      <c r="I319" s="3"/>
-      <c r="J319" s="3"/>
-      <c r="K319" s="3"/>
-      <c r="L319" s="3"/>
-      <c r="M319" s="3"/>
-      <c r="N319" s="3"/>
-      <c r="O319" s="3"/>
-      <c r="P319" s="3"/>
-      <c r="Q319" s="3"/>
-      <c r="R319" s="3"/>
-      <c r="S319" s="3"/>
-      <c r="T319" s="3"/>
-      <c r="U319" s="3"/>
-      <c r="V319" s="3"/>
-      <c r="W319" s="3"/>
-      <c r="X319" s="3"/>
+    <row r="319" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A319" s="17">
+        <v>45502</v>
+      </c>
+      <c r="B319" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C319" s="7">
+        <v>1</v>
+      </c>
+      <c r="D319" s="5" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="320" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A320" s="17">
-        <v>45502</v>
+        <v>45503</v>
       </c>
       <c r="B320" s="10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C320" s="7">
         <v>1</v>
@@ -9862,27 +9850,41 @@
       <c r="D320" s="5" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="321" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A321" s="17">
-        <v>45503</v>
-      </c>
-      <c r="B321" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C321" s="7">
-        <v>1</v>
-      </c>
-      <c r="D321" s="5" t="s">
+      <c r="E320" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="E321" s="5" t="s">
-        <v>237</v>
-      </c>
+    </row>
+    <row r="321" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A321" s="16">
+        <v>45504</v>
+      </c>
+      <c r="B321" s="8"/>
+      <c r="C321" s="6"/>
+      <c r="D321" s="3"/>
+      <c r="E321" s="3"/>
+      <c r="F321" s="3"/>
+      <c r="G321" s="3"/>
+      <c r="H321" s="3"/>
+      <c r="I321" s="3"/>
+      <c r="J321" s="3"/>
+      <c r="K321" s="3"/>
+      <c r="L321" s="3"/>
+      <c r="M321" s="3"/>
+      <c r="N321" s="3"/>
+      <c r="O321" s="3"/>
+      <c r="P321" s="3"/>
+      <c r="Q321" s="3"/>
+      <c r="R321" s="3"/>
+      <c r="S321" s="3"/>
+      <c r="T321" s="3"/>
+      <c r="U321" s="3"/>
+      <c r="V321" s="3"/>
+      <c r="W321" s="3"/>
+      <c r="X321" s="3"/>
     </row>
     <row r="322" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A322" s="16">
-        <v>45504</v>
+        <v>45505</v>
       </c>
       <c r="B322" s="8"/>
       <c r="C322" s="6"/>
@@ -9910,7 +9912,7 @@
     </row>
     <row r="323" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A323" s="16">
-        <v>45505</v>
+        <v>45506</v>
       </c>
       <c r="B323" s="8"/>
       <c r="C323" s="6"/>
@@ -9938,7 +9940,7 @@
     </row>
     <row r="324" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A324" s="16">
-        <v>45506</v>
+        <v>45507</v>
       </c>
       <c r="B324" s="8"/>
       <c r="C324" s="6"/>
@@ -9966,7 +9968,7 @@
     </row>
     <row r="325" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A325" s="16">
-        <v>45507</v>
+        <v>45508</v>
       </c>
       <c r="B325" s="8"/>
       <c r="C325" s="6"/>
@@ -9992,51 +9994,51 @@
       <c r="W325" s="3"/>
       <c r="X325" s="3"/>
     </row>
-    <row r="326" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A326" s="16">
-        <v>45508</v>
-      </c>
-      <c r="B326" s="8"/>
-      <c r="C326" s="6"/>
-      <c r="D326" s="3"/>
-      <c r="E326" s="3"/>
-      <c r="F326" s="3"/>
-      <c r="G326" s="3"/>
-      <c r="H326" s="3"/>
-      <c r="I326" s="3"/>
-      <c r="J326" s="3"/>
-      <c r="K326" s="3"/>
-      <c r="L326" s="3"/>
-      <c r="M326" s="3"/>
-      <c r="N326" s="3"/>
-      <c r="O326" s="3"/>
-      <c r="P326" s="3"/>
-      <c r="Q326" s="3"/>
-      <c r="R326" s="3"/>
-      <c r="S326" s="3"/>
-      <c r="T326" s="3"/>
-      <c r="U326" s="3"/>
-      <c r="V326" s="3"/>
-      <c r="W326" s="3"/>
-      <c r="X326" s="3"/>
-    </row>
-    <row r="327" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A327" s="17">
+    <row r="326" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A326" s="17">
         <v>45509</v>
       </c>
-      <c r="B327" s="10" t="s">
+      <c r="B326" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C327" s="7">
+      <c r="C326" s="7">
         <v>1</v>
       </c>
-      <c r="D327" s="5" t="s">
-        <v>238</v>
-      </c>
+      <c r="D326" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="327" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A327" s="16">
+        <v>45510</v>
+      </c>
+      <c r="B327" s="8"/>
+      <c r="C327" s="6"/>
+      <c r="D327" s="3"/>
+      <c r="E327" s="3"/>
+      <c r="F327" s="3"/>
+      <c r="G327" s="3"/>
+      <c r="H327" s="3"/>
+      <c r="I327" s="3"/>
+      <c r="J327" s="3"/>
+      <c r="K327" s="3"/>
+      <c r="L327" s="3"/>
+      <c r="M327" s="3"/>
+      <c r="N327" s="3"/>
+      <c r="O327" s="3"/>
+      <c r="P327" s="3"/>
+      <c r="Q327" s="3"/>
+      <c r="R327" s="3"/>
+      <c r="S327" s="3"/>
+      <c r="T327" s="3"/>
+      <c r="U327" s="3"/>
+      <c r="V327" s="3"/>
+      <c r="W327" s="3"/>
+      <c r="X327" s="3"/>
     </row>
     <row r="328" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A328" s="16">
-        <v>45510</v>
+        <v>45511</v>
       </c>
       <c r="B328" s="8"/>
       <c r="C328" s="6"/>
@@ -10064,7 +10066,7 @@
     </row>
     <row r="329" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A329" s="16">
-        <v>45511</v>
+        <v>45512</v>
       </c>
       <c r="B329" s="8"/>
       <c r="C329" s="6"/>
@@ -10092,7 +10094,7 @@
     </row>
     <row r="330" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A330" s="16">
-        <v>45512</v>
+        <v>45513</v>
       </c>
       <c r="B330" s="8"/>
       <c r="C330" s="6"/>
@@ -10120,7 +10122,7 @@
     </row>
     <row r="331" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A331" s="16">
-        <v>45513</v>
+        <v>45514</v>
       </c>
       <c r="B331" s="8"/>
       <c r="C331" s="6"/>
@@ -10148,7 +10150,7 @@
     </row>
     <row r="332" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A332" s="16">
-        <v>45514</v>
+        <v>45515</v>
       </c>
       <c r="B332" s="8"/>
       <c r="C332" s="6"/>
@@ -10174,63 +10176,63 @@
       <c r="W332" s="3"/>
       <c r="X332" s="3"/>
     </row>
-    <row r="333" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="16">
-        <v>45515</v>
-      </c>
-      <c r="B333" s="8"/>
-      <c r="C333" s="6"/>
-      <c r="D333" s="3"/>
-      <c r="E333" s="3"/>
-      <c r="F333" s="3"/>
-      <c r="G333" s="3"/>
-      <c r="H333" s="3"/>
-      <c r="I333" s="3"/>
-      <c r="J333" s="3"/>
-      <c r="K333" s="3"/>
-      <c r="L333" s="3"/>
-      <c r="M333" s="3"/>
-      <c r="N333" s="3"/>
-      <c r="O333" s="3"/>
-      <c r="P333" s="3"/>
-      <c r="Q333" s="3"/>
-      <c r="R333" s="3"/>
-      <c r="S333" s="3"/>
-      <c r="T333" s="3"/>
-      <c r="U333" s="3"/>
-      <c r="V333" s="3"/>
-      <c r="W333" s="3"/>
-      <c r="X333" s="3"/>
-    </row>
-    <row r="334" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A334" s="17">
+    <row r="333" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A333" s="17">
         <v>45516</v>
       </c>
-      <c r="B334" s="10" t="s">
+      <c r="B333" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C334" s="7">
+      <c r="C333" s="7">
         <v>2</v>
       </c>
-      <c r="D334" s="5" t="s">
+      <c r="D333" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E333" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="E334" s="5" t="s">
+      <c r="F333" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="F334" s="5" t="s">
+      <c r="G333" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="G334" s="5" t="s">
+      <c r="H333" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="H334" s="5" t="s">
-        <v>243</v>
-      </c>
+    </row>
+    <row r="334" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A334" s="16">
+        <v>45517</v>
+      </c>
+      <c r="B334" s="8"/>
+      <c r="C334" s="6"/>
+      <c r="D334" s="3"/>
+      <c r="E334" s="3"/>
+      <c r="F334" s="3"/>
+      <c r="G334" s="3"/>
+      <c r="H334" s="3"/>
+      <c r="I334" s="3"/>
+      <c r="J334" s="3"/>
+      <c r="K334" s="3"/>
+      <c r="L334" s="3"/>
+      <c r="M334" s="3"/>
+      <c r="N334" s="3"/>
+      <c r="O334" s="3"/>
+      <c r="P334" s="3"/>
+      <c r="Q334" s="3"/>
+      <c r="R334" s="3"/>
+      <c r="S334" s="3"/>
+      <c r="T334" s="3"/>
+      <c r="U334" s="3"/>
+      <c r="V334" s="3"/>
+      <c r="W334" s="3"/>
+      <c r="X334" s="3"/>
     </row>
     <row r="335" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A335" s="16">
-        <v>45517</v>
+        <v>45518</v>
       </c>
       <c r="B335" s="8"/>
       <c r="C335" s="6"/>
@@ -10258,7 +10260,7 @@
     </row>
     <row r="336" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A336" s="16">
-        <v>45518</v>
+        <v>45519</v>
       </c>
       <c r="B336" s="8"/>
       <c r="C336" s="6"/>
@@ -10286,7 +10288,7 @@
     </row>
     <row r="337" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A337" s="16">
-        <v>45519</v>
+        <v>45520</v>
       </c>
       <c r="B337" s="8"/>
       <c r="C337" s="6"/>
@@ -10314,7 +10316,7 @@
     </row>
     <row r="338" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A338" s="16">
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="B338" s="8"/>
       <c r="C338" s="6"/>
@@ -10342,7 +10344,7 @@
     </row>
     <row r="339" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A339" s="16">
-        <v>45521</v>
+        <v>45522</v>
       </c>
       <c r="B339" s="8"/>
       <c r="C339" s="6"/>
@@ -10370,7 +10372,7 @@
     </row>
     <row r="340" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A340" s="16">
-        <v>45522</v>
+        <v>45523</v>
       </c>
       <c r="B340" s="8"/>
       <c r="C340" s="6"/>
@@ -10398,7 +10400,7 @@
     </row>
     <row r="341" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A341" s="16">
-        <v>45523</v>
+        <v>45524</v>
       </c>
       <c r="B341" s="8"/>
       <c r="C341" s="6"/>
@@ -10426,7 +10428,7 @@
     </row>
     <row r="342" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A342" s="16">
-        <v>45524</v>
+        <v>45525</v>
       </c>
       <c r="B342" s="8"/>
       <c r="C342" s="6"/>
@@ -10454,7 +10456,7 @@
     </row>
     <row r="343" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A343" s="16">
-        <v>45525</v>
+        <v>45526</v>
       </c>
       <c r="B343" s="8"/>
       <c r="C343" s="6"/>
@@ -10482,7 +10484,7 @@
     </row>
     <row r="344" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A344" s="16">
-        <v>45526</v>
+        <v>45527</v>
       </c>
       <c r="B344" s="8"/>
       <c r="C344" s="6"/>
@@ -10510,7 +10512,7 @@
     </row>
     <row r="345" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A345" s="16">
-        <v>45527</v>
+        <v>45528</v>
       </c>
       <c r="B345" s="8"/>
       <c r="C345" s="6"/>
@@ -10538,7 +10540,7 @@
     </row>
     <row r="346" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A346" s="16">
-        <v>45528</v>
+        <v>45529</v>
       </c>
       <c r="B346" s="8"/>
       <c r="C346" s="6"/>
@@ -10566,7 +10568,7 @@
     </row>
     <row r="347" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A347" s="16">
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="B347" s="8"/>
       <c r="C347" s="6"/>
@@ -10594,7 +10596,7 @@
     </row>
     <row r="348" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A348" s="16">
-        <v>45530</v>
+        <v>45531</v>
       </c>
       <c r="B348" s="8"/>
       <c r="C348" s="6"/>
@@ -10622,7 +10624,7 @@
     </row>
     <row r="349" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A349" s="16">
-        <v>45531</v>
+        <v>45532</v>
       </c>
       <c r="B349" s="8"/>
       <c r="C349" s="6"/>
@@ -10650,7 +10652,7 @@
     </row>
     <row r="350" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A350" s="16">
-        <v>45532</v>
+        <v>45533</v>
       </c>
       <c r="B350" s="8"/>
       <c r="C350" s="6"/>
@@ -10678,7 +10680,7 @@
     </row>
     <row r="351" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A351" s="16">
-        <v>45533</v>
+        <v>45534</v>
       </c>
       <c r="B351" s="8"/>
       <c r="C351" s="6"/>
@@ -10706,7 +10708,7 @@
     </row>
     <row r="352" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A352" s="16">
-        <v>45534</v>
+        <v>45535</v>
       </c>
       <c r="B352" s="8"/>
       <c r="C352" s="6"/>
@@ -10734,7 +10736,7 @@
     </row>
     <row r="353" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A353" s="16">
-        <v>45535</v>
+        <v>45536</v>
       </c>
       <c r="B353" s="8"/>
       <c r="C353" s="6"/>
@@ -10762,7 +10764,7 @@
     </row>
     <row r="354" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A354" s="16">
-        <v>45536</v>
+        <v>45537</v>
       </c>
       <c r="B354" s="8"/>
       <c r="C354" s="6"/>
@@ -10790,7 +10792,7 @@
     </row>
     <row r="355" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A355" s="16">
-        <v>45537</v>
+        <v>45538</v>
       </c>
       <c r="B355" s="8"/>
       <c r="C355" s="6"/>
@@ -10818,7 +10820,7 @@
     </row>
     <row r="356" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A356" s="16">
-        <v>45538</v>
+        <v>45539</v>
       </c>
       <c r="B356" s="8"/>
       <c r="C356" s="6"/>
@@ -10846,7 +10848,7 @@
     </row>
     <row r="357" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A357" s="16">
-        <v>45539</v>
+        <v>45540</v>
       </c>
       <c r="B357" s="8"/>
       <c r="C357" s="6"/>
@@ -10874,7 +10876,7 @@
     </row>
     <row r="358" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A358" s="16">
-        <v>45540</v>
+        <v>45541</v>
       </c>
       <c r="B358" s="8"/>
       <c r="C358" s="6"/>
@@ -10902,7 +10904,7 @@
     </row>
     <row r="359" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A359" s="16">
-        <v>45541</v>
+        <v>45542</v>
       </c>
       <c r="B359" s="8"/>
       <c r="C359" s="6"/>
@@ -10930,7 +10932,7 @@
     </row>
     <row r="360" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A360" s="16">
-        <v>45542</v>
+        <v>45543</v>
       </c>
       <c r="B360" s="8"/>
       <c r="C360" s="6"/>
@@ -10958,7 +10960,7 @@
     </row>
     <row r="361" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A361" s="16">
-        <v>45543</v>
+        <v>45544</v>
       </c>
       <c r="B361" s="8"/>
       <c r="C361" s="6"/>
@@ -10986,7 +10988,7 @@
     </row>
     <row r="362" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A362" s="16">
-        <v>45544</v>
+        <v>45545</v>
       </c>
       <c r="B362" s="8"/>
       <c r="C362" s="6"/>
@@ -11012,54 +11014,54 @@
       <c r="W362" s="3"/>
       <c r="X362" s="3"/>
     </row>
-    <row r="363" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A363" s="16">
-        <v>45545</v>
-      </c>
-      <c r="B363" s="8"/>
-      <c r="C363" s="6"/>
-      <c r="D363" s="3"/>
-      <c r="E363" s="3"/>
-      <c r="F363" s="3"/>
-      <c r="G363" s="3"/>
-      <c r="H363" s="3"/>
-      <c r="I363" s="3"/>
-      <c r="J363" s="3"/>
-      <c r="K363" s="3"/>
-      <c r="L363" s="3"/>
-      <c r="M363" s="3"/>
-      <c r="N363" s="3"/>
-      <c r="O363" s="3"/>
-      <c r="P363" s="3"/>
-      <c r="Q363" s="3"/>
-      <c r="R363" s="3"/>
-      <c r="S363" s="3"/>
-      <c r="T363" s="3"/>
-      <c r="U363" s="3"/>
-      <c r="V363" s="3"/>
-      <c r="W363" s="3"/>
-      <c r="X363" s="3"/>
-    </row>
-    <row r="364" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A364" s="17">
+    <row r="363" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A363" s="17">
         <v>45546</v>
       </c>
-      <c r="B364" s="10" t="s">
+      <c r="B363" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C364" s="7">
+      <c r="C363" s="7">
         <v>1</v>
       </c>
-      <c r="D364" s="5" t="s">
+      <c r="D363" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E363" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="E364" s="5" t="s">
-        <v>245</v>
-      </c>
+    </row>
+    <row r="364" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A364" s="16">
+        <v>45547</v>
+      </c>
+      <c r="B364" s="8"/>
+      <c r="C364" s="6"/>
+      <c r="D364" s="3"/>
+      <c r="E364" s="3"/>
+      <c r="F364" s="3"/>
+      <c r="G364" s="3"/>
+      <c r="H364" s="3"/>
+      <c r="I364" s="3"/>
+      <c r="J364" s="3"/>
+      <c r="K364" s="3"/>
+      <c r="L364" s="3"/>
+      <c r="M364" s="3"/>
+      <c r="N364" s="3"/>
+      <c r="O364" s="3"/>
+      <c r="P364" s="3"/>
+      <c r="Q364" s="3"/>
+      <c r="R364" s="3"/>
+      <c r="S364" s="3"/>
+      <c r="T364" s="3"/>
+      <c r="U364" s="3"/>
+      <c r="V364" s="3"/>
+      <c r="W364" s="3"/>
+      <c r="X364" s="3"/>
     </row>
     <row r="365" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A365" s="16">
-        <v>45547</v>
+        <v>45548</v>
       </c>
       <c r="B365" s="8"/>
       <c r="C365" s="6"/>
@@ -11087,7 +11089,7 @@
     </row>
     <row r="366" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A366" s="16">
-        <v>45548</v>
+        <v>45549</v>
       </c>
       <c r="B366" s="8"/>
       <c r="C366" s="6"/>
@@ -11113,89 +11115,89 @@
       <c r="W366" s="3"/>
       <c r="X366" s="3"/>
     </row>
-    <row r="367" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A367" s="16">
-        <v>45549</v>
-      </c>
-      <c r="B367" s="8"/>
-      <c r="C367" s="6"/>
-      <c r="D367" s="3"/>
-      <c r="E367" s="3"/>
-      <c r="F367" s="3"/>
-      <c r="G367" s="3"/>
-      <c r="H367" s="3"/>
-      <c r="I367" s="3"/>
-      <c r="J367" s="3"/>
-      <c r="K367" s="3"/>
-      <c r="L367" s="3"/>
-      <c r="M367" s="3"/>
-      <c r="N367" s="3"/>
-      <c r="O367" s="3"/>
-      <c r="P367" s="3"/>
-      <c r="Q367" s="3"/>
-      <c r="R367" s="3"/>
-      <c r="S367" s="3"/>
-      <c r="T367" s="3"/>
-      <c r="U367" s="3"/>
-      <c r="V367" s="3"/>
-      <c r="W367" s="3"/>
-      <c r="X367" s="3"/>
+    <row r="367" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A367" s="17">
+        <v>45550</v>
+      </c>
+      <c r="B367" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C367" s="7">
+        <v>1</v>
+      </c>
+      <c r="D367" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E367" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F367" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G367" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="H367" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="I367" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="J367" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="K367" s="5" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="368" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A368" s="17">
-        <v>45550</v>
+        <v>45551</v>
       </c>
       <c r="B368" s="10" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C368" s="7">
         <v>1</v>
       </c>
       <c r="D368" s="5" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="E368" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="F368" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="G368" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="H368" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="I368" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="J368" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="K368" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="369" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A369" s="17">
-        <v>45551</v>
-      </c>
-      <c r="B369" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C369" s="7">
-        <v>1</v>
-      </c>
-      <c r="D369" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="E369" s="5" t="s">
-        <v>255</v>
-      </c>
+    </row>
+    <row r="369" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A369" s="16">
+        <v>45552</v>
+      </c>
+      <c r="B369" s="8"/>
+      <c r="C369" s="6"/>
+      <c r="D369" s="3"/>
+      <c r="E369" s="3"/>
+      <c r="F369" s="3"/>
+      <c r="G369" s="3"/>
+      <c r="H369" s="3"/>
+      <c r="I369" s="3"/>
+      <c r="J369" s="3"/>
+      <c r="K369" s="3"/>
+      <c r="L369" s="3"/>
+      <c r="M369" s="3"/>
+      <c r="N369" s="3"/>
+      <c r="O369" s="3"/>
+      <c r="P369" s="3"/>
+      <c r="Q369" s="3"/>
+      <c r="R369" s="3"/>
+      <c r="S369" s="3"/>
+      <c r="T369" s="3"/>
+      <c r="U369" s="3"/>
+      <c r="V369" s="3"/>
+      <c r="W369" s="3"/>
+      <c r="X369" s="3"/>
     </row>
     <row r="370" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A370" s="16">
-        <v>45552</v>
+        <v>45553</v>
       </c>
       <c r="B370" s="8"/>
       <c r="C370" s="6"/>
@@ -11223,7 +11225,7 @@
     </row>
     <row r="371" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A371" s="16">
-        <v>45553</v>
+        <v>45554</v>
       </c>
       <c r="B371" s="8"/>
       <c r="C371" s="6"/>
@@ -11251,7 +11253,7 @@
     </row>
     <row r="372" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A372" s="16">
-        <v>45554</v>
+        <v>45555</v>
       </c>
       <c r="B372" s="8"/>
       <c r="C372" s="6"/>
@@ -11279,7 +11281,7 @@
     </row>
     <row r="373" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A373" s="16">
-        <v>45555</v>
+        <v>45556</v>
       </c>
       <c r="B373" s="8"/>
       <c r="C373" s="6"/>
@@ -11305,54 +11307,54 @@
       <c r="W373" s="3"/>
       <c r="X373" s="3"/>
     </row>
-    <row r="374" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A374" s="16">
-        <v>45556</v>
-      </c>
-      <c r="B374" s="8"/>
-      <c r="C374" s="6"/>
-      <c r="D374" s="3"/>
-      <c r="E374" s="3"/>
-      <c r="F374" s="3"/>
-      <c r="G374" s="3"/>
-      <c r="H374" s="3"/>
-      <c r="I374" s="3"/>
-      <c r="J374" s="3"/>
-      <c r="K374" s="3"/>
-      <c r="L374" s="3"/>
-      <c r="M374" s="3"/>
-      <c r="N374" s="3"/>
-      <c r="O374" s="3"/>
-      <c r="P374" s="3"/>
-      <c r="Q374" s="3"/>
-      <c r="R374" s="3"/>
-      <c r="S374" s="3"/>
-      <c r="T374" s="3"/>
-      <c r="U374" s="3"/>
-      <c r="V374" s="3"/>
-      <c r="W374" s="3"/>
-      <c r="X374" s="3"/>
-    </row>
-    <row r="375" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A375" s="17">
+    <row r="374" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A374" s="17">
         <v>45557</v>
       </c>
-      <c r="B375" s="10" t="s">
+      <c r="B374" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C375" s="7">
+      <c r="C374" s="7">
         <v>1</v>
       </c>
-      <c r="D375" s="5" t="s">
+      <c r="D374" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E374" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="E375" s="5" t="s">
-        <v>257</v>
-      </c>
+    </row>
+    <row r="375" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A375" s="16">
+        <v>45558</v>
+      </c>
+      <c r="B375" s="8"/>
+      <c r="C375" s="6"/>
+      <c r="D375" s="3"/>
+      <c r="E375" s="3"/>
+      <c r="F375" s="3"/>
+      <c r="G375" s="3"/>
+      <c r="H375" s="3"/>
+      <c r="I375" s="3"/>
+      <c r="J375" s="3"/>
+      <c r="K375" s="3"/>
+      <c r="L375" s="3"/>
+      <c r="M375" s="3"/>
+      <c r="N375" s="3"/>
+      <c r="O375" s="3"/>
+      <c r="P375" s="3"/>
+      <c r="Q375" s="3"/>
+      <c r="R375" s="3"/>
+      <c r="S375" s="3"/>
+      <c r="T375" s="3"/>
+      <c r="U375" s="3"/>
+      <c r="V375" s="3"/>
+      <c r="W375" s="3"/>
+      <c r="X375" s="3"/>
     </row>
     <row r="376" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A376" s="16">
-        <v>45558</v>
+        <v>45559</v>
       </c>
       <c r="B376" s="8"/>
       <c r="C376" s="6"/>
@@ -11380,7 +11382,7 @@
     </row>
     <row r="377" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A377" s="16">
-        <v>45559</v>
+        <v>45560</v>
       </c>
       <c r="B377" s="8"/>
       <c r="C377" s="6"/>
@@ -11408,7 +11410,7 @@
     </row>
     <row r="378" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A378" s="16">
-        <v>45560</v>
+        <v>45561</v>
       </c>
       <c r="B378" s="8"/>
       <c r="C378" s="6"/>
@@ -11436,7 +11438,7 @@
     </row>
     <row r="379" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A379" s="16">
-        <v>45561</v>
+        <v>45562</v>
       </c>
       <c r="B379" s="8"/>
       <c r="C379" s="6"/>
@@ -11464,7 +11466,7 @@
     </row>
     <row r="380" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A380" s="16">
-        <v>45562</v>
+        <v>45563</v>
       </c>
       <c r="B380" s="8"/>
       <c r="C380" s="6"/>
@@ -11492,7 +11494,7 @@
     </row>
     <row r="381" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A381" s="16">
-        <v>45563</v>
+        <v>45564</v>
       </c>
       <c r="B381" s="8"/>
       <c r="C381" s="6"/>
@@ -11518,49 +11520,41 @@
       <c r="W381" s="3"/>
       <c r="X381" s="3"/>
     </row>
-    <row r="382" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A382" s="16">
-        <v>45564</v>
-      </c>
-      <c r="B382" s="8"/>
-      <c r="C382" s="6"/>
-      <c r="D382" s="3"/>
-      <c r="E382" s="3"/>
-      <c r="F382" s="3"/>
-      <c r="G382" s="3"/>
-      <c r="H382" s="3"/>
-      <c r="I382" s="3"/>
-      <c r="J382" s="3"/>
-      <c r="K382" s="3"/>
-      <c r="L382" s="3"/>
-      <c r="M382" s="3"/>
-      <c r="N382" s="3"/>
-      <c r="O382" s="3"/>
-      <c r="P382" s="3"/>
-      <c r="Q382" s="3"/>
-      <c r="R382" s="3"/>
-      <c r="S382" s="3"/>
-      <c r="T382" s="3"/>
-      <c r="U382" s="3"/>
-      <c r="V382" s="3"/>
-      <c r="W382" s="3"/>
-      <c r="X382" s="3"/>
+    <row r="382" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A382" s="17">
+        <v>45565</v>
+      </c>
+      <c r="B382" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C382" s="7">
+        <v>2</v>
+      </c>
+      <c r="D382" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E382" s="5" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="383" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A383" s="17">
         <v>45565</v>
       </c>
       <c r="B383" s="10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C383" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D383" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E383" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
+      </c>
+      <c r="F383" s="5" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="384" spans="1:24" x14ac:dyDescent="0.2">
@@ -11568,33 +11562,36 @@
         <v>45565</v>
       </c>
       <c r="B384" s="10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C384" s="7">
         <v>1</v>
       </c>
       <c r="D384" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="E384" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="F384" s="5" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="385" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A385" s="17">
-        <v>45565</v>
+        <v>45566</v>
       </c>
       <c r="B385" s="10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C385" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D385" s="5" t="s">
         <v>263</v>
+      </c>
+      <c r="E385" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F385" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G385" s="5" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="386" spans="1:24" x14ac:dyDescent="0.2">
@@ -11605,19 +11602,22 @@
         <v>21</v>
       </c>
       <c r="C386" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D386" s="5" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E386" s="5" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F386" s="5" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G386" s="5" t="s">
-        <v>267</v>
+        <v>270</v>
+      </c>
+      <c r="H386" s="5" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="387" spans="1:24" x14ac:dyDescent="0.2">
@@ -11628,80 +11628,82 @@
         <v>21</v>
       </c>
       <c r="C387" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D387" s="5" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E387" s="5" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F387" s="5" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G387" s="5" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H387" s="5" t="s">
-        <v>272</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="I387" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="J387" s="5"/>
     </row>
     <row r="388" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A388" s="17">
-        <v>45566</v>
+        <v>45567</v>
       </c>
       <c r="B388" s="10" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C388" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D388" s="5" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E388" s="5" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="F388" s="5" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="G388" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="H388" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="I388" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="J388" s="5"/>
-    </row>
-    <row r="389" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A389" s="17">
-        <v>45567</v>
-      </c>
-      <c r="B389" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C389" s="7">
-        <v>2</v>
-      </c>
-      <c r="D389" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="E389" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="F389" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="G389" s="5" t="s">
-        <v>282</v>
-      </c>
+    </row>
+    <row r="389" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A389" s="16">
+        <v>45568</v>
+      </c>
+      <c r="B389" s="8"/>
+      <c r="C389" s="6"/>
+      <c r="D389" s="3"/>
+      <c r="E389" s="3"/>
+      <c r="F389" s="3"/>
+      <c r="G389" s="3"/>
+      <c r="H389" s="3"/>
+      <c r="I389" s="3"/>
+      <c r="J389" s="3"/>
+      <c r="K389" s="3"/>
+      <c r="L389" s="3"/>
+      <c r="M389" s="3"/>
+      <c r="N389" s="3"/>
+      <c r="O389" s="3"/>
+      <c r="P389" s="3"/>
+      <c r="Q389" s="3"/>
+      <c r="R389" s="3"/>
+      <c r="S389" s="3"/>
+      <c r="T389" s="3"/>
+      <c r="U389" s="3"/>
+      <c r="V389" s="3"/>
+      <c r="W389" s="3"/>
+      <c r="X389" s="3"/>
     </row>
     <row r="390" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A390" s="16">
-        <v>45568</v>
+        <v>45569</v>
       </c>
       <c r="B390" s="8"/>
       <c r="C390" s="6"/>
@@ -11729,7 +11731,7 @@
     </row>
     <row r="391" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391" s="16">
-        <v>45569</v>
+        <v>45570</v>
       </c>
       <c r="B391" s="8"/>
       <c r="C391" s="6"/>
@@ -11757,7 +11759,7 @@
     </row>
     <row r="392" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A392" s="16">
-        <v>45570</v>
+        <v>45571</v>
       </c>
       <c r="B392" s="8"/>
       <c r="C392" s="6"/>
@@ -11785,7 +11787,7 @@
     </row>
     <row r="393" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A393" s="16">
-        <v>45571</v>
+        <v>45572</v>
       </c>
       <c r="B393" s="8"/>
       <c r="C393" s="6"/>
@@ -11811,307 +11813,279 @@
       <c r="W393" s="3"/>
       <c r="X393" s="3"/>
     </row>
-    <row r="394" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A394" s="16">
-        <v>45572</v>
-      </c>
-      <c r="B394" s="8"/>
-      <c r="C394" s="6"/>
-      <c r="D394" s="3"/>
-      <c r="E394" s="3"/>
-      <c r="F394" s="3"/>
-      <c r="G394" s="3"/>
-      <c r="H394" s="3"/>
-      <c r="I394" s="3"/>
-      <c r="J394" s="3"/>
-      <c r="K394" s="3"/>
-      <c r="L394" s="3"/>
-      <c r="M394" s="3"/>
-      <c r="N394" s="3"/>
-      <c r="O394" s="3"/>
-      <c r="P394" s="3"/>
-      <c r="Q394" s="3"/>
-      <c r="R394" s="3"/>
-      <c r="S394" s="3"/>
-      <c r="T394" s="3"/>
-      <c r="U394" s="3"/>
-      <c r="V394" s="3"/>
-      <c r="W394" s="3"/>
-      <c r="X394" s="3"/>
+        <v>45573</v>
+      </c>
     </row>
     <row r="395" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A395" s="16">
-        <v>45573</v>
+        <v>45574</v>
       </c>
     </row>
     <row r="396" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A396" s="16">
-        <v>45574</v>
-      </c>
-    </row>
-    <row r="397" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A397" s="16">
         <v>45575</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 C2:C11" xr:uid="{58C236B0-35A8-47C2-A508-02D8587851C7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C10" xr:uid="{58C236B0-35A8-47C2-A508-02D8587851C7}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D14" r:id="rId1" xr:uid="{1DF90F01-E6AB-4DF9-91DC-0680B0719223}"/>
-    <hyperlink ref="D12" r:id="rId2" xr:uid="{080D91F2-9070-46D4-9C3E-3D0FC0BC5B4E}"/>
-    <hyperlink ref="D13" r:id="rId3" xr:uid="{51560AF5-E6A4-452E-9566-CC4A224601E7}"/>
-    <hyperlink ref="E14" r:id="rId4" xr:uid="{05D915CE-4EBB-4E36-8A3B-6072A2CE4E80}"/>
-    <hyperlink ref="D15" r:id="rId5" xr:uid="{5995EAAF-4256-4F16-A9B4-DFC5F3DDD93B}"/>
-    <hyperlink ref="D17" r:id="rId6" xr:uid="{47B78364-4363-425C-9097-1FFC6C5C4472}"/>
-    <hyperlink ref="D18" r:id="rId7" xr:uid="{C0034ACE-F8D9-4B04-99DA-124B4F1CDF40}"/>
-    <hyperlink ref="E18" r:id="rId8" xr:uid="{01EBEF47-0A2E-4990-BE0E-21D6BDE38FB9}"/>
-    <hyperlink ref="D20" r:id="rId9" xr:uid="{B50B4B12-15E9-48B9-94CE-4703CDC6655D}"/>
-    <hyperlink ref="E20" r:id="rId10" xr:uid="{9B097362-388B-4F3C-AE8A-952E0788DF6F}"/>
-    <hyperlink ref="D21" r:id="rId11" xr:uid="{FB6D90C2-5D62-4881-9559-38995333319C}"/>
-    <hyperlink ref="E21" r:id="rId12" xr:uid="{9E11E448-4BC6-4C9D-9F64-1B3F23888F3B}"/>
-    <hyperlink ref="F21" r:id="rId13" xr:uid="{4FFC44F0-79B8-4DA9-87F8-1D30774C2725}"/>
-    <hyperlink ref="G21" r:id="rId14" xr:uid="{D5188A0F-8798-482F-A698-972D6E1D71F8}"/>
-    <hyperlink ref="H21" r:id="rId15" xr:uid="{CBCE6ABF-4084-4063-93A5-A1479817AF8B}"/>
-    <hyperlink ref="D22" r:id="rId16" xr:uid="{BE121AE1-AAF9-4F09-9C5D-D95698F2EE2C}"/>
-    <hyperlink ref="E22" r:id="rId17" xr:uid="{5CA5F7BB-A823-4691-BD6F-9C136C311901}"/>
-    <hyperlink ref="D23" r:id="rId18" xr:uid="{AF76F11D-BD0A-4D16-8068-E84C4AAA396B}"/>
-    <hyperlink ref="D24" r:id="rId19" xr:uid="{8629FB8D-CB26-48B9-8413-5E924CF885C9}"/>
-    <hyperlink ref="E24" r:id="rId20" xr:uid="{92521079-233F-4539-A7EB-6C0161222760}"/>
-    <hyperlink ref="F24" r:id="rId21" xr:uid="{D9DFDE2A-DDA2-410C-8664-2F3743E41CED}"/>
-    <hyperlink ref="G24" r:id="rId22" xr:uid="{16191421-7932-422E-B1FA-4979365BBB9B}"/>
-    <hyperlink ref="H24" r:id="rId23" xr:uid="{F7FE4E43-835E-49EC-AE1E-C2E626FDB0E1}"/>
-    <hyperlink ref="D25" r:id="rId24" xr:uid="{CA2B7910-8C56-4E8B-8616-222BB1C7046D}"/>
-    <hyperlink ref="D29" r:id="rId25" xr:uid="{FCB09CBE-386B-446F-A71B-2BE0BF4B07A1}"/>
-    <hyperlink ref="E29" r:id="rId26" xr:uid="{9B6787C7-5B3C-49AE-8C52-8D1731AC5963}"/>
-    <hyperlink ref="F29" r:id="rId27" xr:uid="{FEB5713A-09AE-4FE6-988B-C5F6F1C1763D}"/>
-    <hyperlink ref="D32" r:id="rId28" xr:uid="{67C27775-3BDB-417F-8F98-C444D9AC546A}"/>
-    <hyperlink ref="D38" r:id="rId29" xr:uid="{0CEB4D6B-5D9E-4DAB-96E8-AF3ED62E9F66}"/>
-    <hyperlink ref="D41" r:id="rId30" xr:uid="{31268C73-821D-49FE-B174-DC56267916D7}"/>
-    <hyperlink ref="D48" r:id="rId31" xr:uid="{63B83117-1FC7-4E82-875F-76D9B5F4A8A3}"/>
-    <hyperlink ref="D49" r:id="rId32" xr:uid="{904E8AE7-F0BF-4C21-AA95-5FB6F653637F}"/>
-    <hyperlink ref="E49" r:id="rId33" xr:uid="{9890B575-3715-49E3-89D6-215E7F6B38AF}"/>
-    <hyperlink ref="D51" r:id="rId34" xr:uid="{0CC7F680-C760-437D-A26D-A660BC166796}"/>
-    <hyperlink ref="E51" r:id="rId35" xr:uid="{609B2E59-2C69-4D6A-AD30-C9AABCA579B4}"/>
-    <hyperlink ref="F51" r:id="rId36" xr:uid="{BFDEFB11-43DF-4694-B228-96D6BEF56EAE}"/>
-    <hyperlink ref="D52" r:id="rId37" xr:uid="{810D75F7-DE57-43B8-A783-AEAB75FB173F}"/>
-    <hyperlink ref="E52" r:id="rId38" xr:uid="{BF7AD69F-AD98-4D2E-9646-5835D088281E}"/>
-    <hyperlink ref="D53" r:id="rId39" xr:uid="{67BA5BBF-5FDE-4EF5-A430-9B0BB51CBB87}"/>
-    <hyperlink ref="E53" r:id="rId40" xr:uid="{F73FFD49-A274-4902-B00A-CE3A3646F565}"/>
-    <hyperlink ref="D56" r:id="rId41" xr:uid="{DA0880F2-BE10-46C5-BA2A-C1B4F64E74E7}"/>
-    <hyperlink ref="E56" r:id="rId42" xr:uid="{93D3B1DA-CD44-468F-919E-4E134937E30D}"/>
-    <hyperlink ref="D57" r:id="rId43" xr:uid="{96F8A88E-AB41-40DA-AFF1-4FEA47E1F8EE}"/>
-    <hyperlink ref="E57" r:id="rId44" xr:uid="{AF76A63C-BAA9-4D70-BBD0-14157F27CA83}"/>
-    <hyperlink ref="F57" r:id="rId45" xr:uid="{38C5DB52-B109-4A8B-9CCA-C53B66E86F77}"/>
-    <hyperlink ref="D58" r:id="rId46" xr:uid="{1972FFA8-6BCB-4AE6-B960-8AC1D14DCB4E}"/>
-    <hyperlink ref="E58" r:id="rId47" xr:uid="{587ADE45-B55B-4A16-8BF2-A5FAADFB8FA2}"/>
-    <hyperlink ref="F58" r:id="rId48" xr:uid="{ECD2D7F3-6912-454A-BD28-0173DF8F518B}"/>
-    <hyperlink ref="D59" r:id="rId49" xr:uid="{66C603A9-67D3-487F-B5C7-95E827925A91}"/>
-    <hyperlink ref="D60" r:id="rId50" xr:uid="{6B69BE12-EE8B-4822-8297-486AA09AA91D}"/>
-    <hyperlink ref="D61" r:id="rId51" xr:uid="{DFD325CE-5684-4F8D-8A9F-346B0D7FEFBF}"/>
-    <hyperlink ref="E61" r:id="rId52" xr:uid="{16045EC4-FB89-47E9-980F-833A952F7309}"/>
-    <hyperlink ref="D64" r:id="rId53" xr:uid="{21546C07-5277-48F2-9ED5-7876242116DF}"/>
-    <hyperlink ref="E64" r:id="rId54" xr:uid="{F7198EB4-B54B-4367-AABB-F147BCDE222B}"/>
-    <hyperlink ref="F64" r:id="rId55" xr:uid="{0534B3CC-87E7-4659-AEE0-2B51F541598C}"/>
-    <hyperlink ref="G64" r:id="rId56" xr:uid="{4549510F-312F-4CF8-9BB0-AD8656633232}"/>
-    <hyperlink ref="D65" r:id="rId57" xr:uid="{207132B1-34FA-4961-9CAB-A869359197D5}"/>
-    <hyperlink ref="E65" r:id="rId58" xr:uid="{2BE9CEF3-3A49-4F3D-9BFE-0F210F89020D}"/>
-    <hyperlink ref="D66" r:id="rId59" xr:uid="{4FE13D19-33B5-4516-8260-51B6A0D5BFA3}"/>
-    <hyperlink ref="E66" r:id="rId60" xr:uid="{24F13956-70D4-47E4-AA77-ED1ECE466E9B}"/>
-    <hyperlink ref="F66" r:id="rId61" xr:uid="{5E172610-43DE-4A19-B082-AC7A6BDF6B8C}"/>
-    <hyperlink ref="G66" r:id="rId62" xr:uid="{489955B8-6E8B-4186-81E4-B68218914D91}"/>
-    <hyperlink ref="D67" r:id="rId63" xr:uid="{7C2DAD79-80F7-4B2F-BCEB-89D08DAFE200}"/>
-    <hyperlink ref="E67" r:id="rId64" xr:uid="{8743C6BB-8FBF-476D-95F4-035A548BA38F}"/>
-    <hyperlink ref="F67" r:id="rId65" xr:uid="{ED99DEBC-549D-438D-B13B-26367EA3DDD7}"/>
-    <hyperlink ref="G67" r:id="rId66" xr:uid="{EA484B3E-9C61-4492-9A50-6F3964F8795D}"/>
-    <hyperlink ref="H67" r:id="rId67" xr:uid="{864AE309-4E0A-44A1-B303-A2F1A4A0297B}"/>
-    <hyperlink ref="I67" r:id="rId68" xr:uid="{3DB4FAC7-8715-4F17-B3C1-F6163570686C}"/>
-    <hyperlink ref="D68" r:id="rId69" xr:uid="{0502039E-2F36-475E-9926-BC8EC1A6FEF6}"/>
-    <hyperlink ref="E68" r:id="rId70" xr:uid="{1E7BBF5A-B989-43FB-ACC8-5895F3CDF9F0}"/>
-    <hyperlink ref="F68" r:id="rId71" xr:uid="{59ED70AC-6B48-491D-85B4-0D1E56CA68C1}"/>
-    <hyperlink ref="G68" r:id="rId72" xr:uid="{94044289-FB09-498E-9776-57B9264E0AF9}"/>
-    <hyperlink ref="H68" r:id="rId73" xr:uid="{4EC8CE29-EC3A-4841-94F1-859C65763BC4}"/>
-    <hyperlink ref="I68" r:id="rId74" xr:uid="{B584CD59-7921-4D8F-AD36-A3FBCA81B555}"/>
-    <hyperlink ref="J68" r:id="rId75" xr:uid="{BBAE8599-1A7D-4F05-8115-6EBAE89C58BE}"/>
-    <hyperlink ref="K68" r:id="rId76" xr:uid="{0D99262A-6C1A-426C-ABE1-7C2B04A698D0}"/>
-    <hyperlink ref="L68" r:id="rId77" xr:uid="{07FCB2E9-C53C-46B0-A6B6-1267A6DED228}"/>
-    <hyperlink ref="D69" r:id="rId78" xr:uid="{40C56C20-3BE4-413E-B482-72434CCD678C}"/>
-    <hyperlink ref="D70" r:id="rId79" xr:uid="{E9DE2E0A-6748-4ECA-819A-EFA6231F8B4F}"/>
-    <hyperlink ref="E70" r:id="rId80" xr:uid="{EB3A3A21-2CD6-4AD0-ADFF-83D40721D538}"/>
-    <hyperlink ref="D71" r:id="rId81" xr:uid="{576818BB-AFF0-4178-9FC2-02C6CEBCC187}"/>
-    <hyperlink ref="E71" r:id="rId82" xr:uid="{E347CC51-11FF-47F0-A280-4239A35DEDE6}"/>
-    <hyperlink ref="F71" r:id="rId83" xr:uid="{BFB69ACB-BA2D-4DE8-BB09-79D32BBEE6CD}"/>
-    <hyperlink ref="G71" r:id="rId84" xr:uid="{A472FBFF-6591-4A13-ACDD-253CF2890018}"/>
-    <hyperlink ref="H71" r:id="rId85" xr:uid="{71FE9FEC-8CD0-4B32-891F-EE29202ED9D1}"/>
-    <hyperlink ref="I71" r:id="rId86" xr:uid="{0844DFCB-3E98-4998-8BE5-C20742492164}"/>
-    <hyperlink ref="J71" r:id="rId87" xr:uid="{07F106E4-A31C-4934-A447-31C4F9AE22A6}"/>
-    <hyperlink ref="K71" r:id="rId88" xr:uid="{8C14BF1B-AEC0-44A1-9B9F-04DF8D4A1F39}"/>
-    <hyperlink ref="L71" r:id="rId89" xr:uid="{03371DBE-E492-460F-8504-18E15667A886}"/>
-    <hyperlink ref="M71" r:id="rId90" xr:uid="{701108C8-71C3-409C-927B-998B7A310164}"/>
-    <hyperlink ref="N71" r:id="rId91" xr:uid="{80577237-8D5C-4AF7-A131-734507C3992A}"/>
-    <hyperlink ref="O71" r:id="rId92" xr:uid="{755DDEB3-F86D-47E0-AB64-9F69BE1BDA35}"/>
-    <hyperlink ref="P71" r:id="rId93" xr:uid="{0CBED192-B223-4539-BB16-07BF36B16214}"/>
-    <hyperlink ref="Q71" r:id="rId94" xr:uid="{6B90EB52-8023-465A-8EF0-B373AD2D3E90}"/>
-    <hyperlink ref="R71" r:id="rId95" xr:uid="{71B825D7-0B4B-4AAE-8E55-1D28D21E1E73}"/>
-    <hyperlink ref="S71" r:id="rId96" xr:uid="{DB590046-FB32-4068-82F7-623105B6F952}"/>
-    <hyperlink ref="T71" r:id="rId97" xr:uid="{43F22B1E-5695-46C0-9297-85FFB13AC69D}"/>
-    <hyperlink ref="U71" r:id="rId98" xr:uid="{E3DB0ACB-CD59-472A-9958-0C2B51A4F314}"/>
-    <hyperlink ref="V71" r:id="rId99" xr:uid="{551E7886-6F83-46E0-8944-52C273086E64}"/>
-    <hyperlink ref="W71" r:id="rId100" xr:uid="{83835B58-B336-42F1-AC36-961A9BAA832E}"/>
-    <hyperlink ref="D72" r:id="rId101" xr:uid="{E10C270B-B270-419C-A9FA-9B8D59CA4EF9}"/>
-    <hyperlink ref="E72" r:id="rId102" xr:uid="{B282D23C-EF02-4FF6-B426-BE072A7E5B8C}"/>
-    <hyperlink ref="F72" r:id="rId103" xr:uid="{DB2CA9DD-BE2F-4414-A022-B732C0D34B24}"/>
-    <hyperlink ref="G72" r:id="rId104" xr:uid="{B3F7C7FD-B8B5-494B-909E-8D4803198C07}"/>
-    <hyperlink ref="H72" r:id="rId105" xr:uid="{E9352CE3-8505-4877-BA90-6E2FBAF65A70}"/>
-    <hyperlink ref="I72" r:id="rId106" xr:uid="{10AB752E-9EB0-410E-99AD-64B1BAD53AAF}"/>
-    <hyperlink ref="J72" r:id="rId107" xr:uid="{ECE97B0C-97A1-4E4C-AF06-CA196E25E321}"/>
-    <hyperlink ref="K72" r:id="rId108" xr:uid="{02C8920A-4253-4494-988D-FF4B4E3545A8}"/>
-    <hyperlink ref="L72" r:id="rId109" xr:uid="{CE7444CC-D3E2-431E-8B1B-3EF111DE7492}"/>
-    <hyperlink ref="D77" r:id="rId110" xr:uid="{344751B6-F05B-4009-95E0-CB898ADEB159}"/>
-    <hyperlink ref="E77" r:id="rId111" xr:uid="{527EF238-2A21-4DF2-89F8-38245C4F5BFA}"/>
-    <hyperlink ref="G77" r:id="rId112" xr:uid="{6D9FE7A8-3381-492D-8E7E-D0C5F8A703B7}"/>
-    <hyperlink ref="F77" r:id="rId113" xr:uid="{005F1371-3B04-4D06-BD35-F146D983F3CB}"/>
-    <hyperlink ref="D81" r:id="rId114" xr:uid="{F089EE6D-851D-4D2C-AF69-E0C07BD244CB}"/>
-    <hyperlink ref="D82" r:id="rId115" xr:uid="{01C6AA7F-59A8-4BEF-B52B-2A6AD22A724B}"/>
-    <hyperlink ref="E82" r:id="rId116" xr:uid="{7F29DEDF-E761-41CE-9903-99B5C7B903F5}"/>
-    <hyperlink ref="F82" r:id="rId117" xr:uid="{D7DC41C7-0CCC-4D2B-BF60-17A47162286B}"/>
-    <hyperlink ref="G82" r:id="rId118" xr:uid="{A7A2459A-1BD2-4126-826F-0649AA54B2B4}"/>
-    <hyperlink ref="H82" r:id="rId119" xr:uid="{B595072B-8DE4-42D5-AF71-E9E8B4CBD574}"/>
-    <hyperlink ref="I82" r:id="rId120" xr:uid="{6FCBEE3F-E64D-419D-B5BF-44B6368EB184}"/>
-    <hyperlink ref="J82" r:id="rId121" xr:uid="{D1FC6885-5690-4525-8A88-53518444F874}"/>
-    <hyperlink ref="K82" r:id="rId122" xr:uid="{5E7B13B8-6DBD-4BB6-ABE3-61465AEC4364}"/>
-    <hyperlink ref="D83" r:id="rId123" xr:uid="{511D87CC-D70F-41F8-A14A-30074F90CD50}"/>
-    <hyperlink ref="D84" r:id="rId124" xr:uid="{B09C1376-C013-4BA0-A8DD-628D62DD96AD}"/>
-    <hyperlink ref="D96" r:id="rId125" xr:uid="{F841E600-2066-4194-BD3B-7CD5FB386FE9}"/>
-    <hyperlink ref="E96" r:id="rId126" xr:uid="{2BAB6CC8-57B5-4B48-A87C-32635B0DF071}"/>
-    <hyperlink ref="D119" r:id="rId127" xr:uid="{05F85689-819A-4A74-95A9-61FD149B28C5}"/>
-    <hyperlink ref="E119" r:id="rId128" xr:uid="{12CB9FBB-A852-44F7-A203-CB9FE588C36B}"/>
-    <hyperlink ref="F119" r:id="rId129" xr:uid="{DA8129E8-AF9A-42E6-8881-ED8B394499F5}"/>
-    <hyperlink ref="G119" r:id="rId130" xr:uid="{BD036F21-B023-4009-813E-218A89A18C91}"/>
-    <hyperlink ref="D121" r:id="rId131" xr:uid="{900CB1FA-EFAD-4AB6-9FFF-2353AF048876}"/>
-    <hyperlink ref="D123" r:id="rId132" xr:uid="{E4F6B677-6073-4196-99C1-E99D35A90627}"/>
-    <hyperlink ref="E123" r:id="rId133" xr:uid="{14B152DA-4572-4411-BF6D-F12E7606615C}"/>
-    <hyperlink ref="D124" r:id="rId134" xr:uid="{BCC2F946-78D9-4659-923C-A6694B694855}"/>
-    <hyperlink ref="D126" r:id="rId135" xr:uid="{5DBC946C-0AFC-4E25-B2F8-CED8E25981ED}"/>
-    <hyperlink ref="E126" r:id="rId136" xr:uid="{625D7D74-28C1-4E5E-BD2A-6D2F61A8FC65}"/>
-    <hyperlink ref="D136" r:id="rId137" xr:uid="{1728EE38-2DF9-42CA-A5B1-A0E0C62751B0}"/>
-    <hyperlink ref="E136" r:id="rId138" xr:uid="{ED84C99B-9F9A-463E-95C2-927EEF5F4D13}"/>
-    <hyperlink ref="D137" r:id="rId139" xr:uid="{F447741B-7B9C-4FB3-A154-0E6BC98C5A8B}"/>
-    <hyperlink ref="D138" r:id="rId140" xr:uid="{1E58336F-5ACA-4CE1-A813-7744EAEF2457}"/>
-    <hyperlink ref="D168" r:id="rId141" xr:uid="{4D617FEC-31E7-43EC-80F1-B7B172AF456C}"/>
-    <hyperlink ref="E168" r:id="rId142" xr:uid="{4146683C-63BC-495F-B573-48F36EA57860}"/>
-    <hyperlink ref="D169" r:id="rId143" xr:uid="{71537D31-F168-464D-A79C-963E01B6DB0B}"/>
-    <hyperlink ref="E169" r:id="rId144" xr:uid="{DA03138A-A3C7-4EE3-ABD2-2CCEF85C2B33}"/>
-    <hyperlink ref="F169" r:id="rId145" xr:uid="{AF86B621-C3FB-4FD3-A9DA-FDFE19B92C03}"/>
-    <hyperlink ref="G169" r:id="rId146" xr:uid="{DB7404A4-FE8D-4B3F-9D58-6F85710783B8}"/>
-    <hyperlink ref="H169" r:id="rId147" xr:uid="{ACA995FC-1566-4E82-A94C-127401AE7BD9}"/>
-    <hyperlink ref="I169" r:id="rId148" xr:uid="{147666A0-2325-4DFE-8CFE-BBDFF6396348}"/>
-    <hyperlink ref="D170" r:id="rId149" xr:uid="{2709DD58-6608-43D7-A54D-D1641255ABC5}"/>
-    <hyperlink ref="E170" r:id="rId150" xr:uid="{2AAFDA22-3C89-46B2-A880-3E124BC14E59}"/>
-    <hyperlink ref="D171" r:id="rId151" xr:uid="{B86F5395-62A8-49E1-AD1F-EEFD763DA1B7}"/>
-    <hyperlink ref="D184" r:id="rId152" xr:uid="{72C79066-5B6E-4CE7-BACE-F1737DDA59CB}"/>
-    <hyperlink ref="D201" r:id="rId153" xr:uid="{911E8819-9B83-440C-A52F-A721E540DF80}"/>
-    <hyperlink ref="E201" r:id="rId154" xr:uid="{46F6EC9E-3D03-4FCC-B8F0-2CA7D3BC8E71}"/>
-    <hyperlink ref="F201" r:id="rId155" xr:uid="{743827E6-6FA5-4DA6-A380-0B8A6F8028F6}"/>
-    <hyperlink ref="G201" r:id="rId156" xr:uid="{0384AE93-C7CE-4B08-AD00-BD75D9657F13}"/>
-    <hyperlink ref="H201" r:id="rId157" xr:uid="{E8423CCC-96E2-40EB-B16F-9232402B57AE}"/>
-    <hyperlink ref="I201" r:id="rId158" xr:uid="{510DEB5D-9F36-4114-9BF6-096B317CE2AC}"/>
-    <hyperlink ref="D215" r:id="rId159" xr:uid="{22EAB6CF-2591-4AA6-859C-8AFE24E0FEA8}"/>
-    <hyperlink ref="E215" r:id="rId160" xr:uid="{5C69A82B-EBDA-4E1D-AC2F-53899E14F85B}"/>
-    <hyperlink ref="G215" r:id="rId161" xr:uid="{5DE9FFF6-55FD-4FBB-9165-1FE07732B157}"/>
-    <hyperlink ref="H215" r:id="rId162" xr:uid="{95CFEB41-C529-4A99-8C8C-9B6F1FD94AAA}"/>
-    <hyperlink ref="F215" r:id="rId163" xr:uid="{8AC21ADD-1DA9-4413-A0DA-37F36DBA5C94}"/>
-    <hyperlink ref="D223" r:id="rId164" xr:uid="{7944199D-9665-4DBB-9E3D-5ED823260F59}"/>
-    <hyperlink ref="E223" r:id="rId165" xr:uid="{9F9CDCB4-B37A-46AE-9CF3-823DAFCED279}"/>
-    <hyperlink ref="D236" r:id="rId166" xr:uid="{9B59D698-5FBE-4383-A17D-61A2F3975C48}"/>
-    <hyperlink ref="E236" r:id="rId167" xr:uid="{B522C5C1-368C-4F17-80FD-2D2FA384EC83}"/>
-    <hyperlink ref="F236" r:id="rId168" xr:uid="{F276E04B-4B82-4FBF-862E-203B03943397}"/>
-    <hyperlink ref="G236" r:id="rId169" xr:uid="{F6829AE6-1EFD-4DA8-81BD-6239979CD87A}"/>
-    <hyperlink ref="H236" r:id="rId170" xr:uid="{8E0056EA-F973-4C64-90C5-48047729F807}"/>
-    <hyperlink ref="D241" r:id="rId171" xr:uid="{BB4B0A54-EA34-48A1-81EC-83CA27033611}"/>
-    <hyperlink ref="E241" r:id="rId172" xr:uid="{6F79A2AB-E2A6-4ABB-9D61-317621757C05}"/>
-    <hyperlink ref="F241" r:id="rId173" xr:uid="{13304604-9C7F-4108-A2DB-0C073DD6F816}"/>
-    <hyperlink ref="G241" r:id="rId174" xr:uid="{B3134AC8-8FC9-4C20-A543-31D77BDCDFA5}"/>
-    <hyperlink ref="D244" r:id="rId175" xr:uid="{497EDE61-16C1-48E5-AF49-6DE4D00CAF28}"/>
-    <hyperlink ref="D249" r:id="rId176" xr:uid="{B0B75C0A-DE10-48B7-91A4-39C9B49F1190}"/>
-    <hyperlink ref="D261" r:id="rId177" xr:uid="{8A3EDDF6-53C6-45B7-BC9A-EFB77A0C6405}"/>
-    <hyperlink ref="D262" r:id="rId178" xr:uid="{7EBF8210-1C5C-475A-9EE7-23C46ED89C8B}"/>
-    <hyperlink ref="D263" r:id="rId179" xr:uid="{ED130BCB-75ED-439B-8801-7052A4A8644E}"/>
-    <hyperlink ref="D264" r:id="rId180" xr:uid="{349A15DC-EC7B-435F-8D8F-ED27A30327E2}"/>
-    <hyperlink ref="E264" r:id="rId181" xr:uid="{5CC81365-8CB1-4F4B-A7D8-44DCBA999310}"/>
-    <hyperlink ref="F264" r:id="rId182" xr:uid="{4F407D3E-2072-466D-BE81-5BEBEFBD46E4}"/>
-    <hyperlink ref="G264" r:id="rId183" xr:uid="{8C3FB8F0-4C96-4D39-9CEF-2D65F3D19C9B}"/>
-    <hyperlink ref="H264" r:id="rId184" xr:uid="{ECEBF426-3489-4245-A230-B1F3362215FB}"/>
-    <hyperlink ref="I264" r:id="rId185" xr:uid="{AD485175-2FF3-4005-AB97-E839ED91E8BD}"/>
-    <hyperlink ref="J264" r:id="rId186" xr:uid="{16E19AE0-A50A-4038-A2AB-AC86B1D5529A}"/>
-    <hyperlink ref="K264" r:id="rId187" xr:uid="{6D981592-6410-42D7-AA59-35BFAD0702AA}"/>
-    <hyperlink ref="L264" r:id="rId188" xr:uid="{9EAEC803-21CE-46CA-A8AA-B88F8BAF2A0B}"/>
-    <hyperlink ref="D265" r:id="rId189" xr:uid="{7732C70A-7F0E-48B9-A85E-E3A4EF7E3DBF}"/>
-    <hyperlink ref="D266" r:id="rId190" xr:uid="{8BFFCD31-BE20-4197-91F8-9818BA8BF4AE}"/>
-    <hyperlink ref="D274" r:id="rId191" xr:uid="{3D79C244-5F51-47DB-8DCF-8B14BE504C64}"/>
-    <hyperlink ref="D284" r:id="rId192" xr:uid="{D24407FF-13EC-4F35-8B38-4389246EB75D}"/>
-    <hyperlink ref="E284" r:id="rId193" xr:uid="{1B1D4A32-74D6-4B1A-8DD6-DD01C908B0E8}"/>
-    <hyperlink ref="F284" r:id="rId194" xr:uid="{87F6A76D-0ADD-4040-9A1F-1A367B575759}"/>
-    <hyperlink ref="G284" r:id="rId195" xr:uid="{044F46CE-6671-4F34-96C5-B69C16EA3E39}"/>
-    <hyperlink ref="H284" r:id="rId196" xr:uid="{4B4A7088-672A-4B43-A9BC-836E1ABD2AAE}"/>
-    <hyperlink ref="I284" r:id="rId197" xr:uid="{2C193EA9-29D1-4714-AB5A-C2777C7DA307}"/>
-    <hyperlink ref="J284" r:id="rId198" xr:uid="{800CF499-2C4F-4CD9-A3B6-739231958233}"/>
-    <hyperlink ref="K284" r:id="rId199" xr:uid="{E621632C-2D4B-4FB7-8A33-C147C971F519}"/>
-    <hyperlink ref="D296" r:id="rId200" xr:uid="{C07F1FE5-7D9A-4480-8193-87BB4384EDD5}"/>
-    <hyperlink ref="E303" r:id="rId201" xr:uid="{5987DCDE-C0D1-4BCC-B9F9-DBEA33D757B9}"/>
-    <hyperlink ref="D303" r:id="rId202" xr:uid="{8DF4BE91-1068-41B9-92FD-E242163D972D}"/>
-    <hyperlink ref="D304" r:id="rId203" xr:uid="{4728DC73-AD53-40CF-8C18-3D028ACD6C5C}"/>
-    <hyperlink ref="D320" r:id="rId204" xr:uid="{BFF419A3-B55B-4B4F-8276-C525791843CE}"/>
-    <hyperlink ref="D321" r:id="rId205" xr:uid="{DB200AA8-7D47-4726-BAF8-F6B5C743EE7E}"/>
-    <hyperlink ref="E321" r:id="rId206" xr:uid="{C80772A0-8A18-4052-866F-DFA6A12E4B99}"/>
-    <hyperlink ref="D327" r:id="rId207" xr:uid="{396EB1BE-791F-402C-A419-E07362BA60FC}"/>
-    <hyperlink ref="D334" r:id="rId208" xr:uid="{963E803C-F09B-4282-BA5C-168C9FA65036}"/>
-    <hyperlink ref="E334" r:id="rId209" xr:uid="{5E758D1B-3D6F-4BA6-8788-9B91A3B34088}"/>
-    <hyperlink ref="F334" r:id="rId210" xr:uid="{89C71FE4-4C36-4DF6-B50B-AD0A8E33E3E7}"/>
-    <hyperlink ref="G334" r:id="rId211" xr:uid="{F2198727-77A5-4A9D-B369-DB395C6CD098}"/>
-    <hyperlink ref="H334" r:id="rId212" xr:uid="{EFC425E2-D800-4A3D-9F83-04C528904387}"/>
-    <hyperlink ref="D364" r:id="rId213" xr:uid="{500078E0-7A47-444B-BF4C-06502CA18684}"/>
-    <hyperlink ref="E364" r:id="rId214" xr:uid="{6A72D9F5-81C4-4464-9CCE-0AED0FF6E80A}"/>
-    <hyperlink ref="D368" r:id="rId215" xr:uid="{DD8B1EBC-D47B-49C9-A8B4-F279AE2D92D5}"/>
-    <hyperlink ref="E368" r:id="rId216" xr:uid="{67EFF7BB-5C5B-47F4-AB4C-4BD6C4EB4941}"/>
-    <hyperlink ref="F368" r:id="rId217" xr:uid="{785D9193-8260-40D9-AA0A-A6ECAF1A808C}"/>
-    <hyperlink ref="G368" r:id="rId218" xr:uid="{14C9681D-4874-48B5-B25E-7E1AC14663B5}"/>
-    <hyperlink ref="H368" r:id="rId219" xr:uid="{12319D18-C183-467A-B89E-6E16433E20FF}"/>
-    <hyperlink ref="I368" r:id="rId220" xr:uid="{41254C20-C32F-4870-A4BF-0E2B698951EC}"/>
-    <hyperlink ref="J368" r:id="rId221" xr:uid="{0BACDEB3-06F5-4839-BA63-AF092671B6BC}"/>
-    <hyperlink ref="K368" r:id="rId222" xr:uid="{C91D41C4-F740-4ECE-B7D5-BDC7D31AC3DD}"/>
-    <hyperlink ref="D369" r:id="rId223" xr:uid="{B5EE64D8-4834-469C-ACBA-4D3A993910AC}"/>
-    <hyperlink ref="E369" r:id="rId224" xr:uid="{711EE95E-62E1-44FF-B968-C30F8229D18E}"/>
-    <hyperlink ref="D375" r:id="rId225" xr:uid="{20AA1588-1AD6-49A3-A26C-344DC8341E2C}"/>
-    <hyperlink ref="E375" r:id="rId226" xr:uid="{A5047222-3232-4F45-A1B0-447782D01EB8}"/>
-    <hyperlink ref="D383" r:id="rId227" xr:uid="{0A1417A7-EBA8-4641-9DC2-9C89A113558F}"/>
-    <hyperlink ref="E383" r:id="rId228" xr:uid="{542E56F6-05AE-4D44-8346-C3F3FC39FBB7}"/>
-    <hyperlink ref="D384" r:id="rId229" xr:uid="{47311264-ABB2-41C4-81B8-F9669327F3D6}"/>
-    <hyperlink ref="E384" r:id="rId230" xr:uid="{352A143E-5660-41A9-94E4-7162D82364D8}"/>
-    <hyperlink ref="F384" r:id="rId231" xr:uid="{1B497C03-0939-4720-9952-F58E194262E6}"/>
-    <hyperlink ref="D385" r:id="rId232" xr:uid="{A50A9CA3-B5F3-4948-A0FD-FCD6DE7376B6}"/>
-    <hyperlink ref="D386" r:id="rId233" xr:uid="{20DAAD2A-51FC-46A9-9D3B-CBBAD5456DF7}"/>
-    <hyperlink ref="E386" r:id="rId234" xr:uid="{9397DF03-4275-4963-A37A-21DD2CEAA03C}"/>
-    <hyperlink ref="F386" r:id="rId235" xr:uid="{CD02FEFA-3EF1-4749-B483-6D1523A103CC}"/>
-    <hyperlink ref="G386" r:id="rId236" xr:uid="{3EF974CC-D30B-4FAC-B645-F438FCDBA660}"/>
-    <hyperlink ref="D387" r:id="rId237" xr:uid="{325E095B-4C8E-4BDC-AAEC-2423078C5B12}"/>
-    <hyperlink ref="E387" r:id="rId238" xr:uid="{05070ECF-47B5-4EE7-A505-331DD170BA7A}"/>
-    <hyperlink ref="F387" r:id="rId239" xr:uid="{EEE48E95-878B-4B65-97C0-86E70EF45156}"/>
-    <hyperlink ref="G387" r:id="rId240" xr:uid="{52FA2EC9-C622-41E1-8115-99227031E76C}"/>
-    <hyperlink ref="H387" r:id="rId241" xr:uid="{E4CD4CC6-F0BE-4D83-B53B-961BE5CE6532}"/>
-    <hyperlink ref="D388" r:id="rId242" xr:uid="{3F8AF0FD-8B3D-409C-A76F-1D687AAA6C5F}"/>
-    <hyperlink ref="E388" r:id="rId243" xr:uid="{B976CA90-2546-4869-9A63-1590AB1209AC}"/>
-    <hyperlink ref="F388" r:id="rId244" xr:uid="{A1863009-A1D3-47A6-B03D-551E57070CA4}"/>
-    <hyperlink ref="G388" r:id="rId245" xr:uid="{B557EAF8-F2BF-41F2-BDFA-A9DEF7921CAA}"/>
-    <hyperlink ref="H388" r:id="rId246" xr:uid="{DE1B0EA0-8944-4F28-B4FD-37074DF70AE1}"/>
-    <hyperlink ref="I388" r:id="rId247" xr:uid="{4FE81C3F-0FD5-4C5C-A535-419126836CEE}"/>
-    <hyperlink ref="D389" r:id="rId248" xr:uid="{E82174FD-EC20-447A-BE93-5775E081CE0B}"/>
-    <hyperlink ref="E389" r:id="rId249" xr:uid="{5623BA65-1E02-4CE5-87A4-E4376B58A659}"/>
-    <hyperlink ref="F389" r:id="rId250" xr:uid="{4634900E-8974-4C1A-9B89-5AE384FDC22F}"/>
-    <hyperlink ref="G389" r:id="rId251" xr:uid="{E6FB04BD-7879-4C61-9017-9C2B94F64B4D}"/>
+    <hyperlink ref="D13" r:id="rId1" xr:uid="{1DF90F01-E6AB-4DF9-91DC-0680B0719223}"/>
+    <hyperlink ref="D11" r:id="rId2" xr:uid="{080D91F2-9070-46D4-9C3E-3D0FC0BC5B4E}"/>
+    <hyperlink ref="D12" r:id="rId3" xr:uid="{51560AF5-E6A4-452E-9566-CC4A224601E7}"/>
+    <hyperlink ref="E13" r:id="rId4" xr:uid="{05D915CE-4EBB-4E36-8A3B-6072A2CE4E80}"/>
+    <hyperlink ref="D14" r:id="rId5" xr:uid="{5995EAAF-4256-4F16-A9B4-DFC5F3DDD93B}"/>
+    <hyperlink ref="D16" r:id="rId6" xr:uid="{47B78364-4363-425C-9097-1FFC6C5C4472}"/>
+    <hyperlink ref="D17" r:id="rId7" xr:uid="{C0034ACE-F8D9-4B04-99DA-124B4F1CDF40}"/>
+    <hyperlink ref="E17" r:id="rId8" xr:uid="{01EBEF47-0A2E-4990-BE0E-21D6BDE38FB9}"/>
+    <hyperlink ref="D19" r:id="rId9" xr:uid="{B50B4B12-15E9-48B9-94CE-4703CDC6655D}"/>
+    <hyperlink ref="E19" r:id="rId10" xr:uid="{9B097362-388B-4F3C-AE8A-952E0788DF6F}"/>
+    <hyperlink ref="D20" r:id="rId11" xr:uid="{FB6D90C2-5D62-4881-9559-38995333319C}"/>
+    <hyperlink ref="E20" r:id="rId12" xr:uid="{9E11E448-4BC6-4C9D-9F64-1B3F23888F3B}"/>
+    <hyperlink ref="F20" r:id="rId13" xr:uid="{4FFC44F0-79B8-4DA9-87F8-1D30774C2725}"/>
+    <hyperlink ref="G20" r:id="rId14" xr:uid="{D5188A0F-8798-482F-A698-972D6E1D71F8}"/>
+    <hyperlink ref="H20" r:id="rId15" xr:uid="{CBCE6ABF-4084-4063-93A5-A1479817AF8B}"/>
+    <hyperlink ref="D21" r:id="rId16" xr:uid="{BE121AE1-AAF9-4F09-9C5D-D95698F2EE2C}"/>
+    <hyperlink ref="E21" r:id="rId17" xr:uid="{5CA5F7BB-A823-4691-BD6F-9C136C311901}"/>
+    <hyperlink ref="D22" r:id="rId18" xr:uid="{AF76F11D-BD0A-4D16-8068-E84C4AAA396B}"/>
+    <hyperlink ref="D23" r:id="rId19" xr:uid="{8629FB8D-CB26-48B9-8413-5E924CF885C9}"/>
+    <hyperlink ref="E23" r:id="rId20" xr:uid="{92521079-233F-4539-A7EB-6C0161222760}"/>
+    <hyperlink ref="F23" r:id="rId21" xr:uid="{D9DFDE2A-DDA2-410C-8664-2F3743E41CED}"/>
+    <hyperlink ref="G23" r:id="rId22" xr:uid="{16191421-7932-422E-B1FA-4979365BBB9B}"/>
+    <hyperlink ref="H23" r:id="rId23" xr:uid="{F7FE4E43-835E-49EC-AE1E-C2E626FDB0E1}"/>
+    <hyperlink ref="D24" r:id="rId24" xr:uid="{CA2B7910-8C56-4E8B-8616-222BB1C7046D}"/>
+    <hyperlink ref="D28" r:id="rId25" xr:uid="{FCB09CBE-386B-446F-A71B-2BE0BF4B07A1}"/>
+    <hyperlink ref="E28" r:id="rId26" xr:uid="{9B6787C7-5B3C-49AE-8C52-8D1731AC5963}"/>
+    <hyperlink ref="F28" r:id="rId27" xr:uid="{FEB5713A-09AE-4FE6-988B-C5F6F1C1763D}"/>
+    <hyperlink ref="D31" r:id="rId28" xr:uid="{67C27775-3BDB-417F-8F98-C444D9AC546A}"/>
+    <hyperlink ref="D37" r:id="rId29" xr:uid="{0CEB4D6B-5D9E-4DAB-96E8-AF3ED62E9F66}"/>
+    <hyperlink ref="D40" r:id="rId30" xr:uid="{31268C73-821D-49FE-B174-DC56267916D7}"/>
+    <hyperlink ref="D47" r:id="rId31" xr:uid="{63B83117-1FC7-4E82-875F-76D9B5F4A8A3}"/>
+    <hyperlink ref="D48" r:id="rId32" xr:uid="{904E8AE7-F0BF-4C21-AA95-5FB6F653637F}"/>
+    <hyperlink ref="E48" r:id="rId33" xr:uid="{9890B575-3715-49E3-89D6-215E7F6B38AF}"/>
+    <hyperlink ref="D50" r:id="rId34" xr:uid="{0CC7F680-C760-437D-A26D-A660BC166796}"/>
+    <hyperlink ref="E50" r:id="rId35" xr:uid="{609B2E59-2C69-4D6A-AD30-C9AABCA579B4}"/>
+    <hyperlink ref="F50" r:id="rId36" xr:uid="{BFDEFB11-43DF-4694-B228-96D6BEF56EAE}"/>
+    <hyperlink ref="D51" r:id="rId37" xr:uid="{810D75F7-DE57-43B8-A783-AEAB75FB173F}"/>
+    <hyperlink ref="E51" r:id="rId38" xr:uid="{BF7AD69F-AD98-4D2E-9646-5835D088281E}"/>
+    <hyperlink ref="D52" r:id="rId39" xr:uid="{67BA5BBF-5FDE-4EF5-A430-9B0BB51CBB87}"/>
+    <hyperlink ref="E52" r:id="rId40" xr:uid="{F73FFD49-A274-4902-B00A-CE3A3646F565}"/>
+    <hyperlink ref="D55" r:id="rId41" xr:uid="{DA0880F2-BE10-46C5-BA2A-C1B4F64E74E7}"/>
+    <hyperlink ref="E55" r:id="rId42" xr:uid="{93D3B1DA-CD44-468F-919E-4E134937E30D}"/>
+    <hyperlink ref="D56" r:id="rId43" xr:uid="{96F8A88E-AB41-40DA-AFF1-4FEA47E1F8EE}"/>
+    <hyperlink ref="E56" r:id="rId44" xr:uid="{AF76A63C-BAA9-4D70-BBD0-14157F27CA83}"/>
+    <hyperlink ref="F56" r:id="rId45" xr:uid="{38C5DB52-B109-4A8B-9CCA-C53B66E86F77}"/>
+    <hyperlink ref="D57" r:id="rId46" xr:uid="{1972FFA8-6BCB-4AE6-B960-8AC1D14DCB4E}"/>
+    <hyperlink ref="E57" r:id="rId47" xr:uid="{587ADE45-B55B-4A16-8BF2-A5FAADFB8FA2}"/>
+    <hyperlink ref="F57" r:id="rId48" xr:uid="{ECD2D7F3-6912-454A-BD28-0173DF8F518B}"/>
+    <hyperlink ref="D58" r:id="rId49" xr:uid="{66C603A9-67D3-487F-B5C7-95E827925A91}"/>
+    <hyperlink ref="D59" r:id="rId50" xr:uid="{6B69BE12-EE8B-4822-8297-486AA09AA91D}"/>
+    <hyperlink ref="D60" r:id="rId51" xr:uid="{DFD325CE-5684-4F8D-8A9F-346B0D7FEFBF}"/>
+    <hyperlink ref="E60" r:id="rId52" xr:uid="{16045EC4-FB89-47E9-980F-833A952F7309}"/>
+    <hyperlink ref="D63" r:id="rId53" xr:uid="{21546C07-5277-48F2-9ED5-7876242116DF}"/>
+    <hyperlink ref="E63" r:id="rId54" xr:uid="{F7198EB4-B54B-4367-AABB-F147BCDE222B}"/>
+    <hyperlink ref="F63" r:id="rId55" xr:uid="{0534B3CC-87E7-4659-AEE0-2B51F541598C}"/>
+    <hyperlink ref="G63" r:id="rId56" xr:uid="{4549510F-312F-4CF8-9BB0-AD8656633232}"/>
+    <hyperlink ref="D64" r:id="rId57" xr:uid="{207132B1-34FA-4961-9CAB-A869359197D5}"/>
+    <hyperlink ref="E64" r:id="rId58" xr:uid="{2BE9CEF3-3A49-4F3D-9BFE-0F210F89020D}"/>
+    <hyperlink ref="D65" r:id="rId59" xr:uid="{4FE13D19-33B5-4516-8260-51B6A0D5BFA3}"/>
+    <hyperlink ref="E65" r:id="rId60" xr:uid="{24F13956-70D4-47E4-AA77-ED1ECE466E9B}"/>
+    <hyperlink ref="F65" r:id="rId61" xr:uid="{5E172610-43DE-4A19-B082-AC7A6BDF6B8C}"/>
+    <hyperlink ref="G65" r:id="rId62" xr:uid="{489955B8-6E8B-4186-81E4-B68218914D91}"/>
+    <hyperlink ref="D66" r:id="rId63" xr:uid="{7C2DAD79-80F7-4B2F-BCEB-89D08DAFE200}"/>
+    <hyperlink ref="E66" r:id="rId64" xr:uid="{8743C6BB-8FBF-476D-95F4-035A548BA38F}"/>
+    <hyperlink ref="F66" r:id="rId65" xr:uid="{ED99DEBC-549D-438D-B13B-26367EA3DDD7}"/>
+    <hyperlink ref="G66" r:id="rId66" xr:uid="{EA484B3E-9C61-4492-9A50-6F3964F8795D}"/>
+    <hyperlink ref="H66" r:id="rId67" xr:uid="{864AE309-4E0A-44A1-B303-A2F1A4A0297B}"/>
+    <hyperlink ref="I66" r:id="rId68" xr:uid="{3DB4FAC7-8715-4F17-B3C1-F6163570686C}"/>
+    <hyperlink ref="D67" r:id="rId69" xr:uid="{0502039E-2F36-475E-9926-BC8EC1A6FEF6}"/>
+    <hyperlink ref="E67" r:id="rId70" xr:uid="{1E7BBF5A-B989-43FB-ACC8-5895F3CDF9F0}"/>
+    <hyperlink ref="F67" r:id="rId71" xr:uid="{59ED70AC-6B48-491D-85B4-0D1E56CA68C1}"/>
+    <hyperlink ref="G67" r:id="rId72" xr:uid="{94044289-FB09-498E-9776-57B9264E0AF9}"/>
+    <hyperlink ref="H67" r:id="rId73" xr:uid="{4EC8CE29-EC3A-4841-94F1-859C65763BC4}"/>
+    <hyperlink ref="I67" r:id="rId74" xr:uid="{B584CD59-7921-4D8F-AD36-A3FBCA81B555}"/>
+    <hyperlink ref="J67" r:id="rId75" xr:uid="{BBAE8599-1A7D-4F05-8115-6EBAE89C58BE}"/>
+    <hyperlink ref="K67" r:id="rId76" xr:uid="{0D99262A-6C1A-426C-ABE1-7C2B04A698D0}"/>
+    <hyperlink ref="L67" r:id="rId77" xr:uid="{07FCB2E9-C53C-46B0-A6B6-1267A6DED228}"/>
+    <hyperlink ref="D68" r:id="rId78" xr:uid="{40C56C20-3BE4-413E-B482-72434CCD678C}"/>
+    <hyperlink ref="D69" r:id="rId79" xr:uid="{E9DE2E0A-6748-4ECA-819A-EFA6231F8B4F}"/>
+    <hyperlink ref="E69" r:id="rId80" xr:uid="{EB3A3A21-2CD6-4AD0-ADFF-83D40721D538}"/>
+    <hyperlink ref="D70" r:id="rId81" xr:uid="{576818BB-AFF0-4178-9FC2-02C6CEBCC187}"/>
+    <hyperlink ref="E70" r:id="rId82" xr:uid="{E347CC51-11FF-47F0-A280-4239A35DEDE6}"/>
+    <hyperlink ref="F70" r:id="rId83" xr:uid="{BFB69ACB-BA2D-4DE8-BB09-79D32BBEE6CD}"/>
+    <hyperlink ref="G70" r:id="rId84" xr:uid="{A472FBFF-6591-4A13-ACDD-253CF2890018}"/>
+    <hyperlink ref="H70" r:id="rId85" xr:uid="{71FE9FEC-8CD0-4B32-891F-EE29202ED9D1}"/>
+    <hyperlink ref="I70" r:id="rId86" xr:uid="{0844DFCB-3E98-4998-8BE5-C20742492164}"/>
+    <hyperlink ref="J70" r:id="rId87" xr:uid="{07F106E4-A31C-4934-A447-31C4F9AE22A6}"/>
+    <hyperlink ref="K70" r:id="rId88" xr:uid="{8C14BF1B-AEC0-44A1-9B9F-04DF8D4A1F39}"/>
+    <hyperlink ref="L70" r:id="rId89" xr:uid="{03371DBE-E492-460F-8504-18E15667A886}"/>
+    <hyperlink ref="M70" r:id="rId90" xr:uid="{701108C8-71C3-409C-927B-998B7A310164}"/>
+    <hyperlink ref="N70" r:id="rId91" xr:uid="{80577237-8D5C-4AF7-A131-734507C3992A}"/>
+    <hyperlink ref="O70" r:id="rId92" xr:uid="{755DDEB3-F86D-47E0-AB64-9F69BE1BDA35}"/>
+    <hyperlink ref="P70" r:id="rId93" xr:uid="{0CBED192-B223-4539-BB16-07BF36B16214}"/>
+    <hyperlink ref="Q70" r:id="rId94" xr:uid="{6B90EB52-8023-465A-8EF0-B373AD2D3E90}"/>
+    <hyperlink ref="R70" r:id="rId95" xr:uid="{71B825D7-0B4B-4AAE-8E55-1D28D21E1E73}"/>
+    <hyperlink ref="S70" r:id="rId96" xr:uid="{DB590046-FB32-4068-82F7-623105B6F952}"/>
+    <hyperlink ref="T70" r:id="rId97" xr:uid="{43F22B1E-5695-46C0-9297-85FFB13AC69D}"/>
+    <hyperlink ref="U70" r:id="rId98" xr:uid="{E3DB0ACB-CD59-472A-9958-0C2B51A4F314}"/>
+    <hyperlink ref="V70" r:id="rId99" xr:uid="{551E7886-6F83-46E0-8944-52C273086E64}"/>
+    <hyperlink ref="W70" r:id="rId100" xr:uid="{83835B58-B336-42F1-AC36-961A9BAA832E}"/>
+    <hyperlink ref="D71" r:id="rId101" xr:uid="{E10C270B-B270-419C-A9FA-9B8D59CA4EF9}"/>
+    <hyperlink ref="E71" r:id="rId102" xr:uid="{B282D23C-EF02-4FF6-B426-BE072A7E5B8C}"/>
+    <hyperlink ref="F71" r:id="rId103" xr:uid="{DB2CA9DD-BE2F-4414-A022-B732C0D34B24}"/>
+    <hyperlink ref="G71" r:id="rId104" xr:uid="{B3F7C7FD-B8B5-494B-909E-8D4803198C07}"/>
+    <hyperlink ref="H71" r:id="rId105" xr:uid="{E9352CE3-8505-4877-BA90-6E2FBAF65A70}"/>
+    <hyperlink ref="I71" r:id="rId106" xr:uid="{10AB752E-9EB0-410E-99AD-64B1BAD53AAF}"/>
+    <hyperlink ref="J71" r:id="rId107" xr:uid="{ECE97B0C-97A1-4E4C-AF06-CA196E25E321}"/>
+    <hyperlink ref="K71" r:id="rId108" xr:uid="{02C8920A-4253-4494-988D-FF4B4E3545A8}"/>
+    <hyperlink ref="L71" r:id="rId109" xr:uid="{CE7444CC-D3E2-431E-8B1B-3EF111DE7492}"/>
+    <hyperlink ref="D76" r:id="rId110" xr:uid="{344751B6-F05B-4009-95E0-CB898ADEB159}"/>
+    <hyperlink ref="E76" r:id="rId111" xr:uid="{527EF238-2A21-4DF2-89F8-38245C4F5BFA}"/>
+    <hyperlink ref="G76" r:id="rId112" xr:uid="{6D9FE7A8-3381-492D-8E7E-D0C5F8A703B7}"/>
+    <hyperlink ref="F76" r:id="rId113" xr:uid="{005F1371-3B04-4D06-BD35-F146D983F3CB}"/>
+    <hyperlink ref="D80" r:id="rId114" xr:uid="{F089EE6D-851D-4D2C-AF69-E0C07BD244CB}"/>
+    <hyperlink ref="D81" r:id="rId115" display="20231207\20231207_Rmaysh1\GreenSoutherners136 _20231207 أطراف رميش فوسفوري.jpeg" xr:uid="{01C6AA7F-59A8-4BEF-B52B-2A6AD22A724B}"/>
+    <hyperlink ref="E81" r:id="rId116" xr:uid="{7F29DEDF-E761-41CE-9903-99B5C7B903F5}"/>
+    <hyperlink ref="F81" r:id="rId117" xr:uid="{D7DC41C7-0CCC-4D2B-BF60-17A47162286B}"/>
+    <hyperlink ref="G81" r:id="rId118" xr:uid="{A7A2459A-1BD2-4126-826F-0649AA54B2B4}"/>
+    <hyperlink ref="H81" r:id="rId119" xr:uid="{B595072B-8DE4-42D5-AF71-E9E8B4CBD574}"/>
+    <hyperlink ref="I81" r:id="rId120" xr:uid="{6FCBEE3F-E64D-419D-B5BF-44B6368EB184}"/>
+    <hyperlink ref="J81" r:id="rId121" xr:uid="{D1FC6885-5690-4525-8A88-53518444F874}"/>
+    <hyperlink ref="K81" r:id="rId122" xr:uid="{5E7B13B8-6DBD-4BB6-ABE3-61465AEC4364}"/>
+    <hyperlink ref="D82" r:id="rId123" xr:uid="{511D87CC-D70F-41F8-A14A-30074F90CD50}"/>
+    <hyperlink ref="D83" r:id="rId124" xr:uid="{B09C1376-C013-4BA0-A8DD-628D62DD96AD}"/>
+    <hyperlink ref="D95" r:id="rId125" xr:uid="{F841E600-2066-4194-BD3B-7CD5FB386FE9}"/>
+    <hyperlink ref="E95" r:id="rId126" xr:uid="{2BAB6CC8-57B5-4B48-A87C-32635B0DF071}"/>
+    <hyperlink ref="D118" r:id="rId127" xr:uid="{05F85689-819A-4A74-95A9-61FD149B28C5}"/>
+    <hyperlink ref="E118" r:id="rId128" xr:uid="{12CB9FBB-A852-44F7-A203-CB9FE588C36B}"/>
+    <hyperlink ref="F118" r:id="rId129" xr:uid="{DA8129E8-AF9A-42E6-8881-ED8B394499F5}"/>
+    <hyperlink ref="G118" r:id="rId130" xr:uid="{BD036F21-B023-4009-813E-218A89A18C91}"/>
+    <hyperlink ref="D120" r:id="rId131" xr:uid="{900CB1FA-EFAD-4AB6-9FFF-2353AF048876}"/>
+    <hyperlink ref="D122" r:id="rId132" xr:uid="{E4F6B677-6073-4196-99C1-E99D35A90627}"/>
+    <hyperlink ref="E122" r:id="rId133" xr:uid="{14B152DA-4572-4411-BF6D-F12E7606615C}"/>
+    <hyperlink ref="D123" r:id="rId134" xr:uid="{BCC2F946-78D9-4659-923C-A6694B694855}"/>
+    <hyperlink ref="D125" r:id="rId135" xr:uid="{5DBC946C-0AFC-4E25-B2F8-CED8E25981ED}"/>
+    <hyperlink ref="E125" r:id="rId136" xr:uid="{625D7D74-28C1-4E5E-BD2A-6D2F61A8FC65}"/>
+    <hyperlink ref="D135" r:id="rId137" xr:uid="{1728EE38-2DF9-42CA-A5B1-A0E0C62751B0}"/>
+    <hyperlink ref="E135" r:id="rId138" xr:uid="{ED84C99B-9F9A-463E-95C2-927EEF5F4D13}"/>
+    <hyperlink ref="D136" r:id="rId139" xr:uid="{F447741B-7B9C-4FB3-A154-0E6BC98C5A8B}"/>
+    <hyperlink ref="D137" r:id="rId140" xr:uid="{1E58336F-5ACA-4CE1-A813-7744EAEF2457}"/>
+    <hyperlink ref="D167" r:id="rId141" xr:uid="{4D617FEC-31E7-43EC-80F1-B7B172AF456C}"/>
+    <hyperlink ref="E167" r:id="rId142" xr:uid="{4146683C-63BC-495F-B573-48F36EA57860}"/>
+    <hyperlink ref="D168" r:id="rId143" xr:uid="{71537D31-F168-464D-A79C-963E01B6DB0B}"/>
+    <hyperlink ref="E168" r:id="rId144" xr:uid="{DA03138A-A3C7-4EE3-ABD2-2CCEF85C2B33}"/>
+    <hyperlink ref="F168" r:id="rId145" xr:uid="{AF86B621-C3FB-4FD3-A9DA-FDFE19B92C03}"/>
+    <hyperlink ref="G168" r:id="rId146" xr:uid="{DB7404A4-FE8D-4B3F-9D58-6F85710783B8}"/>
+    <hyperlink ref="H168" r:id="rId147" xr:uid="{ACA995FC-1566-4E82-A94C-127401AE7BD9}"/>
+    <hyperlink ref="I168" r:id="rId148" xr:uid="{147666A0-2325-4DFE-8CFE-BBDFF6396348}"/>
+    <hyperlink ref="D169" r:id="rId149" xr:uid="{2709DD58-6608-43D7-A54D-D1641255ABC5}"/>
+    <hyperlink ref="E169" r:id="rId150" xr:uid="{2AAFDA22-3C89-46B2-A880-3E124BC14E59}"/>
+    <hyperlink ref="D170" r:id="rId151" xr:uid="{B86F5395-62A8-49E1-AD1F-EEFD763DA1B7}"/>
+    <hyperlink ref="D183" r:id="rId152" xr:uid="{72C79066-5B6E-4CE7-BACE-F1737DDA59CB}"/>
+    <hyperlink ref="D200" r:id="rId153" xr:uid="{911E8819-9B83-440C-A52F-A721E540DF80}"/>
+    <hyperlink ref="E200" r:id="rId154" xr:uid="{46F6EC9E-3D03-4FCC-B8F0-2CA7D3BC8E71}"/>
+    <hyperlink ref="F200" r:id="rId155" xr:uid="{743827E6-6FA5-4DA6-A380-0B8A6F8028F6}"/>
+    <hyperlink ref="G200" r:id="rId156" xr:uid="{0384AE93-C7CE-4B08-AD00-BD75D9657F13}"/>
+    <hyperlink ref="H200" r:id="rId157" xr:uid="{E8423CCC-96E2-40EB-B16F-9232402B57AE}"/>
+    <hyperlink ref="I200" r:id="rId158" xr:uid="{510DEB5D-9F36-4114-9BF6-096B317CE2AC}"/>
+    <hyperlink ref="D214" r:id="rId159" xr:uid="{22EAB6CF-2591-4AA6-859C-8AFE24E0FEA8}"/>
+    <hyperlink ref="E214" r:id="rId160" xr:uid="{5C69A82B-EBDA-4E1D-AC2F-53899E14F85B}"/>
+    <hyperlink ref="G214" r:id="rId161" xr:uid="{5DE9FFF6-55FD-4FBB-9165-1FE07732B157}"/>
+    <hyperlink ref="H214" r:id="rId162" xr:uid="{95CFEB41-C529-4A99-8C8C-9B6F1FD94AAA}"/>
+    <hyperlink ref="F214" r:id="rId163" xr:uid="{8AC21ADD-1DA9-4413-A0DA-37F36DBA5C94}"/>
+    <hyperlink ref="D222" r:id="rId164" xr:uid="{7944199D-9665-4DBB-9E3D-5ED823260F59}"/>
+    <hyperlink ref="E222" r:id="rId165" xr:uid="{9F9CDCB4-B37A-46AE-9CF3-823DAFCED279}"/>
+    <hyperlink ref="D235" r:id="rId166" xr:uid="{9B59D698-5FBE-4383-A17D-61A2F3975C48}"/>
+    <hyperlink ref="E235" r:id="rId167" xr:uid="{B522C5C1-368C-4F17-80FD-2D2FA384EC83}"/>
+    <hyperlink ref="F235" r:id="rId168" xr:uid="{F276E04B-4B82-4FBF-862E-203B03943397}"/>
+    <hyperlink ref="G235" r:id="rId169" xr:uid="{F6829AE6-1EFD-4DA8-81BD-6239979CD87A}"/>
+    <hyperlink ref="H235" r:id="rId170" xr:uid="{8E0056EA-F973-4C64-90C5-48047729F807}"/>
+    <hyperlink ref="D240" r:id="rId171" xr:uid="{BB4B0A54-EA34-48A1-81EC-83CA27033611}"/>
+    <hyperlink ref="E240" r:id="rId172" xr:uid="{6F79A2AB-E2A6-4ABB-9D61-317621757C05}"/>
+    <hyperlink ref="F240" r:id="rId173" xr:uid="{13304604-9C7F-4108-A2DB-0C073DD6F816}"/>
+    <hyperlink ref="G240" r:id="rId174" xr:uid="{B3134AC8-8FC9-4C20-A543-31D77BDCDFA5}"/>
+    <hyperlink ref="D243" r:id="rId175" xr:uid="{497EDE61-16C1-48E5-AF49-6DE4D00CAF28}"/>
+    <hyperlink ref="D248" r:id="rId176" xr:uid="{B0B75C0A-DE10-48B7-91A4-39C9B49F1190}"/>
+    <hyperlink ref="D260" r:id="rId177" xr:uid="{8A3EDDF6-53C6-45B7-BC9A-EFB77A0C6405}"/>
+    <hyperlink ref="D261" r:id="rId178" xr:uid="{7EBF8210-1C5C-475A-9EE7-23C46ED89C8B}"/>
+    <hyperlink ref="D262" r:id="rId179" xr:uid="{ED130BCB-75ED-439B-8801-7052A4A8644E}"/>
+    <hyperlink ref="D263" r:id="rId180" xr:uid="{349A15DC-EC7B-435F-8D8F-ED27A30327E2}"/>
+    <hyperlink ref="E263" r:id="rId181" xr:uid="{5CC81365-8CB1-4F4B-A7D8-44DCBA999310}"/>
+    <hyperlink ref="F263" r:id="rId182" xr:uid="{4F407D3E-2072-466D-BE81-5BEBEFBD46E4}"/>
+    <hyperlink ref="G263" r:id="rId183" xr:uid="{8C3FB8F0-4C96-4D39-9CEF-2D65F3D19C9B}"/>
+    <hyperlink ref="H263" r:id="rId184" xr:uid="{ECEBF426-3489-4245-A230-B1F3362215FB}"/>
+    <hyperlink ref="I263" r:id="rId185" xr:uid="{AD485175-2FF3-4005-AB97-E839ED91E8BD}"/>
+    <hyperlink ref="J263" r:id="rId186" xr:uid="{16E19AE0-A50A-4038-A2AB-AC86B1D5529A}"/>
+    <hyperlink ref="K263" r:id="rId187" xr:uid="{6D981592-6410-42D7-AA59-35BFAD0702AA}"/>
+    <hyperlink ref="L263" r:id="rId188" xr:uid="{9EAEC803-21CE-46CA-A8AA-B88F8BAF2A0B}"/>
+    <hyperlink ref="D264" r:id="rId189" xr:uid="{7732C70A-7F0E-48B9-A85E-E3A4EF7E3DBF}"/>
+    <hyperlink ref="D265" r:id="rId190" xr:uid="{8BFFCD31-BE20-4197-91F8-9818BA8BF4AE}"/>
+    <hyperlink ref="D273" r:id="rId191" xr:uid="{3D79C244-5F51-47DB-8DCF-8B14BE504C64}"/>
+    <hyperlink ref="D283" r:id="rId192" xr:uid="{D24407FF-13EC-4F35-8B38-4389246EB75D}"/>
+    <hyperlink ref="E283" r:id="rId193" xr:uid="{1B1D4A32-74D6-4B1A-8DD6-DD01C908B0E8}"/>
+    <hyperlink ref="F283" r:id="rId194" xr:uid="{87F6A76D-0ADD-4040-9A1F-1A367B575759}"/>
+    <hyperlink ref="G283" r:id="rId195" xr:uid="{044F46CE-6671-4F34-96C5-B69C16EA3E39}"/>
+    <hyperlink ref="H283" r:id="rId196" xr:uid="{4B4A7088-672A-4B43-A9BC-836E1ABD2AAE}"/>
+    <hyperlink ref="I283" r:id="rId197" xr:uid="{2C193EA9-29D1-4714-AB5A-C2777C7DA307}"/>
+    <hyperlink ref="J283" r:id="rId198" xr:uid="{800CF499-2C4F-4CD9-A3B6-739231958233}"/>
+    <hyperlink ref="K283" r:id="rId199" xr:uid="{E621632C-2D4B-4FB7-8A33-C147C971F519}"/>
+    <hyperlink ref="D295" r:id="rId200" xr:uid="{C07F1FE5-7D9A-4480-8193-87BB4384EDD5}"/>
+    <hyperlink ref="E302" r:id="rId201" xr:uid="{5987DCDE-C0D1-4BCC-B9F9-DBEA33D757B9}"/>
+    <hyperlink ref="D302" r:id="rId202" xr:uid="{8DF4BE91-1068-41B9-92FD-E242163D972D}"/>
+    <hyperlink ref="D303" r:id="rId203" xr:uid="{4728DC73-AD53-40CF-8C18-3D028ACD6C5C}"/>
+    <hyperlink ref="D319" r:id="rId204" xr:uid="{BFF419A3-B55B-4B4F-8276-C525791843CE}"/>
+    <hyperlink ref="D320" r:id="rId205" xr:uid="{DB200AA8-7D47-4726-BAF8-F6B5C743EE7E}"/>
+    <hyperlink ref="E320" r:id="rId206" xr:uid="{C80772A0-8A18-4052-866F-DFA6A12E4B99}"/>
+    <hyperlink ref="D326" r:id="rId207" xr:uid="{396EB1BE-791F-402C-A419-E07362BA60FC}"/>
+    <hyperlink ref="D333" r:id="rId208" xr:uid="{963E803C-F09B-4282-BA5C-168C9FA65036}"/>
+    <hyperlink ref="E333" r:id="rId209" xr:uid="{5E758D1B-3D6F-4BA6-8788-9B91A3B34088}"/>
+    <hyperlink ref="F333" r:id="rId210" xr:uid="{89C71FE4-4C36-4DF6-B50B-AD0A8E33E3E7}"/>
+    <hyperlink ref="G333" r:id="rId211" xr:uid="{F2198727-77A5-4A9D-B369-DB395C6CD098}"/>
+    <hyperlink ref="H333" r:id="rId212" xr:uid="{EFC425E2-D800-4A3D-9F83-04C528904387}"/>
+    <hyperlink ref="D363" r:id="rId213" xr:uid="{500078E0-7A47-444B-BF4C-06502CA18684}"/>
+    <hyperlink ref="E363" r:id="rId214" xr:uid="{6A72D9F5-81C4-4464-9CCE-0AED0FF6E80A}"/>
+    <hyperlink ref="D367" r:id="rId215" xr:uid="{DD8B1EBC-D47B-49C9-A8B4-F279AE2D92D5}"/>
+    <hyperlink ref="E367" r:id="rId216" xr:uid="{67EFF7BB-5C5B-47F4-AB4C-4BD6C4EB4941}"/>
+    <hyperlink ref="F367" r:id="rId217" xr:uid="{785D9193-8260-40D9-AA0A-A6ECAF1A808C}"/>
+    <hyperlink ref="G367" r:id="rId218" xr:uid="{14C9681D-4874-48B5-B25E-7E1AC14663B5}"/>
+    <hyperlink ref="H367" r:id="rId219" xr:uid="{12319D18-C183-467A-B89E-6E16433E20FF}"/>
+    <hyperlink ref="I367" r:id="rId220" xr:uid="{41254C20-C32F-4870-A4BF-0E2B698951EC}"/>
+    <hyperlink ref="J367" r:id="rId221" xr:uid="{0BACDEB3-06F5-4839-BA63-AF092671B6BC}"/>
+    <hyperlink ref="K367" r:id="rId222" xr:uid="{C91D41C4-F740-4ECE-B7D5-BDC7D31AC3DD}"/>
+    <hyperlink ref="D368" r:id="rId223" xr:uid="{B5EE64D8-4834-469C-ACBA-4D3A993910AC}"/>
+    <hyperlink ref="E368" r:id="rId224" xr:uid="{711EE95E-62E1-44FF-B968-C30F8229D18E}"/>
+    <hyperlink ref="D374" r:id="rId225" xr:uid="{20AA1588-1AD6-49A3-A26C-344DC8341E2C}"/>
+    <hyperlink ref="E374" r:id="rId226" xr:uid="{A5047222-3232-4F45-A1B0-447782D01EB8}"/>
+    <hyperlink ref="D382" r:id="rId227" xr:uid="{0A1417A7-EBA8-4641-9DC2-9C89A113558F}"/>
+    <hyperlink ref="E382" r:id="rId228" xr:uid="{542E56F6-05AE-4D44-8346-C3F3FC39FBB7}"/>
+    <hyperlink ref="D383" r:id="rId229" xr:uid="{47311264-ABB2-41C4-81B8-F9669327F3D6}"/>
+    <hyperlink ref="E383" r:id="rId230" xr:uid="{352A143E-5660-41A9-94E4-7162D82364D8}"/>
+    <hyperlink ref="F383" r:id="rId231" xr:uid="{1B497C03-0939-4720-9952-F58E194262E6}"/>
+    <hyperlink ref="D384" r:id="rId232" xr:uid="{A50A9CA3-B5F3-4948-A0FD-FCD6DE7376B6}"/>
+    <hyperlink ref="D385" r:id="rId233" xr:uid="{20DAAD2A-51FC-46A9-9D3B-CBBAD5456DF7}"/>
+    <hyperlink ref="E385" r:id="rId234" xr:uid="{9397DF03-4275-4963-A37A-21DD2CEAA03C}"/>
+    <hyperlink ref="F385" r:id="rId235" xr:uid="{CD02FEFA-3EF1-4749-B483-6D1523A103CC}"/>
+    <hyperlink ref="G385" r:id="rId236" xr:uid="{3EF974CC-D30B-4FAC-B645-F438FCDBA660}"/>
+    <hyperlink ref="D386" r:id="rId237" xr:uid="{325E095B-4C8E-4BDC-AAEC-2423078C5B12}"/>
+    <hyperlink ref="E386" r:id="rId238" xr:uid="{05070ECF-47B5-4EE7-A505-331DD170BA7A}"/>
+    <hyperlink ref="F386" r:id="rId239" xr:uid="{EEE48E95-878B-4B65-97C0-86E70EF45156}"/>
+    <hyperlink ref="G386" r:id="rId240" xr:uid="{52FA2EC9-C622-41E1-8115-99227031E76C}"/>
+    <hyperlink ref="H386" r:id="rId241" xr:uid="{E4CD4CC6-F0BE-4D83-B53B-961BE5CE6532}"/>
+    <hyperlink ref="D387" r:id="rId242" xr:uid="{3F8AF0FD-8B3D-409C-A76F-1D687AAA6C5F}"/>
+    <hyperlink ref="E387" r:id="rId243" xr:uid="{B976CA90-2546-4869-9A63-1590AB1209AC}"/>
+    <hyperlink ref="F387" r:id="rId244" xr:uid="{A1863009-A1D3-47A6-B03D-551E57070CA4}"/>
+    <hyperlink ref="G387" r:id="rId245" xr:uid="{B557EAF8-F2BF-41F2-BDFA-A9DEF7921CAA}"/>
+    <hyperlink ref="H387" r:id="rId246" xr:uid="{DE1B0EA0-8944-4F28-B4FD-37074DF70AE1}"/>
+    <hyperlink ref="I387" r:id="rId247" xr:uid="{4FE81C3F-0FD5-4C5C-A535-419126836CEE}"/>
+    <hyperlink ref="D388" r:id="rId248" xr:uid="{E82174FD-EC20-447A-BE93-5775E081CE0B}"/>
+    <hyperlink ref="E388" r:id="rId249" xr:uid="{5623BA65-1E02-4CE5-87A4-E4376B58A659}"/>
+    <hyperlink ref="F388" r:id="rId250" xr:uid="{4634900E-8974-4C1A-9B89-5AE384FDC22F}"/>
+    <hyperlink ref="G388" r:id="rId251" xr:uid="{E6FB04BD-7879-4C61-9017-9C2B94F64B4D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId252"/>

--- a/public/data/incidents.xlsx
+++ b/public/data/incidents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlie/Documents/GitHub/whitephosphorus/public/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69525315-7427-2346-A6EF-A65C853F2266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4A6377-9950-A54D-8EDF-C4B9505228C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="34960" windowHeight="21900" xr2:uid="{17A8EE8E-FE20-45E7-B555-7436B0063D4F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="314">
   <si>
     <t>Area</t>
   </si>
@@ -444,12 +444,6 @@
     <t>20231127\20231127_Dhaira1\20231127_Maria Cosette_Dhaira_location2_IMG_0152.JPG</t>
   </si>
   <si>
-    <t>20231127\20231127_Dhaira1\20231127_Maria Cosette_Dhaira_location2_IMG_0255.MOV</t>
-  </si>
-  <si>
-    <t>20231127\20231127_Dhaira1\20231127_Maria Cosette_Dhaira_location2_IMG_0259.MOV</t>
-  </si>
-  <si>
     <t>20231127\20231127_Dhaira1\20231127_Maria Cosette_Dhaira_location2_IMG_0242.JPG</t>
   </si>
   <si>
@@ -660,9 +654,6 @@
     <t>20240513\20240513_Meiss El Jabal\GreenSoutherners191 _20240513 Meiss Ej Jabal.jpg</t>
   </si>
   <si>
-    <t>20240516\20240516_Chebaa\GreenSoutherners192 _20240516 WP Chabaa شبعا احراج .mov</t>
-  </si>
-  <si>
     <t>20240521\20240521_Al Khiam\Twitter50 _20240521_1336_fouadkhreiss.jpg</t>
   </si>
   <si>
@@ -949,13 +940,53 @@
   </si>
   <si>
     <t>20231207/20231207_Rmaysh1/GreenSoutherners136+_20231207+%D8%A7%D9%94%D8%B7%D8%B1%D8%A7%D9%81+%D8%B1%D9%85%D9%8A%D8%B4+%D9%81%D9%88%D8%B3%D9%81%D9%88%D8%B1%D9%8A.jpeg</t>
+  </si>
+  <si>
+    <t>20240516/20240516_Chebaa/GreenSoutherners192+_20240516+WP+Chabaa+%D8%B4%D8%A8%D8%B9%D8%A7+%D8%A7%D8%AD%D8%B1%D8%A7%D8%AC+.mp4</t>
+  </si>
+  <si>
+    <t>Link13</t>
+  </si>
+  <si>
+    <t>Link21</t>
+  </si>
+  <si>
+    <t>Link22</t>
+  </si>
+  <si>
+    <t>Link23</t>
+  </si>
+  <si>
+    <t>Link24</t>
+  </si>
+  <si>
+    <t>Link25</t>
+  </si>
+  <si>
+    <t>Link26</t>
+  </si>
+  <si>
+    <t>Link27</t>
+  </si>
+  <si>
+    <t>Link28</t>
+  </si>
+  <si>
+    <t>Link29</t>
+  </si>
+  <si>
+    <t>20231127/20231127_Dhaira/20231127_Maria+Cosette_Dhaira_location2_IMG_0255.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+20231127/20231127_Dhaira/20231127_Maria+Cosette_Dhaira_location2_IMG_0259.mp4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1001,6 +1032,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1075,7 +1112,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1151,6 +1188,9 @@
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1473,10 +1513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A08A01A-F062-4B76-B193-0C678F68B2B9}">
-  <dimension ref="A1:AG396"/>
+  <dimension ref="A1:AG395"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="K58" zoomScale="115" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S66" sqref="S66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1489,79 +1529,105 @@
     <col min="25" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="P1" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="M1" s="22" t="s">
+      <c r="Q1" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="R1" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="S1" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="P1" s="22">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="23" t="s">
+      <c r="T1" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="U1" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="V1" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="W1" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="U1" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="V1" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="W1" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="X1" s="3"/>
-    </row>
-    <row r="2" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X1" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA1" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB1" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AC1" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="AD1" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE1" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="AF1" s="23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16">
         <v>45200</v>
       </c>
@@ -1589,7 +1655,7 @@
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
     </row>
-    <row r="3" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>45201</v>
       </c>
@@ -1617,7 +1683,7 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
     </row>
-    <row r="4" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>45202</v>
       </c>
@@ -1645,7 +1711,7 @@
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
     </row>
-    <row r="5" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>45203</v>
       </c>
@@ -1673,7 +1739,7 @@
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
     </row>
-    <row r="6" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>45204</v>
       </c>
@@ -1701,7 +1767,7 @@
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
     </row>
-    <row r="7" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>45205</v>
       </c>
@@ -1729,7 +1795,7 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
     </row>
-    <row r="8" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>45206</v>
       </c>
@@ -1757,7 +1823,7 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
     </row>
-    <row r="9" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>45207</v>
       </c>
@@ -1785,7 +1851,7 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
     </row>
-    <row r="10" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>45208</v>
       </c>
@@ -1813,7 +1879,7 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
-    <row r="11" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17">
         <v>45209</v>
       </c>
@@ -1827,7 +1893,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
         <v>45209</v>
       </c>
@@ -1841,7 +1907,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="17">
         <v>45209</v>
       </c>
@@ -1858,7 +1924,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="17">
         <v>45209</v>
       </c>
@@ -1872,7 +1938,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>45211</v>
       </c>
@@ -1900,7 +1966,7 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="17">
         <v>45212</v>
       </c>
@@ -3104,7 +3170,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="70" spans="1:33" ht="306" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:33" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="17">
         <v>45257</v>
       </c>
@@ -3174,62 +3240,71 @@
       <c r="W70" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="Y70" s="3"/>
-      <c r="Z70" s="3"/>
-      <c r="AA70" s="3"/>
-      <c r="AB70" s="3"/>
-      <c r="AC70" s="3"/>
-      <c r="AD70" s="3"/>
-      <c r="AE70" s="3"/>
-      <c r="AF70" s="3"/>
+      <c r="X70" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y70" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z70" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA70" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB70" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC70" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD70" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE70" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF70" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AG70" s="3"/>
     </row>
-    <row r="71" spans="1:33" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="17">
-        <v>45257</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C71" s="7">
-        <v>1</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="J71" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="K71" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="L71" s="5" t="s">
-        <v>142</v>
-      </c>
+    <row r="71" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="16">
+        <v>45258</v>
+      </c>
+      <c r="B71" s="8"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
+      <c r="V71" s="3"/>
+      <c r="W71" s="3"/>
+      <c r="X71" s="3"/>
     </row>
     <row r="72" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="16">
-        <v>45258</v>
+      <c r="A72" s="19">
+        <v>45259</v>
       </c>
       <c r="B72" s="8"/>
       <c r="C72" s="6"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
@@ -3251,8 +3326,8 @@
       <c r="X72" s="3"/>
     </row>
     <row r="73" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="19">
-        <v>45259</v>
+      <c r="A73" s="16">
+        <v>45260</v>
       </c>
       <c r="B73" s="8"/>
       <c r="C73" s="6"/>
@@ -3280,7 +3355,7 @@
     </row>
     <row r="74" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="16">
-        <v>45260</v>
+        <v>45261</v>
       </c>
       <c r="B74" s="8"/>
       <c r="C74" s="6"/>
@@ -3307,15 +3382,27 @@
       <c r="X74" s="3"/>
     </row>
     <row r="75" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="16">
-        <v>45261</v>
-      </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
+      <c r="A75" s="18">
+        <v>45262</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="7">
+        <v>6</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
@@ -3335,27 +3422,15 @@
       <c r="X75" s="3"/>
     </row>
     <row r="76" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="18">
-        <v>45262</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C76" s="7">
-        <v>6</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>145</v>
-      </c>
+      <c r="A76" s="16">
+        <v>45263</v>
+      </c>
+      <c r="B76" s="8"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
@@ -3376,7 +3451,7 @@
     </row>
     <row r="77" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="16">
-        <v>45263</v>
+        <v>45264</v>
       </c>
       <c r="B77" s="8"/>
       <c r="C77" s="6"/>
@@ -3404,7 +3479,7 @@
     </row>
     <row r="78" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="16">
-        <v>45264</v>
+        <v>45265</v>
       </c>
       <c r="B78" s="8"/>
       <c r="C78" s="6"/>
@@ -3430,114 +3505,114 @@
       <c r="W78" s="3"/>
       <c r="X78" s="3"/>
     </row>
-    <row r="79" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="16">
-        <v>45265</v>
-      </c>
-      <c r="B79" s="8"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
-      <c r="O79" s="3"/>
-      <c r="P79" s="3"/>
-      <c r="Q79" s="3"/>
-      <c r="R79" s="3"/>
-      <c r="S79" s="3"/>
-      <c r="T79" s="3"/>
-      <c r="U79" s="3"/>
-      <c r="V79" s="3"/>
-      <c r="W79" s="3"/>
-      <c r="X79" s="3"/>
+    <row r="79" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="17">
+        <v>45266</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="7">
+        <v>2</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="80" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="17">
-        <v>45266</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>5</v>
+        <v>45267</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="C80" s="7">
+        <v>6</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A81" s="18">
+        <v>45268</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="7">
         <v>2</v>
       </c>
-      <c r="D80" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="17">
-        <v>45267</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C81" s="7">
-        <v>6</v>
-      </c>
       <c r="D81" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="H81" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="I81" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="J81" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="K81" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="18">
         <v>45268</v>
       </c>
-      <c r="B82" s="10" t="s">
-        <v>17</v>
+      <c r="B82" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="C82" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="18">
-        <v>45268</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C83" s="7">
-        <v>1</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>156</v>
-      </c>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="16">
+        <v>45269</v>
+      </c>
+      <c r="B83" s="8"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="3"/>
+      <c r="W83" s="3"/>
+      <c r="X83" s="3"/>
     </row>
     <row r="84" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="16">
-        <v>45269</v>
+        <v>45270</v>
       </c>
       <c r="B84" s="8"/>
       <c r="C84" s="6"/>
@@ -3565,7 +3640,7 @@
     </row>
     <row r="85" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="16">
-        <v>45270</v>
+        <v>45271</v>
       </c>
       <c r="B85" s="8"/>
       <c r="C85" s="6"/>
@@ -3593,7 +3668,7 @@
     </row>
     <row r="86" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="16">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="B86" s="8"/>
       <c r="C86" s="6"/>
@@ -3621,9 +3696,9 @@
     </row>
     <row r="87" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="16">
-        <v>45272</v>
-      </c>
-      <c r="B87" s="8"/>
+        <v>45273</v>
+      </c>
+      <c r="B87" s="12"/>
       <c r="C87" s="6"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -3649,9 +3724,9 @@
     </row>
     <row r="88" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="16">
-        <v>45273</v>
-      </c>
-      <c r="B88" s="12"/>
+        <v>45274</v>
+      </c>
+      <c r="B88" s="8"/>
       <c r="C88" s="6"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -3677,7 +3752,7 @@
     </row>
     <row r="89" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="16">
-        <v>45274</v>
+        <v>45275</v>
       </c>
       <c r="B89" s="8"/>
       <c r="C89" s="6"/>
@@ -3705,7 +3780,7 @@
     </row>
     <row r="90" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="16">
-        <v>45275</v>
+        <v>45276</v>
       </c>
       <c r="B90" s="8"/>
       <c r="C90" s="6"/>
@@ -3733,7 +3808,7 @@
     </row>
     <row r="91" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="16">
-        <v>45276</v>
+        <v>45277</v>
       </c>
       <c r="B91" s="8"/>
       <c r="C91" s="6"/>
@@ -3761,7 +3836,7 @@
     </row>
     <row r="92" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="16">
-        <v>45277</v>
+        <v>45278</v>
       </c>
       <c r="B92" s="8"/>
       <c r="C92" s="6"/>
@@ -3789,7 +3864,7 @@
     </row>
     <row r="93" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="16">
-        <v>45278</v>
+        <v>45279</v>
       </c>
       <c r="B93" s="8"/>
       <c r="C93" s="6"/>
@@ -3815,54 +3890,54 @@
       <c r="W93" s="3"/>
       <c r="X93" s="3"/>
     </row>
-    <row r="94" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="16">
-        <v>45279</v>
-      </c>
-      <c r="B94" s="8"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
-      <c r="K94" s="3"/>
-      <c r="L94" s="3"/>
-      <c r="M94" s="3"/>
-      <c r="N94" s="3"/>
-      <c r="O94" s="3"/>
-      <c r="P94" s="3"/>
-      <c r="Q94" s="3"/>
-      <c r="R94" s="3"/>
-      <c r="S94" s="3"/>
-      <c r="T94" s="3"/>
-      <c r="U94" s="3"/>
-      <c r="V94" s="3"/>
-      <c r="W94" s="3"/>
-      <c r="X94" s="3"/>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A95" s="18">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A94" s="18">
         <v>45280</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="B94" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C95" s="7">
+      <c r="C94" s="7">
         <v>3</v>
       </c>
-      <c r="D95" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>158</v>
-      </c>
+      <c r="D94" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="16">
+        <v>45281</v>
+      </c>
+      <c r="B95" s="8"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
     </row>
     <row r="96" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="16">
-        <v>45281</v>
+        <v>45282</v>
       </c>
       <c r="B96" s="8"/>
       <c r="C96" s="6"/>
@@ -3890,7 +3965,7 @@
     </row>
     <row r="97" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="16">
-        <v>45282</v>
+        <v>45283</v>
       </c>
       <c r="B97" s="8"/>
       <c r="C97" s="6"/>
@@ -3918,7 +3993,7 @@
     </row>
     <row r="98" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="16">
-        <v>45283</v>
+        <v>45284</v>
       </c>
       <c r="B98" s="8"/>
       <c r="C98" s="6"/>
@@ -3946,7 +4021,7 @@
     </row>
     <row r="99" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="16">
-        <v>45284</v>
+        <v>45285</v>
       </c>
       <c r="B99" s="8"/>
       <c r="C99" s="6"/>
@@ -3974,7 +4049,7 @@
     </row>
     <row r="100" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="16">
-        <v>45285</v>
+        <v>45286</v>
       </c>
       <c r="B100" s="8"/>
       <c r="C100" s="6"/>
@@ -4002,7 +4077,7 @@
     </row>
     <row r="101" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="16">
-        <v>45286</v>
+        <v>45287</v>
       </c>
       <c r="B101" s="8"/>
       <c r="C101" s="6"/>
@@ -4030,7 +4105,7 @@
     </row>
     <row r="102" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="16">
-        <v>45287</v>
+        <v>45288</v>
       </c>
       <c r="B102" s="8"/>
       <c r="C102" s="6"/>
@@ -4058,7 +4133,7 @@
     </row>
     <row r="103" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="16">
-        <v>45288</v>
+        <v>45289</v>
       </c>
       <c r="B103" s="8"/>
       <c r="C103" s="6"/>
@@ -4086,7 +4161,7 @@
     </row>
     <row r="104" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="16">
-        <v>45289</v>
+        <v>45290</v>
       </c>
       <c r="B104" s="8"/>
       <c r="C104" s="6"/>
@@ -4114,7 +4189,7 @@
     </row>
     <row r="105" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="16">
-        <v>45290</v>
+        <v>45291</v>
       </c>
       <c r="B105" s="8"/>
       <c r="C105" s="6"/>
@@ -4142,7 +4217,7 @@
     </row>
     <row r="106" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="16">
-        <v>45291</v>
+        <v>45292</v>
       </c>
       <c r="B106" s="8"/>
       <c r="C106" s="6"/>
@@ -4170,7 +4245,7 @@
     </row>
     <row r="107" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="16">
-        <v>45292</v>
+        <v>45293</v>
       </c>
       <c r="B107" s="8"/>
       <c r="C107" s="6"/>
@@ -4198,7 +4273,7 @@
     </row>
     <row r="108" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="16">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="B108" s="8"/>
       <c r="C108" s="6"/>
@@ -4226,7 +4301,7 @@
     </row>
     <row r="109" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="16">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B109" s="8"/>
       <c r="C109" s="6"/>
@@ -4254,7 +4329,7 @@
     </row>
     <row r="110" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="16">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B110" s="8"/>
       <c r="C110" s="6"/>
@@ -4282,7 +4357,7 @@
     </row>
     <row r="111" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="16">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B111" s="8"/>
       <c r="C111" s="6"/>
@@ -4310,7 +4385,7 @@
     </row>
     <row r="112" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="16">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="B112" s="8"/>
       <c r="C112" s="6"/>
@@ -4338,7 +4413,7 @@
     </row>
     <row r="113" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="16">
-        <v>45298</v>
+        <v>45301</v>
       </c>
       <c r="B113" s="8"/>
       <c r="C113" s="6"/>
@@ -4366,7 +4441,7 @@
     </row>
     <row r="114" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="16">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="B114" s="8"/>
       <c r="C114" s="6"/>
@@ -4394,7 +4469,7 @@
     </row>
     <row r="115" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="16">
-        <v>45302</v>
+        <v>45303</v>
       </c>
       <c r="B115" s="8"/>
       <c r="C115" s="6"/>
@@ -4422,7 +4497,7 @@
     </row>
     <row r="116" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="16">
-        <v>45303</v>
+        <v>45304</v>
       </c>
       <c r="B116" s="8"/>
       <c r="C116" s="6"/>
@@ -4448,107 +4523,115 @@
       <c r="W116" s="3"/>
       <c r="X116" s="3"/>
     </row>
-    <row r="117" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="16">
-        <v>45304</v>
-      </c>
-      <c r="B117" s="8"/>
-      <c r="C117" s="6"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
-      <c r="I117" s="3"/>
-      <c r="J117" s="3"/>
-      <c r="K117" s="3"/>
-      <c r="L117" s="3"/>
-      <c r="M117" s="3"/>
-      <c r="N117" s="3"/>
-      <c r="O117" s="3"/>
-      <c r="P117" s="3"/>
-      <c r="Q117" s="3"/>
-      <c r="R117" s="3"/>
-      <c r="S117" s="3"/>
-      <c r="T117" s="3"/>
-      <c r="U117" s="3"/>
-      <c r="V117" s="3"/>
-      <c r="W117" s="3"/>
-      <c r="X117" s="3"/>
-    </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A118" s="17">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A117" s="17">
         <v>45305</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B117" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C118" s="7">
+      <c r="C117" s="7">
         <v>4</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D117" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F117" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E118" s="5" t="s">
+      <c r="G117" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="F118" s="5" t="s">
+    </row>
+    <row r="118" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="16">
+        <v>45306</v>
+      </c>
+      <c r="B118" s="8"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
+      <c r="L118" s="3"/>
+      <c r="M118" s="3"/>
+      <c r="N118" s="3"/>
+      <c r="O118" s="3"/>
+      <c r="P118" s="3"/>
+      <c r="Q118" s="3"/>
+      <c r="R118" s="3"/>
+      <c r="S118" s="3"/>
+      <c r="T118" s="3"/>
+      <c r="U118" s="3"/>
+      <c r="V118" s="3"/>
+      <c r="W118" s="3"/>
+      <c r="X118" s="3"/>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A119" s="17">
+        <v>45307</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" s="7">
+        <v>4</v>
+      </c>
+      <c r="D119" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="G118" s="5" t="s">
+    </row>
+    <row r="120" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="16">
+        <v>45308</v>
+      </c>
+      <c r="B120" s="8"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3"/>
+      <c r="L120" s="3"/>
+      <c r="M120" s="3"/>
+      <c r="N120" s="3"/>
+      <c r="O120" s="3"/>
+      <c r="P120" s="3"/>
+      <c r="Q120" s="3"/>
+      <c r="R120" s="3"/>
+      <c r="S120" s="3"/>
+      <c r="T120" s="3"/>
+      <c r="U120" s="3"/>
+      <c r="V120" s="3"/>
+      <c r="W120" s="3"/>
+      <c r="X120" s="3"/>
+    </row>
+    <row r="121" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="17">
+        <v>45309</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" s="7">
+        <v>5</v>
+      </c>
+      <c r="D121" s="5" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="119" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="16">
-        <v>45306</v>
-      </c>
-      <c r="B119" s="8"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
-      <c r="I119" s="3"/>
-      <c r="J119" s="3"/>
-      <c r="K119" s="3"/>
-      <c r="L119" s="3"/>
-      <c r="M119" s="3"/>
-      <c r="N119" s="3"/>
-      <c r="O119" s="3"/>
-      <c r="P119" s="3"/>
-      <c r="Q119" s="3"/>
-      <c r="R119" s="3"/>
-      <c r="S119" s="3"/>
-      <c r="T119" s="3"/>
-      <c r="U119" s="3"/>
-      <c r="V119" s="3"/>
-      <c r="W119" s="3"/>
-      <c r="X119" s="3"/>
-    </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A120" s="17">
-        <v>45307</v>
-      </c>
-      <c r="B120" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C120" s="7">
-        <v>4</v>
-      </c>
-      <c r="D120" s="5" t="s">
+      <c r="E121" s="5" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="121" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="16">
-        <v>45308</v>
-      </c>
-      <c r="B121" s="8"/>
-      <c r="C121" s="6"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
@@ -4569,81 +4652,73 @@
       <c r="W121" s="3"/>
       <c r="X121" s="3"/>
     </row>
-    <row r="122" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122" s="17">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C122" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E122" s="5" t="s">
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A123" s="16">
+        <v>45311</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A124" s="17">
+        <v>45312</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124" s="7">
+        <v>6</v>
+      </c>
+      <c r="D124" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
-      <c r="H122" s="3"/>
-      <c r="I122" s="3"/>
-      <c r="J122" s="3"/>
-      <c r="K122" s="3"/>
-      <c r="L122" s="3"/>
-      <c r="M122" s="3"/>
-      <c r="N122" s="3"/>
-      <c r="O122" s="3"/>
-      <c r="P122" s="3"/>
-      <c r="Q122" s="3"/>
-      <c r="R122" s="3"/>
-      <c r="S122" s="3"/>
-      <c r="T122" s="3"/>
-      <c r="U122" s="3"/>
-      <c r="V122" s="3"/>
-      <c r="W122" s="3"/>
-      <c r="X122" s="3"/>
-    </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A123" s="17">
-        <v>45310</v>
-      </c>
-      <c r="B123" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C123" s="7">
-        <v>2</v>
-      </c>
-      <c r="D123" s="5" t="s">
+      <c r="E124" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A124" s="16">
-        <v>45311</v>
-      </c>
-    </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A125" s="17">
-        <v>45312</v>
-      </c>
-      <c r="B125" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C125" s="7">
-        <v>6</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>168</v>
-      </c>
+    <row r="125" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="16">
+        <v>45313</v>
+      </c>
+      <c r="B125" s="8"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3"/>
+      <c r="I125" s="3"/>
+      <c r="J125" s="3"/>
+      <c r="K125" s="3"/>
+      <c r="L125" s="3"/>
+      <c r="M125" s="3"/>
+      <c r="N125" s="3"/>
+      <c r="O125" s="3"/>
+      <c r="P125" s="3"/>
+      <c r="Q125" s="3"/>
+      <c r="R125" s="3"/>
+      <c r="S125" s="3"/>
+      <c r="T125" s="3"/>
+      <c r="U125" s="3"/>
+      <c r="V125" s="3"/>
+      <c r="W125" s="3"/>
+      <c r="X125" s="3"/>
     </row>
     <row r="126" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="16">
-        <v>45313</v>
+        <v>45314</v>
       </c>
       <c r="B126" s="8"/>
       <c r="C126" s="6"/>
@@ -4671,7 +4746,7 @@
     </row>
     <row r="127" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="16">
-        <v>45314</v>
+        <v>45315</v>
       </c>
       <c r="B127" s="8"/>
       <c r="C127" s="6"/>
@@ -4699,7 +4774,7 @@
     </row>
     <row r="128" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="16">
-        <v>45315</v>
+        <v>45316</v>
       </c>
       <c r="B128" s="8"/>
       <c r="C128" s="6"/>
@@ -4727,7 +4802,7 @@
     </row>
     <row r="129" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="16">
-        <v>45316</v>
+        <v>45317</v>
       </c>
       <c r="B129" s="8"/>
       <c r="C129" s="6"/>
@@ -4755,7 +4830,7 @@
     </row>
     <row r="130" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="16">
-        <v>45317</v>
+        <v>45318</v>
       </c>
       <c r="B130" s="8"/>
       <c r="C130" s="6"/>
@@ -4783,7 +4858,7 @@
     </row>
     <row r="131" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="16">
-        <v>45318</v>
+        <v>45319</v>
       </c>
       <c r="B131" s="8"/>
       <c r="C131" s="6"/>
@@ -4811,7 +4886,7 @@
     </row>
     <row r="132" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="16">
-        <v>45319</v>
+        <v>45320</v>
       </c>
       <c r="B132" s="8"/>
       <c r="C132" s="6"/>
@@ -4839,7 +4914,7 @@
     </row>
     <row r="133" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="16">
-        <v>45320</v>
+        <v>45321</v>
       </c>
       <c r="B133" s="8"/>
       <c r="C133" s="6"/>
@@ -4865,82 +4940,82 @@
       <c r="W133" s="3"/>
       <c r="X133" s="3"/>
     </row>
-    <row r="134" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="16">
-        <v>45321</v>
-      </c>
-      <c r="B134" s="8"/>
-      <c r="C134" s="6"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3"/>
-      <c r="H134" s="3"/>
-      <c r="I134" s="3"/>
-      <c r="J134" s="3"/>
-      <c r="K134" s="3"/>
-      <c r="L134" s="3"/>
-      <c r="M134" s="3"/>
-      <c r="N134" s="3"/>
-      <c r="O134" s="3"/>
-      <c r="P134" s="3"/>
-      <c r="Q134" s="3"/>
-      <c r="R134" s="3"/>
-      <c r="S134" s="3"/>
-      <c r="T134" s="3"/>
-      <c r="U134" s="3"/>
-      <c r="V134" s="3"/>
-      <c r="W134" s="3"/>
-      <c r="X134" s="3"/>
+    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A134" s="17">
+        <v>45322</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C134" s="7">
+        <v>3</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="135" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A135" s="17">
         <v>45322</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C135" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E135" s="5" t="s">
-        <v>170</v>
-      </c>
     </row>
     <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" s="17">
-        <v>45322</v>
+        <v>45323</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C136" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A137" s="17">
-        <v>45323</v>
-      </c>
-      <c r="B137" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C137" s="7">
-        <v>1</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>172</v>
-      </c>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="16">
+        <v>45324</v>
+      </c>
+      <c r="B137" s="8"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+      <c r="J137" s="3"/>
+      <c r="K137" s="3"/>
+      <c r="L137" s="3"/>
+      <c r="M137" s="3"/>
+      <c r="N137" s="3"/>
+      <c r="O137" s="3"/>
+      <c r="P137" s="3"/>
+      <c r="Q137" s="3"/>
+      <c r="R137" s="3"/>
+      <c r="S137" s="3"/>
+      <c r="T137" s="3"/>
+      <c r="U137" s="3"/>
+      <c r="V137" s="3"/>
+      <c r="W137" s="3"/>
+      <c r="X137" s="3"/>
     </row>
     <row r="138" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="16">
-        <v>45324</v>
+        <v>45325</v>
       </c>
       <c r="B138" s="8"/>
       <c r="C138" s="6"/>
@@ -4968,7 +5043,7 @@
     </row>
     <row r="139" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="16">
-        <v>45325</v>
+        <v>45326</v>
       </c>
       <c r="B139" s="8"/>
       <c r="C139" s="6"/>
@@ -4996,7 +5071,7 @@
     </row>
     <row r="140" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="16">
-        <v>45326</v>
+        <v>45327</v>
       </c>
       <c r="B140" s="8"/>
       <c r="C140" s="6"/>
@@ -5024,7 +5099,7 @@
     </row>
     <row r="141" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="16">
-        <v>45327</v>
+        <v>45328</v>
       </c>
       <c r="B141" s="8"/>
       <c r="C141" s="6"/>
@@ -5052,7 +5127,7 @@
     </row>
     <row r="142" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="16">
-        <v>45328</v>
+        <v>45329</v>
       </c>
       <c r="B142" s="8"/>
       <c r="C142" s="6"/>
@@ -5080,7 +5155,7 @@
     </row>
     <row r="143" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="16">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="B143" s="8"/>
       <c r="C143" s="6"/>
@@ -5108,7 +5183,7 @@
     </row>
     <row r="144" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="16">
-        <v>45330</v>
+        <v>45331</v>
       </c>
       <c r="B144" s="8"/>
       <c r="C144" s="6"/>
@@ -5136,7 +5211,7 @@
     </row>
     <row r="145" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="16">
-        <v>45331</v>
+        <v>45332</v>
       </c>
       <c r="B145" s="8"/>
       <c r="C145" s="6"/>
@@ -5164,7 +5239,7 @@
     </row>
     <row r="146" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="16">
-        <v>45332</v>
+        <v>45333</v>
       </c>
       <c r="B146" s="8"/>
       <c r="C146" s="6"/>
@@ -5192,7 +5267,7 @@
     </row>
     <row r="147" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="16">
-        <v>45333</v>
+        <v>45334</v>
       </c>
       <c r="B147" s="8"/>
       <c r="C147" s="6"/>
@@ -5220,7 +5295,7 @@
     </row>
     <row r="148" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="16">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B148" s="8"/>
       <c r="C148" s="6"/>
@@ -5248,7 +5323,7 @@
     </row>
     <row r="149" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="16">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B149" s="8"/>
       <c r="C149" s="6"/>
@@ -5276,7 +5351,7 @@
     </row>
     <row r="150" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="16">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B150" s="8"/>
       <c r="C150" s="6"/>
@@ -5304,7 +5379,7 @@
     </row>
     <row r="151" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="16">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B151" s="8"/>
       <c r="C151" s="6"/>
@@ -5332,7 +5407,7 @@
     </row>
     <row r="152" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="16">
-        <v>45338</v>
+        <v>45339</v>
       </c>
       <c r="B152" s="8"/>
       <c r="C152" s="6"/>
@@ -5360,7 +5435,7 @@
     </row>
     <row r="153" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="16">
-        <v>45339</v>
+        <v>45340</v>
       </c>
       <c r="B153" s="8"/>
       <c r="C153" s="6"/>
@@ -5388,7 +5463,7 @@
     </row>
     <row r="154" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="16">
-        <v>45340</v>
+        <v>45341</v>
       </c>
       <c r="B154" s="8"/>
       <c r="C154" s="6"/>
@@ -5416,7 +5491,7 @@
     </row>
     <row r="155" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="16">
-        <v>45341</v>
+        <v>45342</v>
       </c>
       <c r="B155" s="8"/>
       <c r="C155" s="6"/>
@@ -5444,7 +5519,7 @@
     </row>
     <row r="156" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="16">
-        <v>45342</v>
+        <v>45343</v>
       </c>
       <c r="B156" s="8"/>
       <c r="C156" s="6"/>
@@ -5472,7 +5547,7 @@
     </row>
     <row r="157" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="16">
-        <v>45343</v>
+        <v>45344</v>
       </c>
       <c r="B157" s="8"/>
       <c r="C157" s="6"/>
@@ -5500,7 +5575,7 @@
     </row>
     <row r="158" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="16">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B158" s="8"/>
       <c r="C158" s="6"/>
@@ -5528,7 +5603,7 @@
     </row>
     <row r="159" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="16">
-        <v>45345</v>
+        <v>45346</v>
       </c>
       <c r="B159" s="8"/>
       <c r="C159" s="6"/>
@@ -5556,7 +5631,7 @@
     </row>
     <row r="160" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="16">
-        <v>45346</v>
+        <v>45347</v>
       </c>
       <c r="B160" s="8"/>
       <c r="C160" s="6"/>
@@ -5584,7 +5659,7 @@
     </row>
     <row r="161" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="16">
-        <v>45347</v>
+        <v>45348</v>
       </c>
       <c r="B161" s="8"/>
       <c r="C161" s="6"/>
@@ -5612,7 +5687,7 @@
     </row>
     <row r="162" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="16">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="B162" s="8"/>
       <c r="C162" s="6"/>
@@ -5640,7 +5715,7 @@
     </row>
     <row r="163" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="16">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B163" s="8"/>
       <c r="C163" s="6"/>
@@ -5668,7 +5743,7 @@
     </row>
     <row r="164" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="16">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B164" s="8"/>
       <c r="C164" s="6"/>
@@ -5696,7 +5771,7 @@
     </row>
     <row r="165" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="16">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B165" s="8"/>
       <c r="C165" s="6"/>
@@ -5723,13 +5798,21 @@
       <c r="X165" s="3"/>
     </row>
     <row r="166" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="16">
-        <v>45352</v>
-      </c>
-      <c r="B166" s="8"/>
-      <c r="C166" s="6"/>
-      <c r="D166" s="3"/>
-      <c r="E166" s="3"/>
+      <c r="A166" s="17">
+        <v>45353</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C166" s="7">
+        <v>2</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
@@ -5750,12 +5833,12 @@
       <c r="W166" s="3"/>
       <c r="X166" s="3"/>
     </row>
-    <row r="167" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A167" s="17">
-        <v>45353</v>
-      </c>
-      <c r="B167" s="10" t="s">
-        <v>14</v>
+        <v>45354</v>
+      </c>
+      <c r="B167" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="C167" s="7">
         <v>2</v>
@@ -5766,52 +5849,33 @@
       <c r="E167" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="F167" s="3"/>
-      <c r="G167" s="3"/>
-      <c r="H167" s="3"/>
-      <c r="I167" s="3"/>
-      <c r="J167" s="3"/>
-      <c r="K167" s="3"/>
-      <c r="L167" s="3"/>
-      <c r="M167" s="3"/>
-      <c r="N167" s="3"/>
-      <c r="O167" s="3"/>
-      <c r="P167" s="3"/>
-      <c r="Q167" s="3"/>
-      <c r="R167" s="3"/>
-      <c r="S167" s="3"/>
-      <c r="T167" s="3"/>
-      <c r="U167" s="3"/>
-      <c r="V167" s="3"/>
-      <c r="W167" s="3"/>
-      <c r="X167" s="3"/>
+      <c r="F167" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G167" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H167" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="I167" s="5" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="168" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A168" s="17">
-        <v>45354</v>
-      </c>
-      <c r="B168" s="13" t="s">
-        <v>44</v>
+      <c r="A168" s="18">
+        <v>45355</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="C168" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F168" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="G168" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H168" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="I168" s="5" t="s">
         <v>180</v>
       </c>
     </row>
@@ -5820,35 +5884,46 @@
         <v>45355</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C169" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D169" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E169" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A170" s="18">
-        <v>45355</v>
-      </c>
-      <c r="B170" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C170" s="7">
-        <v>1</v>
-      </c>
-      <c r="D170" s="5" t="s">
-        <v>183</v>
-      </c>
+    </row>
+    <row r="170" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="16">
+        <v>45356</v>
+      </c>
+      <c r="B170" s="8"/>
+      <c r="C170" s="6"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="3"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="3"/>
+      <c r="H170" s="3"/>
+      <c r="I170" s="3"/>
+      <c r="J170" s="3"/>
+      <c r="K170" s="3"/>
+      <c r="L170" s="3"/>
+      <c r="M170" s="3"/>
+      <c r="N170" s="3"/>
+      <c r="O170" s="3"/>
+      <c r="P170" s="3"/>
+      <c r="Q170" s="3"/>
+      <c r="R170" s="3"/>
+      <c r="S170" s="3"/>
+      <c r="T170" s="3"/>
+      <c r="U170" s="3"/>
+      <c r="V170" s="3"/>
+      <c r="W170" s="3"/>
+      <c r="X170" s="3"/>
     </row>
     <row r="171" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="16">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="B171" s="8"/>
       <c r="C171" s="6"/>
@@ -5876,7 +5951,7 @@
     </row>
     <row r="172" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="16">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B172" s="8"/>
       <c r="C172" s="6"/>
@@ -5904,7 +5979,7 @@
     </row>
     <row r="173" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="16">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="B173" s="8"/>
       <c r="C173" s="6"/>
@@ -5932,7 +6007,7 @@
     </row>
     <row r="174" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="16">
-        <v>45359</v>
+        <v>45360</v>
       </c>
       <c r="B174" s="8"/>
       <c r="C174" s="6"/>
@@ -5960,7 +6035,7 @@
     </row>
     <row r="175" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="16">
-        <v>45360</v>
+        <v>45361</v>
       </c>
       <c r="B175" s="8"/>
       <c r="C175" s="6"/>
@@ -5988,7 +6063,7 @@
     </row>
     <row r="176" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="16">
-        <v>45361</v>
+        <v>45362</v>
       </c>
       <c r="B176" s="8"/>
       <c r="C176" s="6"/>
@@ -6016,7 +6091,7 @@
     </row>
     <row r="177" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="16">
-        <v>45362</v>
+        <v>45363</v>
       </c>
       <c r="B177" s="8"/>
       <c r="C177" s="6"/>
@@ -6044,7 +6119,7 @@
     </row>
     <row r="178" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="16">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B178" s="8"/>
       <c r="C178" s="6"/>
@@ -6072,7 +6147,7 @@
     </row>
     <row r="179" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="16">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B179" s="8"/>
       <c r="C179" s="6"/>
@@ -6098,9 +6173,9 @@
       <c r="W179" s="3"/>
       <c r="X179" s="3"/>
     </row>
-    <row r="180" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="16">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B180" s="8"/>
       <c r="C180" s="6"/>
@@ -6128,7 +6203,7 @@
     </row>
     <row r="181" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="16">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B181" s="8"/>
       <c r="C181" s="6"/>
@@ -6154,51 +6229,51 @@
       <c r="W181" s="3"/>
       <c r="X181" s="3"/>
     </row>
-    <row r="182" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="16">
-        <v>45367</v>
-      </c>
-      <c r="B182" s="8"/>
-      <c r="C182" s="6"/>
-      <c r="D182" s="3"/>
-      <c r="E182" s="3"/>
-      <c r="F182" s="3"/>
-      <c r="G182" s="3"/>
-      <c r="H182" s="3"/>
-      <c r="I182" s="3"/>
-      <c r="J182" s="3"/>
-      <c r="K182" s="3"/>
-      <c r="L182" s="3"/>
-      <c r="M182" s="3"/>
-      <c r="N182" s="3"/>
-      <c r="O182" s="3"/>
-      <c r="P182" s="3"/>
-      <c r="Q182" s="3"/>
-      <c r="R182" s="3"/>
-      <c r="S182" s="3"/>
-      <c r="T182" s="3"/>
-      <c r="U182" s="3"/>
-      <c r="V182" s="3"/>
-      <c r="W182" s="3"/>
-      <c r="X182" s="3"/>
-    </row>
-    <row r="183" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="17">
+    <row r="182" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="17">
         <v>45368</v>
       </c>
-      <c r="B183" s="10" t="s">
+      <c r="B182" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C183" s="7">
+      <c r="C182" s="7">
         <v>3</v>
       </c>
-      <c r="D183" s="5" t="s">
-        <v>184</v>
-      </c>
+      <c r="D182" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="183" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="16">
+        <v>45369</v>
+      </c>
+      <c r="B183" s="8"/>
+      <c r="C183" s="6"/>
+      <c r="D183" s="3"/>
+      <c r="E183" s="3"/>
+      <c r="F183" s="3"/>
+      <c r="G183" s="3"/>
+      <c r="H183" s="3"/>
+      <c r="I183" s="3"/>
+      <c r="J183" s="3"/>
+      <c r="K183" s="3"/>
+      <c r="L183" s="3"/>
+      <c r="M183" s="3"/>
+      <c r="N183" s="3"/>
+      <c r="O183" s="3"/>
+      <c r="P183" s="3"/>
+      <c r="Q183" s="3"/>
+      <c r="R183" s="3"/>
+      <c r="S183" s="3"/>
+      <c r="T183" s="3"/>
+      <c r="U183" s="3"/>
+      <c r="V183" s="3"/>
+      <c r="W183" s="3"/>
+      <c r="X183" s="3"/>
     </row>
     <row r="184" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="16">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B184" s="8"/>
       <c r="C184" s="6"/>
@@ -6226,7 +6301,7 @@
     </row>
     <row r="185" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="16">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B185" s="8"/>
       <c r="C185" s="6"/>
@@ -6254,7 +6329,7 @@
     </row>
     <row r="186" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="16">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B186" s="8"/>
       <c r="C186" s="6"/>
@@ -6282,7 +6357,7 @@
     </row>
     <row r="187" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="16">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B187" s="8"/>
       <c r="C187" s="6"/>
@@ -6310,7 +6385,7 @@
     </row>
     <row r="188" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="16">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B188" s="8"/>
       <c r="C188" s="6"/>
@@ -6338,7 +6413,7 @@
     </row>
     <row r="189" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="16">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B189" s="8"/>
       <c r="C189" s="6"/>
@@ -6366,7 +6441,7 @@
     </row>
     <row r="190" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="16">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B190" s="8"/>
       <c r="C190" s="6"/>
@@ -6394,7 +6469,7 @@
     </row>
     <row r="191" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="16">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B191" s="8"/>
       <c r="C191" s="6"/>
@@ -6422,7 +6497,7 @@
     </row>
     <row r="192" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="16">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B192" s="8"/>
       <c r="C192" s="6"/>
@@ -6450,7 +6525,7 @@
     </row>
     <row r="193" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="16">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B193" s="8"/>
       <c r="C193" s="6"/>
@@ -6478,7 +6553,7 @@
     </row>
     <row r="194" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="16">
-        <v>45379</v>
+        <v>45380</v>
       </c>
       <c r="B194" s="8"/>
       <c r="C194" s="6"/>
@@ -6506,7 +6581,7 @@
     </row>
     <row r="195" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="16">
-        <v>45380</v>
+        <v>45381</v>
       </c>
       <c r="B195" s="8"/>
       <c r="C195" s="6"/>
@@ -6534,7 +6609,7 @@
     </row>
     <row r="196" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="16">
-        <v>45381</v>
+        <v>45382</v>
       </c>
       <c r="B196" s="8"/>
       <c r="C196" s="6"/>
@@ -6562,7 +6637,7 @@
     </row>
     <row r="197" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="16">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B197" s="8"/>
       <c r="C197" s="6"/>
@@ -6590,7 +6665,7 @@
     </row>
     <row r="198" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="16">
-        <v>45383</v>
+        <v>45384</v>
       </c>
       <c r="B198" s="8"/>
       <c r="C198" s="6"/>
@@ -6616,66 +6691,66 @@
       <c r="W198" s="3"/>
       <c r="X198" s="3"/>
     </row>
-    <row r="199" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="16">
-        <v>45384</v>
-      </c>
-      <c r="B199" s="8"/>
-      <c r="C199" s="6"/>
-      <c r="D199" s="3"/>
-      <c r="E199" s="3"/>
-      <c r="F199" s="3"/>
-      <c r="G199" s="3"/>
-      <c r="H199" s="3"/>
-      <c r="I199" s="3"/>
-      <c r="J199" s="3"/>
-      <c r="K199" s="3"/>
-      <c r="L199" s="3"/>
-      <c r="M199" s="3"/>
-      <c r="N199" s="3"/>
-      <c r="O199" s="3"/>
-      <c r="P199" s="3"/>
-      <c r="Q199" s="3"/>
-      <c r="R199" s="3"/>
-      <c r="S199" s="3"/>
-      <c r="T199" s="3"/>
-      <c r="U199" s="3"/>
-      <c r="V199" s="3"/>
-      <c r="W199" s="3"/>
-      <c r="X199" s="3"/>
-    </row>
-    <row r="200" spans="1:24" ht="159" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="17">
+    <row r="199" spans="1:24" ht="159" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="17">
         <v>45385</v>
       </c>
-      <c r="B200" s="10" t="s">
+      <c r="B199" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C200" s="7">
+      <c r="C199" s="7">
         <v>3</v>
       </c>
-      <c r="D200" s="5" t="s">
+      <c r="D199" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F199" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="E200" s="5" t="s">
+      <c r="G199" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F200" s="5" t="s">
+      <c r="H199" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="G200" s="5" t="s">
+      <c r="I199" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="H200" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="I200" s="5" t="s">
-        <v>190</v>
-      </c>
+    </row>
+    <row r="200" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="16">
+        <v>45386</v>
+      </c>
+      <c r="B200" s="8"/>
+      <c r="C200" s="6"/>
+      <c r="D200" s="3"/>
+      <c r="E200" s="3"/>
+      <c r="F200" s="3"/>
+      <c r="G200" s="3"/>
+      <c r="H200" s="3"/>
+      <c r="I200" s="3"/>
+      <c r="J200" s="3"/>
+      <c r="K200" s="3"/>
+      <c r="L200" s="3"/>
+      <c r="M200" s="3"/>
+      <c r="N200" s="3"/>
+      <c r="O200" s="3"/>
+      <c r="P200" s="3"/>
+      <c r="Q200" s="3"/>
+      <c r="R200" s="3"/>
+      <c r="S200" s="3"/>
+      <c r="T200" s="3"/>
+      <c r="U200" s="3"/>
+      <c r="V200" s="3"/>
+      <c r="W200" s="3"/>
+      <c r="X200" s="3"/>
     </row>
     <row r="201" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="16">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B201" s="8"/>
       <c r="C201" s="6"/>
@@ -6703,7 +6778,7 @@
     </row>
     <row r="202" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="16">
-        <v>45387</v>
+        <v>45388</v>
       </c>
       <c r="B202" s="8"/>
       <c r="C202" s="6"/>
@@ -6731,7 +6806,7 @@
     </row>
     <row r="203" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="16">
-        <v>45388</v>
+        <v>45389</v>
       </c>
       <c r="B203" s="8"/>
       <c r="C203" s="6"/>
@@ -6759,7 +6834,7 @@
     </row>
     <row r="204" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="16">
-        <v>45389</v>
+        <v>45390</v>
       </c>
       <c r="B204" s="8"/>
       <c r="C204" s="6"/>
@@ -6787,7 +6862,7 @@
     </row>
     <row r="205" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="16">
-        <v>45390</v>
+        <v>45391</v>
       </c>
       <c r="B205" s="8"/>
       <c r="C205" s="6"/>
@@ -6815,7 +6890,7 @@
     </row>
     <row r="206" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="16">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B206" s="8"/>
       <c r="C206" s="6"/>
@@ -6843,7 +6918,7 @@
     </row>
     <row r="207" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="16">
-        <v>45392</v>
+        <v>45393</v>
       </c>
       <c r="B207" s="8"/>
       <c r="C207" s="6"/>
@@ -6871,7 +6946,7 @@
     </row>
     <row r="208" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="16">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B208" s="8"/>
       <c r="C208" s="6"/>
@@ -6899,7 +6974,7 @@
     </row>
     <row r="209" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="16">
-        <v>45394</v>
+        <v>45395</v>
       </c>
       <c r="B209" s="8"/>
       <c r="C209" s="6"/>
@@ -6927,7 +7002,7 @@
     </row>
     <row r="210" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="16">
-        <v>45395</v>
+        <v>45396</v>
       </c>
       <c r="B210" s="8"/>
       <c r="C210" s="6"/>
@@ -6955,7 +7030,7 @@
     </row>
     <row r="211" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="16">
-        <v>45396</v>
+        <v>45397</v>
       </c>
       <c r="B211" s="8"/>
       <c r="C211" s="6"/>
@@ -6983,7 +7058,7 @@
     </row>
     <row r="212" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="16">
-        <v>45397</v>
+        <v>45398</v>
       </c>
       <c r="B212" s="8"/>
       <c r="C212" s="6"/>
@@ -7009,63 +7084,63 @@
       <c r="W212" s="3"/>
       <c r="X212" s="3"/>
     </row>
-    <row r="213" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="16">
-        <v>45398</v>
-      </c>
-      <c r="B213" s="8"/>
-      <c r="C213" s="6"/>
-      <c r="D213" s="3"/>
-      <c r="E213" s="3"/>
-      <c r="F213" s="3"/>
-      <c r="G213" s="3"/>
-      <c r="H213" s="3"/>
-      <c r="I213" s="3"/>
-      <c r="J213" s="3"/>
-      <c r="K213" s="3"/>
-      <c r="L213" s="3"/>
-      <c r="M213" s="3"/>
-      <c r="N213" s="3"/>
-      <c r="O213" s="3"/>
-      <c r="P213" s="3"/>
-      <c r="Q213" s="3"/>
-      <c r="R213" s="3"/>
-      <c r="S213" s="3"/>
-      <c r="T213" s="3"/>
-      <c r="U213" s="3"/>
-      <c r="V213" s="3"/>
-      <c r="W213" s="3"/>
-      <c r="X213" s="3"/>
-    </row>
-    <row r="214" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="17">
+    <row r="213" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="17">
         <v>45399</v>
       </c>
-      <c r="B214" s="10" t="s">
+      <c r="B213" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C214" s="7">
+      <c r="C213" s="7">
         <v>2</v>
       </c>
-      <c r="D214" s="5" t="s">
+      <c r="D213" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E213" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F213" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G213" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="E214" s="5" t="s">
+      <c r="H213" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="F214" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G214" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="H214" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="215" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="16">
+        <v>45400</v>
+      </c>
+      <c r="B214" s="8"/>
+      <c r="C214" s="6"/>
+      <c r="D214" s="3"/>
+      <c r="E214" s="3"/>
+      <c r="F214" s="3"/>
+      <c r="G214" s="3"/>
+      <c r="H214" s="3"/>
+      <c r="I214" s="3"/>
+      <c r="J214" s="3"/>
+      <c r="K214" s="3"/>
+      <c r="L214" s="3"/>
+      <c r="M214" s="3"/>
+      <c r="N214" s="3"/>
+      <c r="O214" s="3"/>
+      <c r="P214" s="3"/>
+      <c r="Q214" s="3"/>
+      <c r="R214" s="3"/>
+      <c r="S214" s="3"/>
+      <c r="T214" s="3"/>
+      <c r="U214" s="3"/>
+      <c r="V214" s="3"/>
+      <c r="W214" s="3"/>
+      <c r="X214" s="3"/>
+    </row>
+    <row r="215" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="16">
-        <v>45400</v>
+        <v>45401</v>
       </c>
       <c r="B215" s="8"/>
       <c r="C215" s="6"/>
@@ -7093,7 +7168,7 @@
     </row>
     <row r="216" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="16">
-        <v>45401</v>
+        <v>45402</v>
       </c>
       <c r="B216" s="8"/>
       <c r="C216" s="6"/>
@@ -7121,7 +7196,7 @@
     </row>
     <row r="217" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="16">
-        <v>45402</v>
+        <v>45403</v>
       </c>
       <c r="B217" s="8"/>
       <c r="C217" s="6"/>
@@ -7149,7 +7224,7 @@
     </row>
     <row r="218" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="16">
-        <v>45403</v>
+        <v>45404</v>
       </c>
       <c r="B218" s="8"/>
       <c r="C218" s="6"/>
@@ -7177,7 +7252,7 @@
     </row>
     <row r="219" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="16">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="B219" s="8"/>
       <c r="C219" s="6"/>
@@ -7205,7 +7280,7 @@
     </row>
     <row r="220" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="16">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="B220" s="8"/>
       <c r="C220" s="6"/>
@@ -7231,54 +7306,54 @@
       <c r="W220" s="3"/>
       <c r="X220" s="3"/>
     </row>
-    <row r="221" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="16">
-        <v>45406</v>
-      </c>
-      <c r="B221" s="8"/>
-      <c r="C221" s="6"/>
-      <c r="D221" s="3"/>
-      <c r="E221" s="3"/>
-      <c r="F221" s="3"/>
-      <c r="G221" s="3"/>
-      <c r="H221" s="3"/>
-      <c r="I221" s="3"/>
-      <c r="J221" s="3"/>
-      <c r="K221" s="3"/>
-      <c r="L221" s="3"/>
-      <c r="M221" s="3"/>
-      <c r="N221" s="3"/>
-      <c r="O221" s="3"/>
-      <c r="P221" s="3"/>
-      <c r="Q221" s="3"/>
-      <c r="R221" s="3"/>
-      <c r="S221" s="3"/>
-      <c r="T221" s="3"/>
-      <c r="U221" s="3"/>
-      <c r="V221" s="3"/>
-      <c r="W221" s="3"/>
-      <c r="X221" s="3"/>
-    </row>
-    <row r="222" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="17">
+    <row r="221" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="17">
         <v>45407</v>
       </c>
-      <c r="B222" s="10" t="s">
+      <c r="B221" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C222" s="7">
+      <c r="C221" s="7">
         <v>2</v>
       </c>
-      <c r="D222" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E222" s="5" t="s">
-        <v>197</v>
-      </c>
+      <c r="D221" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E221" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="222" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="16">
+        <v>45408</v>
+      </c>
+      <c r="B222" s="8"/>
+      <c r="C222" s="6"/>
+      <c r="D222" s="3"/>
+      <c r="E222" s="3"/>
+      <c r="F222" s="3"/>
+      <c r="G222" s="3"/>
+      <c r="H222" s="3"/>
+      <c r="I222" s="3"/>
+      <c r="J222" s="3"/>
+      <c r="K222" s="3"/>
+      <c r="L222" s="3"/>
+      <c r="M222" s="3"/>
+      <c r="N222" s="3"/>
+      <c r="O222" s="3"/>
+      <c r="P222" s="3"/>
+      <c r="Q222" s="3"/>
+      <c r="R222" s="3"/>
+      <c r="S222" s="3"/>
+      <c r="T222" s="3"/>
+      <c r="U222" s="3"/>
+      <c r="V222" s="3"/>
+      <c r="W222" s="3"/>
+      <c r="X222" s="3"/>
     </row>
     <row r="223" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="16">
-        <v>45408</v>
+        <v>45409</v>
       </c>
       <c r="B223" s="8"/>
       <c r="C223" s="6"/>
@@ -7306,7 +7381,7 @@
     </row>
     <row r="224" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="16">
-        <v>45409</v>
+        <v>45410</v>
       </c>
       <c r="B224" s="8"/>
       <c r="C224" s="6"/>
@@ -7334,7 +7409,7 @@
     </row>
     <row r="225" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="16">
-        <v>45410</v>
+        <v>45411</v>
       </c>
       <c r="B225" s="8"/>
       <c r="C225" s="6"/>
@@ -7362,7 +7437,7 @@
     </row>
     <row r="226" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="16">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="B226" s="8"/>
       <c r="C226" s="6"/>
@@ -7390,7 +7465,7 @@
     </row>
     <row r="227" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="16">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="B227" s="8"/>
       <c r="C227" s="6"/>
@@ -7418,7 +7493,7 @@
     </row>
     <row r="228" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="16">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="B228" s="8"/>
       <c r="C228" s="6"/>
@@ -7446,7 +7521,7 @@
     </row>
     <row r="229" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="16">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="B229" s="8"/>
       <c r="C229" s="6"/>
@@ -7474,7 +7549,7 @@
     </row>
     <row r="230" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="16">
-        <v>45415</v>
+        <v>45416</v>
       </c>
       <c r="B230" s="8"/>
       <c r="C230" s="6"/>
@@ -7502,7 +7577,7 @@
     </row>
     <row r="231" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="16">
-        <v>45416</v>
+        <v>45417</v>
       </c>
       <c r="B231" s="8"/>
       <c r="C231" s="6"/>
@@ -7530,7 +7605,7 @@
     </row>
     <row r="232" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="16">
-        <v>45417</v>
+        <v>45418</v>
       </c>
       <c r="B232" s="8"/>
       <c r="C232" s="6"/>
@@ -7558,7 +7633,7 @@
     </row>
     <row r="233" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="16">
-        <v>45418</v>
+        <v>45419</v>
       </c>
       <c r="B233" s="8"/>
       <c r="C233" s="6"/>
@@ -7584,63 +7659,63 @@
       <c r="W233" s="3"/>
       <c r="X233" s="3"/>
     </row>
-    <row r="234" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="16">
-        <v>45419</v>
-      </c>
-      <c r="B234" s="8"/>
-      <c r="C234" s="6"/>
-      <c r="D234" s="3"/>
-      <c r="E234" s="3"/>
-      <c r="F234" s="3"/>
-      <c r="G234" s="3"/>
-      <c r="H234" s="3"/>
-      <c r="I234" s="3"/>
-      <c r="J234" s="3"/>
-      <c r="K234" s="3"/>
-      <c r="L234" s="3"/>
-      <c r="M234" s="3"/>
-      <c r="N234" s="3"/>
-      <c r="O234" s="3"/>
-      <c r="P234" s="3"/>
-      <c r="Q234" s="3"/>
-      <c r="R234" s="3"/>
-      <c r="S234" s="3"/>
-      <c r="T234" s="3"/>
-      <c r="U234" s="3"/>
-      <c r="V234" s="3"/>
-      <c r="W234" s="3"/>
-      <c r="X234" s="3"/>
-    </row>
-    <row r="235" spans="1:24" ht="133.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="17">
+    <row r="234" spans="1:24" ht="133.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="17">
         <v>45420</v>
       </c>
-      <c r="B235" s="9" t="s">
+      <c r="B234" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C235" s="7">
+      <c r="C234" s="7">
         <v>2</v>
       </c>
-      <c r="D235" s="5" t="s">
+      <c r="D234" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E234" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F234" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="E235" s="5" t="s">
+      <c r="G234" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="F235" s="5" t="s">
+      <c r="H234" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="G235" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="H235" s="5" t="s">
-        <v>202</v>
-      </c>
+    </row>
+    <row r="235" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="16">
+        <v>45421</v>
+      </c>
+      <c r="B235" s="8"/>
+      <c r="C235" s="6"/>
+      <c r="D235" s="3"/>
+      <c r="E235" s="3"/>
+      <c r="F235" s="3"/>
+      <c r="G235" s="3"/>
+      <c r="H235" s="3"/>
+      <c r="I235" s="3"/>
+      <c r="J235" s="3"/>
+      <c r="K235" s="3"/>
+      <c r="L235" s="3"/>
+      <c r="M235" s="3"/>
+      <c r="N235" s="3"/>
+      <c r="O235" s="3"/>
+      <c r="P235" s="3"/>
+      <c r="Q235" s="3"/>
+      <c r="R235" s="3"/>
+      <c r="S235" s="3"/>
+      <c r="T235" s="3"/>
+      <c r="U235" s="3"/>
+      <c r="V235" s="3"/>
+      <c r="W235" s="3"/>
+      <c r="X235" s="3"/>
     </row>
     <row r="236" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="16">
-        <v>45421</v>
+        <v>45422</v>
       </c>
       <c r="B236" s="8"/>
       <c r="C236" s="6"/>
@@ -7668,7 +7743,7 @@
     </row>
     <row r="237" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="16">
-        <v>45422</v>
+        <v>45423</v>
       </c>
       <c r="B237" s="8"/>
       <c r="C237" s="6"/>
@@ -7696,7 +7771,7 @@
     </row>
     <row r="238" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="16">
-        <v>45423</v>
+        <v>45424</v>
       </c>
       <c r="B238" s="8"/>
       <c r="C238" s="6"/>
@@ -7722,60 +7797,60 @@
       <c r="W238" s="3"/>
       <c r="X238" s="3"/>
     </row>
-    <row r="239" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="16">
-        <v>45424</v>
-      </c>
-      <c r="B239" s="8"/>
-      <c r="C239" s="6"/>
-      <c r="D239" s="3"/>
-      <c r="E239" s="3"/>
-      <c r="F239" s="3"/>
-      <c r="G239" s="3"/>
-      <c r="H239" s="3"/>
-      <c r="I239" s="3"/>
-      <c r="J239" s="3"/>
-      <c r="K239" s="3"/>
-      <c r="L239" s="3"/>
-      <c r="M239" s="3"/>
-      <c r="N239" s="3"/>
-      <c r="O239" s="3"/>
-      <c r="P239" s="3"/>
-      <c r="Q239" s="3"/>
-      <c r="R239" s="3"/>
-      <c r="S239" s="3"/>
-      <c r="T239" s="3"/>
-      <c r="U239" s="3"/>
-      <c r="V239" s="3"/>
-      <c r="W239" s="3"/>
-      <c r="X239" s="3"/>
-    </row>
-    <row r="240" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="17">
+    <row r="239" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="17">
         <v>45425</v>
       </c>
-      <c r="B240" s="10" t="s">
+      <c r="B239" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C240" s="7">
+      <c r="C239" s="7">
         <v>2</v>
       </c>
-      <c r="D240" s="5" t="s">
+      <c r="D239" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E239" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F239" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="E240" s="5" t="s">
+      <c r="G239" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="F240" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G240" s="5" t="s">
-        <v>206</v>
-      </c>
+    </row>
+    <row r="240" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="16">
+        <v>45426</v>
+      </c>
+      <c r="B240" s="8"/>
+      <c r="C240" s="6"/>
+      <c r="D240" s="3"/>
+      <c r="E240" s="3"/>
+      <c r="F240" s="3"/>
+      <c r="G240" s="3"/>
+      <c r="H240" s="3"/>
+      <c r="I240" s="3"/>
+      <c r="J240" s="3"/>
+      <c r="K240" s="3"/>
+      <c r="L240" s="3"/>
+      <c r="M240" s="3"/>
+      <c r="N240" s="3"/>
+      <c r="O240" s="3"/>
+      <c r="P240" s="3"/>
+      <c r="Q240" s="3"/>
+      <c r="R240" s="3"/>
+      <c r="S240" s="3"/>
+      <c r="T240" s="3"/>
+      <c r="U240" s="3"/>
+      <c r="V240" s="3"/>
+      <c r="W240" s="3"/>
+      <c r="X240" s="3"/>
     </row>
     <row r="241" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A241" s="16">
-        <v>45426</v>
+        <v>45427</v>
       </c>
       <c r="B241" s="8"/>
       <c r="C241" s="6"/>
@@ -7801,51 +7876,51 @@
       <c r="W241" s="3"/>
       <c r="X241" s="3"/>
     </row>
-    <row r="242" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="16">
-        <v>45427</v>
-      </c>
-      <c r="B242" s="8"/>
-      <c r="C242" s="6"/>
-      <c r="D242" s="3"/>
-      <c r="E242" s="3"/>
-      <c r="F242" s="3"/>
-      <c r="G242" s="3"/>
-      <c r="H242" s="3"/>
-      <c r="I242" s="3"/>
-      <c r="J242" s="3"/>
-      <c r="K242" s="3"/>
-      <c r="L242" s="3"/>
-      <c r="M242" s="3"/>
-      <c r="N242" s="3"/>
-      <c r="O242" s="3"/>
-      <c r="P242" s="3"/>
-      <c r="Q242" s="3"/>
-      <c r="R242" s="3"/>
-      <c r="S242" s="3"/>
-      <c r="T242" s="3"/>
-      <c r="U242" s="3"/>
-      <c r="V242" s="3"/>
-      <c r="W242" s="3"/>
-      <c r="X242" s="3"/>
-    </row>
-    <row r="243" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A243" s="17">
+    <row r="242" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A242" s="17">
         <v>45428</v>
       </c>
-      <c r="B243" s="10" t="s">
+      <c r="B242" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C243" s="7">
+      <c r="C242" s="7">
         <v>2</v>
       </c>
-      <c r="D243" s="5" t="s">
-        <v>207</v>
-      </c>
+      <c r="D242" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="243" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="16">
+        <v>45429</v>
+      </c>
+      <c r="B243" s="8"/>
+      <c r="C243" s="6"/>
+      <c r="D243" s="3"/>
+      <c r="E243" s="3"/>
+      <c r="F243" s="3"/>
+      <c r="G243" s="3"/>
+      <c r="H243" s="3"/>
+      <c r="I243" s="3"/>
+      <c r="J243" s="3"/>
+      <c r="K243" s="3"/>
+      <c r="L243" s="3"/>
+      <c r="M243" s="3"/>
+      <c r="N243" s="3"/>
+      <c r="O243" s="3"/>
+      <c r="P243" s="3"/>
+      <c r="Q243" s="3"/>
+      <c r="R243" s="3"/>
+      <c r="S243" s="3"/>
+      <c r="T243" s="3"/>
+      <c r="U243" s="3"/>
+      <c r="V243" s="3"/>
+      <c r="W243" s="3"/>
+      <c r="X243" s="3"/>
     </row>
     <row r="244" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A244" s="16">
-        <v>45429</v>
+        <v>45430</v>
       </c>
       <c r="B244" s="8"/>
       <c r="C244" s="6"/>
@@ -7873,7 +7948,7 @@
     </row>
     <row r="245" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245" s="16">
-        <v>45430</v>
+        <v>45431</v>
       </c>
       <c r="B245" s="8"/>
       <c r="C245" s="6"/>
@@ -7901,7 +7976,7 @@
     </row>
     <row r="246" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A246" s="16">
-        <v>45431</v>
+        <v>45432</v>
       </c>
       <c r="B246" s="8"/>
       <c r="C246" s="6"/>
@@ -7927,51 +8002,51 @@
       <c r="W246" s="3"/>
       <c r="X246" s="3"/>
     </row>
-    <row r="247" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="16">
-        <v>45432</v>
-      </c>
-      <c r="B247" s="8"/>
-      <c r="C247" s="6"/>
-      <c r="D247" s="3"/>
-      <c r="E247" s="3"/>
-      <c r="F247" s="3"/>
-      <c r="G247" s="3"/>
-      <c r="H247" s="3"/>
-      <c r="I247" s="3"/>
-      <c r="J247" s="3"/>
-      <c r="K247" s="3"/>
-      <c r="L247" s="3"/>
-      <c r="M247" s="3"/>
-      <c r="N247" s="3"/>
-      <c r="O247" s="3"/>
-      <c r="P247" s="3"/>
-      <c r="Q247" s="3"/>
-      <c r="R247" s="3"/>
-      <c r="S247" s="3"/>
-      <c r="T247" s="3"/>
-      <c r="U247" s="3"/>
-      <c r="V247" s="3"/>
-      <c r="W247" s="3"/>
-      <c r="X247" s="3"/>
-    </row>
-    <row r="248" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A248" s="17">
+    <row r="247" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A247" s="17">
         <v>45433</v>
       </c>
-      <c r="B248" s="10" t="s">
+      <c r="B247" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C248" s="7">
+      <c r="C247" s="7">
         <v>1</v>
       </c>
-      <c r="D248" s="5" t="s">
-        <v>208</v>
-      </c>
+      <c r="D247" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="248" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="16">
+        <v>45434</v>
+      </c>
+      <c r="B248" s="8"/>
+      <c r="C248" s="6"/>
+      <c r="D248" s="3"/>
+      <c r="E248" s="3"/>
+      <c r="F248" s="3"/>
+      <c r="G248" s="3"/>
+      <c r="H248" s="3"/>
+      <c r="I248" s="3"/>
+      <c r="J248" s="3"/>
+      <c r="K248" s="3"/>
+      <c r="L248" s="3"/>
+      <c r="M248" s="3"/>
+      <c r="N248" s="3"/>
+      <c r="O248" s="3"/>
+      <c r="P248" s="3"/>
+      <c r="Q248" s="3"/>
+      <c r="R248" s="3"/>
+      <c r="S248" s="3"/>
+      <c r="T248" s="3"/>
+      <c r="U248" s="3"/>
+      <c r="V248" s="3"/>
+      <c r="W248" s="3"/>
+      <c r="X248" s="3"/>
     </row>
     <row r="249" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A249" s="16">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="B249" s="8"/>
       <c r="C249" s="6"/>
@@ -7999,7 +8074,7 @@
     </row>
     <row r="250" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A250" s="16">
-        <v>45435</v>
+        <v>45436</v>
       </c>
       <c r="B250" s="8"/>
       <c r="C250" s="6"/>
@@ -8027,7 +8102,7 @@
     </row>
     <row r="251" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A251" s="16">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="B251" s="8"/>
       <c r="C251" s="6"/>
@@ -8055,7 +8130,7 @@
     </row>
     <row r="252" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A252" s="16">
-        <v>45437</v>
+        <v>45438</v>
       </c>
       <c r="B252" s="8"/>
       <c r="C252" s="6"/>
@@ -8083,7 +8158,7 @@
     </row>
     <row r="253" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253" s="16">
-        <v>45438</v>
+        <v>45439</v>
       </c>
       <c r="B253" s="8"/>
       <c r="C253" s="6"/>
@@ -8111,7 +8186,7 @@
     </row>
     <row r="254" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A254" s="16">
-        <v>45439</v>
+        <v>45440</v>
       </c>
       <c r="B254" s="8"/>
       <c r="C254" s="6"/>
@@ -8139,7 +8214,7 @@
     </row>
     <row r="255" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A255" s="16">
-        <v>45440</v>
+        <v>45441</v>
       </c>
       <c r="B255" s="8"/>
       <c r="C255" s="6"/>
@@ -8167,7 +8242,7 @@
     </row>
     <row r="256" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A256" s="16">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="B256" s="8"/>
       <c r="C256" s="6"/>
@@ -8195,7 +8270,7 @@
     </row>
     <row r="257" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A257" s="16">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="B257" s="8"/>
       <c r="C257" s="6"/>
@@ -8223,7 +8298,7 @@
     </row>
     <row r="258" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A258" s="16">
-        <v>45443</v>
+        <v>45444</v>
       </c>
       <c r="B258" s="8"/>
       <c r="C258" s="6"/>
@@ -8249,60 +8324,46 @@
       <c r="W258" s="3"/>
       <c r="X258" s="3"/>
     </row>
-    <row r="259" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="16">
-        <v>45444</v>
-      </c>
-      <c r="B259" s="8"/>
-      <c r="C259" s="6"/>
-      <c r="D259" s="3"/>
-      <c r="E259" s="3"/>
-      <c r="F259" s="3"/>
-      <c r="G259" s="3"/>
-      <c r="H259" s="3"/>
-      <c r="I259" s="3"/>
-      <c r="J259" s="3"/>
-      <c r="K259" s="3"/>
-      <c r="L259" s="3"/>
-      <c r="M259" s="3"/>
-      <c r="N259" s="3"/>
-      <c r="O259" s="3"/>
-      <c r="P259" s="3"/>
-      <c r="Q259" s="3"/>
-      <c r="R259" s="3"/>
-      <c r="S259" s="3"/>
-      <c r="T259" s="3"/>
-      <c r="U259" s="3"/>
-      <c r="V259" s="3"/>
-      <c r="W259" s="3"/>
-      <c r="X259" s="3"/>
+    <row r="259" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A259" s="18">
+        <v>45445</v>
+      </c>
+      <c r="B259" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C259" s="7">
+        <v>1</v>
+      </c>
+      <c r="D259" s="5" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="260" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A260" s="18">
-        <v>45445</v>
+        <v>45446</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C260" s="7">
         <v>1</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="261" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A261" s="18">
-        <v>45446</v>
+      <c r="A261" s="17">
+        <v>45447</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C261" s="7">
         <v>1</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="262" spans="1:24" x14ac:dyDescent="0.2">
@@ -8310,51 +8371,51 @@
         <v>45447</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C262" s="7">
         <v>1</v>
       </c>
       <c r="D262" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E262" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F262" s="5" t="s">
         <v>211</v>
+      </c>
+      <c r="G262" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="H262" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I262" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="J262" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="K262" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="L262" s="5" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="263" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A263" s="17">
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C263" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E263" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F263" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="G263" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="H263" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="I263" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="J263" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="K263" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="L263" s="5" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="264" spans="1:24" x14ac:dyDescent="0.2">
@@ -8362,32 +8423,46 @@
         <v>45448</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C264" s="7">
         <v>2</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="265" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A265" s="17">
-        <v>45448</v>
-      </c>
-      <c r="B265" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C265" s="7">
-        <v>2</v>
-      </c>
-      <c r="D265" s="5" t="s">
-        <v>222</v>
-      </c>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="265" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="16">
+        <v>45449</v>
+      </c>
+      <c r="B265" s="8"/>
+      <c r="C265" s="6"/>
+      <c r="D265" s="3"/>
+      <c r="E265" s="3"/>
+      <c r="F265" s="3"/>
+      <c r="G265" s="3"/>
+      <c r="H265" s="3"/>
+      <c r="I265" s="3"/>
+      <c r="J265" s="3"/>
+      <c r="K265" s="3"/>
+      <c r="L265" s="3"/>
+      <c r="M265" s="3"/>
+      <c r="N265" s="3"/>
+      <c r="O265" s="3"/>
+      <c r="P265" s="3"/>
+      <c r="Q265" s="3"/>
+      <c r="R265" s="3"/>
+      <c r="S265" s="3"/>
+      <c r="T265" s="3"/>
+      <c r="U265" s="3"/>
+      <c r="V265" s="3"/>
+      <c r="W265" s="3"/>
+      <c r="X265" s="3"/>
     </row>
     <row r="266" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A266" s="16">
-        <v>45449</v>
+        <v>45450</v>
       </c>
       <c r="B266" s="8"/>
       <c r="C266" s="6"/>
@@ -8415,7 +8490,7 @@
     </row>
     <row r="267" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A267" s="16">
-        <v>45450</v>
+        <v>45451</v>
       </c>
       <c r="B267" s="8"/>
       <c r="C267" s="6"/>
@@ -8443,9 +8518,9 @@
     </row>
     <row r="268" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A268" s="16">
-        <v>45451</v>
-      </c>
-      <c r="B268" s="8"/>
+        <v>45452</v>
+      </c>
+      <c r="B268" s="14"/>
       <c r="C268" s="6"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -8471,7 +8546,7 @@
     </row>
     <row r="269" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A269" s="16">
-        <v>45452</v>
+        <v>45453</v>
       </c>
       <c r="B269" s="14"/>
       <c r="C269" s="6"/>
@@ -8499,9 +8574,9 @@
     </row>
     <row r="270" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A270" s="16">
-        <v>45453</v>
-      </c>
-      <c r="B270" s="14"/>
+        <v>45454</v>
+      </c>
+      <c r="B270" s="8"/>
       <c r="C270" s="6"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -8527,7 +8602,7 @@
     </row>
     <row r="271" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A271" s="16">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="B271" s="8"/>
       <c r="C271" s="6"/>
@@ -8553,51 +8628,51 @@
       <c r="W271" s="3"/>
       <c r="X271" s="3"/>
     </row>
-    <row r="272" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="16">
-        <v>45455</v>
-      </c>
-      <c r="B272" s="8"/>
-      <c r="C272" s="6"/>
-      <c r="D272" s="3"/>
-      <c r="E272" s="3"/>
-      <c r="F272" s="3"/>
-      <c r="G272" s="3"/>
-      <c r="H272" s="3"/>
-      <c r="I272" s="3"/>
-      <c r="J272" s="3"/>
-      <c r="K272" s="3"/>
-      <c r="L272" s="3"/>
-      <c r="M272" s="3"/>
-      <c r="N272" s="3"/>
-      <c r="O272" s="3"/>
-      <c r="P272" s="3"/>
-      <c r="Q272" s="3"/>
-      <c r="R272" s="3"/>
-      <c r="S272" s="3"/>
-      <c r="T272" s="3"/>
-      <c r="U272" s="3"/>
-      <c r="V272" s="3"/>
-      <c r="W272" s="3"/>
-      <c r="X272" s="3"/>
-    </row>
-    <row r="273" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A273" s="17">
+    <row r="272" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A272" s="17">
         <v>45456</v>
       </c>
-      <c r="B273" s="10" t="s">
+      <c r="B272" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C273" s="7">
+      <c r="C272" s="7">
         <v>1</v>
       </c>
-      <c r="D273" s="5" t="s">
-        <v>223</v>
-      </c>
+      <c r="D272" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="273" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="16">
+        <v>45457</v>
+      </c>
+      <c r="B273" s="8"/>
+      <c r="C273" s="6"/>
+      <c r="D273" s="3"/>
+      <c r="E273" s="3"/>
+      <c r="F273" s="3"/>
+      <c r="G273" s="3"/>
+      <c r="H273" s="3"/>
+      <c r="I273" s="3"/>
+      <c r="J273" s="3"/>
+      <c r="K273" s="3"/>
+      <c r="L273" s="3"/>
+      <c r="M273" s="3"/>
+      <c r="N273" s="3"/>
+      <c r="O273" s="3"/>
+      <c r="P273" s="3"/>
+      <c r="Q273" s="3"/>
+      <c r="R273" s="3"/>
+      <c r="S273" s="3"/>
+      <c r="T273" s="3"/>
+      <c r="U273" s="3"/>
+      <c r="V273" s="3"/>
+      <c r="W273" s="3"/>
+      <c r="X273" s="3"/>
     </row>
     <row r="274" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274" s="16">
-        <v>45457</v>
+        <v>45458</v>
       </c>
       <c r="B274" s="8"/>
       <c r="C274" s="6"/>
@@ -8625,7 +8700,7 @@
     </row>
     <row r="275" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A275" s="16">
-        <v>45458</v>
+        <v>45459</v>
       </c>
       <c r="B275" s="8"/>
       <c r="C275" s="6"/>
@@ -8653,7 +8728,7 @@
     </row>
     <row r="276" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" s="16">
-        <v>45459</v>
+        <v>45460</v>
       </c>
       <c r="B276" s="8"/>
       <c r="C276" s="6"/>
@@ -8681,7 +8756,7 @@
     </row>
     <row r="277" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A277" s="16">
-        <v>45460</v>
+        <v>45461</v>
       </c>
       <c r="B277" s="8"/>
       <c r="C277" s="6"/>
@@ -8709,7 +8784,7 @@
     </row>
     <row r="278" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" s="16">
-        <v>45461</v>
+        <v>45462</v>
       </c>
       <c r="B278" s="8"/>
       <c r="C278" s="6"/>
@@ -8737,7 +8812,7 @@
     </row>
     <row r="279" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A279" s="16">
-        <v>45462</v>
+        <v>45463</v>
       </c>
       <c r="B279" s="8"/>
       <c r="C279" s="6"/>
@@ -8765,7 +8840,7 @@
     </row>
     <row r="280" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="16">
-        <v>45463</v>
+        <v>45464</v>
       </c>
       <c r="B280" s="8"/>
       <c r="C280" s="6"/>
@@ -8793,7 +8868,7 @@
     </row>
     <row r="281" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" s="16">
-        <v>45464</v>
+        <v>45465</v>
       </c>
       <c r="B281" s="8"/>
       <c r="C281" s="6"/>
@@ -8819,72 +8894,72 @@
       <c r="W281" s="3"/>
       <c r="X281" s="3"/>
     </row>
-    <row r="282" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="16">
-        <v>45465</v>
-      </c>
-      <c r="B282" s="8"/>
-      <c r="C282" s="6"/>
-      <c r="D282" s="3"/>
-      <c r="E282" s="3"/>
-      <c r="F282" s="3"/>
-      <c r="G282" s="3"/>
-      <c r="H282" s="3"/>
-      <c r="I282" s="3"/>
-      <c r="J282" s="3"/>
-      <c r="K282" s="3"/>
-      <c r="L282" s="3"/>
-      <c r="M282" s="3"/>
-      <c r="N282" s="3"/>
-      <c r="O282" s="3"/>
-      <c r="P282" s="3"/>
-      <c r="Q282" s="3"/>
-      <c r="R282" s="3"/>
-      <c r="S282" s="3"/>
-      <c r="T282" s="3"/>
-      <c r="U282" s="3"/>
-      <c r="V282" s="3"/>
-      <c r="W282" s="3"/>
-      <c r="X282" s="3"/>
-    </row>
-    <row r="283" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A283" s="17">
+    <row r="282" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A282" s="17">
         <v>45466</v>
       </c>
-      <c r="B283" s="10" t="s">
+      <c r="B282" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C283" s="7">
+      <c r="C282" s="7">
         <v>3</v>
       </c>
-      <c r="D283" s="5" t="s">
+      <c r="D282" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E282" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F282" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G282" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="E283" s="5" t="s">
+      <c r="H282" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="F283" s="5" t="s">
+      <c r="I282" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="G283" s="5" t="s">
+      <c r="J282" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="H283" s="5" t="s">
+      <c r="K282" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="I283" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="J283" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="K283" s="5" t="s">
-        <v>231</v>
-      </c>
+    </row>
+    <row r="283" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="16">
+        <v>45467</v>
+      </c>
+      <c r="B283" s="8"/>
+      <c r="C283" s="6"/>
+      <c r="D283" s="3"/>
+      <c r="E283" s="3"/>
+      <c r="F283" s="3"/>
+      <c r="G283" s="3"/>
+      <c r="H283" s="3"/>
+      <c r="I283" s="3"/>
+      <c r="J283" s="3"/>
+      <c r="K283" s="3"/>
+      <c r="L283" s="3"/>
+      <c r="M283" s="3"/>
+      <c r="N283" s="3"/>
+      <c r="O283" s="3"/>
+      <c r="P283" s="3"/>
+      <c r="Q283" s="3"/>
+      <c r="R283" s="3"/>
+      <c r="S283" s="3"/>
+      <c r="T283" s="3"/>
+      <c r="U283" s="3"/>
+      <c r="V283" s="3"/>
+      <c r="W283" s="3"/>
+      <c r="X283" s="3"/>
     </row>
     <row r="284" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A284" s="16">
-        <v>45467</v>
+        <v>45468</v>
       </c>
       <c r="B284" s="8"/>
       <c r="C284" s="6"/>
@@ -8912,7 +8987,7 @@
     </row>
     <row r="285" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="16">
-        <v>45468</v>
+        <v>45469</v>
       </c>
       <c r="B285" s="8"/>
       <c r="C285" s="6"/>
@@ -8940,7 +9015,7 @@
     </row>
     <row r="286" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A286" s="16">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="B286" s="8"/>
       <c r="C286" s="6"/>
@@ -8968,7 +9043,7 @@
     </row>
     <row r="287" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" s="16">
-        <v>45470</v>
+        <v>45471</v>
       </c>
       <c r="B287" s="8"/>
       <c r="C287" s="6"/>
@@ -8996,7 +9071,7 @@
     </row>
     <row r="288" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A288" s="16">
-        <v>45471</v>
+        <v>45472</v>
       </c>
       <c r="B288" s="8"/>
       <c r="C288" s="6"/>
@@ -9024,7 +9099,7 @@
     </row>
     <row r="289" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A289" s="16">
-        <v>45472</v>
+        <v>45473</v>
       </c>
       <c r="B289" s="8"/>
       <c r="C289" s="6"/>
@@ -9052,7 +9127,7 @@
     </row>
     <row r="290" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A290" s="16">
-        <v>45473</v>
+        <v>45474</v>
       </c>
       <c r="B290" s="8"/>
       <c r="C290" s="6"/>
@@ -9080,7 +9155,7 @@
     </row>
     <row r="291" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A291" s="16">
-        <v>45474</v>
+        <v>45475</v>
       </c>
       <c r="B291" s="8"/>
       <c r="C291" s="6"/>
@@ -9108,7 +9183,7 @@
     </row>
     <row r="292" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A292" s="16">
-        <v>45475</v>
+        <v>45476</v>
       </c>
       <c r="B292" s="8"/>
       <c r="C292" s="6"/>
@@ -9136,7 +9211,7 @@
     </row>
     <row r="293" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A293" s="16">
-        <v>45476</v>
+        <v>45477</v>
       </c>
       <c r="B293" s="8"/>
       <c r="C293" s="6"/>
@@ -9162,51 +9237,51 @@
       <c r="W293" s="3"/>
       <c r="X293" s="3"/>
     </row>
-    <row r="294" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A294" s="16">
-        <v>45477</v>
-      </c>
-      <c r="B294" s="8"/>
-      <c r="C294" s="6"/>
-      <c r="D294" s="3"/>
-      <c r="E294" s="3"/>
-      <c r="F294" s="3"/>
-      <c r="G294" s="3"/>
-      <c r="H294" s="3"/>
-      <c r="I294" s="3"/>
-      <c r="J294" s="3"/>
-      <c r="K294" s="3"/>
-      <c r="L294" s="3"/>
-      <c r="M294" s="3"/>
-      <c r="N294" s="3"/>
-      <c r="O294" s="3"/>
-      <c r="P294" s="3"/>
-      <c r="Q294" s="3"/>
-      <c r="R294" s="3"/>
-      <c r="S294" s="3"/>
-      <c r="T294" s="3"/>
-      <c r="U294" s="3"/>
-      <c r="V294" s="3"/>
-      <c r="W294" s="3"/>
-      <c r="X294" s="3"/>
-    </row>
-    <row r="295" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A295" s="17">
+    <row r="294" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A294" s="17">
         <v>45478</v>
       </c>
-      <c r="B295" s="10" t="s">
+      <c r="B294" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C295" s="7">
+      <c r="C294" s="7">
         <v>1</v>
       </c>
-      <c r="D295" s="5" t="s">
-        <v>232</v>
-      </c>
+      <c r="D294" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="295" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A295" s="16">
+        <v>45479</v>
+      </c>
+      <c r="B295" s="8"/>
+      <c r="C295" s="6"/>
+      <c r="D295" s="3"/>
+      <c r="E295" s="3"/>
+      <c r="F295" s="3"/>
+      <c r="G295" s="3"/>
+      <c r="H295" s="3"/>
+      <c r="I295" s="3"/>
+      <c r="J295" s="3"/>
+      <c r="K295" s="3"/>
+      <c r="L295" s="3"/>
+      <c r="M295" s="3"/>
+      <c r="N295" s="3"/>
+      <c r="O295" s="3"/>
+      <c r="P295" s="3"/>
+      <c r="Q295" s="3"/>
+      <c r="R295" s="3"/>
+      <c r="S295" s="3"/>
+      <c r="T295" s="3"/>
+      <c r="U295" s="3"/>
+      <c r="V295" s="3"/>
+      <c r="W295" s="3"/>
+      <c r="X295" s="3"/>
     </row>
     <row r="296" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A296" s="16">
-        <v>45479</v>
+        <v>45480</v>
       </c>
       <c r="B296" s="8"/>
       <c r="C296" s="6"/>
@@ -9234,7 +9309,7 @@
     </row>
     <row r="297" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A297" s="16">
-        <v>45480</v>
+        <v>45481</v>
       </c>
       <c r="B297" s="8"/>
       <c r="C297" s="6"/>
@@ -9262,7 +9337,7 @@
     </row>
     <row r="298" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A298" s="16">
-        <v>45481</v>
+        <v>45482</v>
       </c>
       <c r="B298" s="8"/>
       <c r="C298" s="6"/>
@@ -9290,7 +9365,7 @@
     </row>
     <row r="299" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A299" s="16">
-        <v>45482</v>
+        <v>45483</v>
       </c>
       <c r="B299" s="8"/>
       <c r="C299" s="6"/>
@@ -9318,7 +9393,7 @@
     </row>
     <row r="300" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A300" s="16">
-        <v>45483</v>
+        <v>45484</v>
       </c>
       <c r="B300" s="8"/>
       <c r="C300" s="6"/>
@@ -9344,68 +9419,68 @@
       <c r="W300" s="3"/>
       <c r="X300" s="3"/>
     </row>
-    <row r="301" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A301" s="16">
-        <v>45484</v>
-      </c>
-      <c r="B301" s="8"/>
-      <c r="C301" s="6"/>
-      <c r="D301" s="3"/>
-      <c r="E301" s="3"/>
-      <c r="F301" s="3"/>
-      <c r="G301" s="3"/>
-      <c r="H301" s="3"/>
-      <c r="I301" s="3"/>
-      <c r="J301" s="3"/>
-      <c r="K301" s="3"/>
-      <c r="L301" s="3"/>
-      <c r="M301" s="3"/>
-      <c r="N301" s="3"/>
-      <c r="O301" s="3"/>
-      <c r="P301" s="3"/>
-      <c r="Q301" s="3"/>
-      <c r="R301" s="3"/>
-      <c r="S301" s="3"/>
-      <c r="T301" s="3"/>
-      <c r="U301" s="3"/>
-      <c r="V301" s="3"/>
-      <c r="W301" s="3"/>
-      <c r="X301" s="3"/>
+    <row r="301" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A301" s="17">
+        <v>45485</v>
+      </c>
+      <c r="B301" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C301" s="7">
+        <v>1</v>
+      </c>
+      <c r="D301" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E301" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="302" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A302" s="17">
-        <v>45485</v>
+        <v>45486</v>
       </c>
       <c r="B302" s="10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C302" s="7">
         <v>1</v>
       </c>
       <c r="D302" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E302" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="303" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A303" s="17">
-        <v>45486</v>
-      </c>
-      <c r="B303" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C303" s="7">
-        <v>1</v>
-      </c>
-      <c r="D303" s="5" t="s">
-        <v>233</v>
-      </c>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="303" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A303" s="16">
+        <v>45487</v>
+      </c>
+      <c r="B303" s="8"/>
+      <c r="C303" s="6"/>
+      <c r="D303" s="3"/>
+      <c r="E303" s="3"/>
+      <c r="F303" s="3"/>
+      <c r="G303" s="3"/>
+      <c r="H303" s="3"/>
+      <c r="I303" s="3"/>
+      <c r="J303" s="3"/>
+      <c r="K303" s="3"/>
+      <c r="L303" s="3"/>
+      <c r="M303" s="3"/>
+      <c r="N303" s="3"/>
+      <c r="O303" s="3"/>
+      <c r="P303" s="3"/>
+      <c r="Q303" s="3"/>
+      <c r="R303" s="3"/>
+      <c r="S303" s="3"/>
+      <c r="T303" s="3"/>
+      <c r="U303" s="3"/>
+      <c r="V303" s="3"/>
+      <c r="W303" s="3"/>
+      <c r="X303" s="3"/>
     </row>
     <row r="304" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A304" s="16">
-        <v>45487</v>
+        <v>45488</v>
       </c>
       <c r="B304" s="8"/>
       <c r="C304" s="6"/>
@@ -9433,7 +9508,7 @@
     </row>
     <row r="305" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A305" s="16">
-        <v>45488</v>
+        <v>45489</v>
       </c>
       <c r="B305" s="8"/>
       <c r="C305" s="6"/>
@@ -9461,7 +9536,7 @@
     </row>
     <row r="306" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A306" s="16">
-        <v>45489</v>
+        <v>45490</v>
       </c>
       <c r="B306" s="8"/>
       <c r="C306" s="6"/>
@@ -9489,7 +9564,7 @@
     </row>
     <row r="307" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A307" s="16">
-        <v>45490</v>
+        <v>45491</v>
       </c>
       <c r="B307" s="8"/>
       <c r="C307" s="6"/>
@@ -9517,7 +9592,7 @@
     </row>
     <row r="308" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A308" s="16">
-        <v>45491</v>
+        <v>45492</v>
       </c>
       <c r="B308" s="8"/>
       <c r="C308" s="6"/>
@@ -9545,7 +9620,7 @@
     </row>
     <row r="309" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A309" s="16">
-        <v>45492</v>
+        <v>45493</v>
       </c>
       <c r="B309" s="8"/>
       <c r="C309" s="6"/>
@@ -9573,7 +9648,7 @@
     </row>
     <row r="310" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A310" s="16">
-        <v>45493</v>
+        <v>45494</v>
       </c>
       <c r="B310" s="8"/>
       <c r="C310" s="6"/>
@@ -9601,7 +9676,7 @@
     </row>
     <row r="311" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A311" s="16">
-        <v>45494</v>
+        <v>45495</v>
       </c>
       <c r="B311" s="8"/>
       <c r="C311" s="6"/>
@@ -9629,7 +9704,7 @@
     </row>
     <row r="312" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A312" s="16">
-        <v>45495</v>
+        <v>45496</v>
       </c>
       <c r="B312" s="8"/>
       <c r="C312" s="6"/>
@@ -9657,7 +9732,7 @@
     </row>
     <row r="313" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A313" s="16">
-        <v>45496</v>
+        <v>45497</v>
       </c>
       <c r="B313" s="8"/>
       <c r="C313" s="6"/>
@@ -9685,7 +9760,7 @@
     </row>
     <row r="314" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A314" s="16">
-        <v>45497</v>
+        <v>45498</v>
       </c>
       <c r="B314" s="8"/>
       <c r="C314" s="6"/>
@@ -9713,7 +9788,7 @@
     </row>
     <row r="315" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A315" s="16">
-        <v>45498</v>
+        <v>45499</v>
       </c>
       <c r="B315" s="8"/>
       <c r="C315" s="6"/>
@@ -9741,7 +9816,7 @@
     </row>
     <row r="316" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A316" s="16">
-        <v>45499</v>
+        <v>45500</v>
       </c>
       <c r="B316" s="8"/>
       <c r="C316" s="6"/>
@@ -9769,7 +9844,7 @@
     </row>
     <row r="317" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A317" s="16">
-        <v>45500</v>
+        <v>45501</v>
       </c>
       <c r="B317" s="8"/>
       <c r="C317" s="6"/>
@@ -9795,68 +9870,68 @@
       <c r="W317" s="3"/>
       <c r="X317" s="3"/>
     </row>
-    <row r="318" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A318" s="16">
-        <v>45501</v>
-      </c>
-      <c r="B318" s="8"/>
-      <c r="C318" s="6"/>
-      <c r="D318" s="3"/>
-      <c r="E318" s="3"/>
-      <c r="F318" s="3"/>
-      <c r="G318" s="3"/>
-      <c r="H318" s="3"/>
-      <c r="I318" s="3"/>
-      <c r="J318" s="3"/>
-      <c r="K318" s="3"/>
-      <c r="L318" s="3"/>
-      <c r="M318" s="3"/>
-      <c r="N318" s="3"/>
-      <c r="O318" s="3"/>
-      <c r="P318" s="3"/>
-      <c r="Q318" s="3"/>
-      <c r="R318" s="3"/>
-      <c r="S318" s="3"/>
-      <c r="T318" s="3"/>
-      <c r="U318" s="3"/>
-      <c r="V318" s="3"/>
-      <c r="W318" s="3"/>
-      <c r="X318" s="3"/>
+    <row r="318" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A318" s="17">
+        <v>45502</v>
+      </c>
+      <c r="B318" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C318" s="7">
+        <v>1</v>
+      </c>
+      <c r="D318" s="5" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="319" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A319" s="17">
-        <v>45502</v>
+        <v>45503</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C319" s="7">
         <v>1</v>
       </c>
       <c r="D319" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="320" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A320" s="17">
-        <v>45503</v>
-      </c>
-      <c r="B320" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C320" s="7">
-        <v>1</v>
-      </c>
-      <c r="D320" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="E320" s="5" t="s">
-        <v>236</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="E319" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="320" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A320" s="16">
+        <v>45504</v>
+      </c>
+      <c r="B320" s="8"/>
+      <c r="C320" s="6"/>
+      <c r="D320" s="3"/>
+      <c r="E320" s="3"/>
+      <c r="F320" s="3"/>
+      <c r="G320" s="3"/>
+      <c r="H320" s="3"/>
+      <c r="I320" s="3"/>
+      <c r="J320" s="3"/>
+      <c r="K320" s="3"/>
+      <c r="L320" s="3"/>
+      <c r="M320" s="3"/>
+      <c r="N320" s="3"/>
+      <c r="O320" s="3"/>
+      <c r="P320" s="3"/>
+      <c r="Q320" s="3"/>
+      <c r="R320" s="3"/>
+      <c r="S320" s="3"/>
+      <c r="T320" s="3"/>
+      <c r="U320" s="3"/>
+      <c r="V320" s="3"/>
+      <c r="W320" s="3"/>
+      <c r="X320" s="3"/>
     </row>
     <row r="321" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A321" s="16">
-        <v>45504</v>
+        <v>45505</v>
       </c>
       <c r="B321" s="8"/>
       <c r="C321" s="6"/>
@@ -9884,7 +9959,7 @@
     </row>
     <row r="322" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A322" s="16">
-        <v>45505</v>
+        <v>45506</v>
       </c>
       <c r="B322" s="8"/>
       <c r="C322" s="6"/>
@@ -9912,7 +9987,7 @@
     </row>
     <row r="323" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A323" s="16">
-        <v>45506</v>
+        <v>45507</v>
       </c>
       <c r="B323" s="8"/>
       <c r="C323" s="6"/>
@@ -9940,7 +10015,7 @@
     </row>
     <row r="324" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A324" s="16">
-        <v>45507</v>
+        <v>45508</v>
       </c>
       <c r="B324" s="8"/>
       <c r="C324" s="6"/>
@@ -9966,51 +10041,51 @@
       <c r="W324" s="3"/>
       <c r="X324" s="3"/>
     </row>
-    <row r="325" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A325" s="16">
-        <v>45508</v>
-      </c>
-      <c r="B325" s="8"/>
-      <c r="C325" s="6"/>
-      <c r="D325" s="3"/>
-      <c r="E325" s="3"/>
-      <c r="F325" s="3"/>
-      <c r="G325" s="3"/>
-      <c r="H325" s="3"/>
-      <c r="I325" s="3"/>
-      <c r="J325" s="3"/>
-      <c r="K325" s="3"/>
-      <c r="L325" s="3"/>
-      <c r="M325" s="3"/>
-      <c r="N325" s="3"/>
-      <c r="O325" s="3"/>
-      <c r="P325" s="3"/>
-      <c r="Q325" s="3"/>
-      <c r="R325" s="3"/>
-      <c r="S325" s="3"/>
-      <c r="T325" s="3"/>
-      <c r="U325" s="3"/>
-      <c r="V325" s="3"/>
-      <c r="W325" s="3"/>
-      <c r="X325" s="3"/>
-    </row>
-    <row r="326" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A326" s="17">
+    <row r="325" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A325" s="17">
         <v>45509</v>
       </c>
-      <c r="B326" s="10" t="s">
+      <c r="B325" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C326" s="7">
+      <c r="C325" s="7">
         <v>1</v>
       </c>
-      <c r="D326" s="5" t="s">
-        <v>237</v>
-      </c>
+      <c r="D325" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="326" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A326" s="16">
+        <v>45510</v>
+      </c>
+      <c r="B326" s="8"/>
+      <c r="C326" s="6"/>
+      <c r="D326" s="3"/>
+      <c r="E326" s="3"/>
+      <c r="F326" s="3"/>
+      <c r="G326" s="3"/>
+      <c r="H326" s="3"/>
+      <c r="I326" s="3"/>
+      <c r="J326" s="3"/>
+      <c r="K326" s="3"/>
+      <c r="L326" s="3"/>
+      <c r="M326" s="3"/>
+      <c r="N326" s="3"/>
+      <c r="O326" s="3"/>
+      <c r="P326" s="3"/>
+      <c r="Q326" s="3"/>
+      <c r="R326" s="3"/>
+      <c r="S326" s="3"/>
+      <c r="T326" s="3"/>
+      <c r="U326" s="3"/>
+      <c r="V326" s="3"/>
+      <c r="W326" s="3"/>
+      <c r="X326" s="3"/>
     </row>
     <row r="327" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A327" s="16">
-        <v>45510</v>
+        <v>45511</v>
       </c>
       <c r="B327" s="8"/>
       <c r="C327" s="6"/>
@@ -10038,7 +10113,7 @@
     </row>
     <row r="328" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A328" s="16">
-        <v>45511</v>
+        <v>45512</v>
       </c>
       <c r="B328" s="8"/>
       <c r="C328" s="6"/>
@@ -10066,7 +10141,7 @@
     </row>
     <row r="329" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A329" s="16">
-        <v>45512</v>
+        <v>45513</v>
       </c>
       <c r="B329" s="8"/>
       <c r="C329" s="6"/>
@@ -10094,7 +10169,7 @@
     </row>
     <row r="330" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A330" s="16">
-        <v>45513</v>
+        <v>45514</v>
       </c>
       <c r="B330" s="8"/>
       <c r="C330" s="6"/>
@@ -10122,7 +10197,7 @@
     </row>
     <row r="331" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A331" s="16">
-        <v>45514</v>
+        <v>45515</v>
       </c>
       <c r="B331" s="8"/>
       <c r="C331" s="6"/>
@@ -10148,63 +10223,63 @@
       <c r="W331" s="3"/>
       <c r="X331" s="3"/>
     </row>
-    <row r="332" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="16">
-        <v>45515</v>
-      </c>
-      <c r="B332" s="8"/>
-      <c r="C332" s="6"/>
-      <c r="D332" s="3"/>
-      <c r="E332" s="3"/>
-      <c r="F332" s="3"/>
-      <c r="G332" s="3"/>
-      <c r="H332" s="3"/>
-      <c r="I332" s="3"/>
-      <c r="J332" s="3"/>
-      <c r="K332" s="3"/>
-      <c r="L332" s="3"/>
-      <c r="M332" s="3"/>
-      <c r="N332" s="3"/>
-      <c r="O332" s="3"/>
-      <c r="P332" s="3"/>
-      <c r="Q332" s="3"/>
-      <c r="R332" s="3"/>
-      <c r="S332" s="3"/>
-      <c r="T332" s="3"/>
-      <c r="U332" s="3"/>
-      <c r="V332" s="3"/>
-      <c r="W332" s="3"/>
-      <c r="X332" s="3"/>
-    </row>
-    <row r="333" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A333" s="17">
+    <row r="332" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A332" s="17">
         <v>45516</v>
       </c>
-      <c r="B333" s="10" t="s">
+      <c r="B332" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C333" s="7">
+      <c r="C332" s="7">
         <v>2</v>
       </c>
-      <c r="D333" s="5" t="s">
+      <c r="D332" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E332" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F332" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="G332" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="E333" s="5" t="s">
+      <c r="H332" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="F333" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="G333" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="H333" s="5" t="s">
-        <v>242</v>
-      </c>
+    </row>
+    <row r="333" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A333" s="16">
+        <v>45517</v>
+      </c>
+      <c r="B333" s="8"/>
+      <c r="C333" s="6"/>
+      <c r="D333" s="3"/>
+      <c r="E333" s="3"/>
+      <c r="F333" s="3"/>
+      <c r="G333" s="3"/>
+      <c r="H333" s="3"/>
+      <c r="I333" s="3"/>
+      <c r="J333" s="3"/>
+      <c r="K333" s="3"/>
+      <c r="L333" s="3"/>
+      <c r="M333" s="3"/>
+      <c r="N333" s="3"/>
+      <c r="O333" s="3"/>
+      <c r="P333" s="3"/>
+      <c r="Q333" s="3"/>
+      <c r="R333" s="3"/>
+      <c r="S333" s="3"/>
+      <c r="T333" s="3"/>
+      <c r="U333" s="3"/>
+      <c r="V333" s="3"/>
+      <c r="W333" s="3"/>
+      <c r="X333" s="3"/>
     </row>
     <row r="334" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A334" s="16">
-        <v>45517</v>
+        <v>45518</v>
       </c>
       <c r="B334" s="8"/>
       <c r="C334" s="6"/>
@@ -10232,7 +10307,7 @@
     </row>
     <row r="335" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A335" s="16">
-        <v>45518</v>
+        <v>45519</v>
       </c>
       <c r="B335" s="8"/>
       <c r="C335" s="6"/>
@@ -10260,7 +10335,7 @@
     </row>
     <row r="336" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A336" s="16">
-        <v>45519</v>
+        <v>45520</v>
       </c>
       <c r="B336" s="8"/>
       <c r="C336" s="6"/>
@@ -10288,7 +10363,7 @@
     </row>
     <row r="337" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A337" s="16">
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="B337" s="8"/>
       <c r="C337" s="6"/>
@@ -10316,7 +10391,7 @@
     </row>
     <row r="338" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A338" s="16">
-        <v>45521</v>
+        <v>45522</v>
       </c>
       <c r="B338" s="8"/>
       <c r="C338" s="6"/>
@@ -10344,7 +10419,7 @@
     </row>
     <row r="339" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A339" s="16">
-        <v>45522</v>
+        <v>45523</v>
       </c>
       <c r="B339" s="8"/>
       <c r="C339" s="6"/>
@@ -10372,7 +10447,7 @@
     </row>
     <row r="340" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A340" s="16">
-        <v>45523</v>
+        <v>45524</v>
       </c>
       <c r="B340" s="8"/>
       <c r="C340" s="6"/>
@@ -10400,7 +10475,7 @@
     </row>
     <row r="341" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A341" s="16">
-        <v>45524</v>
+        <v>45525</v>
       </c>
       <c r="B341" s="8"/>
       <c r="C341" s="6"/>
@@ -10428,7 +10503,7 @@
     </row>
     <row r="342" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A342" s="16">
-        <v>45525</v>
+        <v>45526</v>
       </c>
       <c r="B342" s="8"/>
       <c r="C342" s="6"/>
@@ -10456,7 +10531,7 @@
     </row>
     <row r="343" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A343" s="16">
-        <v>45526</v>
+        <v>45527</v>
       </c>
       <c r="B343" s="8"/>
       <c r="C343" s="6"/>
@@ -10484,7 +10559,7 @@
     </row>
     <row r="344" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A344" s="16">
-        <v>45527</v>
+        <v>45528</v>
       </c>
       <c r="B344" s="8"/>
       <c r="C344" s="6"/>
@@ -10512,7 +10587,7 @@
     </row>
     <row r="345" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A345" s="16">
-        <v>45528</v>
+        <v>45529</v>
       </c>
       <c r="B345" s="8"/>
       <c r="C345" s="6"/>
@@ -10540,7 +10615,7 @@
     </row>
     <row r="346" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A346" s="16">
-        <v>45529</v>
+        <v>45530</v>
       </c>
       <c r="B346" s="8"/>
       <c r="C346" s="6"/>
@@ -10568,7 +10643,7 @@
     </row>
     <row r="347" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A347" s="16">
-        <v>45530</v>
+        <v>45531</v>
       </c>
       <c r="B347" s="8"/>
       <c r="C347" s="6"/>
@@ -10596,7 +10671,7 @@
     </row>
     <row r="348" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A348" s="16">
-        <v>45531</v>
+        <v>45532</v>
       </c>
       <c r="B348" s="8"/>
       <c r="C348" s="6"/>
@@ -10624,7 +10699,7 @@
     </row>
     <row r="349" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A349" s="16">
-        <v>45532</v>
+        <v>45533</v>
       </c>
       <c r="B349" s="8"/>
       <c r="C349" s="6"/>
@@ -10652,7 +10727,7 @@
     </row>
     <row r="350" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A350" s="16">
-        <v>45533</v>
+        <v>45534</v>
       </c>
       <c r="B350" s="8"/>
       <c r="C350" s="6"/>
@@ -10680,7 +10755,7 @@
     </row>
     <row r="351" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A351" s="16">
-        <v>45534</v>
+        <v>45535</v>
       </c>
       <c r="B351" s="8"/>
       <c r="C351" s="6"/>
@@ -10708,7 +10783,7 @@
     </row>
     <row r="352" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A352" s="16">
-        <v>45535</v>
+        <v>45536</v>
       </c>
       <c r="B352" s="8"/>
       <c r="C352" s="6"/>
@@ -10736,7 +10811,7 @@
     </row>
     <row r="353" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A353" s="16">
-        <v>45536</v>
+        <v>45537</v>
       </c>
       <c r="B353" s="8"/>
       <c r="C353" s="6"/>
@@ -10764,7 +10839,7 @@
     </row>
     <row r="354" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A354" s="16">
-        <v>45537</v>
+        <v>45538</v>
       </c>
       <c r="B354" s="8"/>
       <c r="C354" s="6"/>
@@ -10792,7 +10867,7 @@
     </row>
     <row r="355" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A355" s="16">
-        <v>45538</v>
+        <v>45539</v>
       </c>
       <c r="B355" s="8"/>
       <c r="C355" s="6"/>
@@ -10820,7 +10895,7 @@
     </row>
     <row r="356" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A356" s="16">
-        <v>45539</v>
+        <v>45540</v>
       </c>
       <c r="B356" s="8"/>
       <c r="C356" s="6"/>
@@ -10848,7 +10923,7 @@
     </row>
     <row r="357" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A357" s="16">
-        <v>45540</v>
+        <v>45541</v>
       </c>
       <c r="B357" s="8"/>
       <c r="C357" s="6"/>
@@ -10876,7 +10951,7 @@
     </row>
     <row r="358" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A358" s="16">
-        <v>45541</v>
+        <v>45542</v>
       </c>
       <c r="B358" s="8"/>
       <c r="C358" s="6"/>
@@ -10904,7 +10979,7 @@
     </row>
     <row r="359" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A359" s="16">
-        <v>45542</v>
+        <v>45543</v>
       </c>
       <c r="B359" s="8"/>
       <c r="C359" s="6"/>
@@ -10932,7 +11007,7 @@
     </row>
     <row r="360" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A360" s="16">
-        <v>45543</v>
+        <v>45544</v>
       </c>
       <c r="B360" s="8"/>
       <c r="C360" s="6"/>
@@ -10960,7 +11035,7 @@
     </row>
     <row r="361" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A361" s="16">
-        <v>45544</v>
+        <v>45545</v>
       </c>
       <c r="B361" s="8"/>
       <c r="C361" s="6"/>
@@ -10986,54 +11061,54 @@
       <c r="W361" s="3"/>
       <c r="X361" s="3"/>
     </row>
-    <row r="362" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A362" s="16">
-        <v>45545</v>
-      </c>
-      <c r="B362" s="8"/>
-      <c r="C362" s="6"/>
-      <c r="D362" s="3"/>
-      <c r="E362" s="3"/>
-      <c r="F362" s="3"/>
-      <c r="G362" s="3"/>
-      <c r="H362" s="3"/>
-      <c r="I362" s="3"/>
-      <c r="J362" s="3"/>
-      <c r="K362" s="3"/>
-      <c r="L362" s="3"/>
-      <c r="M362" s="3"/>
-      <c r="N362" s="3"/>
-      <c r="O362" s="3"/>
-      <c r="P362" s="3"/>
-      <c r="Q362" s="3"/>
-      <c r="R362" s="3"/>
-      <c r="S362" s="3"/>
-      <c r="T362" s="3"/>
-      <c r="U362" s="3"/>
-      <c r="V362" s="3"/>
-      <c r="W362" s="3"/>
-      <c r="X362" s="3"/>
-    </row>
-    <row r="363" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A363" s="17">
+    <row r="362" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A362" s="17">
         <v>45546</v>
       </c>
-      <c r="B363" s="10" t="s">
+      <c r="B362" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C363" s="7">
+      <c r="C362" s="7">
         <v>1</v>
       </c>
-      <c r="D363" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="E363" s="5" t="s">
-        <v>244</v>
-      </c>
+      <c r="D362" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E362" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="363" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A363" s="16">
+        <v>45547</v>
+      </c>
+      <c r="B363" s="8"/>
+      <c r="C363" s="6"/>
+      <c r="D363" s="3"/>
+      <c r="E363" s="3"/>
+      <c r="F363" s="3"/>
+      <c r="G363" s="3"/>
+      <c r="H363" s="3"/>
+      <c r="I363" s="3"/>
+      <c r="J363" s="3"/>
+      <c r="K363" s="3"/>
+      <c r="L363" s="3"/>
+      <c r="M363" s="3"/>
+      <c r="N363" s="3"/>
+      <c r="O363" s="3"/>
+      <c r="P363" s="3"/>
+      <c r="Q363" s="3"/>
+      <c r="R363" s="3"/>
+      <c r="S363" s="3"/>
+      <c r="T363" s="3"/>
+      <c r="U363" s="3"/>
+      <c r="V363" s="3"/>
+      <c r="W363" s="3"/>
+      <c r="X363" s="3"/>
     </row>
     <row r="364" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A364" s="16">
-        <v>45547</v>
+        <v>45548</v>
       </c>
       <c r="B364" s="8"/>
       <c r="C364" s="6"/>
@@ -11061,7 +11136,7 @@
     </row>
     <row r="365" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A365" s="16">
-        <v>45548</v>
+        <v>45549</v>
       </c>
       <c r="B365" s="8"/>
       <c r="C365" s="6"/>
@@ -11087,89 +11162,89 @@
       <c r="W365" s="3"/>
       <c r="X365" s="3"/>
     </row>
-    <row r="366" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A366" s="16">
-        <v>45549</v>
-      </c>
-      <c r="B366" s="8"/>
-      <c r="C366" s="6"/>
-      <c r="D366" s="3"/>
-      <c r="E366" s="3"/>
-      <c r="F366" s="3"/>
-      <c r="G366" s="3"/>
-      <c r="H366" s="3"/>
-      <c r="I366" s="3"/>
-      <c r="J366" s="3"/>
-      <c r="K366" s="3"/>
-      <c r="L366" s="3"/>
-      <c r="M366" s="3"/>
-      <c r="N366" s="3"/>
-      <c r="O366" s="3"/>
-      <c r="P366" s="3"/>
-      <c r="Q366" s="3"/>
-      <c r="R366" s="3"/>
-      <c r="S366" s="3"/>
-      <c r="T366" s="3"/>
-      <c r="U366" s="3"/>
-      <c r="V366" s="3"/>
-      <c r="W366" s="3"/>
-      <c r="X366" s="3"/>
+    <row r="366" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A366" s="17">
+        <v>45550</v>
+      </c>
+      <c r="B366" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C366" s="7">
+        <v>1</v>
+      </c>
+      <c r="D366" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E366" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F366" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="G366" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="H366" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I366" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="J366" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="K366" s="5" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="367" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A367" s="17">
-        <v>45550</v>
+        <v>45551</v>
       </c>
       <c r="B367" s="10" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C367" s="7">
         <v>1</v>
       </c>
       <c r="D367" s="5" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E367" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="F367" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="G367" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="H367" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="I367" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="J367" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="K367" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="368" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A368" s="17">
-        <v>45551</v>
-      </c>
-      <c r="B368" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C368" s="7">
-        <v>1</v>
-      </c>
-      <c r="D368" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E368" s="5" t="s">
-        <v>254</v>
-      </c>
+    </row>
+    <row r="368" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A368" s="16">
+        <v>45552</v>
+      </c>
+      <c r="B368" s="8"/>
+      <c r="C368" s="6"/>
+      <c r="D368" s="3"/>
+      <c r="E368" s="3"/>
+      <c r="F368" s="3"/>
+      <c r="G368" s="3"/>
+      <c r="H368" s="3"/>
+      <c r="I368" s="3"/>
+      <c r="J368" s="3"/>
+      <c r="K368" s="3"/>
+      <c r="L368" s="3"/>
+      <c r="M368" s="3"/>
+      <c r="N368" s="3"/>
+      <c r="O368" s="3"/>
+      <c r="P368" s="3"/>
+      <c r="Q368" s="3"/>
+      <c r="R368" s="3"/>
+      <c r="S368" s="3"/>
+      <c r="T368" s="3"/>
+      <c r="U368" s="3"/>
+      <c r="V368" s="3"/>
+      <c r="W368" s="3"/>
+      <c r="X368" s="3"/>
     </row>
     <row r="369" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A369" s="16">
-        <v>45552</v>
+        <v>45553</v>
       </c>
       <c r="B369" s="8"/>
       <c r="C369" s="6"/>
@@ -11197,7 +11272,7 @@
     </row>
     <row r="370" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A370" s="16">
-        <v>45553</v>
+        <v>45554</v>
       </c>
       <c r="B370" s="8"/>
       <c r="C370" s="6"/>
@@ -11225,7 +11300,7 @@
     </row>
     <row r="371" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A371" s="16">
-        <v>45554</v>
+        <v>45555</v>
       </c>
       <c r="B371" s="8"/>
       <c r="C371" s="6"/>
@@ -11253,7 +11328,7 @@
     </row>
     <row r="372" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A372" s="16">
-        <v>45555</v>
+        <v>45556</v>
       </c>
       <c r="B372" s="8"/>
       <c r="C372" s="6"/>
@@ -11279,54 +11354,54 @@
       <c r="W372" s="3"/>
       <c r="X372" s="3"/>
     </row>
-    <row r="373" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A373" s="16">
-        <v>45556</v>
-      </c>
-      <c r="B373" s="8"/>
-      <c r="C373" s="6"/>
-      <c r="D373" s="3"/>
-      <c r="E373" s="3"/>
-      <c r="F373" s="3"/>
-      <c r="G373" s="3"/>
-      <c r="H373" s="3"/>
-      <c r="I373" s="3"/>
-      <c r="J373" s="3"/>
-      <c r="K373" s="3"/>
-      <c r="L373" s="3"/>
-      <c r="M373" s="3"/>
-      <c r="N373" s="3"/>
-      <c r="O373" s="3"/>
-      <c r="P373" s="3"/>
-      <c r="Q373" s="3"/>
-      <c r="R373" s="3"/>
-      <c r="S373" s="3"/>
-      <c r="T373" s="3"/>
-      <c r="U373" s="3"/>
-      <c r="V373" s="3"/>
-      <c r="W373" s="3"/>
-      <c r="X373" s="3"/>
-    </row>
-    <row r="374" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A374" s="17">
+    <row r="373" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A373" s="17">
         <v>45557</v>
       </c>
-      <c r="B374" s="10" t="s">
+      <c r="B373" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C374" s="7">
+      <c r="C373" s="7">
         <v>1</v>
       </c>
-      <c r="D374" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="E374" s="5" t="s">
-        <v>256</v>
-      </c>
+      <c r="D373" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E373" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="374" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A374" s="16">
+        <v>45558</v>
+      </c>
+      <c r="B374" s="8"/>
+      <c r="C374" s="6"/>
+      <c r="D374" s="3"/>
+      <c r="E374" s="3"/>
+      <c r="F374" s="3"/>
+      <c r="G374" s="3"/>
+      <c r="H374" s="3"/>
+      <c r="I374" s="3"/>
+      <c r="J374" s="3"/>
+      <c r="K374" s="3"/>
+      <c r="L374" s="3"/>
+      <c r="M374" s="3"/>
+      <c r="N374" s="3"/>
+      <c r="O374" s="3"/>
+      <c r="P374" s="3"/>
+      <c r="Q374" s="3"/>
+      <c r="R374" s="3"/>
+      <c r="S374" s="3"/>
+      <c r="T374" s="3"/>
+      <c r="U374" s="3"/>
+      <c r="V374" s="3"/>
+      <c r="W374" s="3"/>
+      <c r="X374" s="3"/>
     </row>
     <row r="375" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A375" s="16">
-        <v>45558</v>
+        <v>45559</v>
       </c>
       <c r="B375" s="8"/>
       <c r="C375" s="6"/>
@@ -11354,7 +11429,7 @@
     </row>
     <row r="376" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A376" s="16">
-        <v>45559</v>
+        <v>45560</v>
       </c>
       <c r="B376" s="8"/>
       <c r="C376" s="6"/>
@@ -11382,7 +11457,7 @@
     </row>
     <row r="377" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A377" s="16">
-        <v>45560</v>
+        <v>45561</v>
       </c>
       <c r="B377" s="8"/>
       <c r="C377" s="6"/>
@@ -11410,7 +11485,7 @@
     </row>
     <row r="378" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A378" s="16">
-        <v>45561</v>
+        <v>45562</v>
       </c>
       <c r="B378" s="8"/>
       <c r="C378" s="6"/>
@@ -11438,7 +11513,7 @@
     </row>
     <row r="379" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A379" s="16">
-        <v>45562</v>
+        <v>45563</v>
       </c>
       <c r="B379" s="8"/>
       <c r="C379" s="6"/>
@@ -11466,7 +11541,7 @@
     </row>
     <row r="380" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A380" s="16">
-        <v>45563</v>
+        <v>45564</v>
       </c>
       <c r="B380" s="8"/>
       <c r="C380" s="6"/>
@@ -11492,48 +11567,40 @@
       <c r="W380" s="3"/>
       <c r="X380" s="3"/>
     </row>
-    <row r="381" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A381" s="16">
-        <v>45564</v>
-      </c>
-      <c r="B381" s="8"/>
-      <c r="C381" s="6"/>
-      <c r="D381" s="3"/>
-      <c r="E381" s="3"/>
-      <c r="F381" s="3"/>
-      <c r="G381" s="3"/>
-      <c r="H381" s="3"/>
-      <c r="I381" s="3"/>
-      <c r="J381" s="3"/>
-      <c r="K381" s="3"/>
-      <c r="L381" s="3"/>
-      <c r="M381" s="3"/>
-      <c r="N381" s="3"/>
-      <c r="O381" s="3"/>
-      <c r="P381" s="3"/>
-      <c r="Q381" s="3"/>
-      <c r="R381" s="3"/>
-      <c r="S381" s="3"/>
-      <c r="T381" s="3"/>
-      <c r="U381" s="3"/>
-      <c r="V381" s="3"/>
-      <c r="W381" s="3"/>
-      <c r="X381" s="3"/>
+    <row r="381" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A381" s="17">
+        <v>45565</v>
+      </c>
+      <c r="B381" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C381" s="7">
+        <v>2</v>
+      </c>
+      <c r="D381" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E381" s="5" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="382" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A382" s="17">
         <v>45565</v>
       </c>
       <c r="B382" s="10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C382" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D382" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E382" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="E382" s="5" t="s">
+      <c r="F382" s="5" t="s">
         <v>258</v>
       </c>
     </row>
@@ -11542,7 +11609,7 @@
         <v>45565</v>
       </c>
       <c r="B383" s="10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C383" s="7">
         <v>1</v>
@@ -11550,25 +11617,28 @@
       <c r="D383" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="E383" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F383" s="5" t="s">
-        <v>261</v>
-      </c>
     </row>
     <row r="384" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A384" s="17">
-        <v>45565</v>
+        <v>45566</v>
       </c>
       <c r="B384" s="10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C384" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D384" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E384" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F384" s="5" t="s">
         <v>262</v>
+      </c>
+      <c r="G384" s="5" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="385" spans="1:24" x14ac:dyDescent="0.2">
@@ -11579,19 +11649,22 @@
         <v>21</v>
       </c>
       <c r="C385" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D385" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E385" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F385" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G385" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
+      </c>
+      <c r="H385" s="5" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="386" spans="1:24" x14ac:dyDescent="0.2">
@@ -11602,80 +11675,82 @@
         <v>21</v>
       </c>
       <c r="C386" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D386" s="5" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E386" s="5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F386" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G386" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H386" s="5" t="s">
-        <v>271</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="I386" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="J386" s="5"/>
     </row>
     <row r="387" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A387" s="17">
-        <v>45566</v>
+        <v>45567</v>
       </c>
       <c r="B387" s="10" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C387" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D387" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E387" s="5" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F387" s="5" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G387" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="H387" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="I387" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="J387" s="5"/>
-    </row>
-    <row r="388" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A388" s="17">
-        <v>45567</v>
-      </c>
-      <c r="B388" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C388" s="7">
-        <v>2</v>
-      </c>
-      <c r="D388" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="E388" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="F388" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="G388" s="5" t="s">
-        <v>281</v>
-      </c>
+    </row>
+    <row r="388" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="16">
+        <v>45568</v>
+      </c>
+      <c r="B388" s="8"/>
+      <c r="C388" s="6"/>
+      <c r="D388" s="3"/>
+      <c r="E388" s="3"/>
+      <c r="F388" s="3"/>
+      <c r="G388" s="3"/>
+      <c r="H388" s="3"/>
+      <c r="I388" s="3"/>
+      <c r="J388" s="3"/>
+      <c r="K388" s="3"/>
+      <c r="L388" s="3"/>
+      <c r="M388" s="3"/>
+      <c r="N388" s="3"/>
+      <c r="O388" s="3"/>
+      <c r="P388" s="3"/>
+      <c r="Q388" s="3"/>
+      <c r="R388" s="3"/>
+      <c r="S388" s="3"/>
+      <c r="T388" s="3"/>
+      <c r="U388" s="3"/>
+      <c r="V388" s="3"/>
+      <c r="W388" s="3"/>
+      <c r="X388" s="3"/>
     </row>
     <row r="389" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389" s="16">
-        <v>45568</v>
+        <v>45569</v>
       </c>
       <c r="B389" s="8"/>
       <c r="C389" s="6"/>
@@ -11703,7 +11778,7 @@
     </row>
     <row r="390" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A390" s="16">
-        <v>45569</v>
+        <v>45570</v>
       </c>
       <c r="B390" s="8"/>
       <c r="C390" s="6"/>
@@ -11731,7 +11806,7 @@
     </row>
     <row r="391" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391" s="16">
-        <v>45570</v>
+        <v>45571</v>
       </c>
       <c r="B391" s="8"/>
       <c r="C391" s="6"/>
@@ -11759,7 +11834,7 @@
     </row>
     <row r="392" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A392" s="16">
-        <v>45571</v>
+        <v>45572</v>
       </c>
       <c r="B392" s="8"/>
       <c r="C392" s="6"/>
@@ -11785,51 +11860,24 @@
       <c r="W392" s="3"/>
       <c r="X392" s="3"/>
     </row>
-    <row r="393" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A393" s="16">
-        <v>45572</v>
-      </c>
-      <c r="B393" s="8"/>
-      <c r="C393" s="6"/>
-      <c r="D393" s="3"/>
-      <c r="E393" s="3"/>
-      <c r="F393" s="3"/>
-      <c r="G393" s="3"/>
-      <c r="H393" s="3"/>
-      <c r="I393" s="3"/>
-      <c r="J393" s="3"/>
-      <c r="K393" s="3"/>
-      <c r="L393" s="3"/>
-      <c r="M393" s="3"/>
-      <c r="N393" s="3"/>
-      <c r="O393" s="3"/>
-      <c r="P393" s="3"/>
-      <c r="Q393" s="3"/>
-      <c r="R393" s="3"/>
-      <c r="S393" s="3"/>
-      <c r="T393" s="3"/>
-      <c r="U393" s="3"/>
-      <c r="V393" s="3"/>
-      <c r="W393" s="3"/>
-      <c r="X393" s="3"/>
+        <v>45573</v>
+      </c>
     </row>
     <row r="394" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A394" s="16">
-        <v>45573</v>
+        <v>45574</v>
       </c>
     </row>
     <row r="395" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A395" s="16">
-        <v>45574</v>
-      </c>
-    </row>
-    <row r="396" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A396" s="16">
         <v>45575</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <phoneticPr fontId="7" type="noConversion"/>
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C10" xr:uid="{58C236B0-35A8-47C2-A508-02D8587851C7}">
       <formula1>#REF!</formula1>
     </dataValidation>
@@ -11935,159 +11983,157 @@
     <hyperlink ref="U70" r:id="rId98" xr:uid="{E3DB0ACB-CD59-472A-9958-0C2B51A4F314}"/>
     <hyperlink ref="V70" r:id="rId99" xr:uid="{551E7886-6F83-46E0-8944-52C273086E64}"/>
     <hyperlink ref="W70" r:id="rId100" xr:uid="{83835B58-B336-42F1-AC36-961A9BAA832E}"/>
-    <hyperlink ref="D71" r:id="rId101" xr:uid="{E10C270B-B270-419C-A9FA-9B8D59CA4EF9}"/>
-    <hyperlink ref="E71" r:id="rId102" xr:uid="{B282D23C-EF02-4FF6-B426-BE072A7E5B8C}"/>
-    <hyperlink ref="F71" r:id="rId103" xr:uid="{DB2CA9DD-BE2F-4414-A022-B732C0D34B24}"/>
-    <hyperlink ref="G71" r:id="rId104" xr:uid="{B3F7C7FD-B8B5-494B-909E-8D4803198C07}"/>
-    <hyperlink ref="H71" r:id="rId105" xr:uid="{E9352CE3-8505-4877-BA90-6E2FBAF65A70}"/>
-    <hyperlink ref="I71" r:id="rId106" xr:uid="{10AB752E-9EB0-410E-99AD-64B1BAD53AAF}"/>
-    <hyperlink ref="J71" r:id="rId107" xr:uid="{ECE97B0C-97A1-4E4C-AF06-CA196E25E321}"/>
-    <hyperlink ref="K71" r:id="rId108" xr:uid="{02C8920A-4253-4494-988D-FF4B4E3545A8}"/>
-    <hyperlink ref="L71" r:id="rId109" xr:uid="{CE7444CC-D3E2-431E-8B1B-3EF111DE7492}"/>
-    <hyperlink ref="D76" r:id="rId110" xr:uid="{344751B6-F05B-4009-95E0-CB898ADEB159}"/>
-    <hyperlink ref="E76" r:id="rId111" xr:uid="{527EF238-2A21-4DF2-89F8-38245C4F5BFA}"/>
-    <hyperlink ref="G76" r:id="rId112" xr:uid="{6D9FE7A8-3381-492D-8E7E-D0C5F8A703B7}"/>
-    <hyperlink ref="F76" r:id="rId113" xr:uid="{005F1371-3B04-4D06-BD35-F146D983F3CB}"/>
-    <hyperlink ref="D80" r:id="rId114" xr:uid="{F089EE6D-851D-4D2C-AF69-E0C07BD244CB}"/>
-    <hyperlink ref="D81" r:id="rId115" display="20231207\20231207_Rmaysh1\GreenSoutherners136 _20231207 أطراف رميش فوسفوري.jpeg" xr:uid="{01C6AA7F-59A8-4BEF-B52B-2A6AD22A724B}"/>
-    <hyperlink ref="E81" r:id="rId116" xr:uid="{7F29DEDF-E761-41CE-9903-99B5C7B903F5}"/>
-    <hyperlink ref="F81" r:id="rId117" xr:uid="{D7DC41C7-0CCC-4D2B-BF60-17A47162286B}"/>
-    <hyperlink ref="G81" r:id="rId118" xr:uid="{A7A2459A-1BD2-4126-826F-0649AA54B2B4}"/>
-    <hyperlink ref="H81" r:id="rId119" xr:uid="{B595072B-8DE4-42D5-AF71-E9E8B4CBD574}"/>
-    <hyperlink ref="I81" r:id="rId120" xr:uid="{6FCBEE3F-E64D-419D-B5BF-44B6368EB184}"/>
-    <hyperlink ref="J81" r:id="rId121" xr:uid="{D1FC6885-5690-4525-8A88-53518444F874}"/>
-    <hyperlink ref="K81" r:id="rId122" xr:uid="{5E7B13B8-6DBD-4BB6-ABE3-61465AEC4364}"/>
-    <hyperlink ref="D82" r:id="rId123" xr:uid="{511D87CC-D70F-41F8-A14A-30074F90CD50}"/>
-    <hyperlink ref="D83" r:id="rId124" xr:uid="{B09C1376-C013-4BA0-A8DD-628D62DD96AD}"/>
-    <hyperlink ref="D95" r:id="rId125" xr:uid="{F841E600-2066-4194-BD3B-7CD5FB386FE9}"/>
-    <hyperlink ref="E95" r:id="rId126" xr:uid="{2BAB6CC8-57B5-4B48-A87C-32635B0DF071}"/>
-    <hyperlink ref="D118" r:id="rId127" xr:uid="{05F85689-819A-4A74-95A9-61FD149B28C5}"/>
-    <hyperlink ref="E118" r:id="rId128" xr:uid="{12CB9FBB-A852-44F7-A203-CB9FE588C36B}"/>
-    <hyperlink ref="F118" r:id="rId129" xr:uid="{DA8129E8-AF9A-42E6-8881-ED8B394499F5}"/>
-    <hyperlink ref="G118" r:id="rId130" xr:uid="{BD036F21-B023-4009-813E-218A89A18C91}"/>
-    <hyperlink ref="D120" r:id="rId131" xr:uid="{900CB1FA-EFAD-4AB6-9FFF-2353AF048876}"/>
-    <hyperlink ref="D122" r:id="rId132" xr:uid="{E4F6B677-6073-4196-99C1-E99D35A90627}"/>
-    <hyperlink ref="E122" r:id="rId133" xr:uid="{14B152DA-4572-4411-BF6D-F12E7606615C}"/>
-    <hyperlink ref="D123" r:id="rId134" xr:uid="{BCC2F946-78D9-4659-923C-A6694B694855}"/>
-    <hyperlink ref="D125" r:id="rId135" xr:uid="{5DBC946C-0AFC-4E25-B2F8-CED8E25981ED}"/>
-    <hyperlink ref="E125" r:id="rId136" xr:uid="{625D7D74-28C1-4E5E-BD2A-6D2F61A8FC65}"/>
-    <hyperlink ref="D135" r:id="rId137" xr:uid="{1728EE38-2DF9-42CA-A5B1-A0E0C62751B0}"/>
-    <hyperlink ref="E135" r:id="rId138" xr:uid="{ED84C99B-9F9A-463E-95C2-927EEF5F4D13}"/>
-    <hyperlink ref="D136" r:id="rId139" xr:uid="{F447741B-7B9C-4FB3-A154-0E6BC98C5A8B}"/>
-    <hyperlink ref="D137" r:id="rId140" xr:uid="{1E58336F-5ACA-4CE1-A813-7744EAEF2457}"/>
-    <hyperlink ref="D167" r:id="rId141" xr:uid="{4D617FEC-31E7-43EC-80F1-B7B172AF456C}"/>
-    <hyperlink ref="E167" r:id="rId142" xr:uid="{4146683C-63BC-495F-B573-48F36EA57860}"/>
-    <hyperlink ref="D168" r:id="rId143" xr:uid="{71537D31-F168-464D-A79C-963E01B6DB0B}"/>
-    <hyperlink ref="E168" r:id="rId144" xr:uid="{DA03138A-A3C7-4EE3-ABD2-2CCEF85C2B33}"/>
-    <hyperlink ref="F168" r:id="rId145" xr:uid="{AF86B621-C3FB-4FD3-A9DA-FDFE19B92C03}"/>
-    <hyperlink ref="G168" r:id="rId146" xr:uid="{DB7404A4-FE8D-4B3F-9D58-6F85710783B8}"/>
-    <hyperlink ref="H168" r:id="rId147" xr:uid="{ACA995FC-1566-4E82-A94C-127401AE7BD9}"/>
-    <hyperlink ref="I168" r:id="rId148" xr:uid="{147666A0-2325-4DFE-8CFE-BBDFF6396348}"/>
-    <hyperlink ref="D169" r:id="rId149" xr:uid="{2709DD58-6608-43D7-A54D-D1641255ABC5}"/>
-    <hyperlink ref="E169" r:id="rId150" xr:uid="{2AAFDA22-3C89-46B2-A880-3E124BC14E59}"/>
-    <hyperlink ref="D170" r:id="rId151" xr:uid="{B86F5395-62A8-49E1-AD1F-EEFD763DA1B7}"/>
-    <hyperlink ref="D183" r:id="rId152" xr:uid="{72C79066-5B6E-4CE7-BACE-F1737DDA59CB}"/>
-    <hyperlink ref="D200" r:id="rId153" xr:uid="{911E8819-9B83-440C-A52F-A721E540DF80}"/>
-    <hyperlink ref="E200" r:id="rId154" xr:uid="{46F6EC9E-3D03-4FCC-B8F0-2CA7D3BC8E71}"/>
-    <hyperlink ref="F200" r:id="rId155" xr:uid="{743827E6-6FA5-4DA6-A380-0B8A6F8028F6}"/>
-    <hyperlink ref="G200" r:id="rId156" xr:uid="{0384AE93-C7CE-4B08-AD00-BD75D9657F13}"/>
-    <hyperlink ref="H200" r:id="rId157" xr:uid="{E8423CCC-96E2-40EB-B16F-9232402B57AE}"/>
-    <hyperlink ref="I200" r:id="rId158" xr:uid="{510DEB5D-9F36-4114-9BF6-096B317CE2AC}"/>
-    <hyperlink ref="D214" r:id="rId159" xr:uid="{22EAB6CF-2591-4AA6-859C-8AFE24E0FEA8}"/>
-    <hyperlink ref="E214" r:id="rId160" xr:uid="{5C69A82B-EBDA-4E1D-AC2F-53899E14F85B}"/>
-    <hyperlink ref="G214" r:id="rId161" xr:uid="{5DE9FFF6-55FD-4FBB-9165-1FE07732B157}"/>
-    <hyperlink ref="H214" r:id="rId162" xr:uid="{95CFEB41-C529-4A99-8C8C-9B6F1FD94AAA}"/>
-    <hyperlink ref="F214" r:id="rId163" xr:uid="{8AC21ADD-1DA9-4413-A0DA-37F36DBA5C94}"/>
-    <hyperlink ref="D222" r:id="rId164" xr:uid="{7944199D-9665-4DBB-9E3D-5ED823260F59}"/>
-    <hyperlink ref="E222" r:id="rId165" xr:uid="{9F9CDCB4-B37A-46AE-9CF3-823DAFCED279}"/>
-    <hyperlink ref="D235" r:id="rId166" xr:uid="{9B59D698-5FBE-4383-A17D-61A2F3975C48}"/>
-    <hyperlink ref="E235" r:id="rId167" xr:uid="{B522C5C1-368C-4F17-80FD-2D2FA384EC83}"/>
-    <hyperlink ref="F235" r:id="rId168" xr:uid="{F276E04B-4B82-4FBF-862E-203B03943397}"/>
-    <hyperlink ref="G235" r:id="rId169" xr:uid="{F6829AE6-1EFD-4DA8-81BD-6239979CD87A}"/>
-    <hyperlink ref="H235" r:id="rId170" xr:uid="{8E0056EA-F973-4C64-90C5-48047729F807}"/>
-    <hyperlink ref="D240" r:id="rId171" xr:uid="{BB4B0A54-EA34-48A1-81EC-83CA27033611}"/>
-    <hyperlink ref="E240" r:id="rId172" xr:uid="{6F79A2AB-E2A6-4ABB-9D61-317621757C05}"/>
-    <hyperlink ref="F240" r:id="rId173" xr:uid="{13304604-9C7F-4108-A2DB-0C073DD6F816}"/>
-    <hyperlink ref="G240" r:id="rId174" xr:uid="{B3134AC8-8FC9-4C20-A543-31D77BDCDFA5}"/>
-    <hyperlink ref="D243" r:id="rId175" xr:uid="{497EDE61-16C1-48E5-AF49-6DE4D00CAF28}"/>
-    <hyperlink ref="D248" r:id="rId176" xr:uid="{B0B75C0A-DE10-48B7-91A4-39C9B49F1190}"/>
-    <hyperlink ref="D260" r:id="rId177" xr:uid="{8A3EDDF6-53C6-45B7-BC9A-EFB77A0C6405}"/>
-    <hyperlink ref="D261" r:id="rId178" xr:uid="{7EBF8210-1C5C-475A-9EE7-23C46ED89C8B}"/>
-    <hyperlink ref="D262" r:id="rId179" xr:uid="{ED130BCB-75ED-439B-8801-7052A4A8644E}"/>
-    <hyperlink ref="D263" r:id="rId180" xr:uid="{349A15DC-EC7B-435F-8D8F-ED27A30327E2}"/>
-    <hyperlink ref="E263" r:id="rId181" xr:uid="{5CC81365-8CB1-4F4B-A7D8-44DCBA999310}"/>
-    <hyperlink ref="F263" r:id="rId182" xr:uid="{4F407D3E-2072-466D-BE81-5BEBEFBD46E4}"/>
-    <hyperlink ref="G263" r:id="rId183" xr:uid="{8C3FB8F0-4C96-4D39-9CEF-2D65F3D19C9B}"/>
-    <hyperlink ref="H263" r:id="rId184" xr:uid="{ECEBF426-3489-4245-A230-B1F3362215FB}"/>
-    <hyperlink ref="I263" r:id="rId185" xr:uid="{AD485175-2FF3-4005-AB97-E839ED91E8BD}"/>
-    <hyperlink ref="J263" r:id="rId186" xr:uid="{16E19AE0-A50A-4038-A2AB-AC86B1D5529A}"/>
-    <hyperlink ref="K263" r:id="rId187" xr:uid="{6D981592-6410-42D7-AA59-35BFAD0702AA}"/>
-    <hyperlink ref="L263" r:id="rId188" xr:uid="{9EAEC803-21CE-46CA-A8AA-B88F8BAF2A0B}"/>
-    <hyperlink ref="D264" r:id="rId189" xr:uid="{7732C70A-7F0E-48B9-A85E-E3A4EF7E3DBF}"/>
-    <hyperlink ref="D265" r:id="rId190" xr:uid="{8BFFCD31-BE20-4197-91F8-9818BA8BF4AE}"/>
-    <hyperlink ref="D273" r:id="rId191" xr:uid="{3D79C244-5F51-47DB-8DCF-8B14BE504C64}"/>
-    <hyperlink ref="D283" r:id="rId192" xr:uid="{D24407FF-13EC-4F35-8B38-4389246EB75D}"/>
-    <hyperlink ref="E283" r:id="rId193" xr:uid="{1B1D4A32-74D6-4B1A-8DD6-DD01C908B0E8}"/>
-    <hyperlink ref="F283" r:id="rId194" xr:uid="{87F6A76D-0ADD-4040-9A1F-1A367B575759}"/>
-    <hyperlink ref="G283" r:id="rId195" xr:uid="{044F46CE-6671-4F34-96C5-B69C16EA3E39}"/>
-    <hyperlink ref="H283" r:id="rId196" xr:uid="{4B4A7088-672A-4B43-A9BC-836E1ABD2AAE}"/>
-    <hyperlink ref="I283" r:id="rId197" xr:uid="{2C193EA9-29D1-4714-AB5A-C2777C7DA307}"/>
-    <hyperlink ref="J283" r:id="rId198" xr:uid="{800CF499-2C4F-4CD9-A3B6-739231958233}"/>
-    <hyperlink ref="K283" r:id="rId199" xr:uid="{E621632C-2D4B-4FB7-8A33-C147C971F519}"/>
-    <hyperlink ref="D295" r:id="rId200" xr:uid="{C07F1FE5-7D9A-4480-8193-87BB4384EDD5}"/>
-    <hyperlink ref="E302" r:id="rId201" xr:uid="{5987DCDE-C0D1-4BCC-B9F9-DBEA33D757B9}"/>
-    <hyperlink ref="D302" r:id="rId202" xr:uid="{8DF4BE91-1068-41B9-92FD-E242163D972D}"/>
-    <hyperlink ref="D303" r:id="rId203" xr:uid="{4728DC73-AD53-40CF-8C18-3D028ACD6C5C}"/>
-    <hyperlink ref="D319" r:id="rId204" xr:uid="{BFF419A3-B55B-4B4F-8276-C525791843CE}"/>
-    <hyperlink ref="D320" r:id="rId205" xr:uid="{DB200AA8-7D47-4726-BAF8-F6B5C743EE7E}"/>
-    <hyperlink ref="E320" r:id="rId206" xr:uid="{C80772A0-8A18-4052-866F-DFA6A12E4B99}"/>
-    <hyperlink ref="D326" r:id="rId207" xr:uid="{396EB1BE-791F-402C-A419-E07362BA60FC}"/>
-    <hyperlink ref="D333" r:id="rId208" xr:uid="{963E803C-F09B-4282-BA5C-168C9FA65036}"/>
-    <hyperlink ref="E333" r:id="rId209" xr:uid="{5E758D1B-3D6F-4BA6-8788-9B91A3B34088}"/>
-    <hyperlink ref="F333" r:id="rId210" xr:uid="{89C71FE4-4C36-4DF6-B50B-AD0A8E33E3E7}"/>
-    <hyperlink ref="G333" r:id="rId211" xr:uid="{F2198727-77A5-4A9D-B369-DB395C6CD098}"/>
-    <hyperlink ref="H333" r:id="rId212" xr:uid="{EFC425E2-D800-4A3D-9F83-04C528904387}"/>
-    <hyperlink ref="D363" r:id="rId213" xr:uid="{500078E0-7A47-444B-BF4C-06502CA18684}"/>
-    <hyperlink ref="E363" r:id="rId214" xr:uid="{6A72D9F5-81C4-4464-9CCE-0AED0FF6E80A}"/>
-    <hyperlink ref="D367" r:id="rId215" xr:uid="{DD8B1EBC-D47B-49C9-A8B4-F279AE2D92D5}"/>
-    <hyperlink ref="E367" r:id="rId216" xr:uid="{67EFF7BB-5C5B-47F4-AB4C-4BD6C4EB4941}"/>
-    <hyperlink ref="F367" r:id="rId217" xr:uid="{785D9193-8260-40D9-AA0A-A6ECAF1A808C}"/>
-    <hyperlink ref="G367" r:id="rId218" xr:uid="{14C9681D-4874-48B5-B25E-7E1AC14663B5}"/>
-    <hyperlink ref="H367" r:id="rId219" xr:uid="{12319D18-C183-467A-B89E-6E16433E20FF}"/>
-    <hyperlink ref="I367" r:id="rId220" xr:uid="{41254C20-C32F-4870-A4BF-0E2B698951EC}"/>
-    <hyperlink ref="J367" r:id="rId221" xr:uid="{0BACDEB3-06F5-4839-BA63-AF092671B6BC}"/>
-    <hyperlink ref="K367" r:id="rId222" xr:uid="{C91D41C4-F740-4ECE-B7D5-BDC7D31AC3DD}"/>
-    <hyperlink ref="D368" r:id="rId223" xr:uid="{B5EE64D8-4834-469C-ACBA-4D3A993910AC}"/>
-    <hyperlink ref="E368" r:id="rId224" xr:uid="{711EE95E-62E1-44FF-B968-C30F8229D18E}"/>
-    <hyperlink ref="D374" r:id="rId225" xr:uid="{20AA1588-1AD6-49A3-A26C-344DC8341E2C}"/>
-    <hyperlink ref="E374" r:id="rId226" xr:uid="{A5047222-3232-4F45-A1B0-447782D01EB8}"/>
-    <hyperlink ref="D382" r:id="rId227" xr:uid="{0A1417A7-EBA8-4641-9DC2-9C89A113558F}"/>
-    <hyperlink ref="E382" r:id="rId228" xr:uid="{542E56F6-05AE-4D44-8346-C3F3FC39FBB7}"/>
-    <hyperlink ref="D383" r:id="rId229" xr:uid="{47311264-ABB2-41C4-81B8-F9669327F3D6}"/>
-    <hyperlink ref="E383" r:id="rId230" xr:uid="{352A143E-5660-41A9-94E4-7162D82364D8}"/>
-    <hyperlink ref="F383" r:id="rId231" xr:uid="{1B497C03-0939-4720-9952-F58E194262E6}"/>
-    <hyperlink ref="D384" r:id="rId232" xr:uid="{A50A9CA3-B5F3-4948-A0FD-FCD6DE7376B6}"/>
-    <hyperlink ref="D385" r:id="rId233" xr:uid="{20DAAD2A-51FC-46A9-9D3B-CBBAD5456DF7}"/>
-    <hyperlink ref="E385" r:id="rId234" xr:uid="{9397DF03-4275-4963-A37A-21DD2CEAA03C}"/>
-    <hyperlink ref="F385" r:id="rId235" xr:uid="{CD02FEFA-3EF1-4749-B483-6D1523A103CC}"/>
-    <hyperlink ref="G385" r:id="rId236" xr:uid="{3EF974CC-D30B-4FAC-B645-F438FCDBA660}"/>
-    <hyperlink ref="D386" r:id="rId237" xr:uid="{325E095B-4C8E-4BDC-AAEC-2423078C5B12}"/>
-    <hyperlink ref="E386" r:id="rId238" xr:uid="{05070ECF-47B5-4EE7-A505-331DD170BA7A}"/>
-    <hyperlink ref="F386" r:id="rId239" xr:uid="{EEE48E95-878B-4B65-97C0-86E70EF45156}"/>
-    <hyperlink ref="G386" r:id="rId240" xr:uid="{52FA2EC9-C622-41E1-8115-99227031E76C}"/>
-    <hyperlink ref="H386" r:id="rId241" xr:uid="{E4CD4CC6-F0BE-4D83-B53B-961BE5CE6532}"/>
-    <hyperlink ref="D387" r:id="rId242" xr:uid="{3F8AF0FD-8B3D-409C-A76F-1D687AAA6C5F}"/>
-    <hyperlink ref="E387" r:id="rId243" xr:uid="{B976CA90-2546-4869-9A63-1590AB1209AC}"/>
-    <hyperlink ref="F387" r:id="rId244" xr:uid="{A1863009-A1D3-47A6-B03D-551E57070CA4}"/>
-    <hyperlink ref="G387" r:id="rId245" xr:uid="{B557EAF8-F2BF-41F2-BDFA-A9DEF7921CAA}"/>
-    <hyperlink ref="H387" r:id="rId246" xr:uid="{DE1B0EA0-8944-4F28-B4FD-37074DF70AE1}"/>
-    <hyperlink ref="I387" r:id="rId247" xr:uid="{4FE81C3F-0FD5-4C5C-A535-419126836CEE}"/>
-    <hyperlink ref="D388" r:id="rId248" xr:uid="{E82174FD-EC20-447A-BE93-5775E081CE0B}"/>
-    <hyperlink ref="E388" r:id="rId249" xr:uid="{5623BA65-1E02-4CE5-87A4-E4376B58A659}"/>
-    <hyperlink ref="F388" r:id="rId250" xr:uid="{4634900E-8974-4C1A-9B89-5AE384FDC22F}"/>
-    <hyperlink ref="G388" r:id="rId251" xr:uid="{E6FB04BD-7879-4C61-9017-9C2B94F64B4D}"/>
+    <hyperlink ref="Y70" r:id="rId101" display="20231127\20231127_Dhaira1\20231127_Maria Cosette_Dhaira_location2_IMG_0259.MOV" xr:uid="{B282D23C-EF02-4FF6-B426-BE072A7E5B8C}"/>
+    <hyperlink ref="Z70" r:id="rId102" xr:uid="{DB2CA9DD-BE2F-4414-A022-B732C0D34B24}"/>
+    <hyperlink ref="AA70" r:id="rId103" xr:uid="{B3F7C7FD-B8B5-494B-909E-8D4803198C07}"/>
+    <hyperlink ref="AB70" r:id="rId104" xr:uid="{E9352CE3-8505-4877-BA90-6E2FBAF65A70}"/>
+    <hyperlink ref="AC70" r:id="rId105" xr:uid="{10AB752E-9EB0-410E-99AD-64B1BAD53AAF}"/>
+    <hyperlink ref="AD70" r:id="rId106" xr:uid="{ECE97B0C-97A1-4E4C-AF06-CA196E25E321}"/>
+    <hyperlink ref="AE70" r:id="rId107" xr:uid="{02C8920A-4253-4494-988D-FF4B4E3545A8}"/>
+    <hyperlink ref="AF70" r:id="rId108" xr:uid="{CE7444CC-D3E2-431E-8B1B-3EF111DE7492}"/>
+    <hyperlink ref="D75" r:id="rId109" xr:uid="{344751B6-F05B-4009-95E0-CB898ADEB159}"/>
+    <hyperlink ref="E75" r:id="rId110" xr:uid="{527EF238-2A21-4DF2-89F8-38245C4F5BFA}"/>
+    <hyperlink ref="G75" r:id="rId111" xr:uid="{6D9FE7A8-3381-492D-8E7E-D0C5F8A703B7}"/>
+    <hyperlink ref="F75" r:id="rId112" xr:uid="{005F1371-3B04-4D06-BD35-F146D983F3CB}"/>
+    <hyperlink ref="D79" r:id="rId113" xr:uid="{F089EE6D-851D-4D2C-AF69-E0C07BD244CB}"/>
+    <hyperlink ref="D80" r:id="rId114" display="20231207\20231207_Rmaysh1\GreenSoutherners136 _20231207 أطراف رميش فوسفوري.jpeg" xr:uid="{01C6AA7F-59A8-4BEF-B52B-2A6AD22A724B}"/>
+    <hyperlink ref="E80" r:id="rId115" xr:uid="{7F29DEDF-E761-41CE-9903-99B5C7B903F5}"/>
+    <hyperlink ref="F80" r:id="rId116" xr:uid="{D7DC41C7-0CCC-4D2B-BF60-17A47162286B}"/>
+    <hyperlink ref="G80" r:id="rId117" xr:uid="{A7A2459A-1BD2-4126-826F-0649AA54B2B4}"/>
+    <hyperlink ref="H80" r:id="rId118" xr:uid="{B595072B-8DE4-42D5-AF71-E9E8B4CBD574}"/>
+    <hyperlink ref="I80" r:id="rId119" xr:uid="{6FCBEE3F-E64D-419D-B5BF-44B6368EB184}"/>
+    <hyperlink ref="J80" r:id="rId120" xr:uid="{D1FC6885-5690-4525-8A88-53518444F874}"/>
+    <hyperlink ref="K80" r:id="rId121" xr:uid="{5E7B13B8-6DBD-4BB6-ABE3-61465AEC4364}"/>
+    <hyperlink ref="D81" r:id="rId122" xr:uid="{511D87CC-D70F-41F8-A14A-30074F90CD50}"/>
+    <hyperlink ref="D82" r:id="rId123" xr:uid="{B09C1376-C013-4BA0-A8DD-628D62DD96AD}"/>
+    <hyperlink ref="D94" r:id="rId124" xr:uid="{F841E600-2066-4194-BD3B-7CD5FB386FE9}"/>
+    <hyperlink ref="E94" r:id="rId125" xr:uid="{2BAB6CC8-57B5-4B48-A87C-32635B0DF071}"/>
+    <hyperlink ref="D117" r:id="rId126" xr:uid="{05F85689-819A-4A74-95A9-61FD149B28C5}"/>
+    <hyperlink ref="E117" r:id="rId127" xr:uid="{12CB9FBB-A852-44F7-A203-CB9FE588C36B}"/>
+    <hyperlink ref="F117" r:id="rId128" xr:uid="{DA8129E8-AF9A-42E6-8881-ED8B394499F5}"/>
+    <hyperlink ref="G117" r:id="rId129" xr:uid="{BD036F21-B023-4009-813E-218A89A18C91}"/>
+    <hyperlink ref="D119" r:id="rId130" xr:uid="{900CB1FA-EFAD-4AB6-9FFF-2353AF048876}"/>
+    <hyperlink ref="D121" r:id="rId131" xr:uid="{E4F6B677-6073-4196-99C1-E99D35A90627}"/>
+    <hyperlink ref="E121" r:id="rId132" xr:uid="{14B152DA-4572-4411-BF6D-F12E7606615C}"/>
+    <hyperlink ref="D122" r:id="rId133" xr:uid="{BCC2F946-78D9-4659-923C-A6694B694855}"/>
+    <hyperlink ref="D124" r:id="rId134" xr:uid="{5DBC946C-0AFC-4E25-B2F8-CED8E25981ED}"/>
+    <hyperlink ref="E124" r:id="rId135" xr:uid="{625D7D74-28C1-4E5E-BD2A-6D2F61A8FC65}"/>
+    <hyperlink ref="D134" r:id="rId136" xr:uid="{1728EE38-2DF9-42CA-A5B1-A0E0C62751B0}"/>
+    <hyperlink ref="E134" r:id="rId137" xr:uid="{ED84C99B-9F9A-463E-95C2-927EEF5F4D13}"/>
+    <hyperlink ref="D135" r:id="rId138" xr:uid="{F447741B-7B9C-4FB3-A154-0E6BC98C5A8B}"/>
+    <hyperlink ref="D136" r:id="rId139" xr:uid="{1E58336F-5ACA-4CE1-A813-7744EAEF2457}"/>
+    <hyperlink ref="D166" r:id="rId140" xr:uid="{4D617FEC-31E7-43EC-80F1-B7B172AF456C}"/>
+    <hyperlink ref="E166" r:id="rId141" xr:uid="{4146683C-63BC-495F-B573-48F36EA57860}"/>
+    <hyperlink ref="D167" r:id="rId142" xr:uid="{71537D31-F168-464D-A79C-963E01B6DB0B}"/>
+    <hyperlink ref="E167" r:id="rId143" xr:uid="{DA03138A-A3C7-4EE3-ABD2-2CCEF85C2B33}"/>
+    <hyperlink ref="F167" r:id="rId144" xr:uid="{AF86B621-C3FB-4FD3-A9DA-FDFE19B92C03}"/>
+    <hyperlink ref="G167" r:id="rId145" xr:uid="{DB7404A4-FE8D-4B3F-9D58-6F85710783B8}"/>
+    <hyperlink ref="H167" r:id="rId146" xr:uid="{ACA995FC-1566-4E82-A94C-127401AE7BD9}"/>
+    <hyperlink ref="I167" r:id="rId147" xr:uid="{147666A0-2325-4DFE-8CFE-BBDFF6396348}"/>
+    <hyperlink ref="D168" r:id="rId148" xr:uid="{2709DD58-6608-43D7-A54D-D1641255ABC5}"/>
+    <hyperlink ref="E168" r:id="rId149" xr:uid="{2AAFDA22-3C89-46B2-A880-3E124BC14E59}"/>
+    <hyperlink ref="D169" r:id="rId150" xr:uid="{B86F5395-62A8-49E1-AD1F-EEFD763DA1B7}"/>
+    <hyperlink ref="D182" r:id="rId151" xr:uid="{72C79066-5B6E-4CE7-BACE-F1737DDA59CB}"/>
+    <hyperlink ref="D199" r:id="rId152" xr:uid="{911E8819-9B83-440C-A52F-A721E540DF80}"/>
+    <hyperlink ref="E199" r:id="rId153" xr:uid="{46F6EC9E-3D03-4FCC-B8F0-2CA7D3BC8E71}"/>
+    <hyperlink ref="F199" r:id="rId154" xr:uid="{743827E6-6FA5-4DA6-A380-0B8A6F8028F6}"/>
+    <hyperlink ref="G199" r:id="rId155" xr:uid="{0384AE93-C7CE-4B08-AD00-BD75D9657F13}"/>
+    <hyperlink ref="H199" r:id="rId156" xr:uid="{E8423CCC-96E2-40EB-B16F-9232402B57AE}"/>
+    <hyperlink ref="I199" r:id="rId157" xr:uid="{510DEB5D-9F36-4114-9BF6-096B317CE2AC}"/>
+    <hyperlink ref="D213" r:id="rId158" xr:uid="{22EAB6CF-2591-4AA6-859C-8AFE24E0FEA8}"/>
+    <hyperlink ref="E213" r:id="rId159" xr:uid="{5C69A82B-EBDA-4E1D-AC2F-53899E14F85B}"/>
+    <hyperlink ref="G213" r:id="rId160" xr:uid="{5DE9FFF6-55FD-4FBB-9165-1FE07732B157}"/>
+    <hyperlink ref="H213" r:id="rId161" xr:uid="{95CFEB41-C529-4A99-8C8C-9B6F1FD94AAA}"/>
+    <hyperlink ref="F213" r:id="rId162" xr:uid="{8AC21ADD-1DA9-4413-A0DA-37F36DBA5C94}"/>
+    <hyperlink ref="D221" r:id="rId163" xr:uid="{7944199D-9665-4DBB-9E3D-5ED823260F59}"/>
+    <hyperlink ref="E221" r:id="rId164" xr:uid="{9F9CDCB4-B37A-46AE-9CF3-823DAFCED279}"/>
+    <hyperlink ref="D234" r:id="rId165" xr:uid="{9B59D698-5FBE-4383-A17D-61A2F3975C48}"/>
+    <hyperlink ref="E234" r:id="rId166" xr:uid="{B522C5C1-368C-4F17-80FD-2D2FA384EC83}"/>
+    <hyperlink ref="F234" r:id="rId167" xr:uid="{F276E04B-4B82-4FBF-862E-203B03943397}"/>
+    <hyperlink ref="G234" r:id="rId168" xr:uid="{F6829AE6-1EFD-4DA8-81BD-6239979CD87A}"/>
+    <hyperlink ref="H234" r:id="rId169" xr:uid="{8E0056EA-F973-4C64-90C5-48047729F807}"/>
+    <hyperlink ref="D239" r:id="rId170" xr:uid="{BB4B0A54-EA34-48A1-81EC-83CA27033611}"/>
+    <hyperlink ref="E239" r:id="rId171" xr:uid="{6F79A2AB-E2A6-4ABB-9D61-317621757C05}"/>
+    <hyperlink ref="F239" r:id="rId172" xr:uid="{13304604-9C7F-4108-A2DB-0C073DD6F816}"/>
+    <hyperlink ref="G239" r:id="rId173" xr:uid="{B3134AC8-8FC9-4C20-A543-31D77BDCDFA5}"/>
+    <hyperlink ref="D247" r:id="rId174" xr:uid="{B0B75C0A-DE10-48B7-91A4-39C9B49F1190}"/>
+    <hyperlink ref="D259" r:id="rId175" xr:uid="{8A3EDDF6-53C6-45B7-BC9A-EFB77A0C6405}"/>
+    <hyperlink ref="D260" r:id="rId176" xr:uid="{7EBF8210-1C5C-475A-9EE7-23C46ED89C8B}"/>
+    <hyperlink ref="D261" r:id="rId177" xr:uid="{ED130BCB-75ED-439B-8801-7052A4A8644E}"/>
+    <hyperlink ref="D262" r:id="rId178" xr:uid="{349A15DC-EC7B-435F-8D8F-ED27A30327E2}"/>
+    <hyperlink ref="E262" r:id="rId179" xr:uid="{5CC81365-8CB1-4F4B-A7D8-44DCBA999310}"/>
+    <hyperlink ref="F262" r:id="rId180" xr:uid="{4F407D3E-2072-466D-BE81-5BEBEFBD46E4}"/>
+    <hyperlink ref="G262" r:id="rId181" xr:uid="{8C3FB8F0-4C96-4D39-9CEF-2D65F3D19C9B}"/>
+    <hyperlink ref="H262" r:id="rId182" xr:uid="{ECEBF426-3489-4245-A230-B1F3362215FB}"/>
+    <hyperlink ref="I262" r:id="rId183" xr:uid="{AD485175-2FF3-4005-AB97-E839ED91E8BD}"/>
+    <hyperlink ref="J262" r:id="rId184" xr:uid="{16E19AE0-A50A-4038-A2AB-AC86B1D5529A}"/>
+    <hyperlink ref="K262" r:id="rId185" xr:uid="{6D981592-6410-42D7-AA59-35BFAD0702AA}"/>
+    <hyperlink ref="L262" r:id="rId186" xr:uid="{9EAEC803-21CE-46CA-A8AA-B88F8BAF2A0B}"/>
+    <hyperlink ref="D263" r:id="rId187" xr:uid="{7732C70A-7F0E-48B9-A85E-E3A4EF7E3DBF}"/>
+    <hyperlink ref="D264" r:id="rId188" xr:uid="{8BFFCD31-BE20-4197-91F8-9818BA8BF4AE}"/>
+    <hyperlink ref="D272" r:id="rId189" xr:uid="{3D79C244-5F51-47DB-8DCF-8B14BE504C64}"/>
+    <hyperlink ref="D282" r:id="rId190" xr:uid="{D24407FF-13EC-4F35-8B38-4389246EB75D}"/>
+    <hyperlink ref="E282" r:id="rId191" xr:uid="{1B1D4A32-74D6-4B1A-8DD6-DD01C908B0E8}"/>
+    <hyperlink ref="F282" r:id="rId192" xr:uid="{87F6A76D-0ADD-4040-9A1F-1A367B575759}"/>
+    <hyperlink ref="G282" r:id="rId193" xr:uid="{044F46CE-6671-4F34-96C5-B69C16EA3E39}"/>
+    <hyperlink ref="H282" r:id="rId194" xr:uid="{4B4A7088-672A-4B43-A9BC-836E1ABD2AAE}"/>
+    <hyperlink ref="I282" r:id="rId195" xr:uid="{2C193EA9-29D1-4714-AB5A-C2777C7DA307}"/>
+    <hyperlink ref="J282" r:id="rId196" xr:uid="{800CF499-2C4F-4CD9-A3B6-739231958233}"/>
+    <hyperlink ref="K282" r:id="rId197" xr:uid="{E621632C-2D4B-4FB7-8A33-C147C971F519}"/>
+    <hyperlink ref="D294" r:id="rId198" xr:uid="{C07F1FE5-7D9A-4480-8193-87BB4384EDD5}"/>
+    <hyperlink ref="E301" r:id="rId199" xr:uid="{5987DCDE-C0D1-4BCC-B9F9-DBEA33D757B9}"/>
+    <hyperlink ref="D301" r:id="rId200" xr:uid="{8DF4BE91-1068-41B9-92FD-E242163D972D}"/>
+    <hyperlink ref="D302" r:id="rId201" xr:uid="{4728DC73-AD53-40CF-8C18-3D028ACD6C5C}"/>
+    <hyperlink ref="D318" r:id="rId202" xr:uid="{BFF419A3-B55B-4B4F-8276-C525791843CE}"/>
+    <hyperlink ref="D319" r:id="rId203" xr:uid="{DB200AA8-7D47-4726-BAF8-F6B5C743EE7E}"/>
+    <hyperlink ref="E319" r:id="rId204" xr:uid="{C80772A0-8A18-4052-866F-DFA6A12E4B99}"/>
+    <hyperlink ref="D325" r:id="rId205" xr:uid="{396EB1BE-791F-402C-A419-E07362BA60FC}"/>
+    <hyperlink ref="D332" r:id="rId206" xr:uid="{963E803C-F09B-4282-BA5C-168C9FA65036}"/>
+    <hyperlink ref="E332" r:id="rId207" xr:uid="{5E758D1B-3D6F-4BA6-8788-9B91A3B34088}"/>
+    <hyperlink ref="F332" r:id="rId208" xr:uid="{89C71FE4-4C36-4DF6-B50B-AD0A8E33E3E7}"/>
+    <hyperlink ref="G332" r:id="rId209" xr:uid="{F2198727-77A5-4A9D-B369-DB395C6CD098}"/>
+    <hyperlink ref="H332" r:id="rId210" xr:uid="{EFC425E2-D800-4A3D-9F83-04C528904387}"/>
+    <hyperlink ref="D362" r:id="rId211" xr:uid="{500078E0-7A47-444B-BF4C-06502CA18684}"/>
+    <hyperlink ref="E362" r:id="rId212" xr:uid="{6A72D9F5-81C4-4464-9CCE-0AED0FF6E80A}"/>
+    <hyperlink ref="D366" r:id="rId213" xr:uid="{DD8B1EBC-D47B-49C9-A8B4-F279AE2D92D5}"/>
+    <hyperlink ref="E366" r:id="rId214" xr:uid="{67EFF7BB-5C5B-47F4-AB4C-4BD6C4EB4941}"/>
+    <hyperlink ref="F366" r:id="rId215" xr:uid="{785D9193-8260-40D9-AA0A-A6ECAF1A808C}"/>
+    <hyperlink ref="G366" r:id="rId216" xr:uid="{14C9681D-4874-48B5-B25E-7E1AC14663B5}"/>
+    <hyperlink ref="H366" r:id="rId217" xr:uid="{12319D18-C183-467A-B89E-6E16433E20FF}"/>
+    <hyperlink ref="I366" r:id="rId218" xr:uid="{41254C20-C32F-4870-A4BF-0E2B698951EC}"/>
+    <hyperlink ref="J366" r:id="rId219" xr:uid="{0BACDEB3-06F5-4839-BA63-AF092671B6BC}"/>
+    <hyperlink ref="K366" r:id="rId220" xr:uid="{C91D41C4-F740-4ECE-B7D5-BDC7D31AC3DD}"/>
+    <hyperlink ref="D367" r:id="rId221" xr:uid="{B5EE64D8-4834-469C-ACBA-4D3A993910AC}"/>
+    <hyperlink ref="E367" r:id="rId222" xr:uid="{711EE95E-62E1-44FF-B968-C30F8229D18E}"/>
+    <hyperlink ref="D373" r:id="rId223" xr:uid="{20AA1588-1AD6-49A3-A26C-344DC8341E2C}"/>
+    <hyperlink ref="E373" r:id="rId224" xr:uid="{A5047222-3232-4F45-A1B0-447782D01EB8}"/>
+    <hyperlink ref="D381" r:id="rId225" xr:uid="{0A1417A7-EBA8-4641-9DC2-9C89A113558F}"/>
+    <hyperlink ref="E381" r:id="rId226" xr:uid="{542E56F6-05AE-4D44-8346-C3F3FC39FBB7}"/>
+    <hyperlink ref="D382" r:id="rId227" xr:uid="{47311264-ABB2-41C4-81B8-F9669327F3D6}"/>
+    <hyperlink ref="E382" r:id="rId228" xr:uid="{352A143E-5660-41A9-94E4-7162D82364D8}"/>
+    <hyperlink ref="F382" r:id="rId229" xr:uid="{1B497C03-0939-4720-9952-F58E194262E6}"/>
+    <hyperlink ref="D383" r:id="rId230" xr:uid="{A50A9CA3-B5F3-4948-A0FD-FCD6DE7376B6}"/>
+    <hyperlink ref="D384" r:id="rId231" xr:uid="{20DAAD2A-51FC-46A9-9D3B-CBBAD5456DF7}"/>
+    <hyperlink ref="E384" r:id="rId232" xr:uid="{9397DF03-4275-4963-A37A-21DD2CEAA03C}"/>
+    <hyperlink ref="F384" r:id="rId233" xr:uid="{CD02FEFA-3EF1-4749-B483-6D1523A103CC}"/>
+    <hyperlink ref="G384" r:id="rId234" xr:uid="{3EF974CC-D30B-4FAC-B645-F438FCDBA660}"/>
+    <hyperlink ref="D385" r:id="rId235" xr:uid="{325E095B-4C8E-4BDC-AAEC-2423078C5B12}"/>
+    <hyperlink ref="E385" r:id="rId236" xr:uid="{05070ECF-47B5-4EE7-A505-331DD170BA7A}"/>
+    <hyperlink ref="F385" r:id="rId237" xr:uid="{EEE48E95-878B-4B65-97C0-86E70EF45156}"/>
+    <hyperlink ref="G385" r:id="rId238" xr:uid="{52FA2EC9-C622-41E1-8115-99227031E76C}"/>
+    <hyperlink ref="H385" r:id="rId239" xr:uid="{E4CD4CC6-F0BE-4D83-B53B-961BE5CE6532}"/>
+    <hyperlink ref="D386" r:id="rId240" xr:uid="{3F8AF0FD-8B3D-409C-A76F-1D687AAA6C5F}"/>
+    <hyperlink ref="E386" r:id="rId241" xr:uid="{B976CA90-2546-4869-9A63-1590AB1209AC}"/>
+    <hyperlink ref="F386" r:id="rId242" xr:uid="{A1863009-A1D3-47A6-B03D-551E57070CA4}"/>
+    <hyperlink ref="G386" r:id="rId243" xr:uid="{B557EAF8-F2BF-41F2-BDFA-A9DEF7921CAA}"/>
+    <hyperlink ref="H386" r:id="rId244" xr:uid="{DE1B0EA0-8944-4F28-B4FD-37074DF70AE1}"/>
+    <hyperlink ref="I386" r:id="rId245" xr:uid="{4FE81C3F-0FD5-4C5C-A535-419126836CEE}"/>
+    <hyperlink ref="D387" r:id="rId246" xr:uid="{E82174FD-EC20-447A-BE93-5775E081CE0B}"/>
+    <hyperlink ref="E387" r:id="rId247" xr:uid="{5623BA65-1E02-4CE5-87A4-E4376B58A659}"/>
+    <hyperlink ref="F387" r:id="rId248" xr:uid="{4634900E-8974-4C1A-9B89-5AE384FDC22F}"/>
+    <hyperlink ref="G387" r:id="rId249" xr:uid="{E6FB04BD-7879-4C61-9017-9C2B94F64B4D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId252"/>
+  <pageSetup orientation="portrait" r:id="rId250"/>
 </worksheet>
 </file>
--- a/public/data/incidents.xlsx
+++ b/public/data/incidents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlie/Documents/GitHub/whitephosphorus/public/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4A6377-9950-A54D-8EDF-C4B9505228C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9459291C-0FD1-C846-BA57-28002A765A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="500" windowWidth="34960" windowHeight="21900" xr2:uid="{17A8EE8E-FE20-45E7-B555-7436B0063D4F}"/>
+    <workbookView xWindow="880" yWindow="500" windowWidth="34960" windowHeight="21900" xr2:uid="{17A8EE8E-FE20-45E7-B555-7436B0063D4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Footage Data To Karlie-Updated" sheetId="14" r:id="rId1"/>
@@ -474,9 +474,6 @@
     <t>20231202\20231202_Al Khiam2\20231202_Al Khiam2.mp4</t>
   </si>
   <si>
-    <t>20231206\20231206_Meiss El Jabal\GreenSoutherners135 _20231206 ميس الجبل وأطراف حولا فوسفوري.mp4</t>
-  </si>
-  <si>
     <t>20231207\20231207_Rmaysh1\HRW22_20231207.mp4</t>
   </si>
   <si>
@@ -980,6 +977,9 @@
   <si>
     <t xml:space="preserve">
 20231127/20231127_Dhaira/20231127_Maria+Cosette_Dhaira_location2_IMG_0259.mp4</t>
+  </si>
+  <si>
+    <t>20231206/20231206_Meiss+El+Jabal/GreenSoutherners135+_20231206+%D9%85%D9%8A%D8%B3+%D8%A7%D9%84%D8%AC%D8%A8%D9%84+%D9%88%D8%A7%D9%94%D8%B7%D8%B1%D8%A7%D9%81+%D8%AD%D9%88%D9%84%D8%A7+%D9%81%D9%88%D8%B3%D9%81%D9%88%D8%B1%D9%8A.mp4</t>
   </si>
 </sst>
 </file>
@@ -1515,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A08A01A-F062-4B76-B193-0C678F68B2B9}">
   <dimension ref="A1:AG395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K58" zoomScale="115" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S66" sqref="S66"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1531,100 +1531,100 @@
   <sheetData>
     <row r="1" spans="1:32" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D1" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="K1" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="L1" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="M1" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="N1" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="O1" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="P1" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q1" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="R1" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="X1" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="Q1" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="R1" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="T1" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="U1" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="V1" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="W1" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="X1" s="23" t="s">
+      <c r="Y1" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="Z1" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="AA1" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AB1" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="AB1" s="23" t="s">
+      <c r="AC1" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="AC1" s="23" t="s">
+      <c r="AD1" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="AD1" s="23" t="s">
+      <c r="AE1" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="AE1" s="23" t="s">
+      <c r="AF1" s="23" t="s">
         <v>310</v>
-      </c>
-      <c r="AF1" s="23" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:32" customFormat="1" x14ac:dyDescent="0.2">
@@ -3241,10 +3241,10 @@
         <v>133</v>
       </c>
       <c r="X70" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y70" s="26" t="s">
         <v>312</v>
-      </c>
-      <c r="Y70" s="26" t="s">
-        <v>313</v>
       </c>
       <c r="Z70" s="5" t="s">
         <v>134</v>
@@ -3516,7 +3516,7 @@
         <v>2</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>145</v>
+        <v>313</v>
       </c>
     </row>
     <row r="80" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -3530,28 +3530,28 @@
         <v>6</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E80" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F80" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="G80" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="G80" s="5" t="s">
+      <c r="H80" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="H80" s="5" t="s">
+      <c r="I80" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="I80" s="5" t="s">
+      <c r="J80" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="J80" s="5" t="s">
+      <c r="K80" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="K80" s="5" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.2">
@@ -3565,7 +3565,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="82" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -3579,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -3901,10 +3901,10 @@
         <v>3</v>
       </c>
       <c r="D94" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E94" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="95" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -4534,16 +4534,16 @@
         <v>4</v>
       </c>
       <c r="D117" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E117" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E117" s="5" t="s">
+      <c r="F117" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="F117" s="5" t="s">
+      <c r="G117" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="G117" s="5" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="118" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -4585,7 +4585,7 @@
         <v>4</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -4627,10 +4627,10 @@
         <v>5</v>
       </c>
       <c r="D121" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E121" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>163</v>
       </c>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
@@ -4663,7 +4663,7 @@
         <v>2</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.2">
@@ -4682,10 +4682,10 @@
         <v>6</v>
       </c>
       <c r="D124" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E124" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="125" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -4951,10 +4951,10 @@
         <v>3</v>
       </c>
       <c r="D134" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E134" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="135" spans="1:24" x14ac:dyDescent="0.2">
@@ -4968,7 +4968,7 @@
         <v>2</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="136" spans="1:24" x14ac:dyDescent="0.2">
@@ -4982,7 +4982,7 @@
         <v>1</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="137" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -5808,10 +5808,10 @@
         <v>2</v>
       </c>
       <c r="D166" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E166" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="E166" s="5" t="s">
-        <v>172</v>
       </c>
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
@@ -5844,22 +5844,22 @@
         <v>2</v>
       </c>
       <c r="D167" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E167" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E167" s="5" t="s">
+      <c r="F167" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="F167" s="5" t="s">
+      <c r="G167" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="G167" s="5" t="s">
+      <c r="H167" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="H167" s="5" t="s">
+      <c r="I167" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="I167" s="5" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="168" spans="1:24" x14ac:dyDescent="0.2">
@@ -5873,10 +5873,10 @@
         <v>3</v>
       </c>
       <c r="D168" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E168" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="E168" s="5" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="169" spans="1:24" x14ac:dyDescent="0.2">
@@ -5890,7 +5890,7 @@
         <v>1</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="170" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -6240,7 +6240,7 @@
         <v>3</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="183" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6702,22 +6702,22 @@
         <v>3</v>
       </c>
       <c r="D199" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E199" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E199" s="5" t="s">
+      <c r="F199" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="F199" s="5" t="s">
+      <c r="G199" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="G199" s="5" t="s">
+      <c r="H199" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="H199" s="5" t="s">
+      <c r="I199" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="I199" s="5" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="200" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7095,19 +7095,19 @@
         <v>2</v>
       </c>
       <c r="D213" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E213" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="E213" s="5" t="s">
+      <c r="F213" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G213" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="F213" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="G213" s="5" t="s">
+      <c r="H213" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="H213" s="5" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="214" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -7317,10 +7317,10 @@
         <v>2</v>
       </c>
       <c r="D221" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E221" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="E221" s="5" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="222" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7670,19 +7670,19 @@
         <v>2</v>
       </c>
       <c r="D234" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E234" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E234" s="5" t="s">
+      <c r="F234" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="F234" s="5" t="s">
+      <c r="G234" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="G234" s="5" t="s">
+      <c r="H234" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="H234" s="5" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="235" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7808,16 +7808,16 @@
         <v>2</v>
       </c>
       <c r="D239" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E239" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="E239" s="5" t="s">
+      <c r="F239" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="F239" s="5" t="s">
+      <c r="G239" s="5" t="s">
         <v>203</v>
-      </c>
-      <c r="G239" s="5" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="240" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -7887,7 +7887,7 @@
         <v>2</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="243" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -8013,7 +8013,7 @@
         <v>1</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="248" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -8335,7 +8335,7 @@
         <v>1</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="260" spans="1:24" x14ac:dyDescent="0.2">
@@ -8349,7 +8349,7 @@
         <v>1</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="261" spans="1:24" x14ac:dyDescent="0.2">
@@ -8363,7 +8363,7 @@
         <v>1</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="262" spans="1:24" x14ac:dyDescent="0.2">
@@ -8377,31 +8377,31 @@
         <v>1</v>
       </c>
       <c r="D262" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E262" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="E262" s="5" t="s">
+      <c r="F262" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="F262" s="5" t="s">
+      <c r="G262" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="G262" s="5" t="s">
+      <c r="H262" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="H262" s="5" t="s">
+      <c r="I262" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="I262" s="5" t="s">
+      <c r="J262" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="J262" s="5" t="s">
+      <c r="K262" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="K262" s="5" t="s">
+      <c r="L262" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="L262" s="5" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="263" spans="1:24" x14ac:dyDescent="0.2">
@@ -8415,7 +8415,7 @@
         <v>2</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="264" spans="1:24" x14ac:dyDescent="0.2">
@@ -8429,7 +8429,7 @@
         <v>2</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="265" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -8639,7 +8639,7 @@
         <v>1</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="273" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -8905,28 +8905,28 @@
         <v>3</v>
       </c>
       <c r="D282" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E282" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E282" s="5" t="s">
+      <c r="F282" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="F282" s="5" t="s">
+      <c r="G282" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G282" s="5" t="s">
+      <c r="H282" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="H282" s="5" t="s">
+      <c r="I282" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="I282" s="5" t="s">
+      <c r="J282" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="J282" s="5" t="s">
+      <c r="K282" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="K282" s="5" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="283" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -9248,7 +9248,7 @@
         <v>1</v>
       </c>
       <c r="D294" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="295" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -9447,7 +9447,7 @@
         <v>1</v>
       </c>
       <c r="D302" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="303" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -9881,7 +9881,7 @@
         <v>1</v>
       </c>
       <c r="D318" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="319" spans="1:24" x14ac:dyDescent="0.2">
@@ -9895,10 +9895,10 @@
         <v>1</v>
       </c>
       <c r="D319" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E319" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="E319" s="5" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="320" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -10052,7 +10052,7 @@
         <v>1</v>
       </c>
       <c r="D325" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="326" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -10234,19 +10234,19 @@
         <v>2</v>
       </c>
       <c r="D332" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E332" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="E332" s="5" t="s">
+      <c r="F332" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="F332" s="5" t="s">
+      <c r="G332" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="G332" s="5" t="s">
+      <c r="H332" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="H332" s="5" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="333" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -11072,10 +11072,10 @@
         <v>1</v>
       </c>
       <c r="D362" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E362" s="5" t="s">
         <v>240</v>
-      </c>
-      <c r="E362" s="5" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="363" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -11173,28 +11173,28 @@
         <v>1</v>
       </c>
       <c r="D366" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E366" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="E366" s="5" t="s">
+      <c r="F366" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="F366" s="5" t="s">
+      <c r="G366" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="G366" s="5" t="s">
+      <c r="H366" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="H366" s="5" t="s">
+      <c r="I366" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="I366" s="5" t="s">
+      <c r="J366" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="J366" s="5" t="s">
+      <c r="K366" s="5" t="s">
         <v>248</v>
-      </c>
-      <c r="K366" s="5" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="367" spans="1:24" x14ac:dyDescent="0.2">
@@ -11208,10 +11208,10 @@
         <v>1</v>
       </c>
       <c r="D367" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E367" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="E367" s="5" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="368" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -11365,10 +11365,10 @@
         <v>1</v>
       </c>
       <c r="D373" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E373" s="5" t="s">
         <v>252</v>
-      </c>
-      <c r="E373" s="5" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="374" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -11578,10 +11578,10 @@
         <v>2</v>
       </c>
       <c r="D381" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E381" s="5" t="s">
         <v>254</v>
-      </c>
-      <c r="E381" s="5" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="382" spans="1:24" x14ac:dyDescent="0.2">
@@ -11595,13 +11595,13 @@
         <v>1</v>
       </c>
       <c r="D382" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E382" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="E382" s="5" t="s">
+      <c r="F382" s="5" t="s">
         <v>257</v>
-      </c>
-      <c r="F382" s="5" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="383" spans="1:24" x14ac:dyDescent="0.2">
@@ -11615,7 +11615,7 @@
         <v>1</v>
       </c>
       <c r="D383" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="384" spans="1:24" x14ac:dyDescent="0.2">
@@ -11629,16 +11629,16 @@
         <v>3</v>
       </c>
       <c r="D384" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E384" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="E384" s="5" t="s">
+      <c r="F384" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="F384" s="5" t="s">
+      <c r="G384" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="G384" s="5" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="385" spans="1:24" x14ac:dyDescent="0.2">
@@ -11652,19 +11652,19 @@
         <v>2</v>
       </c>
       <c r="D385" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E385" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E385" s="5" t="s">
+      <c r="F385" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="F385" s="5" t="s">
+      <c r="G385" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="G385" s="5" t="s">
+      <c r="H385" s="5" t="s">
         <v>267</v>
-      </c>
-      <c r="H385" s="5" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="386" spans="1:24" x14ac:dyDescent="0.2">
@@ -11678,22 +11678,22 @@
         <v>3</v>
       </c>
       <c r="D386" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E386" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="E386" s="5" t="s">
+      <c r="F386" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="F386" s="5" t="s">
+      <c r="G386" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G386" s="5" t="s">
+      <c r="H386" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="H386" s="5" t="s">
+      <c r="I386" s="5" t="s">
         <v>273</v>
-      </c>
-      <c r="I386" s="5" t="s">
-        <v>274</v>
       </c>
       <c r="J386" s="5"/>
     </row>
@@ -11708,16 +11708,16 @@
         <v>2</v>
       </c>
       <c r="D387" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E387" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E387" s="5" t="s">
+      <c r="F387" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="F387" s="5" t="s">
+      <c r="G387" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="G387" s="5" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="388" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -11995,143 +11995,143 @@
     <hyperlink ref="E75" r:id="rId110" xr:uid="{527EF238-2A21-4DF2-89F8-38245C4F5BFA}"/>
     <hyperlink ref="G75" r:id="rId111" xr:uid="{6D9FE7A8-3381-492D-8E7E-D0C5F8A703B7}"/>
     <hyperlink ref="F75" r:id="rId112" xr:uid="{005F1371-3B04-4D06-BD35-F146D983F3CB}"/>
-    <hyperlink ref="D79" r:id="rId113" xr:uid="{F089EE6D-851D-4D2C-AF69-E0C07BD244CB}"/>
-    <hyperlink ref="D80" r:id="rId114" display="20231207\20231207_Rmaysh1\GreenSoutherners136 _20231207 أطراف رميش فوسفوري.jpeg" xr:uid="{01C6AA7F-59A8-4BEF-B52B-2A6AD22A724B}"/>
-    <hyperlink ref="E80" r:id="rId115" xr:uid="{7F29DEDF-E761-41CE-9903-99B5C7B903F5}"/>
-    <hyperlink ref="F80" r:id="rId116" xr:uid="{D7DC41C7-0CCC-4D2B-BF60-17A47162286B}"/>
-    <hyperlink ref="G80" r:id="rId117" xr:uid="{A7A2459A-1BD2-4126-826F-0649AA54B2B4}"/>
-    <hyperlink ref="H80" r:id="rId118" xr:uid="{B595072B-8DE4-42D5-AF71-E9E8B4CBD574}"/>
-    <hyperlink ref="I80" r:id="rId119" xr:uid="{6FCBEE3F-E64D-419D-B5BF-44B6368EB184}"/>
-    <hyperlink ref="J80" r:id="rId120" xr:uid="{D1FC6885-5690-4525-8A88-53518444F874}"/>
-    <hyperlink ref="K80" r:id="rId121" xr:uid="{5E7B13B8-6DBD-4BB6-ABE3-61465AEC4364}"/>
-    <hyperlink ref="D81" r:id="rId122" xr:uid="{511D87CC-D70F-41F8-A14A-30074F90CD50}"/>
-    <hyperlink ref="D82" r:id="rId123" xr:uid="{B09C1376-C013-4BA0-A8DD-628D62DD96AD}"/>
-    <hyperlink ref="D94" r:id="rId124" xr:uid="{F841E600-2066-4194-BD3B-7CD5FB386FE9}"/>
-    <hyperlink ref="E94" r:id="rId125" xr:uid="{2BAB6CC8-57B5-4B48-A87C-32635B0DF071}"/>
-    <hyperlink ref="D117" r:id="rId126" xr:uid="{05F85689-819A-4A74-95A9-61FD149B28C5}"/>
-    <hyperlink ref="E117" r:id="rId127" xr:uid="{12CB9FBB-A852-44F7-A203-CB9FE588C36B}"/>
-    <hyperlink ref="F117" r:id="rId128" xr:uid="{DA8129E8-AF9A-42E6-8881-ED8B394499F5}"/>
-    <hyperlink ref="G117" r:id="rId129" xr:uid="{BD036F21-B023-4009-813E-218A89A18C91}"/>
-    <hyperlink ref="D119" r:id="rId130" xr:uid="{900CB1FA-EFAD-4AB6-9FFF-2353AF048876}"/>
-    <hyperlink ref="D121" r:id="rId131" xr:uid="{E4F6B677-6073-4196-99C1-E99D35A90627}"/>
-    <hyperlink ref="E121" r:id="rId132" xr:uid="{14B152DA-4572-4411-BF6D-F12E7606615C}"/>
-    <hyperlink ref="D122" r:id="rId133" xr:uid="{BCC2F946-78D9-4659-923C-A6694B694855}"/>
-    <hyperlink ref="D124" r:id="rId134" xr:uid="{5DBC946C-0AFC-4E25-B2F8-CED8E25981ED}"/>
-    <hyperlink ref="E124" r:id="rId135" xr:uid="{625D7D74-28C1-4E5E-BD2A-6D2F61A8FC65}"/>
-    <hyperlink ref="D134" r:id="rId136" xr:uid="{1728EE38-2DF9-42CA-A5B1-A0E0C62751B0}"/>
-    <hyperlink ref="E134" r:id="rId137" xr:uid="{ED84C99B-9F9A-463E-95C2-927EEF5F4D13}"/>
-    <hyperlink ref="D135" r:id="rId138" xr:uid="{F447741B-7B9C-4FB3-A154-0E6BC98C5A8B}"/>
-    <hyperlink ref="D136" r:id="rId139" xr:uid="{1E58336F-5ACA-4CE1-A813-7744EAEF2457}"/>
-    <hyperlink ref="D166" r:id="rId140" xr:uid="{4D617FEC-31E7-43EC-80F1-B7B172AF456C}"/>
-    <hyperlink ref="E166" r:id="rId141" xr:uid="{4146683C-63BC-495F-B573-48F36EA57860}"/>
-    <hyperlink ref="D167" r:id="rId142" xr:uid="{71537D31-F168-464D-A79C-963E01B6DB0B}"/>
-    <hyperlink ref="E167" r:id="rId143" xr:uid="{DA03138A-A3C7-4EE3-ABD2-2CCEF85C2B33}"/>
-    <hyperlink ref="F167" r:id="rId144" xr:uid="{AF86B621-C3FB-4FD3-A9DA-FDFE19B92C03}"/>
-    <hyperlink ref="G167" r:id="rId145" xr:uid="{DB7404A4-FE8D-4B3F-9D58-6F85710783B8}"/>
-    <hyperlink ref="H167" r:id="rId146" xr:uid="{ACA995FC-1566-4E82-A94C-127401AE7BD9}"/>
-    <hyperlink ref="I167" r:id="rId147" xr:uid="{147666A0-2325-4DFE-8CFE-BBDFF6396348}"/>
-    <hyperlink ref="D168" r:id="rId148" xr:uid="{2709DD58-6608-43D7-A54D-D1641255ABC5}"/>
-    <hyperlink ref="E168" r:id="rId149" xr:uid="{2AAFDA22-3C89-46B2-A880-3E124BC14E59}"/>
-    <hyperlink ref="D169" r:id="rId150" xr:uid="{B86F5395-62A8-49E1-AD1F-EEFD763DA1B7}"/>
-    <hyperlink ref="D182" r:id="rId151" xr:uid="{72C79066-5B6E-4CE7-BACE-F1737DDA59CB}"/>
-    <hyperlink ref="D199" r:id="rId152" xr:uid="{911E8819-9B83-440C-A52F-A721E540DF80}"/>
-    <hyperlink ref="E199" r:id="rId153" xr:uid="{46F6EC9E-3D03-4FCC-B8F0-2CA7D3BC8E71}"/>
-    <hyperlink ref="F199" r:id="rId154" xr:uid="{743827E6-6FA5-4DA6-A380-0B8A6F8028F6}"/>
-    <hyperlink ref="G199" r:id="rId155" xr:uid="{0384AE93-C7CE-4B08-AD00-BD75D9657F13}"/>
-    <hyperlink ref="H199" r:id="rId156" xr:uid="{E8423CCC-96E2-40EB-B16F-9232402B57AE}"/>
-    <hyperlink ref="I199" r:id="rId157" xr:uid="{510DEB5D-9F36-4114-9BF6-096B317CE2AC}"/>
-    <hyperlink ref="D213" r:id="rId158" xr:uid="{22EAB6CF-2591-4AA6-859C-8AFE24E0FEA8}"/>
-    <hyperlink ref="E213" r:id="rId159" xr:uid="{5C69A82B-EBDA-4E1D-AC2F-53899E14F85B}"/>
-    <hyperlink ref="G213" r:id="rId160" xr:uid="{5DE9FFF6-55FD-4FBB-9165-1FE07732B157}"/>
-    <hyperlink ref="H213" r:id="rId161" xr:uid="{95CFEB41-C529-4A99-8C8C-9B6F1FD94AAA}"/>
-    <hyperlink ref="F213" r:id="rId162" xr:uid="{8AC21ADD-1DA9-4413-A0DA-37F36DBA5C94}"/>
-    <hyperlink ref="D221" r:id="rId163" xr:uid="{7944199D-9665-4DBB-9E3D-5ED823260F59}"/>
-    <hyperlink ref="E221" r:id="rId164" xr:uid="{9F9CDCB4-B37A-46AE-9CF3-823DAFCED279}"/>
-    <hyperlink ref="D234" r:id="rId165" xr:uid="{9B59D698-5FBE-4383-A17D-61A2F3975C48}"/>
-    <hyperlink ref="E234" r:id="rId166" xr:uid="{B522C5C1-368C-4F17-80FD-2D2FA384EC83}"/>
-    <hyperlink ref="F234" r:id="rId167" xr:uid="{F276E04B-4B82-4FBF-862E-203B03943397}"/>
-    <hyperlink ref="G234" r:id="rId168" xr:uid="{F6829AE6-1EFD-4DA8-81BD-6239979CD87A}"/>
-    <hyperlink ref="H234" r:id="rId169" xr:uid="{8E0056EA-F973-4C64-90C5-48047729F807}"/>
-    <hyperlink ref="D239" r:id="rId170" xr:uid="{BB4B0A54-EA34-48A1-81EC-83CA27033611}"/>
-    <hyperlink ref="E239" r:id="rId171" xr:uid="{6F79A2AB-E2A6-4ABB-9D61-317621757C05}"/>
-    <hyperlink ref="F239" r:id="rId172" xr:uid="{13304604-9C7F-4108-A2DB-0C073DD6F816}"/>
-    <hyperlink ref="G239" r:id="rId173" xr:uid="{B3134AC8-8FC9-4C20-A543-31D77BDCDFA5}"/>
-    <hyperlink ref="D247" r:id="rId174" xr:uid="{B0B75C0A-DE10-48B7-91A4-39C9B49F1190}"/>
-    <hyperlink ref="D259" r:id="rId175" xr:uid="{8A3EDDF6-53C6-45B7-BC9A-EFB77A0C6405}"/>
-    <hyperlink ref="D260" r:id="rId176" xr:uid="{7EBF8210-1C5C-475A-9EE7-23C46ED89C8B}"/>
-    <hyperlink ref="D261" r:id="rId177" xr:uid="{ED130BCB-75ED-439B-8801-7052A4A8644E}"/>
-    <hyperlink ref="D262" r:id="rId178" xr:uid="{349A15DC-EC7B-435F-8D8F-ED27A30327E2}"/>
-    <hyperlink ref="E262" r:id="rId179" xr:uid="{5CC81365-8CB1-4F4B-A7D8-44DCBA999310}"/>
-    <hyperlink ref="F262" r:id="rId180" xr:uid="{4F407D3E-2072-466D-BE81-5BEBEFBD46E4}"/>
-    <hyperlink ref="G262" r:id="rId181" xr:uid="{8C3FB8F0-4C96-4D39-9CEF-2D65F3D19C9B}"/>
-    <hyperlink ref="H262" r:id="rId182" xr:uid="{ECEBF426-3489-4245-A230-B1F3362215FB}"/>
-    <hyperlink ref="I262" r:id="rId183" xr:uid="{AD485175-2FF3-4005-AB97-E839ED91E8BD}"/>
-    <hyperlink ref="J262" r:id="rId184" xr:uid="{16E19AE0-A50A-4038-A2AB-AC86B1D5529A}"/>
-    <hyperlink ref="K262" r:id="rId185" xr:uid="{6D981592-6410-42D7-AA59-35BFAD0702AA}"/>
-    <hyperlink ref="L262" r:id="rId186" xr:uid="{9EAEC803-21CE-46CA-A8AA-B88F8BAF2A0B}"/>
-    <hyperlink ref="D263" r:id="rId187" xr:uid="{7732C70A-7F0E-48B9-A85E-E3A4EF7E3DBF}"/>
-    <hyperlink ref="D264" r:id="rId188" xr:uid="{8BFFCD31-BE20-4197-91F8-9818BA8BF4AE}"/>
-    <hyperlink ref="D272" r:id="rId189" xr:uid="{3D79C244-5F51-47DB-8DCF-8B14BE504C64}"/>
-    <hyperlink ref="D282" r:id="rId190" xr:uid="{D24407FF-13EC-4F35-8B38-4389246EB75D}"/>
-    <hyperlink ref="E282" r:id="rId191" xr:uid="{1B1D4A32-74D6-4B1A-8DD6-DD01C908B0E8}"/>
-    <hyperlink ref="F282" r:id="rId192" xr:uid="{87F6A76D-0ADD-4040-9A1F-1A367B575759}"/>
-    <hyperlink ref="G282" r:id="rId193" xr:uid="{044F46CE-6671-4F34-96C5-B69C16EA3E39}"/>
-    <hyperlink ref="H282" r:id="rId194" xr:uid="{4B4A7088-672A-4B43-A9BC-836E1ABD2AAE}"/>
-    <hyperlink ref="I282" r:id="rId195" xr:uid="{2C193EA9-29D1-4714-AB5A-C2777C7DA307}"/>
-    <hyperlink ref="J282" r:id="rId196" xr:uid="{800CF499-2C4F-4CD9-A3B6-739231958233}"/>
-    <hyperlink ref="K282" r:id="rId197" xr:uid="{E621632C-2D4B-4FB7-8A33-C147C971F519}"/>
-    <hyperlink ref="D294" r:id="rId198" xr:uid="{C07F1FE5-7D9A-4480-8193-87BB4384EDD5}"/>
-    <hyperlink ref="E301" r:id="rId199" xr:uid="{5987DCDE-C0D1-4BCC-B9F9-DBEA33D757B9}"/>
-    <hyperlink ref="D301" r:id="rId200" xr:uid="{8DF4BE91-1068-41B9-92FD-E242163D972D}"/>
-    <hyperlink ref="D302" r:id="rId201" xr:uid="{4728DC73-AD53-40CF-8C18-3D028ACD6C5C}"/>
-    <hyperlink ref="D318" r:id="rId202" xr:uid="{BFF419A3-B55B-4B4F-8276-C525791843CE}"/>
-    <hyperlink ref="D319" r:id="rId203" xr:uid="{DB200AA8-7D47-4726-BAF8-F6B5C743EE7E}"/>
-    <hyperlink ref="E319" r:id="rId204" xr:uid="{C80772A0-8A18-4052-866F-DFA6A12E4B99}"/>
-    <hyperlink ref="D325" r:id="rId205" xr:uid="{396EB1BE-791F-402C-A419-E07362BA60FC}"/>
-    <hyperlink ref="D332" r:id="rId206" xr:uid="{963E803C-F09B-4282-BA5C-168C9FA65036}"/>
-    <hyperlink ref="E332" r:id="rId207" xr:uid="{5E758D1B-3D6F-4BA6-8788-9B91A3B34088}"/>
-    <hyperlink ref="F332" r:id="rId208" xr:uid="{89C71FE4-4C36-4DF6-B50B-AD0A8E33E3E7}"/>
-    <hyperlink ref="G332" r:id="rId209" xr:uid="{F2198727-77A5-4A9D-B369-DB395C6CD098}"/>
-    <hyperlink ref="H332" r:id="rId210" xr:uid="{EFC425E2-D800-4A3D-9F83-04C528904387}"/>
-    <hyperlink ref="D362" r:id="rId211" xr:uid="{500078E0-7A47-444B-BF4C-06502CA18684}"/>
-    <hyperlink ref="E362" r:id="rId212" xr:uid="{6A72D9F5-81C4-4464-9CCE-0AED0FF6E80A}"/>
-    <hyperlink ref="D366" r:id="rId213" xr:uid="{DD8B1EBC-D47B-49C9-A8B4-F279AE2D92D5}"/>
-    <hyperlink ref="E366" r:id="rId214" xr:uid="{67EFF7BB-5C5B-47F4-AB4C-4BD6C4EB4941}"/>
-    <hyperlink ref="F366" r:id="rId215" xr:uid="{785D9193-8260-40D9-AA0A-A6ECAF1A808C}"/>
-    <hyperlink ref="G366" r:id="rId216" xr:uid="{14C9681D-4874-48B5-B25E-7E1AC14663B5}"/>
-    <hyperlink ref="H366" r:id="rId217" xr:uid="{12319D18-C183-467A-B89E-6E16433E20FF}"/>
-    <hyperlink ref="I366" r:id="rId218" xr:uid="{41254C20-C32F-4870-A4BF-0E2B698951EC}"/>
-    <hyperlink ref="J366" r:id="rId219" xr:uid="{0BACDEB3-06F5-4839-BA63-AF092671B6BC}"/>
-    <hyperlink ref="K366" r:id="rId220" xr:uid="{C91D41C4-F740-4ECE-B7D5-BDC7D31AC3DD}"/>
-    <hyperlink ref="D367" r:id="rId221" xr:uid="{B5EE64D8-4834-469C-ACBA-4D3A993910AC}"/>
-    <hyperlink ref="E367" r:id="rId222" xr:uid="{711EE95E-62E1-44FF-B968-C30F8229D18E}"/>
-    <hyperlink ref="D373" r:id="rId223" xr:uid="{20AA1588-1AD6-49A3-A26C-344DC8341E2C}"/>
-    <hyperlink ref="E373" r:id="rId224" xr:uid="{A5047222-3232-4F45-A1B0-447782D01EB8}"/>
-    <hyperlink ref="D381" r:id="rId225" xr:uid="{0A1417A7-EBA8-4641-9DC2-9C89A113558F}"/>
-    <hyperlink ref="E381" r:id="rId226" xr:uid="{542E56F6-05AE-4D44-8346-C3F3FC39FBB7}"/>
-    <hyperlink ref="D382" r:id="rId227" xr:uid="{47311264-ABB2-41C4-81B8-F9669327F3D6}"/>
-    <hyperlink ref="E382" r:id="rId228" xr:uid="{352A143E-5660-41A9-94E4-7162D82364D8}"/>
-    <hyperlink ref="F382" r:id="rId229" xr:uid="{1B497C03-0939-4720-9952-F58E194262E6}"/>
-    <hyperlink ref="D383" r:id="rId230" xr:uid="{A50A9CA3-B5F3-4948-A0FD-FCD6DE7376B6}"/>
-    <hyperlink ref="D384" r:id="rId231" xr:uid="{20DAAD2A-51FC-46A9-9D3B-CBBAD5456DF7}"/>
-    <hyperlink ref="E384" r:id="rId232" xr:uid="{9397DF03-4275-4963-A37A-21DD2CEAA03C}"/>
-    <hyperlink ref="F384" r:id="rId233" xr:uid="{CD02FEFA-3EF1-4749-B483-6D1523A103CC}"/>
-    <hyperlink ref="G384" r:id="rId234" xr:uid="{3EF974CC-D30B-4FAC-B645-F438FCDBA660}"/>
-    <hyperlink ref="D385" r:id="rId235" xr:uid="{325E095B-4C8E-4BDC-AAEC-2423078C5B12}"/>
-    <hyperlink ref="E385" r:id="rId236" xr:uid="{05070ECF-47B5-4EE7-A505-331DD170BA7A}"/>
-    <hyperlink ref="F385" r:id="rId237" xr:uid="{EEE48E95-878B-4B65-97C0-86E70EF45156}"/>
-    <hyperlink ref="G385" r:id="rId238" xr:uid="{52FA2EC9-C622-41E1-8115-99227031E76C}"/>
-    <hyperlink ref="H385" r:id="rId239" xr:uid="{E4CD4CC6-F0BE-4D83-B53B-961BE5CE6532}"/>
-    <hyperlink ref="D386" r:id="rId240" xr:uid="{3F8AF0FD-8B3D-409C-A76F-1D687AAA6C5F}"/>
-    <hyperlink ref="E386" r:id="rId241" xr:uid="{B976CA90-2546-4869-9A63-1590AB1209AC}"/>
-    <hyperlink ref="F386" r:id="rId242" xr:uid="{A1863009-A1D3-47A6-B03D-551E57070CA4}"/>
-    <hyperlink ref="G386" r:id="rId243" xr:uid="{B557EAF8-F2BF-41F2-BDFA-A9DEF7921CAA}"/>
-    <hyperlink ref="H386" r:id="rId244" xr:uid="{DE1B0EA0-8944-4F28-B4FD-37074DF70AE1}"/>
-    <hyperlink ref="I386" r:id="rId245" xr:uid="{4FE81C3F-0FD5-4C5C-A535-419126836CEE}"/>
-    <hyperlink ref="D387" r:id="rId246" xr:uid="{E82174FD-EC20-447A-BE93-5775E081CE0B}"/>
-    <hyperlink ref="E387" r:id="rId247" xr:uid="{5623BA65-1E02-4CE5-87A4-E4376B58A659}"/>
-    <hyperlink ref="F387" r:id="rId248" xr:uid="{4634900E-8974-4C1A-9B89-5AE384FDC22F}"/>
-    <hyperlink ref="G387" r:id="rId249" xr:uid="{E6FB04BD-7879-4C61-9017-9C2B94F64B4D}"/>
+    <hyperlink ref="E80" r:id="rId113" xr:uid="{7F29DEDF-E761-41CE-9903-99B5C7B903F5}"/>
+    <hyperlink ref="F80" r:id="rId114" xr:uid="{D7DC41C7-0CCC-4D2B-BF60-17A47162286B}"/>
+    <hyperlink ref="G80" r:id="rId115" xr:uid="{A7A2459A-1BD2-4126-826F-0649AA54B2B4}"/>
+    <hyperlink ref="H80" r:id="rId116" xr:uid="{B595072B-8DE4-42D5-AF71-E9E8B4CBD574}"/>
+    <hyperlink ref="I80" r:id="rId117" xr:uid="{6FCBEE3F-E64D-419D-B5BF-44B6368EB184}"/>
+    <hyperlink ref="J80" r:id="rId118" xr:uid="{D1FC6885-5690-4525-8A88-53518444F874}"/>
+    <hyperlink ref="K80" r:id="rId119" xr:uid="{5E7B13B8-6DBD-4BB6-ABE3-61465AEC4364}"/>
+    <hyperlink ref="D81" r:id="rId120" xr:uid="{511D87CC-D70F-41F8-A14A-30074F90CD50}"/>
+    <hyperlink ref="D82" r:id="rId121" xr:uid="{B09C1376-C013-4BA0-A8DD-628D62DD96AD}"/>
+    <hyperlink ref="D94" r:id="rId122" xr:uid="{F841E600-2066-4194-BD3B-7CD5FB386FE9}"/>
+    <hyperlink ref="E94" r:id="rId123" xr:uid="{2BAB6CC8-57B5-4B48-A87C-32635B0DF071}"/>
+    <hyperlink ref="D117" r:id="rId124" xr:uid="{05F85689-819A-4A74-95A9-61FD149B28C5}"/>
+    <hyperlink ref="E117" r:id="rId125" xr:uid="{12CB9FBB-A852-44F7-A203-CB9FE588C36B}"/>
+    <hyperlink ref="F117" r:id="rId126" xr:uid="{DA8129E8-AF9A-42E6-8881-ED8B394499F5}"/>
+    <hyperlink ref="G117" r:id="rId127" xr:uid="{BD036F21-B023-4009-813E-218A89A18C91}"/>
+    <hyperlink ref="D119" r:id="rId128" xr:uid="{900CB1FA-EFAD-4AB6-9FFF-2353AF048876}"/>
+    <hyperlink ref="D121" r:id="rId129" xr:uid="{E4F6B677-6073-4196-99C1-E99D35A90627}"/>
+    <hyperlink ref="E121" r:id="rId130" xr:uid="{14B152DA-4572-4411-BF6D-F12E7606615C}"/>
+    <hyperlink ref="D122" r:id="rId131" xr:uid="{BCC2F946-78D9-4659-923C-A6694B694855}"/>
+    <hyperlink ref="D124" r:id="rId132" xr:uid="{5DBC946C-0AFC-4E25-B2F8-CED8E25981ED}"/>
+    <hyperlink ref="E124" r:id="rId133" xr:uid="{625D7D74-28C1-4E5E-BD2A-6D2F61A8FC65}"/>
+    <hyperlink ref="D134" r:id="rId134" xr:uid="{1728EE38-2DF9-42CA-A5B1-A0E0C62751B0}"/>
+    <hyperlink ref="E134" r:id="rId135" xr:uid="{ED84C99B-9F9A-463E-95C2-927EEF5F4D13}"/>
+    <hyperlink ref="D135" r:id="rId136" xr:uid="{F447741B-7B9C-4FB3-A154-0E6BC98C5A8B}"/>
+    <hyperlink ref="D136" r:id="rId137" xr:uid="{1E58336F-5ACA-4CE1-A813-7744EAEF2457}"/>
+    <hyperlink ref="D166" r:id="rId138" xr:uid="{4D617FEC-31E7-43EC-80F1-B7B172AF456C}"/>
+    <hyperlink ref="E166" r:id="rId139" xr:uid="{4146683C-63BC-495F-B573-48F36EA57860}"/>
+    <hyperlink ref="D167" r:id="rId140" xr:uid="{71537D31-F168-464D-A79C-963E01B6DB0B}"/>
+    <hyperlink ref="E167" r:id="rId141" xr:uid="{DA03138A-A3C7-4EE3-ABD2-2CCEF85C2B33}"/>
+    <hyperlink ref="F167" r:id="rId142" xr:uid="{AF86B621-C3FB-4FD3-A9DA-FDFE19B92C03}"/>
+    <hyperlink ref="G167" r:id="rId143" xr:uid="{DB7404A4-FE8D-4B3F-9D58-6F85710783B8}"/>
+    <hyperlink ref="H167" r:id="rId144" xr:uid="{ACA995FC-1566-4E82-A94C-127401AE7BD9}"/>
+    <hyperlink ref="I167" r:id="rId145" xr:uid="{147666A0-2325-4DFE-8CFE-BBDFF6396348}"/>
+    <hyperlink ref="D168" r:id="rId146" xr:uid="{2709DD58-6608-43D7-A54D-D1641255ABC5}"/>
+    <hyperlink ref="E168" r:id="rId147" xr:uid="{2AAFDA22-3C89-46B2-A880-3E124BC14E59}"/>
+    <hyperlink ref="D169" r:id="rId148" xr:uid="{B86F5395-62A8-49E1-AD1F-EEFD763DA1B7}"/>
+    <hyperlink ref="D182" r:id="rId149" xr:uid="{72C79066-5B6E-4CE7-BACE-F1737DDA59CB}"/>
+    <hyperlink ref="D199" r:id="rId150" xr:uid="{911E8819-9B83-440C-A52F-A721E540DF80}"/>
+    <hyperlink ref="E199" r:id="rId151" xr:uid="{46F6EC9E-3D03-4FCC-B8F0-2CA7D3BC8E71}"/>
+    <hyperlink ref="F199" r:id="rId152" xr:uid="{743827E6-6FA5-4DA6-A380-0B8A6F8028F6}"/>
+    <hyperlink ref="G199" r:id="rId153" xr:uid="{0384AE93-C7CE-4B08-AD00-BD75D9657F13}"/>
+    <hyperlink ref="H199" r:id="rId154" xr:uid="{E8423CCC-96E2-40EB-B16F-9232402B57AE}"/>
+    <hyperlink ref="I199" r:id="rId155" xr:uid="{510DEB5D-9F36-4114-9BF6-096B317CE2AC}"/>
+    <hyperlink ref="D213" r:id="rId156" xr:uid="{22EAB6CF-2591-4AA6-859C-8AFE24E0FEA8}"/>
+    <hyperlink ref="E213" r:id="rId157" xr:uid="{5C69A82B-EBDA-4E1D-AC2F-53899E14F85B}"/>
+    <hyperlink ref="G213" r:id="rId158" xr:uid="{5DE9FFF6-55FD-4FBB-9165-1FE07732B157}"/>
+    <hyperlink ref="H213" r:id="rId159" xr:uid="{95CFEB41-C529-4A99-8C8C-9B6F1FD94AAA}"/>
+    <hyperlink ref="F213" r:id="rId160" xr:uid="{8AC21ADD-1DA9-4413-A0DA-37F36DBA5C94}"/>
+    <hyperlink ref="D221" r:id="rId161" xr:uid="{7944199D-9665-4DBB-9E3D-5ED823260F59}"/>
+    <hyperlink ref="E221" r:id="rId162" xr:uid="{9F9CDCB4-B37A-46AE-9CF3-823DAFCED279}"/>
+    <hyperlink ref="D234" r:id="rId163" xr:uid="{9B59D698-5FBE-4383-A17D-61A2F3975C48}"/>
+    <hyperlink ref="E234" r:id="rId164" xr:uid="{B522C5C1-368C-4F17-80FD-2D2FA384EC83}"/>
+    <hyperlink ref="F234" r:id="rId165" xr:uid="{F276E04B-4B82-4FBF-862E-203B03943397}"/>
+    <hyperlink ref="G234" r:id="rId166" xr:uid="{F6829AE6-1EFD-4DA8-81BD-6239979CD87A}"/>
+    <hyperlink ref="H234" r:id="rId167" xr:uid="{8E0056EA-F973-4C64-90C5-48047729F807}"/>
+    <hyperlink ref="D239" r:id="rId168" xr:uid="{BB4B0A54-EA34-48A1-81EC-83CA27033611}"/>
+    <hyperlink ref="E239" r:id="rId169" xr:uid="{6F79A2AB-E2A6-4ABB-9D61-317621757C05}"/>
+    <hyperlink ref="F239" r:id="rId170" xr:uid="{13304604-9C7F-4108-A2DB-0C073DD6F816}"/>
+    <hyperlink ref="G239" r:id="rId171" xr:uid="{B3134AC8-8FC9-4C20-A543-31D77BDCDFA5}"/>
+    <hyperlink ref="D247" r:id="rId172" xr:uid="{B0B75C0A-DE10-48B7-91A4-39C9B49F1190}"/>
+    <hyperlink ref="D259" r:id="rId173" xr:uid="{8A3EDDF6-53C6-45B7-BC9A-EFB77A0C6405}"/>
+    <hyperlink ref="D260" r:id="rId174" xr:uid="{7EBF8210-1C5C-475A-9EE7-23C46ED89C8B}"/>
+    <hyperlink ref="D261" r:id="rId175" xr:uid="{ED130BCB-75ED-439B-8801-7052A4A8644E}"/>
+    <hyperlink ref="D262" r:id="rId176" xr:uid="{349A15DC-EC7B-435F-8D8F-ED27A30327E2}"/>
+    <hyperlink ref="E262" r:id="rId177" xr:uid="{5CC81365-8CB1-4F4B-A7D8-44DCBA999310}"/>
+    <hyperlink ref="F262" r:id="rId178" xr:uid="{4F407D3E-2072-466D-BE81-5BEBEFBD46E4}"/>
+    <hyperlink ref="G262" r:id="rId179" xr:uid="{8C3FB8F0-4C96-4D39-9CEF-2D65F3D19C9B}"/>
+    <hyperlink ref="H262" r:id="rId180" xr:uid="{ECEBF426-3489-4245-A230-B1F3362215FB}"/>
+    <hyperlink ref="I262" r:id="rId181" xr:uid="{AD485175-2FF3-4005-AB97-E839ED91E8BD}"/>
+    <hyperlink ref="J262" r:id="rId182" xr:uid="{16E19AE0-A50A-4038-A2AB-AC86B1D5529A}"/>
+    <hyperlink ref="K262" r:id="rId183" xr:uid="{6D981592-6410-42D7-AA59-35BFAD0702AA}"/>
+    <hyperlink ref="L262" r:id="rId184" xr:uid="{9EAEC803-21CE-46CA-A8AA-B88F8BAF2A0B}"/>
+    <hyperlink ref="D263" r:id="rId185" xr:uid="{7732C70A-7F0E-48B9-A85E-E3A4EF7E3DBF}"/>
+    <hyperlink ref="D264" r:id="rId186" xr:uid="{8BFFCD31-BE20-4197-91F8-9818BA8BF4AE}"/>
+    <hyperlink ref="D272" r:id="rId187" xr:uid="{3D79C244-5F51-47DB-8DCF-8B14BE504C64}"/>
+    <hyperlink ref="D282" r:id="rId188" xr:uid="{D24407FF-13EC-4F35-8B38-4389246EB75D}"/>
+    <hyperlink ref="E282" r:id="rId189" xr:uid="{1B1D4A32-74D6-4B1A-8DD6-DD01C908B0E8}"/>
+    <hyperlink ref="F282" r:id="rId190" xr:uid="{87F6A76D-0ADD-4040-9A1F-1A367B575759}"/>
+    <hyperlink ref="G282" r:id="rId191" xr:uid="{044F46CE-6671-4F34-96C5-B69C16EA3E39}"/>
+    <hyperlink ref="H282" r:id="rId192" xr:uid="{4B4A7088-672A-4B43-A9BC-836E1ABD2AAE}"/>
+    <hyperlink ref="I282" r:id="rId193" xr:uid="{2C193EA9-29D1-4714-AB5A-C2777C7DA307}"/>
+    <hyperlink ref="J282" r:id="rId194" xr:uid="{800CF499-2C4F-4CD9-A3B6-739231958233}"/>
+    <hyperlink ref="K282" r:id="rId195" xr:uid="{E621632C-2D4B-4FB7-8A33-C147C971F519}"/>
+    <hyperlink ref="D294" r:id="rId196" xr:uid="{C07F1FE5-7D9A-4480-8193-87BB4384EDD5}"/>
+    <hyperlink ref="E301" r:id="rId197" xr:uid="{5987DCDE-C0D1-4BCC-B9F9-DBEA33D757B9}"/>
+    <hyperlink ref="D301" r:id="rId198" xr:uid="{8DF4BE91-1068-41B9-92FD-E242163D972D}"/>
+    <hyperlink ref="D302" r:id="rId199" xr:uid="{4728DC73-AD53-40CF-8C18-3D028ACD6C5C}"/>
+    <hyperlink ref="D318" r:id="rId200" xr:uid="{BFF419A3-B55B-4B4F-8276-C525791843CE}"/>
+    <hyperlink ref="D319" r:id="rId201" xr:uid="{DB200AA8-7D47-4726-BAF8-F6B5C743EE7E}"/>
+    <hyperlink ref="E319" r:id="rId202" xr:uid="{C80772A0-8A18-4052-866F-DFA6A12E4B99}"/>
+    <hyperlink ref="D325" r:id="rId203" xr:uid="{396EB1BE-791F-402C-A419-E07362BA60FC}"/>
+    <hyperlink ref="D332" r:id="rId204" xr:uid="{963E803C-F09B-4282-BA5C-168C9FA65036}"/>
+    <hyperlink ref="E332" r:id="rId205" xr:uid="{5E758D1B-3D6F-4BA6-8788-9B91A3B34088}"/>
+    <hyperlink ref="F332" r:id="rId206" xr:uid="{89C71FE4-4C36-4DF6-B50B-AD0A8E33E3E7}"/>
+    <hyperlink ref="G332" r:id="rId207" xr:uid="{F2198727-77A5-4A9D-B369-DB395C6CD098}"/>
+    <hyperlink ref="H332" r:id="rId208" xr:uid="{EFC425E2-D800-4A3D-9F83-04C528904387}"/>
+    <hyperlink ref="D362" r:id="rId209" xr:uid="{500078E0-7A47-444B-BF4C-06502CA18684}"/>
+    <hyperlink ref="E362" r:id="rId210" xr:uid="{6A72D9F5-81C4-4464-9CCE-0AED0FF6E80A}"/>
+    <hyperlink ref="D366" r:id="rId211" xr:uid="{DD8B1EBC-D47B-49C9-A8B4-F279AE2D92D5}"/>
+    <hyperlink ref="E366" r:id="rId212" xr:uid="{67EFF7BB-5C5B-47F4-AB4C-4BD6C4EB4941}"/>
+    <hyperlink ref="F366" r:id="rId213" xr:uid="{785D9193-8260-40D9-AA0A-A6ECAF1A808C}"/>
+    <hyperlink ref="G366" r:id="rId214" xr:uid="{14C9681D-4874-48B5-B25E-7E1AC14663B5}"/>
+    <hyperlink ref="H366" r:id="rId215" xr:uid="{12319D18-C183-467A-B89E-6E16433E20FF}"/>
+    <hyperlink ref="I366" r:id="rId216" xr:uid="{41254C20-C32F-4870-A4BF-0E2B698951EC}"/>
+    <hyperlink ref="J366" r:id="rId217" xr:uid="{0BACDEB3-06F5-4839-BA63-AF092671B6BC}"/>
+    <hyperlink ref="K366" r:id="rId218" xr:uid="{C91D41C4-F740-4ECE-B7D5-BDC7D31AC3DD}"/>
+    <hyperlink ref="D367" r:id="rId219" xr:uid="{B5EE64D8-4834-469C-ACBA-4D3A993910AC}"/>
+    <hyperlink ref="E367" r:id="rId220" xr:uid="{711EE95E-62E1-44FF-B968-C30F8229D18E}"/>
+    <hyperlink ref="D373" r:id="rId221" xr:uid="{20AA1588-1AD6-49A3-A26C-344DC8341E2C}"/>
+    <hyperlink ref="E373" r:id="rId222" xr:uid="{A5047222-3232-4F45-A1B0-447782D01EB8}"/>
+    <hyperlink ref="D381" r:id="rId223" xr:uid="{0A1417A7-EBA8-4641-9DC2-9C89A113558F}"/>
+    <hyperlink ref="E381" r:id="rId224" xr:uid="{542E56F6-05AE-4D44-8346-C3F3FC39FBB7}"/>
+    <hyperlink ref="D382" r:id="rId225" xr:uid="{47311264-ABB2-41C4-81B8-F9669327F3D6}"/>
+    <hyperlink ref="E382" r:id="rId226" xr:uid="{352A143E-5660-41A9-94E4-7162D82364D8}"/>
+    <hyperlink ref="F382" r:id="rId227" xr:uid="{1B497C03-0939-4720-9952-F58E194262E6}"/>
+    <hyperlink ref="D383" r:id="rId228" xr:uid="{A50A9CA3-B5F3-4948-A0FD-FCD6DE7376B6}"/>
+    <hyperlink ref="D384" r:id="rId229" xr:uid="{20DAAD2A-51FC-46A9-9D3B-CBBAD5456DF7}"/>
+    <hyperlink ref="E384" r:id="rId230" xr:uid="{9397DF03-4275-4963-A37A-21DD2CEAA03C}"/>
+    <hyperlink ref="F384" r:id="rId231" xr:uid="{CD02FEFA-3EF1-4749-B483-6D1523A103CC}"/>
+    <hyperlink ref="G384" r:id="rId232" xr:uid="{3EF974CC-D30B-4FAC-B645-F438FCDBA660}"/>
+    <hyperlink ref="D385" r:id="rId233" xr:uid="{325E095B-4C8E-4BDC-AAEC-2423078C5B12}"/>
+    <hyperlink ref="E385" r:id="rId234" xr:uid="{05070ECF-47B5-4EE7-A505-331DD170BA7A}"/>
+    <hyperlink ref="F385" r:id="rId235" xr:uid="{EEE48E95-878B-4B65-97C0-86E70EF45156}"/>
+    <hyperlink ref="G385" r:id="rId236" xr:uid="{52FA2EC9-C622-41E1-8115-99227031E76C}"/>
+    <hyperlink ref="H385" r:id="rId237" xr:uid="{E4CD4CC6-F0BE-4D83-B53B-961BE5CE6532}"/>
+    <hyperlink ref="D386" r:id="rId238" xr:uid="{3F8AF0FD-8B3D-409C-A76F-1D687AAA6C5F}"/>
+    <hyperlink ref="E386" r:id="rId239" xr:uid="{B976CA90-2546-4869-9A63-1590AB1209AC}"/>
+    <hyperlink ref="F386" r:id="rId240" xr:uid="{A1863009-A1D3-47A6-B03D-551E57070CA4}"/>
+    <hyperlink ref="G386" r:id="rId241" xr:uid="{B557EAF8-F2BF-41F2-BDFA-A9DEF7921CAA}"/>
+    <hyperlink ref="H386" r:id="rId242" xr:uid="{DE1B0EA0-8944-4F28-B4FD-37074DF70AE1}"/>
+    <hyperlink ref="I386" r:id="rId243" xr:uid="{4FE81C3F-0FD5-4C5C-A535-419126836CEE}"/>
+    <hyperlink ref="D387" r:id="rId244" xr:uid="{E82174FD-EC20-447A-BE93-5775E081CE0B}"/>
+    <hyperlink ref="E387" r:id="rId245" xr:uid="{5623BA65-1E02-4CE5-87A4-E4376B58A659}"/>
+    <hyperlink ref="F387" r:id="rId246" xr:uid="{4634900E-8974-4C1A-9B89-5AE384FDC22F}"/>
+    <hyperlink ref="G387" r:id="rId247" xr:uid="{E6FB04BD-7879-4C61-9017-9C2B94F64B4D}"/>
+    <hyperlink ref="D80" r:id="rId248" display="20231207\20231207_Rmaysh1\GreenSoutherners136 _20231207 أطراف رميش فوسفوري.jpeg" xr:uid="{01C6AA7F-59A8-4BEF-B52B-2A6AD22A724B}"/>
+    <hyperlink ref="D79" r:id="rId249" display="20231206\20231206_Meiss El Jabal\GreenSoutherners135 _20231206 ميس الجبل وأطراف حولا فوسفوري.mp4" xr:uid="{F089EE6D-851D-4D2C-AF69-E0C07BD244CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId250"/>

--- a/public/data/incidents.xlsx
+++ b/public/data/incidents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlie/Documents/GitHub/whitephosphorus/public/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9459291C-0FD1-C846-BA57-28002A765A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0770C8C-58BC-904C-BBF9-2196F6FE131B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="500" windowWidth="34960" windowHeight="21900" xr2:uid="{17A8EE8E-FE20-45E7-B555-7436B0063D4F}"/>
+    <workbookView xWindow="1660" yWindow="-21100" windowWidth="34960" windowHeight="21100" xr2:uid="{17A8EE8E-FE20-45E7-B555-7436B0063D4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Footage Data To Karlie-Updated" sheetId="14" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="314">
   <si>
     <t>Area</t>
   </si>
@@ -439,27 +439,6 @@
   </si>
   <si>
     <t>20231127\20231127_Dhaira\20231127_Maria Cosette_Dhaira_location1_IMG_0337.JPG</t>
-  </si>
-  <si>
-    <t>20231127\20231127_Dhaira1\20231127_Maria Cosette_Dhaira_location2_IMG_0152.JPG</t>
-  </si>
-  <si>
-    <t>20231127\20231127_Dhaira1\20231127_Maria Cosette_Dhaira_location2_IMG_0242.JPG</t>
-  </si>
-  <si>
-    <t>20231127\20231127_Dhaira1\20231127_Maria Cosette_Dhaira_location2_IMG_0253.JPG</t>
-  </si>
-  <si>
-    <t>20231127\20231127_Dhaira1\20231127_Maria Cosette_Dhaira_location2_IMG_0271.JPG</t>
-  </si>
-  <si>
-    <t>20231127\20231127_Dhaira1\20231127_Maria Cosette_Dhaira_location2_IMG_0273.JPG</t>
-  </si>
-  <si>
-    <t>20231127\20231127_Dhaira1\20231127_Maria Cosette_Dhaira_location2_IMG_0274.JPG</t>
-  </si>
-  <si>
-    <t>20231127\20231127_Dhaira1\20231127_Maria Cosette_Dhaira_location2_IMG_0341.JPG</t>
   </si>
   <si>
     <t>20231202\20231202_Al Khiam1\Twitter26 _20231202_2357_Timesofgaza_1.jpg</t>
@@ -980,6 +959,27 @@
   </si>
   <si>
     <t>20231206/20231206_Meiss+El+Jabal/GreenSoutherners135+_20231206+%D9%85%D9%8A%D8%B3+%D8%A7%D9%84%D8%AC%D8%A8%D9%84+%D9%88%D8%A7%D9%94%D8%B7%D8%B1%D8%A7%D9%81+%D8%AD%D9%88%D9%84%D8%A7+%D9%81%D9%88%D8%B3%D9%81%D9%88%D8%B1%D9%8A.mp4</t>
+  </si>
+  <si>
+    <t>20231127/20231127_Dhaira/20231127_Maria+Cosette_Dhaira_location2_IMG_0152.JPG</t>
+  </si>
+  <si>
+    <t>20231127/20231127_Dhaira/20231127_Maria+Cosette_Dhaira_location2_IMG_0242.JPG</t>
+  </si>
+  <si>
+    <t>20231127/20231127_Dhaira/20231127_Maria+Cosette_Dhaira_location2_IMG_0253.JPG</t>
+  </si>
+  <si>
+    <t>20231127/20231127_Dhaira/20231127_Maria+Cosette_Dhaira_location2_IMG_0271.JPG</t>
+  </si>
+  <si>
+    <t>20231127/20231127_Dhaira/20231127_Maria+Cosette_Dhaira_location2_IMG_0273.JPG</t>
+  </si>
+  <si>
+    <t>20231127/20231127_Dhaira/20231127_Maria+Cosette_Dhaira_location2_IMG_0341.JPG</t>
+  </si>
+  <si>
+    <t>20231127/20231127_Dhaira/20231127_Maria+Cosette_Dhaira_location2_IMG_0274.JPG</t>
   </si>
 </sst>
 </file>
@@ -1513,10 +1513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A08A01A-F062-4B76-B193-0C678F68B2B9}">
-  <dimension ref="A1:AG395"/>
+  <dimension ref="A1:AG393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="J52" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE71" sqref="AE71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1531,100 +1531,100 @@
   <sheetData>
     <row r="1" spans="1:32" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="AA1" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="P1" s="22" t="s">
+      <c r="AB1" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="AC1" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="AD1" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="Q1" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="R1" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="T1" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="U1" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="V1" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="W1" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="X1" s="23" t="s">
+      <c r="AE1" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="AF1" s="23" t="s">
         <v>303</v>
-      </c>
-      <c r="Z1" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="AA1" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB1" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="AC1" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="AD1" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="AE1" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="AF1" s="23" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:32" customFormat="1" x14ac:dyDescent="0.2">
@@ -3241,31 +3241,31 @@
         <v>133</v>
       </c>
       <c r="X70" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y70" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z70" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="AA70" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="AB70" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC70" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="AD70" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="Y70" s="26" t="s">
+      <c r="AE70" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF70" s="5" t="s">
         <v>312</v>
-      </c>
-      <c r="Z70" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA70" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB70" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC70" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD70" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="AE70" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="AF70" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="AG70" s="3"/>
     </row>
@@ -3392,16 +3392,16 @@
         <v>6</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
@@ -3516,7 +3516,7 @@
         <v>2</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="80" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -3530,28 +3530,28 @@
         <v>6</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="K80" s="5" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.2">
@@ -3565,7 +3565,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="82" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -3579,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -3901,10 +3901,10 @@
         <v>3</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="95" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -4534,16 +4534,16 @@
         <v>4</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="118" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -4585,7 +4585,7 @@
         <v>4</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="120" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -4627,10 +4627,10 @@
         <v>5</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
@@ -4663,7 +4663,7 @@
         <v>2</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.2">
@@ -4682,10 +4682,10 @@
         <v>6</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="125" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -4951,10 +4951,10 @@
         <v>3</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="135" spans="1:24" x14ac:dyDescent="0.2">
@@ -4968,7 +4968,7 @@
         <v>2</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="136" spans="1:24" x14ac:dyDescent="0.2">
@@ -4982,7 +4982,7 @@
         <v>1</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="137" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -5808,10 +5808,10 @@
         <v>2</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
@@ -5844,22 +5844,22 @@
         <v>2</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G167" s="5" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="I167" s="5" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="168" spans="1:24" x14ac:dyDescent="0.2">
@@ -5873,10 +5873,10 @@
         <v>3</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="169" spans="1:24" x14ac:dyDescent="0.2">
@@ -5890,7 +5890,7 @@
         <v>1</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="170" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -6240,7 +6240,7 @@
         <v>3</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="183" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6702,22 +6702,22 @@
         <v>3</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G199" s="5" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="H199" s="5" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="I199" s="5" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="200" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7095,19 +7095,19 @@
         <v>2</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G213" s="5" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="H213" s="5" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="214" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -7317,10 +7317,10 @@
         <v>2</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="222" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7670,19 +7670,19 @@
         <v>2</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F234" s="5" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G234" s="5" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="H234" s="5" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="235" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7808,16 +7808,16 @@
         <v>2</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F239" s="5" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G239" s="5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="240" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -7887,7 +7887,7 @@
         <v>2</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="243" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -8013,7 +8013,7 @@
         <v>1</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="248" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -8335,7 +8335,7 @@
         <v>1</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="260" spans="1:24" x14ac:dyDescent="0.2">
@@ -8349,7 +8349,7 @@
         <v>1</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="261" spans="1:24" x14ac:dyDescent="0.2">
@@ -8363,7 +8363,7 @@
         <v>1</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="262" spans="1:24" x14ac:dyDescent="0.2">
@@ -8377,31 +8377,31 @@
         <v>1</v>
       </c>
       <c r="D262" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E262" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F262" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G262" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="H262" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="I262" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="J262" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="K262" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="E262" s="5" t="s">
+      <c r="L262" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="F262" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G262" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="H262" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="I262" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="J262" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="K262" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="L262" s="5" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="263" spans="1:24" x14ac:dyDescent="0.2">
@@ -8415,7 +8415,7 @@
         <v>2</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="264" spans="1:24" x14ac:dyDescent="0.2">
@@ -8429,7 +8429,7 @@
         <v>2</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="265" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -8639,7 +8639,7 @@
         <v>1</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="273" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -8905,28 +8905,28 @@
         <v>3</v>
       </c>
       <c r="D282" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E282" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F282" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G282" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H282" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="I282" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="J282" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="K282" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="E282" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="F282" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="G282" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="H282" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="I282" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="J282" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="K282" s="5" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="283" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -9248,7 +9248,7 @@
         <v>1</v>
       </c>
       <c r="D294" s="5" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="295" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -9447,7 +9447,7 @@
         <v>1</v>
       </c>
       <c r="D302" s="5" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="303" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -9881,7 +9881,7 @@
         <v>1</v>
       </c>
       <c r="D318" s="5" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="319" spans="1:24" x14ac:dyDescent="0.2">
@@ -9895,10 +9895,10 @@
         <v>1</v>
       </c>
       <c r="D319" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E319" s="5" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="320" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -10052,7 +10052,7 @@
         <v>1</v>
       </c>
       <c r="D325" s="5" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="326" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -10234,19 +10234,19 @@
         <v>2</v>
       </c>
       <c r="D332" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E332" s="5" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F332" s="5" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G332" s="5" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="H332" s="5" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="333" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -11072,10 +11072,10 @@
         <v>1</v>
       </c>
       <c r="D362" s="5" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E362" s="5" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="363" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -11173,28 +11173,28 @@
         <v>1</v>
       </c>
       <c r="D366" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E366" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F366" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="G366" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="H366" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="I366" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="J366" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="K366" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="E366" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="F366" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="G366" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="H366" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="I366" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="J366" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="K366" s="5" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="367" spans="1:24" x14ac:dyDescent="0.2">
@@ -11208,10 +11208,10 @@
         <v>1</v>
       </c>
       <c r="D367" s="5" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E367" s="5" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="368" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -11365,10 +11365,10 @@
         <v>1</v>
       </c>
       <c r="D373" s="5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E373" s="5" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="374" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -11578,10 +11578,10 @@
         <v>2</v>
       </c>
       <c r="D381" s="5" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="E381" s="5" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="382" spans="1:24" x14ac:dyDescent="0.2">
@@ -11595,13 +11595,13 @@
         <v>1</v>
       </c>
       <c r="D382" s="5" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E382" s="5" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="F382" s="5" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="383" spans="1:24" x14ac:dyDescent="0.2">
@@ -11615,10 +11615,10 @@
         <v>1</v>
       </c>
       <c r="D383" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="384" spans="1:24" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="384" spans="1:24" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="17">
         <v>45566</v>
       </c>
@@ -11629,100 +11629,133 @@
         <v>3</v>
       </c>
       <c r="D384" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E384" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="F384" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="G384" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="H384" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="I384" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="J384" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="K384" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="E384" s="5" t="s">
+      <c r="L384" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="F384" s="5" t="s">
+      <c r="M384" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="G384" s="5" t="s">
+      <c r="N384" s="5" t="s">
         <v>262</v>
+      </c>
+      <c r="O384" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="P384" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q384" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="R384" s="5" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="385" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A385" s="17">
-        <v>45566</v>
+        <v>45567</v>
       </c>
       <c r="B385" s="10" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C385" s="7">
         <v>2</v>
       </c>
       <c r="D385" s="5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E385" s="5" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F385" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G385" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="H385" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="386" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A386" s="17">
-        <v>45566</v>
-      </c>
-      <c r="B386" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C386" s="7">
-        <v>3</v>
-      </c>
-      <c r="D386" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="E386" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="F386" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G386" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="H386" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="I386" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="J386" s="5"/>
-    </row>
-    <row r="387" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A387" s="17">
-        <v>45567</v>
-      </c>
-      <c r="B387" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C387" s="7">
-        <v>2</v>
-      </c>
-      <c r="D387" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E387" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="F387" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="G387" s="5" t="s">
-        <v>277</v>
-      </c>
+    </row>
+    <row r="386" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A386" s="16">
+        <v>45568</v>
+      </c>
+      <c r="B386" s="8"/>
+      <c r="C386" s="6"/>
+      <c r="D386" s="3"/>
+      <c r="E386" s="3"/>
+      <c r="F386" s="3"/>
+      <c r="G386" s="3"/>
+      <c r="H386" s="3"/>
+      <c r="I386" s="3"/>
+      <c r="J386" s="3"/>
+      <c r="K386" s="3"/>
+      <c r="L386" s="3"/>
+      <c r="M386" s="3"/>
+      <c r="N386" s="3"/>
+      <c r="O386" s="3"/>
+      <c r="P386" s="3"/>
+      <c r="Q386" s="3"/>
+      <c r="R386" s="3"/>
+      <c r="S386" s="3"/>
+      <c r="T386" s="3"/>
+      <c r="U386" s="3"/>
+      <c r="V386" s="3"/>
+      <c r="W386" s="3"/>
+      <c r="X386" s="3"/>
+    </row>
+    <row r="387" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="16">
+        <v>45569</v>
+      </c>
+      <c r="B387" s="8"/>
+      <c r="C387" s="6"/>
+      <c r="D387" s="3"/>
+      <c r="E387" s="3"/>
+      <c r="F387" s="3"/>
+      <c r="G387" s="3"/>
+      <c r="H387" s="3"/>
+      <c r="I387" s="3"/>
+      <c r="J387" s="3"/>
+      <c r="K387" s="3"/>
+      <c r="L387" s="3"/>
+      <c r="M387" s="3"/>
+      <c r="N387" s="3"/>
+      <c r="O387" s="3"/>
+      <c r="P387" s="3"/>
+      <c r="Q387" s="3"/>
+      <c r="R387" s="3"/>
+      <c r="S387" s="3"/>
+      <c r="T387" s="3"/>
+      <c r="U387" s="3"/>
+      <c r="V387" s="3"/>
+      <c r="W387" s="3"/>
+      <c r="X387" s="3"/>
     </row>
     <row r="388" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A388" s="16">
-        <v>45568</v>
+        <v>45570</v>
       </c>
       <c r="B388" s="8"/>
       <c r="C388" s="6"/>
@@ -11750,7 +11783,7 @@
     </row>
     <row r="389" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389" s="16">
-        <v>45569</v>
+        <v>45571</v>
       </c>
       <c r="B389" s="8"/>
       <c r="C389" s="6"/>
@@ -11778,7 +11811,7 @@
     </row>
     <row r="390" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A390" s="16">
-        <v>45570</v>
+        <v>45572</v>
       </c>
       <c r="B390" s="8"/>
       <c r="C390" s="6"/>
@@ -11804,74 +11837,18 @@
       <c r="W390" s="3"/>
       <c r="X390" s="3"/>
     </row>
-    <row r="391" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A391" s="16">
-        <v>45571</v>
-      </c>
-      <c r="B391" s="8"/>
-      <c r="C391" s="6"/>
-      <c r="D391" s="3"/>
-      <c r="E391" s="3"/>
-      <c r="F391" s="3"/>
-      <c r="G391" s="3"/>
-      <c r="H391" s="3"/>
-      <c r="I391" s="3"/>
-      <c r="J391" s="3"/>
-      <c r="K391" s="3"/>
-      <c r="L391" s="3"/>
-      <c r="M391" s="3"/>
-      <c r="N391" s="3"/>
-      <c r="O391" s="3"/>
-      <c r="P391" s="3"/>
-      <c r="Q391" s="3"/>
-      <c r="R391" s="3"/>
-      <c r="S391" s="3"/>
-      <c r="T391" s="3"/>
-      <c r="U391" s="3"/>
-      <c r="V391" s="3"/>
-      <c r="W391" s="3"/>
-      <c r="X391" s="3"/>
-    </row>
-    <row r="392" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+        <v>45573</v>
+      </c>
+    </row>
+    <row r="392" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A392" s="16">
-        <v>45572</v>
-      </c>
-      <c r="B392" s="8"/>
-      <c r="C392" s="6"/>
-      <c r="D392" s="3"/>
-      <c r="E392" s="3"/>
-      <c r="F392" s="3"/>
-      <c r="G392" s="3"/>
-      <c r="H392" s="3"/>
-      <c r="I392" s="3"/>
-      <c r="J392" s="3"/>
-      <c r="K392" s="3"/>
-      <c r="L392" s="3"/>
-      <c r="M392" s="3"/>
-      <c r="N392" s="3"/>
-      <c r="O392" s="3"/>
-      <c r="P392" s="3"/>
-      <c r="Q392" s="3"/>
-      <c r="R392" s="3"/>
-      <c r="S392" s="3"/>
-      <c r="T392" s="3"/>
-      <c r="U392" s="3"/>
-      <c r="V392" s="3"/>
-      <c r="W392" s="3"/>
-      <c r="X392" s="3"/>
+        <v>45574</v>
+      </c>
     </row>
     <row r="393" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A393" s="16">
-        <v>45573</v>
-      </c>
-    </row>
-    <row r="394" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A394" s="16">
-        <v>45574</v>
-      </c>
-    </row>
-    <row r="395" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A395" s="16">
         <v>45575</v>
       </c>
     </row>
@@ -11984,156 +11961,151 @@
     <hyperlink ref="V70" r:id="rId99" xr:uid="{551E7886-6F83-46E0-8944-52C273086E64}"/>
     <hyperlink ref="W70" r:id="rId100" xr:uid="{83835B58-B336-42F1-AC36-961A9BAA832E}"/>
     <hyperlink ref="Y70" r:id="rId101" display="20231127\20231127_Dhaira1\20231127_Maria Cosette_Dhaira_location2_IMG_0259.MOV" xr:uid="{B282D23C-EF02-4FF6-B426-BE072A7E5B8C}"/>
-    <hyperlink ref="Z70" r:id="rId102" xr:uid="{DB2CA9DD-BE2F-4414-A022-B732C0D34B24}"/>
-    <hyperlink ref="AA70" r:id="rId103" xr:uid="{B3F7C7FD-B8B5-494B-909E-8D4803198C07}"/>
-    <hyperlink ref="AB70" r:id="rId104" xr:uid="{E9352CE3-8505-4877-BA90-6E2FBAF65A70}"/>
-    <hyperlink ref="AC70" r:id="rId105" xr:uid="{10AB752E-9EB0-410E-99AD-64B1BAD53AAF}"/>
-    <hyperlink ref="AD70" r:id="rId106" xr:uid="{ECE97B0C-97A1-4E4C-AF06-CA196E25E321}"/>
-    <hyperlink ref="AE70" r:id="rId107" xr:uid="{02C8920A-4253-4494-988D-FF4B4E3545A8}"/>
-    <hyperlink ref="AF70" r:id="rId108" xr:uid="{CE7444CC-D3E2-431E-8B1B-3EF111DE7492}"/>
-    <hyperlink ref="D75" r:id="rId109" xr:uid="{344751B6-F05B-4009-95E0-CB898ADEB159}"/>
-    <hyperlink ref="E75" r:id="rId110" xr:uid="{527EF238-2A21-4DF2-89F8-38245C4F5BFA}"/>
-    <hyperlink ref="G75" r:id="rId111" xr:uid="{6D9FE7A8-3381-492D-8E7E-D0C5F8A703B7}"/>
-    <hyperlink ref="F75" r:id="rId112" xr:uid="{005F1371-3B04-4D06-BD35-F146D983F3CB}"/>
-    <hyperlink ref="E80" r:id="rId113" xr:uid="{7F29DEDF-E761-41CE-9903-99B5C7B903F5}"/>
-    <hyperlink ref="F80" r:id="rId114" xr:uid="{D7DC41C7-0CCC-4D2B-BF60-17A47162286B}"/>
-    <hyperlink ref="G80" r:id="rId115" xr:uid="{A7A2459A-1BD2-4126-826F-0649AA54B2B4}"/>
-    <hyperlink ref="H80" r:id="rId116" xr:uid="{B595072B-8DE4-42D5-AF71-E9E8B4CBD574}"/>
-    <hyperlink ref="I80" r:id="rId117" xr:uid="{6FCBEE3F-E64D-419D-B5BF-44B6368EB184}"/>
-    <hyperlink ref="J80" r:id="rId118" xr:uid="{D1FC6885-5690-4525-8A88-53518444F874}"/>
-    <hyperlink ref="K80" r:id="rId119" xr:uid="{5E7B13B8-6DBD-4BB6-ABE3-61465AEC4364}"/>
-    <hyperlink ref="D81" r:id="rId120" xr:uid="{511D87CC-D70F-41F8-A14A-30074F90CD50}"/>
-    <hyperlink ref="D82" r:id="rId121" xr:uid="{B09C1376-C013-4BA0-A8DD-628D62DD96AD}"/>
-    <hyperlink ref="D94" r:id="rId122" xr:uid="{F841E600-2066-4194-BD3B-7CD5FB386FE9}"/>
-    <hyperlink ref="E94" r:id="rId123" xr:uid="{2BAB6CC8-57B5-4B48-A87C-32635B0DF071}"/>
-    <hyperlink ref="D117" r:id="rId124" xr:uid="{05F85689-819A-4A74-95A9-61FD149B28C5}"/>
-    <hyperlink ref="E117" r:id="rId125" xr:uid="{12CB9FBB-A852-44F7-A203-CB9FE588C36B}"/>
-    <hyperlink ref="F117" r:id="rId126" xr:uid="{DA8129E8-AF9A-42E6-8881-ED8B394499F5}"/>
-    <hyperlink ref="G117" r:id="rId127" xr:uid="{BD036F21-B023-4009-813E-218A89A18C91}"/>
-    <hyperlink ref="D119" r:id="rId128" xr:uid="{900CB1FA-EFAD-4AB6-9FFF-2353AF048876}"/>
-    <hyperlink ref="D121" r:id="rId129" xr:uid="{E4F6B677-6073-4196-99C1-E99D35A90627}"/>
-    <hyperlink ref="E121" r:id="rId130" xr:uid="{14B152DA-4572-4411-BF6D-F12E7606615C}"/>
-    <hyperlink ref="D122" r:id="rId131" xr:uid="{BCC2F946-78D9-4659-923C-A6694B694855}"/>
-    <hyperlink ref="D124" r:id="rId132" xr:uid="{5DBC946C-0AFC-4E25-B2F8-CED8E25981ED}"/>
-    <hyperlink ref="E124" r:id="rId133" xr:uid="{625D7D74-28C1-4E5E-BD2A-6D2F61A8FC65}"/>
-    <hyperlink ref="D134" r:id="rId134" xr:uid="{1728EE38-2DF9-42CA-A5B1-A0E0C62751B0}"/>
-    <hyperlink ref="E134" r:id="rId135" xr:uid="{ED84C99B-9F9A-463E-95C2-927EEF5F4D13}"/>
-    <hyperlink ref="D135" r:id="rId136" xr:uid="{F447741B-7B9C-4FB3-A154-0E6BC98C5A8B}"/>
-    <hyperlink ref="D136" r:id="rId137" xr:uid="{1E58336F-5ACA-4CE1-A813-7744EAEF2457}"/>
-    <hyperlink ref="D166" r:id="rId138" xr:uid="{4D617FEC-31E7-43EC-80F1-B7B172AF456C}"/>
-    <hyperlink ref="E166" r:id="rId139" xr:uid="{4146683C-63BC-495F-B573-48F36EA57860}"/>
-    <hyperlink ref="D167" r:id="rId140" xr:uid="{71537D31-F168-464D-A79C-963E01B6DB0B}"/>
-    <hyperlink ref="E167" r:id="rId141" xr:uid="{DA03138A-A3C7-4EE3-ABD2-2CCEF85C2B33}"/>
-    <hyperlink ref="F167" r:id="rId142" xr:uid="{AF86B621-C3FB-4FD3-A9DA-FDFE19B92C03}"/>
-    <hyperlink ref="G167" r:id="rId143" xr:uid="{DB7404A4-FE8D-4B3F-9D58-6F85710783B8}"/>
-    <hyperlink ref="H167" r:id="rId144" xr:uid="{ACA995FC-1566-4E82-A94C-127401AE7BD9}"/>
-    <hyperlink ref="I167" r:id="rId145" xr:uid="{147666A0-2325-4DFE-8CFE-BBDFF6396348}"/>
-    <hyperlink ref="D168" r:id="rId146" xr:uid="{2709DD58-6608-43D7-A54D-D1641255ABC5}"/>
-    <hyperlink ref="E168" r:id="rId147" xr:uid="{2AAFDA22-3C89-46B2-A880-3E124BC14E59}"/>
-    <hyperlink ref="D169" r:id="rId148" xr:uid="{B86F5395-62A8-49E1-AD1F-EEFD763DA1B7}"/>
-    <hyperlink ref="D182" r:id="rId149" xr:uid="{72C79066-5B6E-4CE7-BACE-F1737DDA59CB}"/>
-    <hyperlink ref="D199" r:id="rId150" xr:uid="{911E8819-9B83-440C-A52F-A721E540DF80}"/>
-    <hyperlink ref="E199" r:id="rId151" xr:uid="{46F6EC9E-3D03-4FCC-B8F0-2CA7D3BC8E71}"/>
-    <hyperlink ref="F199" r:id="rId152" xr:uid="{743827E6-6FA5-4DA6-A380-0B8A6F8028F6}"/>
-    <hyperlink ref="G199" r:id="rId153" xr:uid="{0384AE93-C7CE-4B08-AD00-BD75D9657F13}"/>
-    <hyperlink ref="H199" r:id="rId154" xr:uid="{E8423CCC-96E2-40EB-B16F-9232402B57AE}"/>
-    <hyperlink ref="I199" r:id="rId155" xr:uid="{510DEB5D-9F36-4114-9BF6-096B317CE2AC}"/>
-    <hyperlink ref="D213" r:id="rId156" xr:uid="{22EAB6CF-2591-4AA6-859C-8AFE24E0FEA8}"/>
-    <hyperlink ref="E213" r:id="rId157" xr:uid="{5C69A82B-EBDA-4E1D-AC2F-53899E14F85B}"/>
-    <hyperlink ref="G213" r:id="rId158" xr:uid="{5DE9FFF6-55FD-4FBB-9165-1FE07732B157}"/>
-    <hyperlink ref="H213" r:id="rId159" xr:uid="{95CFEB41-C529-4A99-8C8C-9B6F1FD94AAA}"/>
-    <hyperlink ref="F213" r:id="rId160" xr:uid="{8AC21ADD-1DA9-4413-A0DA-37F36DBA5C94}"/>
-    <hyperlink ref="D221" r:id="rId161" xr:uid="{7944199D-9665-4DBB-9E3D-5ED823260F59}"/>
-    <hyperlink ref="E221" r:id="rId162" xr:uid="{9F9CDCB4-B37A-46AE-9CF3-823DAFCED279}"/>
-    <hyperlink ref="D234" r:id="rId163" xr:uid="{9B59D698-5FBE-4383-A17D-61A2F3975C48}"/>
-    <hyperlink ref="E234" r:id="rId164" xr:uid="{B522C5C1-368C-4F17-80FD-2D2FA384EC83}"/>
-    <hyperlink ref="F234" r:id="rId165" xr:uid="{F276E04B-4B82-4FBF-862E-203B03943397}"/>
-    <hyperlink ref="G234" r:id="rId166" xr:uid="{F6829AE6-1EFD-4DA8-81BD-6239979CD87A}"/>
-    <hyperlink ref="H234" r:id="rId167" xr:uid="{8E0056EA-F973-4C64-90C5-48047729F807}"/>
-    <hyperlink ref="D239" r:id="rId168" xr:uid="{BB4B0A54-EA34-48A1-81EC-83CA27033611}"/>
-    <hyperlink ref="E239" r:id="rId169" xr:uid="{6F79A2AB-E2A6-4ABB-9D61-317621757C05}"/>
-    <hyperlink ref="F239" r:id="rId170" xr:uid="{13304604-9C7F-4108-A2DB-0C073DD6F816}"/>
-    <hyperlink ref="G239" r:id="rId171" xr:uid="{B3134AC8-8FC9-4C20-A543-31D77BDCDFA5}"/>
-    <hyperlink ref="D247" r:id="rId172" xr:uid="{B0B75C0A-DE10-48B7-91A4-39C9B49F1190}"/>
-    <hyperlink ref="D259" r:id="rId173" xr:uid="{8A3EDDF6-53C6-45B7-BC9A-EFB77A0C6405}"/>
-    <hyperlink ref="D260" r:id="rId174" xr:uid="{7EBF8210-1C5C-475A-9EE7-23C46ED89C8B}"/>
-    <hyperlink ref="D261" r:id="rId175" xr:uid="{ED130BCB-75ED-439B-8801-7052A4A8644E}"/>
-    <hyperlink ref="D262" r:id="rId176" xr:uid="{349A15DC-EC7B-435F-8D8F-ED27A30327E2}"/>
-    <hyperlink ref="E262" r:id="rId177" xr:uid="{5CC81365-8CB1-4F4B-A7D8-44DCBA999310}"/>
-    <hyperlink ref="F262" r:id="rId178" xr:uid="{4F407D3E-2072-466D-BE81-5BEBEFBD46E4}"/>
-    <hyperlink ref="G262" r:id="rId179" xr:uid="{8C3FB8F0-4C96-4D39-9CEF-2D65F3D19C9B}"/>
-    <hyperlink ref="H262" r:id="rId180" xr:uid="{ECEBF426-3489-4245-A230-B1F3362215FB}"/>
-    <hyperlink ref="I262" r:id="rId181" xr:uid="{AD485175-2FF3-4005-AB97-E839ED91E8BD}"/>
-    <hyperlink ref="J262" r:id="rId182" xr:uid="{16E19AE0-A50A-4038-A2AB-AC86B1D5529A}"/>
-    <hyperlink ref="K262" r:id="rId183" xr:uid="{6D981592-6410-42D7-AA59-35BFAD0702AA}"/>
-    <hyperlink ref="L262" r:id="rId184" xr:uid="{9EAEC803-21CE-46CA-A8AA-B88F8BAF2A0B}"/>
-    <hyperlink ref="D263" r:id="rId185" xr:uid="{7732C70A-7F0E-48B9-A85E-E3A4EF7E3DBF}"/>
-    <hyperlink ref="D264" r:id="rId186" xr:uid="{8BFFCD31-BE20-4197-91F8-9818BA8BF4AE}"/>
-    <hyperlink ref="D272" r:id="rId187" xr:uid="{3D79C244-5F51-47DB-8DCF-8B14BE504C64}"/>
-    <hyperlink ref="D282" r:id="rId188" xr:uid="{D24407FF-13EC-4F35-8B38-4389246EB75D}"/>
-    <hyperlink ref="E282" r:id="rId189" xr:uid="{1B1D4A32-74D6-4B1A-8DD6-DD01C908B0E8}"/>
-    <hyperlink ref="F282" r:id="rId190" xr:uid="{87F6A76D-0ADD-4040-9A1F-1A367B575759}"/>
-    <hyperlink ref="G282" r:id="rId191" xr:uid="{044F46CE-6671-4F34-96C5-B69C16EA3E39}"/>
-    <hyperlink ref="H282" r:id="rId192" xr:uid="{4B4A7088-672A-4B43-A9BC-836E1ABD2AAE}"/>
-    <hyperlink ref="I282" r:id="rId193" xr:uid="{2C193EA9-29D1-4714-AB5A-C2777C7DA307}"/>
-    <hyperlink ref="J282" r:id="rId194" xr:uid="{800CF499-2C4F-4CD9-A3B6-739231958233}"/>
-    <hyperlink ref="K282" r:id="rId195" xr:uid="{E621632C-2D4B-4FB7-8A33-C147C971F519}"/>
-    <hyperlink ref="D294" r:id="rId196" xr:uid="{C07F1FE5-7D9A-4480-8193-87BB4384EDD5}"/>
-    <hyperlink ref="E301" r:id="rId197" xr:uid="{5987DCDE-C0D1-4BCC-B9F9-DBEA33D757B9}"/>
-    <hyperlink ref="D301" r:id="rId198" xr:uid="{8DF4BE91-1068-41B9-92FD-E242163D972D}"/>
-    <hyperlink ref="D302" r:id="rId199" xr:uid="{4728DC73-AD53-40CF-8C18-3D028ACD6C5C}"/>
-    <hyperlink ref="D318" r:id="rId200" xr:uid="{BFF419A3-B55B-4B4F-8276-C525791843CE}"/>
-    <hyperlink ref="D319" r:id="rId201" xr:uid="{DB200AA8-7D47-4726-BAF8-F6B5C743EE7E}"/>
-    <hyperlink ref="E319" r:id="rId202" xr:uid="{C80772A0-8A18-4052-866F-DFA6A12E4B99}"/>
-    <hyperlink ref="D325" r:id="rId203" xr:uid="{396EB1BE-791F-402C-A419-E07362BA60FC}"/>
-    <hyperlink ref="D332" r:id="rId204" xr:uid="{963E803C-F09B-4282-BA5C-168C9FA65036}"/>
-    <hyperlink ref="E332" r:id="rId205" xr:uid="{5E758D1B-3D6F-4BA6-8788-9B91A3B34088}"/>
-    <hyperlink ref="F332" r:id="rId206" xr:uid="{89C71FE4-4C36-4DF6-B50B-AD0A8E33E3E7}"/>
-    <hyperlink ref="G332" r:id="rId207" xr:uid="{F2198727-77A5-4A9D-B369-DB395C6CD098}"/>
-    <hyperlink ref="H332" r:id="rId208" xr:uid="{EFC425E2-D800-4A3D-9F83-04C528904387}"/>
-    <hyperlink ref="D362" r:id="rId209" xr:uid="{500078E0-7A47-444B-BF4C-06502CA18684}"/>
-    <hyperlink ref="E362" r:id="rId210" xr:uid="{6A72D9F5-81C4-4464-9CCE-0AED0FF6E80A}"/>
-    <hyperlink ref="D366" r:id="rId211" xr:uid="{DD8B1EBC-D47B-49C9-A8B4-F279AE2D92D5}"/>
-    <hyperlink ref="E366" r:id="rId212" xr:uid="{67EFF7BB-5C5B-47F4-AB4C-4BD6C4EB4941}"/>
-    <hyperlink ref="F366" r:id="rId213" xr:uid="{785D9193-8260-40D9-AA0A-A6ECAF1A808C}"/>
-    <hyperlink ref="G366" r:id="rId214" xr:uid="{14C9681D-4874-48B5-B25E-7E1AC14663B5}"/>
-    <hyperlink ref="H366" r:id="rId215" xr:uid="{12319D18-C183-467A-B89E-6E16433E20FF}"/>
-    <hyperlink ref="I366" r:id="rId216" xr:uid="{41254C20-C32F-4870-A4BF-0E2B698951EC}"/>
-    <hyperlink ref="J366" r:id="rId217" xr:uid="{0BACDEB3-06F5-4839-BA63-AF092671B6BC}"/>
-    <hyperlink ref="K366" r:id="rId218" xr:uid="{C91D41C4-F740-4ECE-B7D5-BDC7D31AC3DD}"/>
-    <hyperlink ref="D367" r:id="rId219" xr:uid="{B5EE64D8-4834-469C-ACBA-4D3A993910AC}"/>
-    <hyperlink ref="E367" r:id="rId220" xr:uid="{711EE95E-62E1-44FF-B968-C30F8229D18E}"/>
-    <hyperlink ref="D373" r:id="rId221" xr:uid="{20AA1588-1AD6-49A3-A26C-344DC8341E2C}"/>
-    <hyperlink ref="E373" r:id="rId222" xr:uid="{A5047222-3232-4F45-A1B0-447782D01EB8}"/>
-    <hyperlink ref="D381" r:id="rId223" xr:uid="{0A1417A7-EBA8-4641-9DC2-9C89A113558F}"/>
-    <hyperlink ref="E381" r:id="rId224" xr:uid="{542E56F6-05AE-4D44-8346-C3F3FC39FBB7}"/>
-    <hyperlink ref="D382" r:id="rId225" xr:uid="{47311264-ABB2-41C4-81B8-F9669327F3D6}"/>
-    <hyperlink ref="E382" r:id="rId226" xr:uid="{352A143E-5660-41A9-94E4-7162D82364D8}"/>
-    <hyperlink ref="F382" r:id="rId227" xr:uid="{1B497C03-0939-4720-9952-F58E194262E6}"/>
-    <hyperlink ref="D383" r:id="rId228" xr:uid="{A50A9CA3-B5F3-4948-A0FD-FCD6DE7376B6}"/>
-    <hyperlink ref="D384" r:id="rId229" xr:uid="{20DAAD2A-51FC-46A9-9D3B-CBBAD5456DF7}"/>
-    <hyperlink ref="E384" r:id="rId230" xr:uid="{9397DF03-4275-4963-A37A-21DD2CEAA03C}"/>
-    <hyperlink ref="F384" r:id="rId231" xr:uid="{CD02FEFA-3EF1-4749-B483-6D1523A103CC}"/>
-    <hyperlink ref="G384" r:id="rId232" xr:uid="{3EF974CC-D30B-4FAC-B645-F438FCDBA660}"/>
-    <hyperlink ref="D385" r:id="rId233" xr:uid="{325E095B-4C8E-4BDC-AAEC-2423078C5B12}"/>
-    <hyperlink ref="E385" r:id="rId234" xr:uid="{05070ECF-47B5-4EE7-A505-331DD170BA7A}"/>
-    <hyperlink ref="F385" r:id="rId235" xr:uid="{EEE48E95-878B-4B65-97C0-86E70EF45156}"/>
-    <hyperlink ref="G385" r:id="rId236" xr:uid="{52FA2EC9-C622-41E1-8115-99227031E76C}"/>
-    <hyperlink ref="H385" r:id="rId237" xr:uid="{E4CD4CC6-F0BE-4D83-B53B-961BE5CE6532}"/>
-    <hyperlink ref="D386" r:id="rId238" xr:uid="{3F8AF0FD-8B3D-409C-A76F-1D687AAA6C5F}"/>
-    <hyperlink ref="E386" r:id="rId239" xr:uid="{B976CA90-2546-4869-9A63-1590AB1209AC}"/>
-    <hyperlink ref="F386" r:id="rId240" xr:uid="{A1863009-A1D3-47A6-B03D-551E57070CA4}"/>
-    <hyperlink ref="G386" r:id="rId241" xr:uid="{B557EAF8-F2BF-41F2-BDFA-A9DEF7921CAA}"/>
-    <hyperlink ref="H386" r:id="rId242" xr:uid="{DE1B0EA0-8944-4F28-B4FD-37074DF70AE1}"/>
-    <hyperlink ref="I386" r:id="rId243" xr:uid="{4FE81C3F-0FD5-4C5C-A535-419126836CEE}"/>
-    <hyperlink ref="D387" r:id="rId244" xr:uid="{E82174FD-EC20-447A-BE93-5775E081CE0B}"/>
-    <hyperlink ref="E387" r:id="rId245" xr:uid="{5623BA65-1E02-4CE5-87A4-E4376B58A659}"/>
-    <hyperlink ref="F387" r:id="rId246" xr:uid="{4634900E-8974-4C1A-9B89-5AE384FDC22F}"/>
-    <hyperlink ref="G387" r:id="rId247" xr:uid="{E6FB04BD-7879-4C61-9017-9C2B94F64B4D}"/>
-    <hyperlink ref="D80" r:id="rId248" display="20231207\20231207_Rmaysh1\GreenSoutherners136 _20231207 أطراف رميش فوسفوري.jpeg" xr:uid="{01C6AA7F-59A8-4BEF-B52B-2A6AD22A724B}"/>
-    <hyperlink ref="D79" r:id="rId249" display="20231206\20231206_Meiss El Jabal\GreenSoutherners135 _20231206 ميس الجبل وأطراف حولا فوسفوري.mp4" xr:uid="{F089EE6D-851D-4D2C-AF69-E0C07BD244CB}"/>
+    <hyperlink ref="Z70" r:id="rId102" display="20231127\20231127_Dhaira1\20231127_Maria Cosette_Dhaira_location2_IMG_0152.JPG" xr:uid="{DB2CA9DD-BE2F-4414-A022-B732C0D34B24}"/>
+    <hyperlink ref="AA70" r:id="rId103" display="20231127\20231127_Dhaira1\20231127_Maria Cosette_Dhaira_location2_IMG_0242.JPG" xr:uid="{B3F7C7FD-B8B5-494B-909E-8D4803198C07}"/>
+    <hyperlink ref="D75" r:id="rId104" xr:uid="{344751B6-F05B-4009-95E0-CB898ADEB159}"/>
+    <hyperlink ref="E75" r:id="rId105" xr:uid="{527EF238-2A21-4DF2-89F8-38245C4F5BFA}"/>
+    <hyperlink ref="G75" r:id="rId106" xr:uid="{6D9FE7A8-3381-492D-8E7E-D0C5F8A703B7}"/>
+    <hyperlink ref="F75" r:id="rId107" xr:uid="{005F1371-3B04-4D06-BD35-F146D983F3CB}"/>
+    <hyperlink ref="E80" r:id="rId108" xr:uid="{7F29DEDF-E761-41CE-9903-99B5C7B903F5}"/>
+    <hyperlink ref="F80" r:id="rId109" xr:uid="{D7DC41C7-0CCC-4D2B-BF60-17A47162286B}"/>
+    <hyperlink ref="G80" r:id="rId110" xr:uid="{A7A2459A-1BD2-4126-826F-0649AA54B2B4}"/>
+    <hyperlink ref="H80" r:id="rId111" xr:uid="{B595072B-8DE4-42D5-AF71-E9E8B4CBD574}"/>
+    <hyperlink ref="I80" r:id="rId112" xr:uid="{6FCBEE3F-E64D-419D-B5BF-44B6368EB184}"/>
+    <hyperlink ref="J80" r:id="rId113" xr:uid="{D1FC6885-5690-4525-8A88-53518444F874}"/>
+    <hyperlink ref="K80" r:id="rId114" xr:uid="{5E7B13B8-6DBD-4BB6-ABE3-61465AEC4364}"/>
+    <hyperlink ref="D81" r:id="rId115" xr:uid="{511D87CC-D70F-41F8-A14A-30074F90CD50}"/>
+    <hyperlink ref="D82" r:id="rId116" xr:uid="{B09C1376-C013-4BA0-A8DD-628D62DD96AD}"/>
+    <hyperlink ref="D94" r:id="rId117" xr:uid="{F841E600-2066-4194-BD3B-7CD5FB386FE9}"/>
+    <hyperlink ref="E94" r:id="rId118" xr:uid="{2BAB6CC8-57B5-4B48-A87C-32635B0DF071}"/>
+    <hyperlink ref="D117" r:id="rId119" xr:uid="{05F85689-819A-4A74-95A9-61FD149B28C5}"/>
+    <hyperlink ref="E117" r:id="rId120" xr:uid="{12CB9FBB-A852-44F7-A203-CB9FE588C36B}"/>
+    <hyperlink ref="F117" r:id="rId121" xr:uid="{DA8129E8-AF9A-42E6-8881-ED8B394499F5}"/>
+    <hyperlink ref="G117" r:id="rId122" xr:uid="{BD036F21-B023-4009-813E-218A89A18C91}"/>
+    <hyperlink ref="D119" r:id="rId123" xr:uid="{900CB1FA-EFAD-4AB6-9FFF-2353AF048876}"/>
+    <hyperlink ref="D121" r:id="rId124" xr:uid="{E4F6B677-6073-4196-99C1-E99D35A90627}"/>
+    <hyperlink ref="E121" r:id="rId125" xr:uid="{14B152DA-4572-4411-BF6D-F12E7606615C}"/>
+    <hyperlink ref="D122" r:id="rId126" xr:uid="{BCC2F946-78D9-4659-923C-A6694B694855}"/>
+    <hyperlink ref="D124" r:id="rId127" xr:uid="{5DBC946C-0AFC-4E25-B2F8-CED8E25981ED}"/>
+    <hyperlink ref="E124" r:id="rId128" xr:uid="{625D7D74-28C1-4E5E-BD2A-6D2F61A8FC65}"/>
+    <hyperlink ref="D134" r:id="rId129" xr:uid="{1728EE38-2DF9-42CA-A5B1-A0E0C62751B0}"/>
+    <hyperlink ref="E134" r:id="rId130" xr:uid="{ED84C99B-9F9A-463E-95C2-927EEF5F4D13}"/>
+    <hyperlink ref="D135" r:id="rId131" xr:uid="{F447741B-7B9C-4FB3-A154-0E6BC98C5A8B}"/>
+    <hyperlink ref="D136" r:id="rId132" xr:uid="{1E58336F-5ACA-4CE1-A813-7744EAEF2457}"/>
+    <hyperlink ref="D166" r:id="rId133" xr:uid="{4D617FEC-31E7-43EC-80F1-B7B172AF456C}"/>
+    <hyperlink ref="E166" r:id="rId134" xr:uid="{4146683C-63BC-495F-B573-48F36EA57860}"/>
+    <hyperlink ref="D167" r:id="rId135" xr:uid="{71537D31-F168-464D-A79C-963E01B6DB0B}"/>
+    <hyperlink ref="E167" r:id="rId136" xr:uid="{DA03138A-A3C7-4EE3-ABD2-2CCEF85C2B33}"/>
+    <hyperlink ref="F167" r:id="rId137" xr:uid="{AF86B621-C3FB-4FD3-A9DA-FDFE19B92C03}"/>
+    <hyperlink ref="G167" r:id="rId138" xr:uid="{DB7404A4-FE8D-4B3F-9D58-6F85710783B8}"/>
+    <hyperlink ref="H167" r:id="rId139" xr:uid="{ACA995FC-1566-4E82-A94C-127401AE7BD9}"/>
+    <hyperlink ref="I167" r:id="rId140" xr:uid="{147666A0-2325-4DFE-8CFE-BBDFF6396348}"/>
+    <hyperlink ref="D168" r:id="rId141" xr:uid="{2709DD58-6608-43D7-A54D-D1641255ABC5}"/>
+    <hyperlink ref="E168" r:id="rId142" xr:uid="{2AAFDA22-3C89-46B2-A880-3E124BC14E59}"/>
+    <hyperlink ref="D169" r:id="rId143" xr:uid="{B86F5395-62A8-49E1-AD1F-EEFD763DA1B7}"/>
+    <hyperlink ref="D182" r:id="rId144" xr:uid="{72C79066-5B6E-4CE7-BACE-F1737DDA59CB}"/>
+    <hyperlink ref="D199" r:id="rId145" xr:uid="{911E8819-9B83-440C-A52F-A721E540DF80}"/>
+    <hyperlink ref="E199" r:id="rId146" xr:uid="{46F6EC9E-3D03-4FCC-B8F0-2CA7D3BC8E71}"/>
+    <hyperlink ref="F199" r:id="rId147" xr:uid="{743827E6-6FA5-4DA6-A380-0B8A6F8028F6}"/>
+    <hyperlink ref="G199" r:id="rId148" xr:uid="{0384AE93-C7CE-4B08-AD00-BD75D9657F13}"/>
+    <hyperlink ref="H199" r:id="rId149" xr:uid="{E8423CCC-96E2-40EB-B16F-9232402B57AE}"/>
+    <hyperlink ref="I199" r:id="rId150" xr:uid="{510DEB5D-9F36-4114-9BF6-096B317CE2AC}"/>
+    <hyperlink ref="D213" r:id="rId151" xr:uid="{22EAB6CF-2591-4AA6-859C-8AFE24E0FEA8}"/>
+    <hyperlink ref="E213" r:id="rId152" xr:uid="{5C69A82B-EBDA-4E1D-AC2F-53899E14F85B}"/>
+    <hyperlink ref="G213" r:id="rId153" xr:uid="{5DE9FFF6-55FD-4FBB-9165-1FE07732B157}"/>
+    <hyperlink ref="H213" r:id="rId154" xr:uid="{95CFEB41-C529-4A99-8C8C-9B6F1FD94AAA}"/>
+    <hyperlink ref="F213" r:id="rId155" xr:uid="{8AC21ADD-1DA9-4413-A0DA-37F36DBA5C94}"/>
+    <hyperlink ref="D221" r:id="rId156" xr:uid="{7944199D-9665-4DBB-9E3D-5ED823260F59}"/>
+    <hyperlink ref="E221" r:id="rId157" xr:uid="{9F9CDCB4-B37A-46AE-9CF3-823DAFCED279}"/>
+    <hyperlink ref="D234" r:id="rId158" xr:uid="{9B59D698-5FBE-4383-A17D-61A2F3975C48}"/>
+    <hyperlink ref="E234" r:id="rId159" xr:uid="{B522C5C1-368C-4F17-80FD-2D2FA384EC83}"/>
+    <hyperlink ref="F234" r:id="rId160" xr:uid="{F276E04B-4B82-4FBF-862E-203B03943397}"/>
+    <hyperlink ref="G234" r:id="rId161" xr:uid="{F6829AE6-1EFD-4DA8-81BD-6239979CD87A}"/>
+    <hyperlink ref="H234" r:id="rId162" xr:uid="{8E0056EA-F973-4C64-90C5-48047729F807}"/>
+    <hyperlink ref="D239" r:id="rId163" xr:uid="{BB4B0A54-EA34-48A1-81EC-83CA27033611}"/>
+    <hyperlink ref="E239" r:id="rId164" xr:uid="{6F79A2AB-E2A6-4ABB-9D61-317621757C05}"/>
+    <hyperlink ref="F239" r:id="rId165" xr:uid="{13304604-9C7F-4108-A2DB-0C073DD6F816}"/>
+    <hyperlink ref="G239" r:id="rId166" xr:uid="{B3134AC8-8FC9-4C20-A543-31D77BDCDFA5}"/>
+    <hyperlink ref="D247" r:id="rId167" xr:uid="{B0B75C0A-DE10-48B7-91A4-39C9B49F1190}"/>
+    <hyperlink ref="D259" r:id="rId168" xr:uid="{8A3EDDF6-53C6-45B7-BC9A-EFB77A0C6405}"/>
+    <hyperlink ref="D260" r:id="rId169" xr:uid="{7EBF8210-1C5C-475A-9EE7-23C46ED89C8B}"/>
+    <hyperlink ref="D261" r:id="rId170" xr:uid="{ED130BCB-75ED-439B-8801-7052A4A8644E}"/>
+    <hyperlink ref="D262" r:id="rId171" xr:uid="{349A15DC-EC7B-435F-8D8F-ED27A30327E2}"/>
+    <hyperlink ref="E262" r:id="rId172" xr:uid="{5CC81365-8CB1-4F4B-A7D8-44DCBA999310}"/>
+    <hyperlink ref="F262" r:id="rId173" xr:uid="{4F407D3E-2072-466D-BE81-5BEBEFBD46E4}"/>
+    <hyperlink ref="G262" r:id="rId174" xr:uid="{8C3FB8F0-4C96-4D39-9CEF-2D65F3D19C9B}"/>
+    <hyperlink ref="H262" r:id="rId175" xr:uid="{ECEBF426-3489-4245-A230-B1F3362215FB}"/>
+    <hyperlink ref="I262" r:id="rId176" xr:uid="{AD485175-2FF3-4005-AB97-E839ED91E8BD}"/>
+    <hyperlink ref="J262" r:id="rId177" xr:uid="{16E19AE0-A50A-4038-A2AB-AC86B1D5529A}"/>
+    <hyperlink ref="K262" r:id="rId178" xr:uid="{6D981592-6410-42D7-AA59-35BFAD0702AA}"/>
+    <hyperlink ref="L262" r:id="rId179" xr:uid="{9EAEC803-21CE-46CA-A8AA-B88F8BAF2A0B}"/>
+    <hyperlink ref="D263" r:id="rId180" xr:uid="{7732C70A-7F0E-48B9-A85E-E3A4EF7E3DBF}"/>
+    <hyperlink ref="D264" r:id="rId181" xr:uid="{8BFFCD31-BE20-4197-91F8-9818BA8BF4AE}"/>
+    <hyperlink ref="D272" r:id="rId182" xr:uid="{3D79C244-5F51-47DB-8DCF-8B14BE504C64}"/>
+    <hyperlink ref="D282" r:id="rId183" xr:uid="{D24407FF-13EC-4F35-8B38-4389246EB75D}"/>
+    <hyperlink ref="E282" r:id="rId184" xr:uid="{1B1D4A32-74D6-4B1A-8DD6-DD01C908B0E8}"/>
+    <hyperlink ref="F282" r:id="rId185" xr:uid="{87F6A76D-0ADD-4040-9A1F-1A367B575759}"/>
+    <hyperlink ref="G282" r:id="rId186" xr:uid="{044F46CE-6671-4F34-96C5-B69C16EA3E39}"/>
+    <hyperlink ref="H282" r:id="rId187" xr:uid="{4B4A7088-672A-4B43-A9BC-836E1ABD2AAE}"/>
+    <hyperlink ref="I282" r:id="rId188" xr:uid="{2C193EA9-29D1-4714-AB5A-C2777C7DA307}"/>
+    <hyperlink ref="J282" r:id="rId189" xr:uid="{800CF499-2C4F-4CD9-A3B6-739231958233}"/>
+    <hyperlink ref="K282" r:id="rId190" xr:uid="{E621632C-2D4B-4FB7-8A33-C147C971F519}"/>
+    <hyperlink ref="D294" r:id="rId191" xr:uid="{C07F1FE5-7D9A-4480-8193-87BB4384EDD5}"/>
+    <hyperlink ref="E301" r:id="rId192" xr:uid="{5987DCDE-C0D1-4BCC-B9F9-DBEA33D757B9}"/>
+    <hyperlink ref="D301" r:id="rId193" xr:uid="{8DF4BE91-1068-41B9-92FD-E242163D972D}"/>
+    <hyperlink ref="D302" r:id="rId194" xr:uid="{4728DC73-AD53-40CF-8C18-3D028ACD6C5C}"/>
+    <hyperlink ref="D318" r:id="rId195" xr:uid="{BFF419A3-B55B-4B4F-8276-C525791843CE}"/>
+    <hyperlink ref="D319" r:id="rId196" xr:uid="{DB200AA8-7D47-4726-BAF8-F6B5C743EE7E}"/>
+    <hyperlink ref="E319" r:id="rId197" xr:uid="{C80772A0-8A18-4052-866F-DFA6A12E4B99}"/>
+    <hyperlink ref="D325" r:id="rId198" xr:uid="{396EB1BE-791F-402C-A419-E07362BA60FC}"/>
+    <hyperlink ref="D332" r:id="rId199" xr:uid="{963E803C-F09B-4282-BA5C-168C9FA65036}"/>
+    <hyperlink ref="E332" r:id="rId200" xr:uid="{5E758D1B-3D6F-4BA6-8788-9B91A3B34088}"/>
+    <hyperlink ref="F332" r:id="rId201" xr:uid="{89C71FE4-4C36-4DF6-B50B-AD0A8E33E3E7}"/>
+    <hyperlink ref="G332" r:id="rId202" xr:uid="{F2198727-77A5-4A9D-B369-DB395C6CD098}"/>
+    <hyperlink ref="H332" r:id="rId203" xr:uid="{EFC425E2-D800-4A3D-9F83-04C528904387}"/>
+    <hyperlink ref="D362" r:id="rId204" xr:uid="{500078E0-7A47-444B-BF4C-06502CA18684}"/>
+    <hyperlink ref="E362" r:id="rId205" xr:uid="{6A72D9F5-81C4-4464-9CCE-0AED0FF6E80A}"/>
+    <hyperlink ref="D366" r:id="rId206" xr:uid="{DD8B1EBC-D47B-49C9-A8B4-F279AE2D92D5}"/>
+    <hyperlink ref="E366" r:id="rId207" xr:uid="{67EFF7BB-5C5B-47F4-AB4C-4BD6C4EB4941}"/>
+    <hyperlink ref="F366" r:id="rId208" xr:uid="{785D9193-8260-40D9-AA0A-A6ECAF1A808C}"/>
+    <hyperlink ref="G366" r:id="rId209" xr:uid="{14C9681D-4874-48B5-B25E-7E1AC14663B5}"/>
+    <hyperlink ref="H366" r:id="rId210" xr:uid="{12319D18-C183-467A-B89E-6E16433E20FF}"/>
+    <hyperlink ref="I366" r:id="rId211" xr:uid="{41254C20-C32F-4870-A4BF-0E2B698951EC}"/>
+    <hyperlink ref="J366" r:id="rId212" xr:uid="{0BACDEB3-06F5-4839-BA63-AF092671B6BC}"/>
+    <hyperlink ref="K366" r:id="rId213" xr:uid="{C91D41C4-F740-4ECE-B7D5-BDC7D31AC3DD}"/>
+    <hyperlink ref="D367" r:id="rId214" xr:uid="{B5EE64D8-4834-469C-ACBA-4D3A993910AC}"/>
+    <hyperlink ref="E367" r:id="rId215" xr:uid="{711EE95E-62E1-44FF-B968-C30F8229D18E}"/>
+    <hyperlink ref="D373" r:id="rId216" xr:uid="{20AA1588-1AD6-49A3-A26C-344DC8341E2C}"/>
+    <hyperlink ref="E373" r:id="rId217" xr:uid="{A5047222-3232-4F45-A1B0-447782D01EB8}"/>
+    <hyperlink ref="D381" r:id="rId218" xr:uid="{0A1417A7-EBA8-4641-9DC2-9C89A113558F}"/>
+    <hyperlink ref="E381" r:id="rId219" xr:uid="{542E56F6-05AE-4D44-8346-C3F3FC39FBB7}"/>
+    <hyperlink ref="D382" r:id="rId220" xr:uid="{47311264-ABB2-41C4-81B8-F9669327F3D6}"/>
+    <hyperlink ref="E382" r:id="rId221" xr:uid="{352A143E-5660-41A9-94E4-7162D82364D8}"/>
+    <hyperlink ref="F382" r:id="rId222" xr:uid="{1B497C03-0939-4720-9952-F58E194262E6}"/>
+    <hyperlink ref="D383" r:id="rId223" xr:uid="{A50A9CA3-B5F3-4948-A0FD-FCD6DE7376B6}"/>
+    <hyperlink ref="D384" r:id="rId224" xr:uid="{20DAAD2A-51FC-46A9-9D3B-CBBAD5456DF7}"/>
+    <hyperlink ref="E384" r:id="rId225" xr:uid="{9397DF03-4275-4963-A37A-21DD2CEAA03C}"/>
+    <hyperlink ref="F384" r:id="rId226" xr:uid="{CD02FEFA-3EF1-4749-B483-6D1523A103CC}"/>
+    <hyperlink ref="G384" r:id="rId227" xr:uid="{3EF974CC-D30B-4FAC-B645-F438FCDBA660}"/>
+    <hyperlink ref="H384" r:id="rId228" xr:uid="{325E095B-4C8E-4BDC-AAEC-2423078C5B12}"/>
+    <hyperlink ref="I384" r:id="rId229" xr:uid="{05070ECF-47B5-4EE7-A505-331DD170BA7A}"/>
+    <hyperlink ref="J384" r:id="rId230" xr:uid="{EEE48E95-878B-4B65-97C0-86E70EF45156}"/>
+    <hyperlink ref="K384" r:id="rId231" xr:uid="{52FA2EC9-C622-41E1-8115-99227031E76C}"/>
+    <hyperlink ref="L384" r:id="rId232" xr:uid="{E4CD4CC6-F0BE-4D83-B53B-961BE5CE6532}"/>
+    <hyperlink ref="M384" r:id="rId233" xr:uid="{3F8AF0FD-8B3D-409C-A76F-1D687AAA6C5F}"/>
+    <hyperlink ref="N384" r:id="rId234" xr:uid="{B976CA90-2546-4869-9A63-1590AB1209AC}"/>
+    <hyperlink ref="O384" r:id="rId235" xr:uid="{A1863009-A1D3-47A6-B03D-551E57070CA4}"/>
+    <hyperlink ref="P384" r:id="rId236" xr:uid="{B557EAF8-F2BF-41F2-BDFA-A9DEF7921CAA}"/>
+    <hyperlink ref="Q384" r:id="rId237" xr:uid="{DE1B0EA0-8944-4F28-B4FD-37074DF70AE1}"/>
+    <hyperlink ref="R384" r:id="rId238" xr:uid="{4FE81C3F-0FD5-4C5C-A535-419126836CEE}"/>
+    <hyperlink ref="D385" r:id="rId239" xr:uid="{E82174FD-EC20-447A-BE93-5775E081CE0B}"/>
+    <hyperlink ref="E385" r:id="rId240" xr:uid="{5623BA65-1E02-4CE5-87A4-E4376B58A659}"/>
+    <hyperlink ref="F385" r:id="rId241" xr:uid="{4634900E-8974-4C1A-9B89-5AE384FDC22F}"/>
+    <hyperlink ref="G385" r:id="rId242" xr:uid="{E6FB04BD-7879-4C61-9017-9C2B94F64B4D}"/>
+    <hyperlink ref="D80" r:id="rId243" display="20231207\20231207_Rmaysh1\GreenSoutherners136 _20231207 أطراف رميش فوسفوري.jpeg" xr:uid="{01C6AA7F-59A8-4BEF-B52B-2A6AD22A724B}"/>
+    <hyperlink ref="D79" r:id="rId244" display="20231206\20231206_Meiss El Jabal\GreenSoutherners135 _20231206 ميس الجبل وأطراف حولا فوسفوري.mp4" xr:uid="{F089EE6D-851D-4D2C-AF69-E0C07BD244CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId250"/>
+  <pageSetup orientation="portrait" r:id="rId245"/>
 </worksheet>
 </file>
--- a/public/data/incidents.xlsx
+++ b/public/data/incidents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlie/Documents/GitHub/whitephosphorus/public/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0770C8C-58BC-904C-BBF9-2196F6FE131B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E7A884-57BD-1143-9090-274C9FAA1DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="-21100" windowWidth="34960" windowHeight="21100" xr2:uid="{17A8EE8E-FE20-45E7-B555-7436B0063D4F}"/>
+    <workbookView xWindow="880" yWindow="500" windowWidth="34960" windowHeight="21900" xr2:uid="{17A8EE8E-FE20-45E7-B555-7436B0063D4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Footage Data To Karlie-Updated" sheetId="14" r:id="rId1"/>
@@ -1513,10 +1513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A08A01A-F062-4B76-B193-0C678F68B2B9}">
-  <dimension ref="A1:AG393"/>
+  <dimension ref="A1:AG394"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J52" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE71" sqref="AE71"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="182" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3072,71 +3072,44 @@
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:33" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A66" s="18">
+        <v>45254</v>
+      </c>
+      <c r="B66" s="10"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="1:33" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="18">
         <v>45255</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B67" s="10" t="s">
         <v>5</v>
-      </c>
-      <c r="C66" s="7">
-        <v>1</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A67" s="17">
-        <v>45256</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>15</v>
       </c>
       <c r="C67" s="7">
         <v>1</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="J67" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="K67" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="L67" s="5" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.2">
@@ -3144,18 +3117,42 @@
         <v>45256</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C68" s="7">
         <v>1</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>111</v>
+        <v>102</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A69" s="17">
-        <v>45257</v>
+        <v>45256</v>
       </c>
       <c r="B69" s="10" t="s">
         <v>5</v>
@@ -3164,147 +3161,133 @@
         <v>1</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="70" spans="1:33" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A70" s="17">
         <v>45257</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C70" s="7">
         <v>1</v>
       </c>
       <c r="D70" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="17">
+        <v>45257</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" s="7">
+        <v>1</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E71" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="F71" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G70" s="5" t="s">
+      <c r="G71" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="H70" s="5" t="s">
+      <c r="H71" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="I70" s="5" t="s">
+      <c r="I71" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="J70" s="5" t="s">
+      <c r="J71" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="K70" s="5" t="s">
+      <c r="K71" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L70" s="5" t="s">
+      <c r="L71" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="M70" s="5" t="s">
+      <c r="M71" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="N70" s="5" t="s">
+      <c r="N71" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="O70" s="5" t="s">
+      <c r="O71" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="P70" s="5" t="s">
+      <c r="P71" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="Q70" s="5" t="s">
+      <c r="Q71" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="R70" s="5" t="s">
+      <c r="R71" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="S70" s="5" t="s">
+      <c r="S71" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="T70" s="5" t="s">
+      <c r="T71" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="U70" s="5" t="s">
+      <c r="U71" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="V70" s="5" t="s">
+      <c r="V71" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="W70" s="5" t="s">
+      <c r="W71" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="X70" s="5" t="s">
+      <c r="X71" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="Y70" s="26" t="s">
+      <c r="Y71" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="Z70" s="5" t="s">
+      <c r="Z71" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="AA70" s="5" t="s">
+      <c r="AA71" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="AB70" s="5" t="s">
+      <c r="AB71" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="AC70" s="5" t="s">
+      <c r="AC71" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="AD70" s="5" t="s">
+      <c r="AD71" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="AE70" s="5" t="s">
+      <c r="AE71" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="AF70" s="5" t="s">
+      <c r="AF71" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="AG70" s="3"/>
-    </row>
-    <row r="71" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="16">
+      <c r="AG71" s="3"/>
+    </row>
+    <row r="72" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="16">
         <v>45258</v>
-      </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
-      <c r="O71" s="3"/>
-      <c r="P71" s="3"/>
-      <c r="Q71" s="3"/>
-      <c r="R71" s="3"/>
-      <c r="S71" s="3"/>
-      <c r="T71" s="3"/>
-      <c r="U71" s="3"/>
-      <c r="V71" s="3"/>
-      <c r="W71" s="3"/>
-      <c r="X71" s="3"/>
-    </row>
-    <row r="72" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="19">
-        <v>45259</v>
       </c>
       <c r="B72" s="8"/>
       <c r="C72" s="6"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
@@ -3326,8 +3309,8 @@
       <c r="X72" s="3"/>
     </row>
     <row r="73" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="16">
-        <v>45260</v>
+      <c r="A73" s="19">
+        <v>45259</v>
       </c>
       <c r="B73" s="8"/>
       <c r="C73" s="6"/>
@@ -3355,7 +3338,7 @@
     </row>
     <row r="74" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="16">
-        <v>45261</v>
+        <v>45260</v>
       </c>
       <c r="B74" s="8"/>
       <c r="C74" s="6"/>
@@ -3382,27 +3365,15 @@
       <c r="X74" s="3"/>
     </row>
     <row r="75" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="18">
-        <v>45262</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C75" s="7">
-        <v>6</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>136</v>
-      </c>
+      <c r="A75" s="16">
+        <v>45261</v>
+      </c>
+      <c r="B75" s="8"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
@@ -3422,15 +3393,27 @@
       <c r="X75" s="3"/>
     </row>
     <row r="76" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="16">
-        <v>45263</v>
-      </c>
-      <c r="B76" s="8"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
+      <c r="A76" s="18">
+        <v>45262</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="7">
+        <v>6</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
@@ -3451,7 +3434,7 @@
     </row>
     <row r="77" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="16">
-        <v>45264</v>
+        <v>45263</v>
       </c>
       <c r="B77" s="8"/>
       <c r="C77" s="6"/>
@@ -3479,7 +3462,7 @@
     </row>
     <row r="78" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="16">
-        <v>45265</v>
+        <v>45264</v>
       </c>
       <c r="B78" s="8"/>
       <c r="C78" s="6"/>
@@ -3505,114 +3488,114 @@
       <c r="W78" s="3"/>
       <c r="X78" s="3"/>
     </row>
-    <row r="79" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="17">
-        <v>45266</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79" s="7">
-        <v>2</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>306</v>
-      </c>
+    <row r="79" spans="1:33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="16">
+        <v>45265</v>
+      </c>
+      <c r="B79" s="8"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="3"/>
+      <c r="U79" s="3"/>
+      <c r="V79" s="3"/>
+      <c r="W79" s="3"/>
+      <c r="X79" s="3"/>
     </row>
     <row r="80" spans="1:33" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="17">
+        <v>45266</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="7">
+        <v>2</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="17">
         <v>45267</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B81" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C81" s="7">
         <v>6</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D81" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="E81" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="F81" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G80" s="5" t="s">
+      <c r="G81" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H80" s="5" t="s">
+      <c r="H81" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="I80" s="5" t="s">
+      <c r="I81" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="J80" s="5" t="s">
+      <c r="J81" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="K80" s="5" t="s">
+      <c r="K81" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A81" s="18">
-        <v>45268</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C81" s="7">
-        <v>2</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="18">
         <v>45268</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="7">
+        <v>2</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="18">
+        <v>45268</v>
+      </c>
+      <c r="B83" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C83" s="7">
         <v>1</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D83" s="5" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="83" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="16">
-        <v>45269</v>
-      </c>
-      <c r="B83" s="8"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
-      <c r="N83" s="3"/>
-      <c r="O83" s="3"/>
-      <c r="P83" s="3"/>
-      <c r="Q83" s="3"/>
-      <c r="R83" s="3"/>
-      <c r="S83" s="3"/>
-      <c r="T83" s="3"/>
-      <c r="U83" s="3"/>
-      <c r="V83" s="3"/>
-      <c r="W83" s="3"/>
-      <c r="X83" s="3"/>
     </row>
     <row r="84" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="16">
-        <v>45270</v>
+        <v>45269</v>
       </c>
       <c r="B84" s="8"/>
       <c r="C84" s="6"/>
@@ -3640,7 +3623,7 @@
     </row>
     <row r="85" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="16">
-        <v>45271</v>
+        <v>45270</v>
       </c>
       <c r="B85" s="8"/>
       <c r="C85" s="6"/>
@@ -3668,7 +3651,7 @@
     </row>
     <row r="86" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="16">
-        <v>45272</v>
+        <v>45271</v>
       </c>
       <c r="B86" s="8"/>
       <c r="C86" s="6"/>
@@ -3696,9 +3679,9 @@
     </row>
     <row r="87" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="16">
-        <v>45273</v>
-      </c>
-      <c r="B87" s="12"/>
+        <v>45272</v>
+      </c>
+      <c r="B87" s="8"/>
       <c r="C87" s="6"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -3724,9 +3707,9 @@
     </row>
     <row r="88" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="16">
-        <v>45274</v>
-      </c>
-      <c r="B88" s="8"/>
+        <v>45273</v>
+      </c>
+      <c r="B88" s="12"/>
       <c r="C88" s="6"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -3752,7 +3735,7 @@
     </row>
     <row r="89" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="16">
-        <v>45275</v>
+        <v>45274</v>
       </c>
       <c r="B89" s="8"/>
       <c r="C89" s="6"/>
@@ -3780,7 +3763,7 @@
     </row>
     <row r="90" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="16">
-        <v>45276</v>
+        <v>45275</v>
       </c>
       <c r="B90" s="8"/>
       <c r="C90" s="6"/>
@@ -3808,7 +3791,7 @@
     </row>
     <row r="91" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="16">
-        <v>45277</v>
+        <v>45276</v>
       </c>
       <c r="B91" s="8"/>
       <c r="C91" s="6"/>
@@ -3836,7 +3819,7 @@
     </row>
     <row r="92" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="16">
-        <v>45278</v>
+        <v>45277</v>
       </c>
       <c r="B92" s="8"/>
       <c r="C92" s="6"/>
@@ -3864,7 +3847,7 @@
     </row>
     <row r="93" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="16">
-        <v>45279</v>
+        <v>45278</v>
       </c>
       <c r="B93" s="8"/>
       <c r="C93" s="6"/>
@@ -3890,54 +3873,54 @@
       <c r="W93" s="3"/>
       <c r="X93" s="3"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A94" s="18">
+    <row r="94" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="16">
+        <v>45279</v>
+      </c>
+      <c r="B94" s="8"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3"/>
+      <c r="S94" s="3"/>
+      <c r="T94" s="3"/>
+      <c r="U94" s="3"/>
+      <c r="V94" s="3"/>
+      <c r="W94" s="3"/>
+      <c r="X94" s="3"/>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A95" s="18">
         <v>45280</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B95" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C94" s="7">
+      <c r="C95" s="7">
         <v>3</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D95" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="E95" s="5" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="95" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="16">
-        <v>45281</v>
-      </c>
-      <c r="B95" s="8"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
-      <c r="L95" s="3"/>
-      <c r="M95" s="3"/>
-      <c r="N95" s="3"/>
-      <c r="O95" s="3"/>
-      <c r="P95" s="3"/>
-      <c r="Q95" s="3"/>
-      <c r="R95" s="3"/>
-      <c r="S95" s="3"/>
-      <c r="T95" s="3"/>
-      <c r="U95" s="3"/>
-      <c r="V95" s="3"/>
-      <c r="W95" s="3"/>
-      <c r="X95" s="3"/>
     </row>
     <row r="96" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="16">
-        <v>45282</v>
+        <v>45281</v>
       </c>
       <c r="B96" s="8"/>
       <c r="C96" s="6"/>
@@ -3965,7 +3948,7 @@
     </row>
     <row r="97" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="16">
-        <v>45283</v>
+        <v>45282</v>
       </c>
       <c r="B97" s="8"/>
       <c r="C97" s="6"/>
@@ -3993,7 +3976,7 @@
     </row>
     <row r="98" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="16">
-        <v>45284</v>
+        <v>45283</v>
       </c>
       <c r="B98" s="8"/>
       <c r="C98" s="6"/>
@@ -4021,7 +4004,7 @@
     </row>
     <row r="99" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="16">
-        <v>45285</v>
+        <v>45284</v>
       </c>
       <c r="B99" s="8"/>
       <c r="C99" s="6"/>
@@ -4049,7 +4032,7 @@
     </row>
     <row r="100" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="16">
-        <v>45286</v>
+        <v>45285</v>
       </c>
       <c r="B100" s="8"/>
       <c r="C100" s="6"/>
@@ -4077,7 +4060,7 @@
     </row>
     <row r="101" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="16">
-        <v>45287</v>
+        <v>45286</v>
       </c>
       <c r="B101" s="8"/>
       <c r="C101" s="6"/>
@@ -4105,7 +4088,7 @@
     </row>
     <row r="102" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="16">
-        <v>45288</v>
+        <v>45287</v>
       </c>
       <c r="B102" s="8"/>
       <c r="C102" s="6"/>
@@ -4133,7 +4116,7 @@
     </row>
     <row r="103" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="16">
-        <v>45289</v>
+        <v>45288</v>
       </c>
       <c r="B103" s="8"/>
       <c r="C103" s="6"/>
@@ -4161,7 +4144,7 @@
     </row>
     <row r="104" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="16">
-        <v>45290</v>
+        <v>45289</v>
       </c>
       <c r="B104" s="8"/>
       <c r="C104" s="6"/>
@@ -4189,7 +4172,7 @@
     </row>
     <row r="105" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="16">
-        <v>45291</v>
+        <v>45290</v>
       </c>
       <c r="B105" s="8"/>
       <c r="C105" s="6"/>
@@ -4217,7 +4200,7 @@
     </row>
     <row r="106" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="16">
-        <v>45292</v>
+        <v>45291</v>
       </c>
       <c r="B106" s="8"/>
       <c r="C106" s="6"/>
@@ -4245,7 +4228,7 @@
     </row>
     <row r="107" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="16">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="B107" s="8"/>
       <c r="C107" s="6"/>
@@ -4273,7 +4256,7 @@
     </row>
     <row r="108" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="16">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B108" s="8"/>
       <c r="C108" s="6"/>
@@ -4301,7 +4284,7 @@
     </row>
     <row r="109" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="16">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B109" s="8"/>
       <c r="C109" s="6"/>
@@ -4329,7 +4312,7 @@
     </row>
     <row r="110" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="16">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B110" s="8"/>
       <c r="C110" s="6"/>
@@ -4357,7 +4340,7 @@
     </row>
     <row r="111" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="16">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B111" s="8"/>
       <c r="C111" s="6"/>
@@ -4385,7 +4368,7 @@
     </row>
     <row r="112" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="16">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="B112" s="8"/>
       <c r="C112" s="6"/>
@@ -4413,7 +4396,7 @@
     </row>
     <row r="113" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="16">
-        <v>45301</v>
+        <v>45298</v>
       </c>
       <c r="B113" s="8"/>
       <c r="C113" s="6"/>
@@ -4441,7 +4424,7 @@
     </row>
     <row r="114" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="16">
-        <v>45302</v>
+        <v>45301</v>
       </c>
       <c r="B114" s="8"/>
       <c r="C114" s="6"/>
@@ -4469,7 +4452,7 @@
     </row>
     <row r="115" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="16">
-        <v>45303</v>
+        <v>45302</v>
       </c>
       <c r="B115" s="8"/>
       <c r="C115" s="6"/>
@@ -4497,7 +4480,7 @@
     </row>
     <row r="116" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="16">
-        <v>45304</v>
+        <v>45303</v>
       </c>
       <c r="B116" s="8"/>
       <c r="C116" s="6"/>
@@ -4523,115 +4506,107 @@
       <c r="W116" s="3"/>
       <c r="X116" s="3"/>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A117" s="17">
+    <row r="117" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="16">
+        <v>45304</v>
+      </c>
+      <c r="B117" s="8"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
+      <c r="M117" s="3"/>
+      <c r="N117" s="3"/>
+      <c r="O117" s="3"/>
+      <c r="P117" s="3"/>
+      <c r="Q117" s="3"/>
+      <c r="R117" s="3"/>
+      <c r="S117" s="3"/>
+      <c r="T117" s="3"/>
+      <c r="U117" s="3"/>
+      <c r="V117" s="3"/>
+      <c r="W117" s="3"/>
+      <c r="X117" s="3"/>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A118" s="17">
         <v>45305</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="B118" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C117" s="7">
+      <c r="C118" s="7">
         <v>4</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D118" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E117" s="5" t="s">
+      <c r="E118" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F117" s="5" t="s">
+      <c r="F118" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G117" s="5" t="s">
+      <c r="G118" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="118" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="16">
+    <row r="119" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="16">
         <v>45306</v>
       </c>
-      <c r="B118" s="8"/>
-      <c r="C118" s="6"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
-      <c r="I118" s="3"/>
-      <c r="J118" s="3"/>
-      <c r="K118" s="3"/>
-      <c r="L118" s="3"/>
-      <c r="M118" s="3"/>
-      <c r="N118" s="3"/>
-      <c r="O118" s="3"/>
-      <c r="P118" s="3"/>
-      <c r="Q118" s="3"/>
-      <c r="R118" s="3"/>
-      <c r="S118" s="3"/>
-      <c r="T118" s="3"/>
-      <c r="U118" s="3"/>
-      <c r="V118" s="3"/>
-      <c r="W118" s="3"/>
-      <c r="X118" s="3"/>
-    </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A119" s="17">
+      <c r="B119" s="8"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
+      <c r="K119" s="3"/>
+      <c r="L119" s="3"/>
+      <c r="M119" s="3"/>
+      <c r="N119" s="3"/>
+      <c r="O119" s="3"/>
+      <c r="P119" s="3"/>
+      <c r="Q119" s="3"/>
+      <c r="R119" s="3"/>
+      <c r="S119" s="3"/>
+      <c r="T119" s="3"/>
+      <c r="U119" s="3"/>
+      <c r="V119" s="3"/>
+      <c r="W119" s="3"/>
+      <c r="X119" s="3"/>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A120" s="17">
         <v>45307</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="B120" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C119" s="7">
+      <c r="C120" s="7">
         <v>4</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D120" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="120" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="16">
+    <row r="121" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="16">
         <v>45308</v>
       </c>
-      <c r="B120" s="8"/>
-      <c r="C120" s="6"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
-      <c r="I120" s="3"/>
-      <c r="J120" s="3"/>
-      <c r="K120" s="3"/>
-      <c r="L120" s="3"/>
-      <c r="M120" s="3"/>
-      <c r="N120" s="3"/>
-      <c r="O120" s="3"/>
-      <c r="P120" s="3"/>
-      <c r="Q120" s="3"/>
-      <c r="R120" s="3"/>
-      <c r="S120" s="3"/>
-      <c r="T120" s="3"/>
-      <c r="U120" s="3"/>
-      <c r="V120" s="3"/>
-      <c r="W120" s="3"/>
-      <c r="X120" s="3"/>
-    </row>
-    <row r="121" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="17">
-        <v>45309</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C121" s="7">
-        <v>5</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>155</v>
-      </c>
+      <c r="B121" s="8"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
@@ -4652,73 +4627,81 @@
       <c r="W121" s="3"/>
       <c r="X121" s="3"/>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="17">
+        <v>45309</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" s="7">
+        <v>5</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
+      <c r="K122" s="3"/>
+      <c r="L122" s="3"/>
+      <c r="M122" s="3"/>
+      <c r="N122" s="3"/>
+      <c r="O122" s="3"/>
+      <c r="P122" s="3"/>
+      <c r="Q122" s="3"/>
+      <c r="R122" s="3"/>
+      <c r="S122" s="3"/>
+      <c r="T122" s="3"/>
+      <c r="U122" s="3"/>
+      <c r="V122" s="3"/>
+      <c r="W122" s="3"/>
+      <c r="X122" s="3"/>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A123" s="17">
         <v>45310</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="B123" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C122" s="7">
+      <c r="C123" s="7">
         <v>2</v>
       </c>
-      <c r="D122" s="5" t="s">
+      <c r="D123" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A123" s="16">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A124" s="16">
         <v>45311</v>
       </c>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A124" s="17">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A125" s="17">
         <v>45312</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="B125" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C124" s="7">
+      <c r="C125" s="7">
         <v>6</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="D125" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E124" s="5" t="s">
+      <c r="E125" s="5" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="125" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="16">
-        <v>45313</v>
-      </c>
-      <c r="B125" s="8"/>
-      <c r="C125" s="6"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3"/>
-      <c r="H125" s="3"/>
-      <c r="I125" s="3"/>
-      <c r="J125" s="3"/>
-      <c r="K125" s="3"/>
-      <c r="L125" s="3"/>
-      <c r="M125" s="3"/>
-      <c r="N125" s="3"/>
-      <c r="O125" s="3"/>
-      <c r="P125" s="3"/>
-      <c r="Q125" s="3"/>
-      <c r="R125" s="3"/>
-      <c r="S125" s="3"/>
-      <c r="T125" s="3"/>
-      <c r="U125" s="3"/>
-      <c r="V125" s="3"/>
-      <c r="W125" s="3"/>
-      <c r="X125" s="3"/>
     </row>
     <row r="126" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="16">
-        <v>45314</v>
+        <v>45313</v>
       </c>
       <c r="B126" s="8"/>
       <c r="C126" s="6"/>
@@ -4746,7 +4729,7 @@
     </row>
     <row r="127" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="16">
-        <v>45315</v>
+        <v>45314</v>
       </c>
       <c r="B127" s="8"/>
       <c r="C127" s="6"/>
@@ -4774,7 +4757,7 @@
     </row>
     <row r="128" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="16">
-        <v>45316</v>
+        <v>45315</v>
       </c>
       <c r="B128" s="8"/>
       <c r="C128" s="6"/>
@@ -4802,7 +4785,7 @@
     </row>
     <row r="129" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="16">
-        <v>45317</v>
+        <v>45316</v>
       </c>
       <c r="B129" s="8"/>
       <c r="C129" s="6"/>
@@ -4830,7 +4813,7 @@
     </row>
     <row r="130" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="16">
-        <v>45318</v>
+        <v>45317</v>
       </c>
       <c r="B130" s="8"/>
       <c r="C130" s="6"/>
@@ -4858,7 +4841,7 @@
     </row>
     <row r="131" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="16">
-        <v>45319</v>
+        <v>45318</v>
       </c>
       <c r="B131" s="8"/>
       <c r="C131" s="6"/>
@@ -4886,7 +4869,7 @@
     </row>
     <row r="132" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="16">
-        <v>45320</v>
+        <v>45319</v>
       </c>
       <c r="B132" s="8"/>
       <c r="C132" s="6"/>
@@ -4914,7 +4897,7 @@
     </row>
     <row r="133" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="16">
-        <v>45321</v>
+        <v>45320</v>
       </c>
       <c r="B133" s="8"/>
       <c r="C133" s="6"/>
@@ -4940,82 +4923,82 @@
       <c r="W133" s="3"/>
       <c r="X133" s="3"/>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A134" s="17">
-        <v>45322</v>
-      </c>
-      <c r="B134" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C134" s="7">
-        <v>3</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>160</v>
-      </c>
+    <row r="134" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="16">
+        <v>45321</v>
+      </c>
+      <c r="B134" s="8"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="3"/>
+      <c r="K134" s="3"/>
+      <c r="L134" s="3"/>
+      <c r="M134" s="3"/>
+      <c r="N134" s="3"/>
+      <c r="O134" s="3"/>
+      <c r="P134" s="3"/>
+      <c r="Q134" s="3"/>
+      <c r="R134" s="3"/>
+      <c r="S134" s="3"/>
+      <c r="T134" s="3"/>
+      <c r="U134" s="3"/>
+      <c r="V134" s="3"/>
+      <c r="W134" s="3"/>
+      <c r="X134" s="3"/>
     </row>
     <row r="135" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A135" s="17">
         <v>45322</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C135" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" s="17">
+        <v>45322</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C136" s="7">
+        <v>2</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A137" s="17">
         <v>45323</v>
       </c>
-      <c r="B136" s="10" t="s">
+      <c r="B137" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C136" s="7">
+      <c r="C137" s="7">
         <v>1</v>
       </c>
-      <c r="D136" s="5" t="s">
+      <c r="D137" s="5" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="137" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="16">
-        <v>45324</v>
-      </c>
-      <c r="B137" s="8"/>
-      <c r="C137" s="6"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
-      <c r="G137" s="3"/>
-      <c r="H137" s="3"/>
-      <c r="I137" s="3"/>
-      <c r="J137" s="3"/>
-      <c r="K137" s="3"/>
-      <c r="L137" s="3"/>
-      <c r="M137" s="3"/>
-      <c r="N137" s="3"/>
-      <c r="O137" s="3"/>
-      <c r="P137" s="3"/>
-      <c r="Q137" s="3"/>
-      <c r="R137" s="3"/>
-      <c r="S137" s="3"/>
-      <c r="T137" s="3"/>
-      <c r="U137" s="3"/>
-      <c r="V137" s="3"/>
-      <c r="W137" s="3"/>
-      <c r="X137" s="3"/>
     </row>
     <row r="138" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="16">
-        <v>45325</v>
+        <v>45324</v>
       </c>
       <c r="B138" s="8"/>
       <c r="C138" s="6"/>
@@ -5043,7 +5026,7 @@
     </row>
     <row r="139" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="16">
-        <v>45326</v>
+        <v>45325</v>
       </c>
       <c r="B139" s="8"/>
       <c r="C139" s="6"/>
@@ -5071,7 +5054,7 @@
     </row>
     <row r="140" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="16">
-        <v>45327</v>
+        <v>45326</v>
       </c>
       <c r="B140" s="8"/>
       <c r="C140" s="6"/>
@@ -5099,7 +5082,7 @@
     </row>
     <row r="141" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="16">
-        <v>45328</v>
+        <v>45327</v>
       </c>
       <c r="B141" s="8"/>
       <c r="C141" s="6"/>
@@ -5127,7 +5110,7 @@
     </row>
     <row r="142" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="16">
-        <v>45329</v>
+        <v>45328</v>
       </c>
       <c r="B142" s="8"/>
       <c r="C142" s="6"/>
@@ -5155,7 +5138,7 @@
     </row>
     <row r="143" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="16">
-        <v>45330</v>
+        <v>45329</v>
       </c>
       <c r="B143" s="8"/>
       <c r="C143" s="6"/>
@@ -5183,7 +5166,7 @@
     </row>
     <row r="144" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="16">
-        <v>45331</v>
+        <v>45330</v>
       </c>
       <c r="B144" s="8"/>
       <c r="C144" s="6"/>
@@ -5211,7 +5194,7 @@
     </row>
     <row r="145" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="16">
-        <v>45332</v>
+        <v>45331</v>
       </c>
       <c r="B145" s="8"/>
       <c r="C145" s="6"/>
@@ -5239,7 +5222,7 @@
     </row>
     <row r="146" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="16">
-        <v>45333</v>
+        <v>45332</v>
       </c>
       <c r="B146" s="8"/>
       <c r="C146" s="6"/>
@@ -5267,7 +5250,7 @@
     </row>
     <row r="147" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="16">
-        <v>45334</v>
+        <v>45333</v>
       </c>
       <c r="B147" s="8"/>
       <c r="C147" s="6"/>
@@ -5295,7 +5278,7 @@
     </row>
     <row r="148" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="16">
-        <v>45335</v>
+        <v>45334</v>
       </c>
       <c r="B148" s="8"/>
       <c r="C148" s="6"/>
@@ -5323,7 +5306,7 @@
     </row>
     <row r="149" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="16">
-        <v>45336</v>
+        <v>45335</v>
       </c>
       <c r="B149" s="8"/>
       <c r="C149" s="6"/>
@@ -5351,7 +5334,7 @@
     </row>
     <row r="150" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="16">
-        <v>45337</v>
+        <v>45336</v>
       </c>
       <c r="B150" s="8"/>
       <c r="C150" s="6"/>
@@ -5379,7 +5362,7 @@
     </row>
     <row r="151" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="16">
-        <v>45338</v>
+        <v>45337</v>
       </c>
       <c r="B151" s="8"/>
       <c r="C151" s="6"/>
@@ -5407,7 +5390,7 @@
     </row>
     <row r="152" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="16">
-        <v>45339</v>
+        <v>45338</v>
       </c>
       <c r="B152" s="8"/>
       <c r="C152" s="6"/>
@@ -5435,7 +5418,7 @@
     </row>
     <row r="153" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="16">
-        <v>45340</v>
+        <v>45339</v>
       </c>
       <c r="B153" s="8"/>
       <c r="C153" s="6"/>
@@ -5463,7 +5446,7 @@
     </row>
     <row r="154" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="16">
-        <v>45341</v>
+        <v>45340</v>
       </c>
       <c r="B154" s="8"/>
       <c r="C154" s="6"/>
@@ -5491,7 +5474,7 @@
     </row>
     <row r="155" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="16">
-        <v>45342</v>
+        <v>45341</v>
       </c>
       <c r="B155" s="8"/>
       <c r="C155" s="6"/>
@@ -5519,7 +5502,7 @@
     </row>
     <row r="156" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="16">
-        <v>45343</v>
+        <v>45342</v>
       </c>
       <c r="B156" s="8"/>
       <c r="C156" s="6"/>
@@ -5547,7 +5530,7 @@
     </row>
     <row r="157" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="16">
-        <v>45344</v>
+        <v>45343</v>
       </c>
       <c r="B157" s="8"/>
       <c r="C157" s="6"/>
@@ -5575,7 +5558,7 @@
     </row>
     <row r="158" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="16">
-        <v>45345</v>
+        <v>45344</v>
       </c>
       <c r="B158" s="8"/>
       <c r="C158" s="6"/>
@@ -5603,7 +5586,7 @@
     </row>
     <row r="159" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="16">
-        <v>45346</v>
+        <v>45345</v>
       </c>
       <c r="B159" s="8"/>
       <c r="C159" s="6"/>
@@ -5631,7 +5614,7 @@
     </row>
     <row r="160" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="16">
-        <v>45347</v>
+        <v>45346</v>
       </c>
       <c r="B160" s="8"/>
       <c r="C160" s="6"/>
@@ -5659,7 +5642,7 @@
     </row>
     <row r="161" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="16">
-        <v>45348</v>
+        <v>45347</v>
       </c>
       <c r="B161" s="8"/>
       <c r="C161" s="6"/>
@@ -5687,7 +5670,7 @@
     </row>
     <row r="162" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="16">
-        <v>45349</v>
+        <v>45348</v>
       </c>
       <c r="B162" s="8"/>
       <c r="C162" s="6"/>
@@ -5715,7 +5698,7 @@
     </row>
     <row r="163" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="16">
-        <v>45350</v>
+        <v>45349</v>
       </c>
       <c r="B163" s="8"/>
       <c r="C163" s="6"/>
@@ -5743,7 +5726,7 @@
     </row>
     <row r="164" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="16">
-        <v>45351</v>
+        <v>45350</v>
       </c>
       <c r="B164" s="8"/>
       <c r="C164" s="6"/>
@@ -5771,7 +5754,7 @@
     </row>
     <row r="165" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="16">
-        <v>45352</v>
+        <v>45351</v>
       </c>
       <c r="B165" s="8"/>
       <c r="C165" s="6"/>
@@ -5798,21 +5781,13 @@
       <c r="X165" s="3"/>
     </row>
     <row r="166" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="17">
-        <v>45353</v>
-      </c>
-      <c r="B166" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C166" s="7">
-        <v>2</v>
-      </c>
-      <c r="D166" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E166" s="5" t="s">
-        <v>164</v>
-      </c>
+      <c r="A166" s="16">
+        <v>45352</v>
+      </c>
+      <c r="B166" s="8"/>
+      <c r="C166" s="6"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
@@ -5833,50 +5808,69 @@
       <c r="W166" s="3"/>
       <c r="X166" s="3"/>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="17">
-        <v>45354</v>
-      </c>
-      <c r="B167" s="13" t="s">
-        <v>44</v>
+        <v>45353</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C167" s="7">
         <v>2</v>
       </c>
       <c r="D167" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F167" s="3"/>
+      <c r="G167" s="3"/>
+      <c r="H167" s="3"/>
+      <c r="I167" s="3"/>
+      <c r="J167" s="3"/>
+      <c r="K167" s="3"/>
+      <c r="L167" s="3"/>
+      <c r="M167" s="3"/>
+      <c r="N167" s="3"/>
+      <c r="O167" s="3"/>
+      <c r="P167" s="3"/>
+      <c r="Q167" s="3"/>
+      <c r="R167" s="3"/>
+      <c r="S167" s="3"/>
+      <c r="T167" s="3"/>
+      <c r="U167" s="3"/>
+      <c r="V167" s="3"/>
+      <c r="W167" s="3"/>
+      <c r="X167" s="3"/>
+    </row>
+    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A168" s="17">
+        <v>45354</v>
+      </c>
+      <c r="B168" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C168" s="7">
+        <v>2</v>
+      </c>
+      <c r="D168" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E167" s="5" t="s">
+      <c r="E168" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F167" s="5" t="s">
+      <c r="F168" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G167" s="5" t="s">
+      <c r="G168" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="H167" s="5" t="s">
+      <c r="H168" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="I167" s="5" t="s">
+      <c r="I168" s="5" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A168" s="18">
-        <v>45355</v>
-      </c>
-      <c r="B168" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C168" s="7">
-        <v>3</v>
-      </c>
-      <c r="D168" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E168" s="5" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="169" spans="1:24" x14ac:dyDescent="0.2">
@@ -5884,46 +5878,35 @@
         <v>45355</v>
       </c>
       <c r="B169" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C169" s="7">
+        <v>3</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A170" s="18">
+        <v>45355</v>
+      </c>
+      <c r="B170" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C169" s="7">
+      <c r="C170" s="7">
         <v>1</v>
       </c>
-      <c r="D169" s="5" t="s">
+      <c r="D170" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="170" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="16">
-        <v>45356</v>
-      </c>
-      <c r="B170" s="8"/>
-      <c r="C170" s="6"/>
-      <c r="D170" s="3"/>
-      <c r="E170" s="3"/>
-      <c r="F170" s="3"/>
-      <c r="G170" s="3"/>
-      <c r="H170" s="3"/>
-      <c r="I170" s="3"/>
-      <c r="J170" s="3"/>
-      <c r="K170" s="3"/>
-      <c r="L170" s="3"/>
-      <c r="M170" s="3"/>
-      <c r="N170" s="3"/>
-      <c r="O170" s="3"/>
-      <c r="P170" s="3"/>
-      <c r="Q170" s="3"/>
-      <c r="R170" s="3"/>
-      <c r="S170" s="3"/>
-      <c r="T170" s="3"/>
-      <c r="U170" s="3"/>
-      <c r="V170" s="3"/>
-      <c r="W170" s="3"/>
-      <c r="X170" s="3"/>
     </row>
     <row r="171" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="16">
-        <v>45357</v>
+        <v>45356</v>
       </c>
       <c r="B171" s="8"/>
       <c r="C171" s="6"/>
@@ -5951,7 +5934,7 @@
     </row>
     <row r="172" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="16">
-        <v>45358</v>
+        <v>45357</v>
       </c>
       <c r="B172" s="8"/>
       <c r="C172" s="6"/>
@@ -5979,7 +5962,7 @@
     </row>
     <row r="173" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="16">
-        <v>45359</v>
+        <v>45358</v>
       </c>
       <c r="B173" s="8"/>
       <c r="C173" s="6"/>
@@ -6007,7 +5990,7 @@
     </row>
     <row r="174" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="16">
-        <v>45360</v>
+        <v>45359</v>
       </c>
       <c r="B174" s="8"/>
       <c r="C174" s="6"/>
@@ -6035,7 +6018,7 @@
     </row>
     <row r="175" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="16">
-        <v>45361</v>
+        <v>45360</v>
       </c>
       <c r="B175" s="8"/>
       <c r="C175" s="6"/>
@@ -6063,7 +6046,7 @@
     </row>
     <row r="176" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="16">
-        <v>45362</v>
+        <v>45361</v>
       </c>
       <c r="B176" s="8"/>
       <c r="C176" s="6"/>
@@ -6091,7 +6074,7 @@
     </row>
     <row r="177" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="16">
-        <v>45363</v>
+        <v>45362</v>
       </c>
       <c r="B177" s="8"/>
       <c r="C177" s="6"/>
@@ -6119,7 +6102,7 @@
     </row>
     <row r="178" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="16">
-        <v>45364</v>
+        <v>45363</v>
       </c>
       <c r="B178" s="8"/>
       <c r="C178" s="6"/>
@@ -6147,7 +6130,7 @@
     </row>
     <row r="179" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="16">
-        <v>45365</v>
+        <v>45364</v>
       </c>
       <c r="B179" s="8"/>
       <c r="C179" s="6"/>
@@ -6173,9 +6156,9 @@
       <c r="W179" s="3"/>
       <c r="X179" s="3"/>
     </row>
-    <row r="180" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="16">
-        <v>45366</v>
+        <v>45365</v>
       </c>
       <c r="B180" s="8"/>
       <c r="C180" s="6"/>
@@ -6203,7 +6186,7 @@
     </row>
     <row r="181" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="16">
-        <v>45367</v>
+        <v>45366</v>
       </c>
       <c r="B181" s="8"/>
       <c r="C181" s="6"/>
@@ -6229,51 +6212,51 @@
       <c r="W181" s="3"/>
       <c r="X181" s="3"/>
     </row>
-    <row r="182" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="17">
+    <row r="182" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="16">
+        <v>45367</v>
+      </c>
+      <c r="B182" s="8"/>
+      <c r="C182" s="6"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="3"/>
+      <c r="F182" s="3"/>
+      <c r="G182" s="3"/>
+      <c r="H182" s="3"/>
+      <c r="I182" s="3"/>
+      <c r="J182" s="3"/>
+      <c r="K182" s="3"/>
+      <c r="L182" s="3"/>
+      <c r="M182" s="3"/>
+      <c r="N182" s="3"/>
+      <c r="O182" s="3"/>
+      <c r="P182" s="3"/>
+      <c r="Q182" s="3"/>
+      <c r="R182" s="3"/>
+      <c r="S182" s="3"/>
+      <c r="T182" s="3"/>
+      <c r="U182" s="3"/>
+      <c r="V182" s="3"/>
+      <c r="W182" s="3"/>
+      <c r="X182" s="3"/>
+    </row>
+    <row r="183" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="17">
         <v>45368</v>
       </c>
-      <c r="B182" s="10" t="s">
+      <c r="B183" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C182" s="7">
+      <c r="C183" s="7">
         <v>3</v>
       </c>
-      <c r="D182" s="5" t="s">
+      <c r="D183" s="5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="183" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="16">
-        <v>45369</v>
-      </c>
-      <c r="B183" s="8"/>
-      <c r="C183" s="6"/>
-      <c r="D183" s="3"/>
-      <c r="E183" s="3"/>
-      <c r="F183" s="3"/>
-      <c r="G183" s="3"/>
-      <c r="H183" s="3"/>
-      <c r="I183" s="3"/>
-      <c r="J183" s="3"/>
-      <c r="K183" s="3"/>
-      <c r="L183" s="3"/>
-      <c r="M183" s="3"/>
-      <c r="N183" s="3"/>
-      <c r="O183" s="3"/>
-      <c r="P183" s="3"/>
-      <c r="Q183" s="3"/>
-      <c r="R183" s="3"/>
-      <c r="S183" s="3"/>
-      <c r="T183" s="3"/>
-      <c r="U183" s="3"/>
-      <c r="V183" s="3"/>
-      <c r="W183" s="3"/>
-      <c r="X183" s="3"/>
     </row>
     <row r="184" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="16">
-        <v>45370</v>
+        <v>45369</v>
       </c>
       <c r="B184" s="8"/>
       <c r="C184" s="6"/>
@@ -6301,7 +6284,7 @@
     </row>
     <row r="185" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="16">
-        <v>45371</v>
+        <v>45370</v>
       </c>
       <c r="B185" s="8"/>
       <c r="C185" s="6"/>
@@ -6329,7 +6312,7 @@
     </row>
     <row r="186" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="16">
-        <v>45372</v>
+        <v>45371</v>
       </c>
       <c r="B186" s="8"/>
       <c r="C186" s="6"/>
@@ -6357,7 +6340,7 @@
     </row>
     <row r="187" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="16">
-        <v>45373</v>
+        <v>45372</v>
       </c>
       <c r="B187" s="8"/>
       <c r="C187" s="6"/>
@@ -6385,7 +6368,7 @@
     </row>
     <row r="188" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="16">
-        <v>45374</v>
+        <v>45373</v>
       </c>
       <c r="B188" s="8"/>
       <c r="C188" s="6"/>
@@ -6413,7 +6396,7 @@
     </row>
     <row r="189" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="16">
-        <v>45375</v>
+        <v>45374</v>
       </c>
       <c r="B189" s="8"/>
       <c r="C189" s="6"/>
@@ -6441,7 +6424,7 @@
     </row>
     <row r="190" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="16">
-        <v>45376</v>
+        <v>45375</v>
       </c>
       <c r="B190" s="8"/>
       <c r="C190" s="6"/>
@@ -6469,7 +6452,7 @@
     </row>
     <row r="191" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="16">
-        <v>45377</v>
+        <v>45376</v>
       </c>
       <c r="B191" s="8"/>
       <c r="C191" s="6"/>
@@ -6497,7 +6480,7 @@
     </row>
     <row r="192" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="16">
-        <v>45378</v>
+        <v>45377</v>
       </c>
       <c r="B192" s="8"/>
       <c r="C192" s="6"/>
@@ -6525,7 +6508,7 @@
     </row>
     <row r="193" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="16">
-        <v>45379</v>
+        <v>45378</v>
       </c>
       <c r="B193" s="8"/>
       <c r="C193" s="6"/>
@@ -6553,7 +6536,7 @@
     </row>
     <row r="194" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="16">
-        <v>45380</v>
+        <v>45379</v>
       </c>
       <c r="B194" s="8"/>
       <c r="C194" s="6"/>
@@ -6581,7 +6564,7 @@
     </row>
     <row r="195" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="16">
-        <v>45381</v>
+        <v>45380</v>
       </c>
       <c r="B195" s="8"/>
       <c r="C195" s="6"/>
@@ -6609,7 +6592,7 @@
     </row>
     <row r="196" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="16">
-        <v>45382</v>
+        <v>45381</v>
       </c>
       <c r="B196" s="8"/>
       <c r="C196" s="6"/>
@@ -6637,7 +6620,7 @@
     </row>
     <row r="197" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="16">
-        <v>45383</v>
+        <v>45382</v>
       </c>
       <c r="B197" s="8"/>
       <c r="C197" s="6"/>
@@ -6665,7 +6648,7 @@
     </row>
     <row r="198" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="16">
-        <v>45384</v>
+        <v>45383</v>
       </c>
       <c r="B198" s="8"/>
       <c r="C198" s="6"/>
@@ -6691,66 +6674,66 @@
       <c r="W198" s="3"/>
       <c r="X198" s="3"/>
     </row>
-    <row r="199" spans="1:24" ht="159" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="17">
+    <row r="199" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="16">
+        <v>45384</v>
+      </c>
+      <c r="B199" s="8"/>
+      <c r="C199" s="6"/>
+      <c r="D199" s="3"/>
+      <c r="E199" s="3"/>
+      <c r="F199" s="3"/>
+      <c r="G199" s="3"/>
+      <c r="H199" s="3"/>
+      <c r="I199" s="3"/>
+      <c r="J199" s="3"/>
+      <c r="K199" s="3"/>
+      <c r="L199" s="3"/>
+      <c r="M199" s="3"/>
+      <c r="N199" s="3"/>
+      <c r="O199" s="3"/>
+      <c r="P199" s="3"/>
+      <c r="Q199" s="3"/>
+      <c r="R199" s="3"/>
+      <c r="S199" s="3"/>
+      <c r="T199" s="3"/>
+      <c r="U199" s="3"/>
+      <c r="V199" s="3"/>
+      <c r="W199" s="3"/>
+      <c r="X199" s="3"/>
+    </row>
+    <row r="200" spans="1:24" ht="159" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="17">
         <v>45385</v>
       </c>
-      <c r="B199" s="10" t="s">
+      <c r="B200" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C199" s="7">
+      <c r="C200" s="7">
         <v>3</v>
       </c>
-      <c r="D199" s="5" t="s">
+      <c r="D200" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="E199" s="5" t="s">
+      <c r="E200" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F199" s="5" t="s">
+      <c r="F200" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="G199" s="5" t="s">
+      <c r="G200" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="H199" s="5" t="s">
+      <c r="H200" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="I199" s="5" t="s">
+      <c r="I200" s="5" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="200" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="16">
-        <v>45386</v>
-      </c>
-      <c r="B200" s="8"/>
-      <c r="C200" s="6"/>
-      <c r="D200" s="3"/>
-      <c r="E200" s="3"/>
-      <c r="F200" s="3"/>
-      <c r="G200" s="3"/>
-      <c r="H200" s="3"/>
-      <c r="I200" s="3"/>
-      <c r="J200" s="3"/>
-      <c r="K200" s="3"/>
-      <c r="L200" s="3"/>
-      <c r="M200" s="3"/>
-      <c r="N200" s="3"/>
-      <c r="O200" s="3"/>
-      <c r="P200" s="3"/>
-      <c r="Q200" s="3"/>
-      <c r="R200" s="3"/>
-      <c r="S200" s="3"/>
-      <c r="T200" s="3"/>
-      <c r="U200" s="3"/>
-      <c r="V200" s="3"/>
-      <c r="W200" s="3"/>
-      <c r="X200" s="3"/>
     </row>
     <row r="201" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="16">
-        <v>45387</v>
+        <v>45386</v>
       </c>
       <c r="B201" s="8"/>
       <c r="C201" s="6"/>
@@ -6778,7 +6761,7 @@
     </row>
     <row r="202" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="16">
-        <v>45388</v>
+        <v>45387</v>
       </c>
       <c r="B202" s="8"/>
       <c r="C202" s="6"/>
@@ -6806,7 +6789,7 @@
     </row>
     <row r="203" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="16">
-        <v>45389</v>
+        <v>45388</v>
       </c>
       <c r="B203" s="8"/>
       <c r="C203" s="6"/>
@@ -6834,7 +6817,7 @@
     </row>
     <row r="204" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="16">
-        <v>45390</v>
+        <v>45389</v>
       </c>
       <c r="B204" s="8"/>
       <c r="C204" s="6"/>
@@ -6862,7 +6845,7 @@
     </row>
     <row r="205" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="16">
-        <v>45391</v>
+        <v>45390</v>
       </c>
       <c r="B205" s="8"/>
       <c r="C205" s="6"/>
@@ -6890,7 +6873,7 @@
     </row>
     <row r="206" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="16">
-        <v>45392</v>
+        <v>45391</v>
       </c>
       <c r="B206" s="8"/>
       <c r="C206" s="6"/>
@@ -6918,7 +6901,7 @@
     </row>
     <row r="207" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="16">
-        <v>45393</v>
+        <v>45392</v>
       </c>
       <c r="B207" s="8"/>
       <c r="C207" s="6"/>
@@ -6946,7 +6929,7 @@
     </row>
     <row r="208" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="16">
-        <v>45394</v>
+        <v>45393</v>
       </c>
       <c r="B208" s="8"/>
       <c r="C208" s="6"/>
@@ -6974,7 +6957,7 @@
     </row>
     <row r="209" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="16">
-        <v>45395</v>
+        <v>45394</v>
       </c>
       <c r="B209" s="8"/>
       <c r="C209" s="6"/>
@@ -7002,7 +6985,7 @@
     </row>
     <row r="210" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="16">
-        <v>45396</v>
+        <v>45395</v>
       </c>
       <c r="B210" s="8"/>
       <c r="C210" s="6"/>
@@ -7030,7 +7013,7 @@
     </row>
     <row r="211" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="16">
-        <v>45397</v>
+        <v>45396</v>
       </c>
       <c r="B211" s="8"/>
       <c r="C211" s="6"/>
@@ -7058,7 +7041,7 @@
     </row>
     <row r="212" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="16">
-        <v>45398</v>
+        <v>45397</v>
       </c>
       <c r="B212" s="8"/>
       <c r="C212" s="6"/>
@@ -7084,63 +7067,63 @@
       <c r="W212" s="3"/>
       <c r="X212" s="3"/>
     </row>
-    <row r="213" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="17">
+    <row r="213" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="16">
+        <v>45398</v>
+      </c>
+      <c r="B213" s="8"/>
+      <c r="C213" s="6"/>
+      <c r="D213" s="3"/>
+      <c r="E213" s="3"/>
+      <c r="F213" s="3"/>
+      <c r="G213" s="3"/>
+      <c r="H213" s="3"/>
+      <c r="I213" s="3"/>
+      <c r="J213" s="3"/>
+      <c r="K213" s="3"/>
+      <c r="L213" s="3"/>
+      <c r="M213" s="3"/>
+      <c r="N213" s="3"/>
+      <c r="O213" s="3"/>
+      <c r="P213" s="3"/>
+      <c r="Q213" s="3"/>
+      <c r="R213" s="3"/>
+      <c r="S213" s="3"/>
+      <c r="T213" s="3"/>
+      <c r="U213" s="3"/>
+      <c r="V213" s="3"/>
+      <c r="W213" s="3"/>
+      <c r="X213" s="3"/>
+    </row>
+    <row r="214" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="17">
         <v>45399</v>
       </c>
-      <c r="B213" s="10" t="s">
+      <c r="B214" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C213" s="7">
+      <c r="C214" s="7">
         <v>2</v>
       </c>
-      <c r="D213" s="5" t="s">
+      <c r="D214" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E213" s="5" t="s">
+      <c r="E214" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="F213" s="5" t="s">
+      <c r="F214" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="G213" s="5" t="s">
+      <c r="G214" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="H213" s="5" t="s">
+      <c r="H214" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="214" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="16">
+    <row r="215" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="16">
         <v>45400</v>
-      </c>
-      <c r="B214" s="8"/>
-      <c r="C214" s="6"/>
-      <c r="D214" s="3"/>
-      <c r="E214" s="3"/>
-      <c r="F214" s="3"/>
-      <c r="G214" s="3"/>
-      <c r="H214" s="3"/>
-      <c r="I214" s="3"/>
-      <c r="J214" s="3"/>
-      <c r="K214" s="3"/>
-      <c r="L214" s="3"/>
-      <c r="M214" s="3"/>
-      <c r="N214" s="3"/>
-      <c r="O214" s="3"/>
-      <c r="P214" s="3"/>
-      <c r="Q214" s="3"/>
-      <c r="R214" s="3"/>
-      <c r="S214" s="3"/>
-      <c r="T214" s="3"/>
-      <c r="U214" s="3"/>
-      <c r="V214" s="3"/>
-      <c r="W214" s="3"/>
-      <c r="X214" s="3"/>
-    </row>
-    <row r="215" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="16">
-        <v>45401</v>
       </c>
       <c r="B215" s="8"/>
       <c r="C215" s="6"/>
@@ -7168,7 +7151,7 @@
     </row>
     <row r="216" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="16">
-        <v>45402</v>
+        <v>45401</v>
       </c>
       <c r="B216" s="8"/>
       <c r="C216" s="6"/>
@@ -7196,7 +7179,7 @@
     </row>
     <row r="217" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="16">
-        <v>45403</v>
+        <v>45402</v>
       </c>
       <c r="B217" s="8"/>
       <c r="C217" s="6"/>
@@ -7224,7 +7207,7 @@
     </row>
     <row r="218" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="16">
-        <v>45404</v>
+        <v>45403</v>
       </c>
       <c r="B218" s="8"/>
       <c r="C218" s="6"/>
@@ -7252,7 +7235,7 @@
     </row>
     <row r="219" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="16">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="B219" s="8"/>
       <c r="C219" s="6"/>
@@ -7280,7 +7263,7 @@
     </row>
     <row r="220" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="16">
-        <v>45406</v>
+        <v>45405</v>
       </c>
       <c r="B220" s="8"/>
       <c r="C220" s="6"/>
@@ -7306,54 +7289,54 @@
       <c r="W220" s="3"/>
       <c r="X220" s="3"/>
     </row>
-    <row r="221" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="17">
+    <row r="221" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="16">
+        <v>45406</v>
+      </c>
+      <c r="B221" s="8"/>
+      <c r="C221" s="6"/>
+      <c r="D221" s="3"/>
+      <c r="E221" s="3"/>
+      <c r="F221" s="3"/>
+      <c r="G221" s="3"/>
+      <c r="H221" s="3"/>
+      <c r="I221" s="3"/>
+      <c r="J221" s="3"/>
+      <c r="K221" s="3"/>
+      <c r="L221" s="3"/>
+      <c r="M221" s="3"/>
+      <c r="N221" s="3"/>
+      <c r="O221" s="3"/>
+      <c r="P221" s="3"/>
+      <c r="Q221" s="3"/>
+      <c r="R221" s="3"/>
+      <c r="S221" s="3"/>
+      <c r="T221" s="3"/>
+      <c r="U221" s="3"/>
+      <c r="V221" s="3"/>
+      <c r="W221" s="3"/>
+      <c r="X221" s="3"/>
+    </row>
+    <row r="222" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="17">
         <v>45407</v>
       </c>
-      <c r="B221" s="10" t="s">
+      <c r="B222" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C221" s="7">
+      <c r="C222" s="7">
         <v>2</v>
       </c>
-      <c r="D221" s="5" t="s">
+      <c r="D222" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E221" s="5" t="s">
+      <c r="E222" s="5" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="222" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="16">
-        <v>45408</v>
-      </c>
-      <c r="B222" s="8"/>
-      <c r="C222" s="6"/>
-      <c r="D222" s="3"/>
-      <c r="E222" s="3"/>
-      <c r="F222" s="3"/>
-      <c r="G222" s="3"/>
-      <c r="H222" s="3"/>
-      <c r="I222" s="3"/>
-      <c r="J222" s="3"/>
-      <c r="K222" s="3"/>
-      <c r="L222" s="3"/>
-      <c r="M222" s="3"/>
-      <c r="N222" s="3"/>
-      <c r="O222" s="3"/>
-      <c r="P222" s="3"/>
-      <c r="Q222" s="3"/>
-      <c r="R222" s="3"/>
-      <c r="S222" s="3"/>
-      <c r="T222" s="3"/>
-      <c r="U222" s="3"/>
-      <c r="V222" s="3"/>
-      <c r="W222" s="3"/>
-      <c r="X222" s="3"/>
     </row>
     <row r="223" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="16">
-        <v>45409</v>
+        <v>45408</v>
       </c>
       <c r="B223" s="8"/>
       <c r="C223" s="6"/>
@@ -7381,7 +7364,7 @@
     </row>
     <row r="224" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="16">
-        <v>45410</v>
+        <v>45409</v>
       </c>
       <c r="B224" s="8"/>
       <c r="C224" s="6"/>
@@ -7409,7 +7392,7 @@
     </row>
     <row r="225" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="16">
-        <v>45411</v>
+        <v>45410</v>
       </c>
       <c r="B225" s="8"/>
       <c r="C225" s="6"/>
@@ -7437,7 +7420,7 @@
     </row>
     <row r="226" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="16">
-        <v>45412</v>
+        <v>45411</v>
       </c>
       <c r="B226" s="8"/>
       <c r="C226" s="6"/>
@@ -7465,7 +7448,7 @@
     </row>
     <row r="227" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="16">
-        <v>45413</v>
+        <v>45412</v>
       </c>
       <c r="B227" s="8"/>
       <c r="C227" s="6"/>
@@ -7493,7 +7476,7 @@
     </row>
     <row r="228" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="16">
-        <v>45414</v>
+        <v>45413</v>
       </c>
       <c r="B228" s="8"/>
       <c r="C228" s="6"/>
@@ -7521,7 +7504,7 @@
     </row>
     <row r="229" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="16">
-        <v>45415</v>
+        <v>45414</v>
       </c>
       <c r="B229" s="8"/>
       <c r="C229" s="6"/>
@@ -7549,7 +7532,7 @@
     </row>
     <row r="230" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="16">
-        <v>45416</v>
+        <v>45415</v>
       </c>
       <c r="B230" s="8"/>
       <c r="C230" s="6"/>
@@ -7577,7 +7560,7 @@
     </row>
     <row r="231" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="16">
-        <v>45417</v>
+        <v>45416</v>
       </c>
       <c r="B231" s="8"/>
       <c r="C231" s="6"/>
@@ -7605,7 +7588,7 @@
     </row>
     <row r="232" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="16">
-        <v>45418</v>
+        <v>45417</v>
       </c>
       <c r="B232" s="8"/>
       <c r="C232" s="6"/>
@@ -7633,7 +7616,7 @@
     </row>
     <row r="233" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="16">
-        <v>45419</v>
+        <v>45418</v>
       </c>
       <c r="B233" s="8"/>
       <c r="C233" s="6"/>
@@ -7659,63 +7642,63 @@
       <c r="W233" s="3"/>
       <c r="X233" s="3"/>
     </row>
-    <row r="234" spans="1:24" ht="133.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="17">
+    <row r="234" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="16">
+        <v>45419</v>
+      </c>
+      <c r="B234" s="8"/>
+      <c r="C234" s="6"/>
+      <c r="D234" s="3"/>
+      <c r="E234" s="3"/>
+      <c r="F234" s="3"/>
+      <c r="G234" s="3"/>
+      <c r="H234" s="3"/>
+      <c r="I234" s="3"/>
+      <c r="J234" s="3"/>
+      <c r="K234" s="3"/>
+      <c r="L234" s="3"/>
+      <c r="M234" s="3"/>
+      <c r="N234" s="3"/>
+      <c r="O234" s="3"/>
+      <c r="P234" s="3"/>
+      <c r="Q234" s="3"/>
+      <c r="R234" s="3"/>
+      <c r="S234" s="3"/>
+      <c r="T234" s="3"/>
+      <c r="U234" s="3"/>
+      <c r="V234" s="3"/>
+      <c r="W234" s="3"/>
+      <c r="X234" s="3"/>
+    </row>
+    <row r="235" spans="1:24" ht="133.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="17">
         <v>45420</v>
       </c>
-      <c r="B234" s="9" t="s">
+      <c r="B235" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C234" s="7">
+      <c r="C235" s="7">
         <v>2</v>
       </c>
-      <c r="D234" s="5" t="s">
+      <c r="D235" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E234" s="5" t="s">
+      <c r="E235" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="F234" s="5" t="s">
+      <c r="F235" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="G234" s="5" t="s">
+      <c r="G235" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="H234" s="5" t="s">
+      <c r="H235" s="5" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="235" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="16">
-        <v>45421</v>
-      </c>
-      <c r="B235" s="8"/>
-      <c r="C235" s="6"/>
-      <c r="D235" s="3"/>
-      <c r="E235" s="3"/>
-      <c r="F235" s="3"/>
-      <c r="G235" s="3"/>
-      <c r="H235" s="3"/>
-      <c r="I235" s="3"/>
-      <c r="J235" s="3"/>
-      <c r="K235" s="3"/>
-      <c r="L235" s="3"/>
-      <c r="M235" s="3"/>
-      <c r="N235" s="3"/>
-      <c r="O235" s="3"/>
-      <c r="P235" s="3"/>
-      <c r="Q235" s="3"/>
-      <c r="R235" s="3"/>
-      <c r="S235" s="3"/>
-      <c r="T235" s="3"/>
-      <c r="U235" s="3"/>
-      <c r="V235" s="3"/>
-      <c r="W235" s="3"/>
-      <c r="X235" s="3"/>
     </row>
     <row r="236" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="16">
-        <v>45422</v>
+        <v>45421</v>
       </c>
       <c r="B236" s="8"/>
       <c r="C236" s="6"/>
@@ -7743,7 +7726,7 @@
     </row>
     <row r="237" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="16">
-        <v>45423</v>
+        <v>45422</v>
       </c>
       <c r="B237" s="8"/>
       <c r="C237" s="6"/>
@@ -7771,7 +7754,7 @@
     </row>
     <row r="238" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="16">
-        <v>45424</v>
+        <v>45423</v>
       </c>
       <c r="B238" s="8"/>
       <c r="C238" s="6"/>
@@ -7797,60 +7780,60 @@
       <c r="W238" s="3"/>
       <c r="X238" s="3"/>
     </row>
-    <row r="239" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="17">
+    <row r="239" spans="1:24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="16">
+        <v>45424</v>
+      </c>
+      <c r="B239" s="8"/>
+      <c r="C239" s="6"/>
+      <c r="D239" s="3"/>
+      <c r="E239" s="3"/>
+      <c r="F239" s="3"/>
+      <c r="G239" s="3"/>
+      <c r="H239" s="3"/>
+      <c r="I239" s="3"/>
+      <c r="J239" s="3"/>
+      <c r="K239" s="3"/>
+      <c r="L239" s="3"/>
+      <c r="M239" s="3"/>
+      <c r="N239" s="3"/>
+      <c r="O239" s="3"/>
+      <c r="P239" s="3"/>
+      <c r="Q239" s="3"/>
+      <c r="R239" s="3"/>
+      <c r="S239" s="3"/>
+      <c r="T239" s="3"/>
+      <c r="U239" s="3"/>
+      <c r="V239" s="3"/>
+      <c r="W239" s="3"/>
+      <c r="X239" s="3"/>
+    </row>
+    <row r="240" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="17">
         <v>45425</v>
       </c>
-      <c r="B239" s="10" t="s">
+      <c r="B240" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C239" s="7">
+      <c r="C240" s="7">
         <v>2</v>
       </c>
-      <c r="D239" s="5" t="s">
+      <c r="D240" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E239" s="5" t="s">
+      <c r="E240" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="F239" s="5" t="s">
+      <c r="F240" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="G239" s="5" t="s">
+      <c r="G240" s="5" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="240" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="16">
-        <v>45426</v>
-      </c>
-      <c r="B240" s="8"/>
-      <c r="C240" s="6"/>
-      <c r="D240" s="3"/>
-      <c r="E240" s="3"/>
-      <c r="F240" s="3"/>
-      <c r="G240" s="3"/>
-      <c r="H240" s="3"/>
-      <c r="I240" s="3"/>
-      <c r="J240" s="3"/>
-      <c r="K240" s="3"/>
-      <c r="L240" s="3"/>
-      <c r="M240" s="3"/>
-      <c r="N240" s="3"/>
-      <c r="O240" s="3"/>
-      <c r="P240" s="3"/>
-      <c r="Q240" s="3"/>
-      <c r="R240" s="3"/>
-      <c r="S240" s="3"/>
-      <c r="T240" s="3"/>
-      <c r="U240" s="3"/>
-      <c r="V240" s="3"/>
-      <c r="W240" s="3"/>
-      <c r="X240" s="3"/>
     </row>
     <row r="241" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A241" s="16">
-        <v>45427</v>
+        <v>45426</v>
       </c>
       <c r="B241" s="8"/>
       <c r="C241" s="6"/>
@@ -7876,51 +7859,51 @@
       <c r="W241" s="3"/>
       <c r="X241" s="3"/>
     </row>
-    <row r="242" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A242" s="17">
+    <row r="242" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="16">
+        <v>45427</v>
+      </c>
+      <c r="B242" s="8"/>
+      <c r="C242" s="6"/>
+      <c r="D242" s="3"/>
+      <c r="E242" s="3"/>
+      <c r="F242" s="3"/>
+      <c r="G242" s="3"/>
+      <c r="H242" s="3"/>
+      <c r="I242" s="3"/>
+      <c r="J242" s="3"/>
+      <c r="K242" s="3"/>
+      <c r="L242" s="3"/>
+      <c r="M242" s="3"/>
+      <c r="N242" s="3"/>
+      <c r="O242" s="3"/>
+      <c r="P242" s="3"/>
+      <c r="Q242" s="3"/>
+      <c r="R242" s="3"/>
+      <c r="S242" s="3"/>
+      <c r="T242" s="3"/>
+      <c r="U242" s="3"/>
+      <c r="V242" s="3"/>
+      <c r="W242" s="3"/>
+      <c r="X242" s="3"/>
+    </row>
+    <row r="243" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A243" s="17">
         <v>45428</v>
       </c>
-      <c r="B242" s="10" t="s">
+      <c r="B243" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C242" s="7">
+      <c r="C243" s="7">
         <v>2</v>
       </c>
-      <c r="D242" s="5" t="s">
+      <c r="D243" s="5" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="243" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="16">
-        <v>45429</v>
-      </c>
-      <c r="B243" s="8"/>
-      <c r="C243" s="6"/>
-      <c r="D243" s="3"/>
-      <c r="E243" s="3"/>
-      <c r="F243" s="3"/>
-      <c r="G243" s="3"/>
-      <c r="H243" s="3"/>
-      <c r="I243" s="3"/>
-      <c r="J243" s="3"/>
-      <c r="K243" s="3"/>
-      <c r="L243" s="3"/>
-      <c r="M243" s="3"/>
-      <c r="N243" s="3"/>
-      <c r="O243" s="3"/>
-      <c r="P243" s="3"/>
-      <c r="Q243" s="3"/>
-      <c r="R243" s="3"/>
-      <c r="S243" s="3"/>
-      <c r="T243" s="3"/>
-      <c r="U243" s="3"/>
-      <c r="V243" s="3"/>
-      <c r="W243" s="3"/>
-      <c r="X243" s="3"/>
     </row>
     <row r="244" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A244" s="16">
-        <v>45430</v>
+        <v>45429</v>
       </c>
       <c r="B244" s="8"/>
       <c r="C244" s="6"/>
@@ -7948,7 +7931,7 @@
     </row>
     <row r="245" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245" s="16">
-        <v>45431</v>
+        <v>45430</v>
       </c>
       <c r="B245" s="8"/>
       <c r="C245" s="6"/>
@@ -7976,7 +7959,7 @@
     </row>
     <row r="246" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A246" s="16">
-        <v>45432</v>
+        <v>45431</v>
       </c>
       <c r="B246" s="8"/>
       <c r="C246" s="6"/>
@@ -8002,51 +7985,51 @@
       <c r="W246" s="3"/>
       <c r="X246" s="3"/>
     </row>
-    <row r="247" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A247" s="17">
+    <row r="247" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="16">
+        <v>45432</v>
+      </c>
+      <c r="B247" s="8"/>
+      <c r="C247" s="6"/>
+      <c r="D247" s="3"/>
+      <c r="E247" s="3"/>
+      <c r="F247" s="3"/>
+      <c r="G247" s="3"/>
+      <c r="H247" s="3"/>
+      <c r="I247" s="3"/>
+      <c r="J247" s="3"/>
+      <c r="K247" s="3"/>
+      <c r="L247" s="3"/>
+      <c r="M247" s="3"/>
+      <c r="N247" s="3"/>
+      <c r="O247" s="3"/>
+      <c r="P247" s="3"/>
+      <c r="Q247" s="3"/>
+      <c r="R247" s="3"/>
+      <c r="S247" s="3"/>
+      <c r="T247" s="3"/>
+      <c r="U247" s="3"/>
+      <c r="V247" s="3"/>
+      <c r="W247" s="3"/>
+      <c r="X247" s="3"/>
+    </row>
+    <row r="248" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A248" s="17">
         <v>45433</v>
       </c>
-      <c r="B247" s="10" t="s">
+      <c r="B248" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C247" s="7">
+      <c r="C248" s="7">
         <v>1</v>
       </c>
-      <c r="D247" s="5" t="s">
+      <c r="D248" s="5" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="248" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="16">
-        <v>45434</v>
-      </c>
-      <c r="B248" s="8"/>
-      <c r="C248" s="6"/>
-      <c r="D248" s="3"/>
-      <c r="E248" s="3"/>
-      <c r="F248" s="3"/>
-      <c r="G248" s="3"/>
-      <c r="H248" s="3"/>
-      <c r="I248" s="3"/>
-      <c r="J248" s="3"/>
-      <c r="K248" s="3"/>
-      <c r="L248" s="3"/>
-      <c r="M248" s="3"/>
-      <c r="N248" s="3"/>
-      <c r="O248" s="3"/>
-      <c r="P248" s="3"/>
-      <c r="Q248" s="3"/>
-      <c r="R248" s="3"/>
-      <c r="S248" s="3"/>
-      <c r="T248" s="3"/>
-      <c r="U248" s="3"/>
-      <c r="V248" s="3"/>
-      <c r="W248" s="3"/>
-      <c r="X248" s="3"/>
     </row>
     <row r="249" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A249" s="16">
-        <v>45435</v>
+        <v>45434</v>
       </c>
       <c r="B249" s="8"/>
       <c r="C249" s="6"/>
@@ -8074,7 +8057,7 @@
     </row>
     <row r="250" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A250" s="16">
-        <v>45436</v>
+        <v>45435</v>
       </c>
       <c r="B250" s="8"/>
       <c r="C250" s="6"/>
@@ -8102,7 +8085,7 @@
     </row>
     <row r="251" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A251" s="16">
-        <v>45437</v>
+        <v>45436</v>
       </c>
       <c r="B251" s="8"/>
       <c r="C251" s="6"/>
@@ -8130,7 +8113,7 @@
     </row>
     <row r="252" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A252" s="16">
-        <v>45438</v>
+        <v>45437</v>
       </c>
       <c r="B252" s="8"/>
       <c r="C252" s="6"/>
@@ -8158,7 +8141,7 @@
     </row>
     <row r="253" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253" s="16">
-        <v>45439</v>
+        <v>45438</v>
       </c>
       <c r="B253" s="8"/>
       <c r="C253" s="6"/>
@@ -8186,7 +8169,7 @@
     </row>
     <row r="254" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A254" s="16">
-        <v>45440</v>
+        <v>45439</v>
       </c>
       <c r="B254" s="8"/>
       <c r="C254" s="6"/>
@@ -8214,7 +8197,7 @@
     </row>
     <row r="255" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A255" s="16">
-        <v>45441</v>
+        <v>45440</v>
       </c>
       <c r="B255" s="8"/>
       <c r="C255" s="6"/>
@@ -8242,7 +8225,7 @@
     </row>
     <row r="256" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A256" s="16">
-        <v>45442</v>
+        <v>45441</v>
       </c>
       <c r="B256" s="8"/>
       <c r="C256" s="6"/>
@@ -8270,7 +8253,7 @@
     </row>
     <row r="257" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A257" s="16">
-        <v>45443</v>
+        <v>45442</v>
       </c>
       <c r="B257" s="8"/>
       <c r="C257" s="6"/>
@@ -8298,7 +8281,7 @@
     </row>
     <row r="258" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A258" s="16">
-        <v>45444</v>
+        <v>45443</v>
       </c>
       <c r="B258" s="8"/>
       <c r="C258" s="6"/>
@@ -8324,46 +8307,60 @@
       <c r="W258" s="3"/>
       <c r="X258" s="3"/>
     </row>
-    <row r="259" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A259" s="18">
-        <v>45445</v>
-      </c>
-      <c r="B259" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C259" s="7">
-        <v>1</v>
-      </c>
-      <c r="D259" s="5" t="s">
-        <v>198</v>
-      </c>
+    <row r="259" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="16">
+        <v>45444</v>
+      </c>
+      <c r="B259" s="8"/>
+      <c r="C259" s="6"/>
+      <c r="D259" s="3"/>
+      <c r="E259" s="3"/>
+      <c r="F259" s="3"/>
+      <c r="G259" s="3"/>
+      <c r="H259" s="3"/>
+      <c r="I259" s="3"/>
+      <c r="J259" s="3"/>
+      <c r="K259" s="3"/>
+      <c r="L259" s="3"/>
+      <c r="M259" s="3"/>
+      <c r="N259" s="3"/>
+      <c r="O259" s="3"/>
+      <c r="P259" s="3"/>
+      <c r="Q259" s="3"/>
+      <c r="R259" s="3"/>
+      <c r="S259" s="3"/>
+      <c r="T259" s="3"/>
+      <c r="U259" s="3"/>
+      <c r="V259" s="3"/>
+      <c r="W259" s="3"/>
+      <c r="X259" s="3"/>
     </row>
     <row r="260" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A260" s="18">
-        <v>45446</v>
+        <v>45445</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C260" s="7">
         <v>1</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="261" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A261" s="17">
-        <v>45447</v>
+      <c r="A261" s="18">
+        <v>45446</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C261" s="7">
         <v>1</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="262" spans="1:24" x14ac:dyDescent="0.2">
@@ -8371,51 +8368,51 @@
         <v>45447</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C262" s="7">
         <v>1</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="E262" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="F262" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="G262" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="H262" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I262" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="J262" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="K262" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="L262" s="5" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="263" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A263" s="17">
-        <v>45448</v>
+        <v>45447</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C263" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>210</v>
+        <v>201</v>
+      </c>
+      <c r="E263" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F263" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G263" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="H263" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="I263" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="J263" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="K263" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="L263" s="5" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="264" spans="1:24" x14ac:dyDescent="0.2">
@@ -8423,46 +8420,32 @@
         <v>45448</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C264" s="7">
         <v>2</v>
       </c>
       <c r="D264" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="265" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A265" s="17">
+        <v>45448</v>
+      </c>
+      <c r="B265" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C265" s="7">
+        <v>2</v>
+      </c>
+      <c r="D265" s="5" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="265" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="16">
-        <v>45449</v>
-      </c>
-      <c r="B265" s="8"/>
-      <c r="C265" s="6"/>
-      <c r="D265" s="3"/>
-      <c r="E265" s="3"/>
-      <c r="F265" s="3"/>
-      <c r="G265" s="3"/>
-      <c r="H265" s="3"/>
-      <c r="I265" s="3"/>
-      <c r="J265" s="3"/>
-      <c r="K265" s="3"/>
-      <c r="L265" s="3"/>
-      <c r="M265" s="3"/>
-      <c r="N265" s="3"/>
-      <c r="O265" s="3"/>
-      <c r="P265" s="3"/>
-      <c r="Q265" s="3"/>
-      <c r="R265" s="3"/>
-      <c r="S265" s="3"/>
-      <c r="T265" s="3"/>
-      <c r="U265" s="3"/>
-      <c r="V265" s="3"/>
-      <c r="W265" s="3"/>
-      <c r="X265" s="3"/>
     </row>
     <row r="266" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A266" s="16">
-        <v>45450</v>
+        <v>45449</v>
       </c>
       <c r="B266" s="8"/>
       <c r="C266" s="6"/>
@@ -8490,7 +8473,7 @@
     </row>
     <row r="267" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A267" s="16">
-        <v>45451</v>
+        <v>45450</v>
       </c>
       <c r="B267" s="8"/>
       <c r="C267" s="6"/>
@@ -8518,9 +8501,9 @@
     </row>
     <row r="268" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A268" s="16">
-        <v>45452</v>
-      </c>
-      <c r="B268" s="14"/>
+        <v>45451</v>
+      </c>
+      <c r="B268" s="8"/>
       <c r="C268" s="6"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -8546,7 +8529,7 @@
     </row>
     <row r="269" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A269" s="16">
-        <v>45453</v>
+        <v>45452</v>
       </c>
       <c r="B269" s="14"/>
       <c r="C269" s="6"/>
@@ -8574,9 +8557,9 @@
     </row>
     <row r="270" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A270" s="16">
-        <v>45454</v>
-      </c>
-      <c r="B270" s="8"/>
+        <v>45453</v>
+      </c>
+      <c r="B270" s="14"/>
       <c r="C270" s="6"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -8602,7 +8585,7 @@
     </row>
     <row r="271" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A271" s="16">
-        <v>45455</v>
+        <v>45454</v>
       </c>
       <c r="B271" s="8"/>
       <c r="C271" s="6"/>
@@ -8628,51 +8611,51 @@
       <c r="W271" s="3"/>
       <c r="X271" s="3"/>
     </row>
-    <row r="272" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A272" s="17">
+    <row r="272" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="16">
+        <v>45455</v>
+      </c>
+      <c r="B272" s="8"/>
+      <c r="C272" s="6"/>
+      <c r="D272" s="3"/>
+      <c r="E272" s="3"/>
+      <c r="F272" s="3"/>
+      <c r="G272" s="3"/>
+      <c r="H272" s="3"/>
+      <c r="I272" s="3"/>
+      <c r="J272" s="3"/>
+      <c r="K272" s="3"/>
+      <c r="L272" s="3"/>
+      <c r="M272" s="3"/>
+      <c r="N272" s="3"/>
+      <c r="O272" s="3"/>
+      <c r="P272" s="3"/>
+      <c r="Q272" s="3"/>
+      <c r="R272" s="3"/>
+      <c r="S272" s="3"/>
+      <c r="T272" s="3"/>
+      <c r="U272" s="3"/>
+      <c r="V272" s="3"/>
+      <c r="W272" s="3"/>
+      <c r="X272" s="3"/>
+    </row>
+    <row r="273" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A273" s="17">
         <v>45456</v>
       </c>
-      <c r="B272" s="10" t="s">
+      <c r="B273" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C272" s="7">
+      <c r="C273" s="7">
         <v>1</v>
       </c>
-      <c r="D272" s="5" t="s">
+      <c r="D273" s="5" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="273" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="16">
-        <v>45457</v>
-      </c>
-      <c r="B273" s="8"/>
-      <c r="C273" s="6"/>
-      <c r="D273" s="3"/>
-      <c r="E273" s="3"/>
-      <c r="F273" s="3"/>
-      <c r="G273" s="3"/>
-      <c r="H273" s="3"/>
-      <c r="I273" s="3"/>
-      <c r="J273" s="3"/>
-      <c r="K273" s="3"/>
-      <c r="L273" s="3"/>
-      <c r="M273" s="3"/>
-      <c r="N273" s="3"/>
-      <c r="O273" s="3"/>
-      <c r="P273" s="3"/>
-      <c r="Q273" s="3"/>
-      <c r="R273" s="3"/>
-      <c r="S273" s="3"/>
-      <c r="T273" s="3"/>
-      <c r="U273" s="3"/>
-      <c r="V273" s="3"/>
-      <c r="W273" s="3"/>
-      <c r="X273" s="3"/>
     </row>
     <row r="274" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274" s="16">
-        <v>45458</v>
+        <v>45457</v>
       </c>
       <c r="B274" s="8"/>
       <c r="C274" s="6"/>
@@ -8700,7 +8683,7 @@
     </row>
     <row r="275" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A275" s="16">
-        <v>45459</v>
+        <v>45458</v>
       </c>
       <c r="B275" s="8"/>
       <c r="C275" s="6"/>
@@ -8728,7 +8711,7 @@
     </row>
     <row r="276" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" s="16">
-        <v>45460</v>
+        <v>45459</v>
       </c>
       <c r="B276" s="8"/>
       <c r="C276" s="6"/>
@@ -8756,7 +8739,7 @@
     </row>
     <row r="277" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A277" s="16">
-        <v>45461</v>
+        <v>45460</v>
       </c>
       <c r="B277" s="8"/>
       <c r="C277" s="6"/>
@@ -8784,7 +8767,7 @@
     </row>
     <row r="278" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" s="16">
-        <v>45462</v>
+        <v>45461</v>
       </c>
       <c r="B278" s="8"/>
       <c r="C278" s="6"/>
@@ -8812,7 +8795,7 @@
     </row>
     <row r="279" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A279" s="16">
-        <v>45463</v>
+        <v>45462</v>
       </c>
       <c r="B279" s="8"/>
       <c r="C279" s="6"/>
@@ -8840,7 +8823,7 @@
     </row>
     <row r="280" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="16">
-        <v>45464</v>
+        <v>45463</v>
       </c>
       <c r="B280" s="8"/>
       <c r="C280" s="6"/>
@@ -8868,7 +8851,7 @@
     </row>
     <row r="281" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" s="16">
-        <v>45465</v>
+        <v>45464</v>
       </c>
       <c r="B281" s="8"/>
       <c r="C281" s="6"/>
@@ -8894,72 +8877,72 @@
       <c r="W281" s="3"/>
       <c r="X281" s="3"/>
     </row>
-    <row r="282" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A282" s="17">
+    <row r="282" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A282" s="16">
+        <v>45465</v>
+      </c>
+      <c r="B282" s="8"/>
+      <c r="C282" s="6"/>
+      <c r="D282" s="3"/>
+      <c r="E282" s="3"/>
+      <c r="F282" s="3"/>
+      <c r="G282" s="3"/>
+      <c r="H282" s="3"/>
+      <c r="I282" s="3"/>
+      <c r="J282" s="3"/>
+      <c r="K282" s="3"/>
+      <c r="L282" s="3"/>
+      <c r="M282" s="3"/>
+      <c r="N282" s="3"/>
+      <c r="O282" s="3"/>
+      <c r="P282" s="3"/>
+      <c r="Q282" s="3"/>
+      <c r="R282" s="3"/>
+      <c r="S282" s="3"/>
+      <c r="T282" s="3"/>
+      <c r="U282" s="3"/>
+      <c r="V282" s="3"/>
+      <c r="W282" s="3"/>
+      <c r="X282" s="3"/>
+    </row>
+    <row r="283" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A283" s="17">
         <v>45466</v>
       </c>
-      <c r="B282" s="10" t="s">
+      <c r="B283" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C282" s="7">
+      <c r="C283" s="7">
         <v>3</v>
       </c>
-      <c r="D282" s="5" t="s">
+      <c r="D283" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="E282" s="5" t="s">
+      <c r="E283" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="F282" s="5" t="s">
+      <c r="F283" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="G282" s="5" t="s">
+      <c r="G283" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="H282" s="5" t="s">
+      <c r="H283" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="I282" s="5" t="s">
+      <c r="I283" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="J282" s="5" t="s">
+      <c r="J283" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="K282" s="5" t="s">
+      <c r="K283" s="5" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="283" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="16">
-        <v>45467</v>
-      </c>
-      <c r="B283" s="8"/>
-      <c r="C283" s="6"/>
-      <c r="D283" s="3"/>
-      <c r="E283" s="3"/>
-      <c r="F283" s="3"/>
-      <c r="G283" s="3"/>
-      <c r="H283" s="3"/>
-      <c r="I283" s="3"/>
-      <c r="J283" s="3"/>
-      <c r="K283" s="3"/>
-      <c r="L283" s="3"/>
-      <c r="M283" s="3"/>
-      <c r="N283" s="3"/>
-      <c r="O283" s="3"/>
-      <c r="P283" s="3"/>
-      <c r="Q283" s="3"/>
-      <c r="R283" s="3"/>
-      <c r="S283" s="3"/>
-      <c r="T283" s="3"/>
-      <c r="U283" s="3"/>
-      <c r="V283" s="3"/>
-      <c r="W283" s="3"/>
-      <c r="X283" s="3"/>
     </row>
     <row r="284" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A284" s="16">
-        <v>45468</v>
+        <v>45467</v>
       </c>
       <c r="B284" s="8"/>
       <c r="C284" s="6"/>
@@ -8987,7 +8970,7 @@
     </row>
     <row r="285" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="16">
-        <v>45469</v>
+        <v>45468</v>
       </c>
       <c r="B285" s="8"/>
       <c r="C285" s="6"/>
@@ -9015,7 +8998,7 @@
     </row>
     <row r="286" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A286" s="16">
-        <v>45470</v>
+        <v>45469</v>
       </c>
       <c r="B286" s="8"/>
       <c r="C286" s="6"/>
@@ -9043,7 +9026,7 @@
     </row>
     <row r="287" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" s="16">
-        <v>45471</v>
+        <v>45470</v>
       </c>
       <c r="B287" s="8"/>
       <c r="C287" s="6"/>
@@ -9071,7 +9054,7 @@
     </row>
     <row r="288" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A288" s="16">
-        <v>45472</v>
+        <v>45471</v>
       </c>
       <c r="B288" s="8"/>
       <c r="C288" s="6"/>
@@ -9099,7 +9082,7 @@
     </row>
     <row r="289" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A289" s="16">
-        <v>45473</v>
+        <v>45472</v>
       </c>
       <c r="B289" s="8"/>
       <c r="C289" s="6"/>
@@ -9127,7 +9110,7 @@
     </row>
     <row r="290" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A290" s="16">
-        <v>45474</v>
+        <v>45473</v>
       </c>
       <c r="B290" s="8"/>
       <c r="C290" s="6"/>
@@ -9155,7 +9138,7 @@
     </row>
     <row r="291" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A291" s="16">
-        <v>45475</v>
+        <v>45474</v>
       </c>
       <c r="B291" s="8"/>
       <c r="C291" s="6"/>
@@ -9183,7 +9166,7 @@
     </row>
     <row r="292" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A292" s="16">
-        <v>45476</v>
+        <v>45475</v>
       </c>
       <c r="B292" s="8"/>
       <c r="C292" s="6"/>
@@ -9211,7 +9194,7 @@
     </row>
     <row r="293" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A293" s="16">
-        <v>45477</v>
+        <v>45476</v>
       </c>
       <c r="B293" s="8"/>
       <c r="C293" s="6"/>
@@ -9237,51 +9220,51 @@
       <c r="W293" s="3"/>
       <c r="X293" s="3"/>
     </row>
-    <row r="294" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A294" s="17">
+    <row r="294" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A294" s="16">
+        <v>45477</v>
+      </c>
+      <c r="B294" s="8"/>
+      <c r="C294" s="6"/>
+      <c r="D294" s="3"/>
+      <c r="E294" s="3"/>
+      <c r="F294" s="3"/>
+      <c r="G294" s="3"/>
+      <c r="H294" s="3"/>
+      <c r="I294" s="3"/>
+      <c r="J294" s="3"/>
+      <c r="K294" s="3"/>
+      <c r="L294" s="3"/>
+      <c r="M294" s="3"/>
+      <c r="N294" s="3"/>
+      <c r="O294" s="3"/>
+      <c r="P294" s="3"/>
+      <c r="Q294" s="3"/>
+      <c r="R294" s="3"/>
+      <c r="S294" s="3"/>
+      <c r="T294" s="3"/>
+      <c r="U294" s="3"/>
+      <c r="V294" s="3"/>
+      <c r="W294" s="3"/>
+      <c r="X294" s="3"/>
+    </row>
+    <row r="295" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A295" s="17">
         <v>45478</v>
       </c>
-      <c r="B294" s="10" t="s">
+      <c r="B295" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C294" s="7">
+      <c r="C295" s="7">
         <v>1</v>
       </c>
-      <c r="D294" s="5" t="s">
+      <c r="D295" s="5" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="295" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="16">
-        <v>45479</v>
-      </c>
-      <c r="B295" s="8"/>
-      <c r="C295" s="6"/>
-      <c r="D295" s="3"/>
-      <c r="E295" s="3"/>
-      <c r="F295" s="3"/>
-      <c r="G295" s="3"/>
-      <c r="H295" s="3"/>
-      <c r="I295" s="3"/>
-      <c r="J295" s="3"/>
-      <c r="K295" s="3"/>
-      <c r="L295" s="3"/>
-      <c r="M295" s="3"/>
-      <c r="N295" s="3"/>
-      <c r="O295" s="3"/>
-      <c r="P295" s="3"/>
-      <c r="Q295" s="3"/>
-      <c r="R295" s="3"/>
-      <c r="S295" s="3"/>
-      <c r="T295" s="3"/>
-      <c r="U295" s="3"/>
-      <c r="V295" s="3"/>
-      <c r="W295" s="3"/>
-      <c r="X295" s="3"/>
     </row>
     <row r="296" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A296" s="16">
-        <v>45480</v>
+        <v>45479</v>
       </c>
       <c r="B296" s="8"/>
       <c r="C296" s="6"/>
@@ -9309,7 +9292,7 @@
     </row>
     <row r="297" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A297" s="16">
-        <v>45481</v>
+        <v>45480</v>
       </c>
       <c r="B297" s="8"/>
       <c r="C297" s="6"/>
@@ -9337,7 +9320,7 @@
     </row>
     <row r="298" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A298" s="16">
-        <v>45482</v>
+        <v>45481</v>
       </c>
       <c r="B298" s="8"/>
       <c r="C298" s="6"/>
@@ -9365,7 +9348,7 @@
     </row>
     <row r="299" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A299" s="16">
-        <v>45483</v>
+        <v>45482</v>
       </c>
       <c r="B299" s="8"/>
       <c r="C299" s="6"/>
@@ -9393,7 +9376,7 @@
     </row>
     <row r="300" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A300" s="16">
-        <v>45484</v>
+        <v>45483</v>
       </c>
       <c r="B300" s="8"/>
       <c r="C300" s="6"/>
@@ -9419,68 +9402,68 @@
       <c r="W300" s="3"/>
       <c r="X300" s="3"/>
     </row>
-    <row r="301" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A301" s="17">
-        <v>45485</v>
-      </c>
-      <c r="B301" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C301" s="7">
-        <v>1</v>
-      </c>
-      <c r="D301" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E301" s="5" t="s">
-        <v>40</v>
-      </c>
+    <row r="301" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A301" s="16">
+        <v>45484</v>
+      </c>
+      <c r="B301" s="8"/>
+      <c r="C301" s="6"/>
+      <c r="D301" s="3"/>
+      <c r="E301" s="3"/>
+      <c r="F301" s="3"/>
+      <c r="G301" s="3"/>
+      <c r="H301" s="3"/>
+      <c r="I301" s="3"/>
+      <c r="J301" s="3"/>
+      <c r="K301" s="3"/>
+      <c r="L301" s="3"/>
+      <c r="M301" s="3"/>
+      <c r="N301" s="3"/>
+      <c r="O301" s="3"/>
+      <c r="P301" s="3"/>
+      <c r="Q301" s="3"/>
+      <c r="R301" s="3"/>
+      <c r="S301" s="3"/>
+      <c r="T301" s="3"/>
+      <c r="U301" s="3"/>
+      <c r="V301" s="3"/>
+      <c r="W301" s="3"/>
+      <c r="X301" s="3"/>
     </row>
     <row r="302" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A302" s="17">
-        <v>45486</v>
+        <v>45485</v>
       </c>
       <c r="B302" s="10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C302" s="7">
         <v>1</v>
       </c>
       <c r="D302" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E302" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="303" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A303" s="17">
+        <v>45486</v>
+      </c>
+      <c r="B303" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C303" s="7">
+        <v>1</v>
+      </c>
+      <c r="D303" s="5" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="303" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A303" s="16">
-        <v>45487</v>
-      </c>
-      <c r="B303" s="8"/>
-      <c r="C303" s="6"/>
-      <c r="D303" s="3"/>
-      <c r="E303" s="3"/>
-      <c r="F303" s="3"/>
-      <c r="G303" s="3"/>
-      <c r="H303" s="3"/>
-      <c r="I303" s="3"/>
-      <c r="J303" s="3"/>
-      <c r="K303" s="3"/>
-      <c r="L303" s="3"/>
-      <c r="M303" s="3"/>
-      <c r="N303" s="3"/>
-      <c r="O303" s="3"/>
-      <c r="P303" s="3"/>
-      <c r="Q303" s="3"/>
-      <c r="R303" s="3"/>
-      <c r="S303" s="3"/>
-      <c r="T303" s="3"/>
-      <c r="U303" s="3"/>
-      <c r="V303" s="3"/>
-      <c r="W303" s="3"/>
-      <c r="X303" s="3"/>
     </row>
     <row r="304" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A304" s="16">
-        <v>45488</v>
+        <v>45487</v>
       </c>
       <c r="B304" s="8"/>
       <c r="C304" s="6"/>
@@ -9508,7 +9491,7 @@
     </row>
     <row r="305" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A305" s="16">
-        <v>45489</v>
+        <v>45488</v>
       </c>
       <c r="B305" s="8"/>
       <c r="C305" s="6"/>
@@ -9536,7 +9519,7 @@
     </row>
     <row r="306" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A306" s="16">
-        <v>45490</v>
+        <v>45489</v>
       </c>
       <c r="B306" s="8"/>
       <c r="C306" s="6"/>
@@ -9564,7 +9547,7 @@
     </row>
     <row r="307" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A307" s="16">
-        <v>45491</v>
+        <v>45490</v>
       </c>
       <c r="B307" s="8"/>
       <c r="C307" s="6"/>
@@ -9592,7 +9575,7 @@
     </row>
     <row r="308" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A308" s="16">
-        <v>45492</v>
+        <v>45491</v>
       </c>
       <c r="B308" s="8"/>
       <c r="C308" s="6"/>
@@ -9620,7 +9603,7 @@
     </row>
     <row r="309" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A309" s="16">
-        <v>45493</v>
+        <v>45492</v>
       </c>
       <c r="B309" s="8"/>
       <c r="C309" s="6"/>
@@ -9648,7 +9631,7 @@
     </row>
     <row r="310" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A310" s="16">
-        <v>45494</v>
+        <v>45493</v>
       </c>
       <c r="B310" s="8"/>
       <c r="C310" s="6"/>
@@ -9676,7 +9659,7 @@
     </row>
     <row r="311" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A311" s="16">
-        <v>45495</v>
+        <v>45494</v>
       </c>
       <c r="B311" s="8"/>
       <c r="C311" s="6"/>
@@ -9704,7 +9687,7 @@
     </row>
     <row r="312" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A312" s="16">
-        <v>45496</v>
+        <v>45495</v>
       </c>
       <c r="B312" s="8"/>
       <c r="C312" s="6"/>
@@ -9732,7 +9715,7 @@
     </row>
     <row r="313" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A313" s="16">
-        <v>45497</v>
+        <v>45496</v>
       </c>
       <c r="B313" s="8"/>
       <c r="C313" s="6"/>
@@ -9760,7 +9743,7 @@
     </row>
     <row r="314" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A314" s="16">
-        <v>45498</v>
+        <v>45497</v>
       </c>
       <c r="B314" s="8"/>
       <c r="C314" s="6"/>
@@ -9788,7 +9771,7 @@
     </row>
     <row r="315" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A315" s="16">
-        <v>45499</v>
+        <v>45498</v>
       </c>
       <c r="B315" s="8"/>
       <c r="C315" s="6"/>
@@ -9816,7 +9799,7 @@
     </row>
     <row r="316" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A316" s="16">
-        <v>45500</v>
+        <v>45499</v>
       </c>
       <c r="B316" s="8"/>
       <c r="C316" s="6"/>
@@ -9844,7 +9827,7 @@
     </row>
     <row r="317" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A317" s="16">
-        <v>45501</v>
+        <v>45500</v>
       </c>
       <c r="B317" s="8"/>
       <c r="C317" s="6"/>
@@ -9870,68 +9853,68 @@
       <c r="W317" s="3"/>
       <c r="X317" s="3"/>
     </row>
-    <row r="318" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A318" s="17">
-        <v>45502</v>
-      </c>
-      <c r="B318" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C318" s="7">
-        <v>1</v>
-      </c>
-      <c r="D318" s="5" t="s">
-        <v>223</v>
-      </c>
+    <row r="318" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A318" s="16">
+        <v>45501</v>
+      </c>
+      <c r="B318" s="8"/>
+      <c r="C318" s="6"/>
+      <c r="D318" s="3"/>
+      <c r="E318" s="3"/>
+      <c r="F318" s="3"/>
+      <c r="G318" s="3"/>
+      <c r="H318" s="3"/>
+      <c r="I318" s="3"/>
+      <c r="J318" s="3"/>
+      <c r="K318" s="3"/>
+      <c r="L318" s="3"/>
+      <c r="M318" s="3"/>
+      <c r="N318" s="3"/>
+      <c r="O318" s="3"/>
+      <c r="P318" s="3"/>
+      <c r="Q318" s="3"/>
+      <c r="R318" s="3"/>
+      <c r="S318" s="3"/>
+      <c r="T318" s="3"/>
+      <c r="U318" s="3"/>
+      <c r="V318" s="3"/>
+      <c r="W318" s="3"/>
+      <c r="X318" s="3"/>
     </row>
     <row r="319" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A319" s="17">
-        <v>45503</v>
+        <v>45502</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C319" s="7">
         <v>1</v>
       </c>
       <c r="D319" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="320" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A320" s="17">
+        <v>45503</v>
+      </c>
+      <c r="B320" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C320" s="7">
+        <v>1</v>
+      </c>
+      <c r="D320" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="E319" s="5" t="s">
+      <c r="E320" s="5" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="320" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A320" s="16">
-        <v>45504</v>
-      </c>
-      <c r="B320" s="8"/>
-      <c r="C320" s="6"/>
-      <c r="D320" s="3"/>
-      <c r="E320" s="3"/>
-      <c r="F320" s="3"/>
-      <c r="G320" s="3"/>
-      <c r="H320" s="3"/>
-      <c r="I320" s="3"/>
-      <c r="J320" s="3"/>
-      <c r="K320" s="3"/>
-      <c r="L320" s="3"/>
-      <c r="M320" s="3"/>
-      <c r="N320" s="3"/>
-      <c r="O320" s="3"/>
-      <c r="P320" s="3"/>
-      <c r="Q320" s="3"/>
-      <c r="R320" s="3"/>
-      <c r="S320" s="3"/>
-      <c r="T320" s="3"/>
-      <c r="U320" s="3"/>
-      <c r="V320" s="3"/>
-      <c r="W320" s="3"/>
-      <c r="X320" s="3"/>
     </row>
     <row r="321" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A321" s="16">
-        <v>45505</v>
+        <v>45504</v>
       </c>
       <c r="B321" s="8"/>
       <c r="C321" s="6"/>
@@ -9959,7 +9942,7 @@
     </row>
     <row r="322" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A322" s="16">
-        <v>45506</v>
+        <v>45505</v>
       </c>
       <c r="B322" s="8"/>
       <c r="C322" s="6"/>
@@ -9987,7 +9970,7 @@
     </row>
     <row r="323" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A323" s="16">
-        <v>45507</v>
+        <v>45506</v>
       </c>
       <c r="B323" s="8"/>
       <c r="C323" s="6"/>
@@ -10015,7 +9998,7 @@
     </row>
     <row r="324" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A324" s="16">
-        <v>45508</v>
+        <v>45507</v>
       </c>
       <c r="B324" s="8"/>
       <c r="C324" s="6"/>
@@ -10041,51 +10024,51 @@
       <c r="W324" s="3"/>
       <c r="X324" s="3"/>
     </row>
-    <row r="325" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A325" s="17">
+    <row r="325" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A325" s="16">
+        <v>45508</v>
+      </c>
+      <c r="B325" s="8"/>
+      <c r="C325" s="6"/>
+      <c r="D325" s="3"/>
+      <c r="E325" s="3"/>
+      <c r="F325" s="3"/>
+      <c r="G325" s="3"/>
+      <c r="H325" s="3"/>
+      <c r="I325" s="3"/>
+      <c r="J325" s="3"/>
+      <c r="K325" s="3"/>
+      <c r="L325" s="3"/>
+      <c r="M325" s="3"/>
+      <c r="N325" s="3"/>
+      <c r="O325" s="3"/>
+      <c r="P325" s="3"/>
+      <c r="Q325" s="3"/>
+      <c r="R325" s="3"/>
+      <c r="S325" s="3"/>
+      <c r="T325" s="3"/>
+      <c r="U325" s="3"/>
+      <c r="V325" s="3"/>
+      <c r="W325" s="3"/>
+      <c r="X325" s="3"/>
+    </row>
+    <row r="326" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A326" s="17">
         <v>45509</v>
       </c>
-      <c r="B325" s="10" t="s">
+      <c r="B326" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C325" s="7">
+      <c r="C326" s="7">
         <v>1</v>
       </c>
-      <c r="D325" s="5" t="s">
+      <c r="D326" s="5" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="326" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A326" s="16">
-        <v>45510</v>
-      </c>
-      <c r="B326" s="8"/>
-      <c r="C326" s="6"/>
-      <c r="D326" s="3"/>
-      <c r="E326" s="3"/>
-      <c r="F326" s="3"/>
-      <c r="G326" s="3"/>
-      <c r="H326" s="3"/>
-      <c r="I326" s="3"/>
-      <c r="J326" s="3"/>
-      <c r="K326" s="3"/>
-      <c r="L326" s="3"/>
-      <c r="M326" s="3"/>
-      <c r="N326" s="3"/>
-      <c r="O326" s="3"/>
-      <c r="P326" s="3"/>
-      <c r="Q326" s="3"/>
-      <c r="R326" s="3"/>
-      <c r="S326" s="3"/>
-      <c r="T326" s="3"/>
-      <c r="U326" s="3"/>
-      <c r="V326" s="3"/>
-      <c r="W326" s="3"/>
-      <c r="X326" s="3"/>
     </row>
     <row r="327" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A327" s="16">
-        <v>45511</v>
+        <v>45510</v>
       </c>
       <c r="B327" s="8"/>
       <c r="C327" s="6"/>
@@ -10113,7 +10096,7 @@
     </row>
     <row r="328" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A328" s="16">
-        <v>45512</v>
+        <v>45511</v>
       </c>
       <c r="B328" s="8"/>
       <c r="C328" s="6"/>
@@ -10141,7 +10124,7 @@
     </row>
     <row r="329" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A329" s="16">
-        <v>45513</v>
+        <v>45512</v>
       </c>
       <c r="B329" s="8"/>
       <c r="C329" s="6"/>
@@ -10169,7 +10152,7 @@
     </row>
     <row r="330" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A330" s="16">
-        <v>45514</v>
+        <v>45513</v>
       </c>
       <c r="B330" s="8"/>
       <c r="C330" s="6"/>
@@ -10197,7 +10180,7 @@
     </row>
     <row r="331" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A331" s="16">
-        <v>45515</v>
+        <v>45514</v>
       </c>
       <c r="B331" s="8"/>
       <c r="C331" s="6"/>
@@ -10223,63 +10206,63 @@
       <c r="W331" s="3"/>
       <c r="X331" s="3"/>
     </row>
-    <row r="332" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A332" s="17">
+    <row r="332" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A332" s="16">
+        <v>45515</v>
+      </c>
+      <c r="B332" s="8"/>
+      <c r="C332" s="6"/>
+      <c r="D332" s="3"/>
+      <c r="E332" s="3"/>
+      <c r="F332" s="3"/>
+      <c r="G332" s="3"/>
+      <c r="H332" s="3"/>
+      <c r="I332" s="3"/>
+      <c r="J332" s="3"/>
+      <c r="K332" s="3"/>
+      <c r="L332" s="3"/>
+      <c r="M332" s="3"/>
+      <c r="N332" s="3"/>
+      <c r="O332" s="3"/>
+      <c r="P332" s="3"/>
+      <c r="Q332" s="3"/>
+      <c r="R332" s="3"/>
+      <c r="S332" s="3"/>
+      <c r="T332" s="3"/>
+      <c r="U332" s="3"/>
+      <c r="V332" s="3"/>
+      <c r="W332" s="3"/>
+      <c r="X332" s="3"/>
+    </row>
+    <row r="333" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A333" s="17">
         <v>45516</v>
       </c>
-      <c r="B332" s="10" t="s">
+      <c r="B333" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C332" s="7">
+      <c r="C333" s="7">
         <v>2</v>
       </c>
-      <c r="D332" s="5" t="s">
+      <c r="D333" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="E332" s="5" t="s">
+      <c r="E333" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="F332" s="5" t="s">
+      <c r="F333" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="G332" s="5" t="s">
+      <c r="G333" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="H332" s="5" t="s">
+      <c r="H333" s="5" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="333" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="16">
-        <v>45517</v>
-      </c>
-      <c r="B333" s="8"/>
-      <c r="C333" s="6"/>
-      <c r="D333" s="3"/>
-      <c r="E333" s="3"/>
-      <c r="F333" s="3"/>
-      <c r="G333" s="3"/>
-      <c r="H333" s="3"/>
-      <c r="I333" s="3"/>
-      <c r="J333" s="3"/>
-      <c r="K333" s="3"/>
-      <c r="L333" s="3"/>
-      <c r="M333" s="3"/>
-      <c r="N333" s="3"/>
-      <c r="O333" s="3"/>
-      <c r="P333" s="3"/>
-      <c r="Q333" s="3"/>
-      <c r="R333" s="3"/>
-      <c r="S333" s="3"/>
-      <c r="T333" s="3"/>
-      <c r="U333" s="3"/>
-      <c r="V333" s="3"/>
-      <c r="W333" s="3"/>
-      <c r="X333" s="3"/>
     </row>
     <row r="334" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A334" s="16">
-        <v>45518</v>
+        <v>45517</v>
       </c>
       <c r="B334" s="8"/>
       <c r="C334" s="6"/>
@@ -10307,7 +10290,7 @@
     </row>
     <row r="335" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A335" s="16">
-        <v>45519</v>
+        <v>45518</v>
       </c>
       <c r="B335" s="8"/>
       <c r="C335" s="6"/>
@@ -10335,7 +10318,7 @@
     </row>
     <row r="336" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A336" s="16">
-        <v>45520</v>
+        <v>45519</v>
       </c>
       <c r="B336" s="8"/>
       <c r="C336" s="6"/>
@@ -10363,7 +10346,7 @@
     </row>
     <row r="337" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A337" s="16">
-        <v>45521</v>
+        <v>45520</v>
       </c>
       <c r="B337" s="8"/>
       <c r="C337" s="6"/>
@@ -10391,7 +10374,7 @@
     </row>
     <row r="338" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A338" s="16">
-        <v>45522</v>
+        <v>45521</v>
       </c>
       <c r="B338" s="8"/>
       <c r="C338" s="6"/>
@@ -10419,7 +10402,7 @@
     </row>
     <row r="339" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A339" s="16">
-        <v>45523</v>
+        <v>45522</v>
       </c>
       <c r="B339" s="8"/>
       <c r="C339" s="6"/>
@@ -10447,7 +10430,7 @@
     </row>
     <row r="340" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A340" s="16">
-        <v>45524</v>
+        <v>45523</v>
       </c>
       <c r="B340" s="8"/>
       <c r="C340" s="6"/>
@@ -10475,7 +10458,7 @@
     </row>
     <row r="341" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A341" s="16">
-        <v>45525</v>
+        <v>45524</v>
       </c>
       <c r="B341" s="8"/>
       <c r="C341" s="6"/>
@@ -10503,7 +10486,7 @@
     </row>
     <row r="342" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A342" s="16">
-        <v>45526</v>
+        <v>45525</v>
       </c>
       <c r="B342" s="8"/>
       <c r="C342" s="6"/>
@@ -10531,7 +10514,7 @@
     </row>
     <row r="343" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A343" s="16">
-        <v>45527</v>
+        <v>45526</v>
       </c>
       <c r="B343" s="8"/>
       <c r="C343" s="6"/>
@@ -10559,7 +10542,7 @@
     </row>
     <row r="344" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A344" s="16">
-        <v>45528</v>
+        <v>45527</v>
       </c>
       <c r="B344" s="8"/>
       <c r="C344" s="6"/>
@@ -10587,7 +10570,7 @@
     </row>
     <row r="345" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A345" s="16">
-        <v>45529</v>
+        <v>45528</v>
       </c>
       <c r="B345" s="8"/>
       <c r="C345" s="6"/>
@@ -10615,7 +10598,7 @@
     </row>
     <row r="346" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A346" s="16">
-        <v>45530</v>
+        <v>45529</v>
       </c>
       <c r="B346" s="8"/>
       <c r="C346" s="6"/>
@@ -10643,7 +10626,7 @@
     </row>
     <row r="347" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A347" s="16">
-        <v>45531</v>
+        <v>45530</v>
       </c>
       <c r="B347" s="8"/>
       <c r="C347" s="6"/>
@@ -10671,7 +10654,7 @@
     </row>
     <row r="348" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A348" s="16">
-        <v>45532</v>
+        <v>45531</v>
       </c>
       <c r="B348" s="8"/>
       <c r="C348" s="6"/>
@@ -10699,7 +10682,7 @@
     </row>
     <row r="349" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A349" s="16">
-        <v>45533</v>
+        <v>45532</v>
       </c>
       <c r="B349" s="8"/>
       <c r="C349" s="6"/>
@@ -10727,7 +10710,7 @@
     </row>
     <row r="350" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A350" s="16">
-        <v>45534</v>
+        <v>45533</v>
       </c>
       <c r="B350" s="8"/>
       <c r="C350" s="6"/>
@@ -10755,7 +10738,7 @@
     </row>
     <row r="351" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A351" s="16">
-        <v>45535</v>
+        <v>45534</v>
       </c>
       <c r="B351" s="8"/>
       <c r="C351" s="6"/>
@@ -10783,7 +10766,7 @@
     </row>
     <row r="352" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A352" s="16">
-        <v>45536</v>
+        <v>45535</v>
       </c>
       <c r="B352" s="8"/>
       <c r="C352" s="6"/>
@@ -10811,7 +10794,7 @@
     </row>
     <row r="353" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A353" s="16">
-        <v>45537</v>
+        <v>45536</v>
       </c>
       <c r="B353" s="8"/>
       <c r="C353" s="6"/>
@@ -10839,7 +10822,7 @@
     </row>
     <row r="354" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A354" s="16">
-        <v>45538</v>
+        <v>45537</v>
       </c>
       <c r="B354" s="8"/>
       <c r="C354" s="6"/>
@@ -10867,7 +10850,7 @@
     </row>
     <row r="355" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A355" s="16">
-        <v>45539</v>
+        <v>45538</v>
       </c>
       <c r="B355" s="8"/>
       <c r="C355" s="6"/>
@@ -10895,7 +10878,7 @@
     </row>
     <row r="356" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A356" s="16">
-        <v>45540</v>
+        <v>45539</v>
       </c>
       <c r="B356" s="8"/>
       <c r="C356" s="6"/>
@@ -10923,7 +10906,7 @@
     </row>
     <row r="357" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A357" s="16">
-        <v>45541</v>
+        <v>45540</v>
       </c>
       <c r="B357" s="8"/>
       <c r="C357" s="6"/>
@@ -10951,7 +10934,7 @@
     </row>
     <row r="358" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A358" s="16">
-        <v>45542</v>
+        <v>45541</v>
       </c>
       <c r="B358" s="8"/>
       <c r="C358" s="6"/>
@@ -10979,7 +10962,7 @@
     </row>
     <row r="359" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A359" s="16">
-        <v>45543</v>
+        <v>45542</v>
       </c>
       <c r="B359" s="8"/>
       <c r="C359" s="6"/>
@@ -11007,7 +10990,7 @@
     </row>
     <row r="360" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A360" s="16">
-        <v>45544</v>
+        <v>45543</v>
       </c>
       <c r="B360" s="8"/>
       <c r="C360" s="6"/>
@@ -11035,7 +11018,7 @@
     </row>
     <row r="361" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A361" s="16">
-        <v>45545</v>
+        <v>45544</v>
       </c>
       <c r="B361" s="8"/>
       <c r="C361" s="6"/>
@@ -11061,54 +11044,54 @@
       <c r="W361" s="3"/>
       <c r="X361" s="3"/>
     </row>
-    <row r="362" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A362" s="17">
+    <row r="362" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A362" s="16">
+        <v>45545</v>
+      </c>
+      <c r="B362" s="8"/>
+      <c r="C362" s="6"/>
+      <c r="D362" s="3"/>
+      <c r="E362" s="3"/>
+      <c r="F362" s="3"/>
+      <c r="G362" s="3"/>
+      <c r="H362" s="3"/>
+      <c r="I362" s="3"/>
+      <c r="J362" s="3"/>
+      <c r="K362" s="3"/>
+      <c r="L362" s="3"/>
+      <c r="M362" s="3"/>
+      <c r="N362" s="3"/>
+      <c r="O362" s="3"/>
+      <c r="P362" s="3"/>
+      <c r="Q362" s="3"/>
+      <c r="R362" s="3"/>
+      <c r="S362" s="3"/>
+      <c r="T362" s="3"/>
+      <c r="U362" s="3"/>
+      <c r="V362" s="3"/>
+      <c r="W362" s="3"/>
+      <c r="X362" s="3"/>
+    </row>
+    <row r="363" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A363" s="17">
         <v>45546</v>
       </c>
-      <c r="B362" s="10" t="s">
+      <c r="B363" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C362" s="7">
+      <c r="C363" s="7">
         <v>1</v>
       </c>
-      <c r="D362" s="5" t="s">
+      <c r="D363" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="E362" s="5" t="s">
+      <c r="E363" s="5" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="363" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A363" s="16">
-        <v>45547</v>
-      </c>
-      <c r="B363" s="8"/>
-      <c r="C363" s="6"/>
-      <c r="D363" s="3"/>
-      <c r="E363" s="3"/>
-      <c r="F363" s="3"/>
-      <c r="G363" s="3"/>
-      <c r="H363" s="3"/>
-      <c r="I363" s="3"/>
-      <c r="J363" s="3"/>
-      <c r="K363" s="3"/>
-      <c r="L363" s="3"/>
-      <c r="M363" s="3"/>
-      <c r="N363" s="3"/>
-      <c r="O363" s="3"/>
-      <c r="P363" s="3"/>
-      <c r="Q363" s="3"/>
-      <c r="R363" s="3"/>
-      <c r="S363" s="3"/>
-      <c r="T363" s="3"/>
-      <c r="U363" s="3"/>
-      <c r="V363" s="3"/>
-      <c r="W363" s="3"/>
-      <c r="X363" s="3"/>
     </row>
     <row r="364" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A364" s="16">
-        <v>45548</v>
+        <v>45547</v>
       </c>
       <c r="B364" s="8"/>
       <c r="C364" s="6"/>
@@ -11136,7 +11119,7 @@
     </row>
     <row r="365" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A365" s="16">
-        <v>45549</v>
+        <v>45548</v>
       </c>
       <c r="B365" s="8"/>
       <c r="C365" s="6"/>
@@ -11162,89 +11145,89 @@
       <c r="W365" s="3"/>
       <c r="X365" s="3"/>
     </row>
-    <row r="366" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A366" s="17">
-        <v>45550</v>
-      </c>
-      <c r="B366" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C366" s="7">
-        <v>1</v>
-      </c>
-      <c r="D366" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="E366" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="F366" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="G366" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="H366" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="I366" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="J366" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="K366" s="5" t="s">
-        <v>241</v>
-      </c>
+    <row r="366" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A366" s="16">
+        <v>45549</v>
+      </c>
+      <c r="B366" s="8"/>
+      <c r="C366" s="6"/>
+      <c r="D366" s="3"/>
+      <c r="E366" s="3"/>
+      <c r="F366" s="3"/>
+      <c r="G366" s="3"/>
+      <c r="H366" s="3"/>
+      <c r="I366" s="3"/>
+      <c r="J366" s="3"/>
+      <c r="K366" s="3"/>
+      <c r="L366" s="3"/>
+      <c r="M366" s="3"/>
+      <c r="N366" s="3"/>
+      <c r="O366" s="3"/>
+      <c r="P366" s="3"/>
+      <c r="Q366" s="3"/>
+      <c r="R366" s="3"/>
+      <c r="S366" s="3"/>
+      <c r="T366" s="3"/>
+      <c r="U366" s="3"/>
+      <c r="V366" s="3"/>
+      <c r="W366" s="3"/>
+      <c r="X366" s="3"/>
     </row>
     <row r="367" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A367" s="17">
-        <v>45551</v>
+        <v>45550</v>
       </c>
       <c r="B367" s="10" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C367" s="7">
         <v>1</v>
       </c>
       <c r="D367" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E367" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F367" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="G367" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="H367" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="I367" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="J367" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="K367" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="368" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A368" s="17">
+        <v>45551</v>
+      </c>
+      <c r="B368" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C368" s="7">
+        <v>1</v>
+      </c>
+      <c r="D368" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="E367" s="5" t="s">
+      <c r="E368" s="5" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="368" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A368" s="16">
-        <v>45552</v>
-      </c>
-      <c r="B368" s="8"/>
-      <c r="C368" s="6"/>
-      <c r="D368" s="3"/>
-      <c r="E368" s="3"/>
-      <c r="F368" s="3"/>
-      <c r="G368" s="3"/>
-      <c r="H368" s="3"/>
-      <c r="I368" s="3"/>
-      <c r="J368" s="3"/>
-      <c r="K368" s="3"/>
-      <c r="L368" s="3"/>
-      <c r="M368" s="3"/>
-      <c r="N368" s="3"/>
-      <c r="O368" s="3"/>
-      <c r="P368" s="3"/>
-      <c r="Q368" s="3"/>
-      <c r="R368" s="3"/>
-      <c r="S368" s="3"/>
-      <c r="T368" s="3"/>
-      <c r="U368" s="3"/>
-      <c r="V368" s="3"/>
-      <c r="W368" s="3"/>
-      <c r="X368" s="3"/>
     </row>
     <row r="369" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A369" s="16">
-        <v>45553</v>
+        <v>45552</v>
       </c>
       <c r="B369" s="8"/>
       <c r="C369" s="6"/>
@@ -11272,7 +11255,7 @@
     </row>
     <row r="370" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A370" s="16">
-        <v>45554</v>
+        <v>45553</v>
       </c>
       <c r="B370" s="8"/>
       <c r="C370" s="6"/>
@@ -11300,7 +11283,7 @@
     </row>
     <row r="371" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A371" s="16">
-        <v>45555</v>
+        <v>45554</v>
       </c>
       <c r="B371" s="8"/>
       <c r="C371" s="6"/>
@@ -11328,7 +11311,7 @@
     </row>
     <row r="372" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A372" s="16">
-        <v>45556</v>
+        <v>45555</v>
       </c>
       <c r="B372" s="8"/>
       <c r="C372" s="6"/>
@@ -11354,54 +11337,54 @@
       <c r="W372" s="3"/>
       <c r="X372" s="3"/>
     </row>
-    <row r="373" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A373" s="17">
+    <row r="373" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A373" s="16">
+        <v>45556</v>
+      </c>
+      <c r="B373" s="8"/>
+      <c r="C373" s="6"/>
+      <c r="D373" s="3"/>
+      <c r="E373" s="3"/>
+      <c r="F373" s="3"/>
+      <c r="G373" s="3"/>
+      <c r="H373" s="3"/>
+      <c r="I373" s="3"/>
+      <c r="J373" s="3"/>
+      <c r="K373" s="3"/>
+      <c r="L373" s="3"/>
+      <c r="M373" s="3"/>
+      <c r="N373" s="3"/>
+      <c r="O373" s="3"/>
+      <c r="P373" s="3"/>
+      <c r="Q373" s="3"/>
+      <c r="R373" s="3"/>
+      <c r="S373" s="3"/>
+      <c r="T373" s="3"/>
+      <c r="U373" s="3"/>
+      <c r="V373" s="3"/>
+      <c r="W373" s="3"/>
+      <c r="X373" s="3"/>
+    </row>
+    <row r="374" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A374" s="17">
         <v>45557</v>
       </c>
-      <c r="B373" s="10" t="s">
+      <c r="B374" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C373" s="7">
+      <c r="C374" s="7">
         <v>1</v>
       </c>
-      <c r="D373" s="5" t="s">
+      <c r="D374" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="E373" s="5" t="s">
+      <c r="E374" s="5" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="374" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A374" s="16">
-        <v>45558</v>
-      </c>
-      <c r="B374" s="8"/>
-      <c r="C374" s="6"/>
-      <c r="D374" s="3"/>
-      <c r="E374" s="3"/>
-      <c r="F374" s="3"/>
-      <c r="G374" s="3"/>
-      <c r="H374" s="3"/>
-      <c r="I374" s="3"/>
-      <c r="J374" s="3"/>
-      <c r="K374" s="3"/>
-      <c r="L374" s="3"/>
-      <c r="M374" s="3"/>
-      <c r="N374" s="3"/>
-      <c r="O374" s="3"/>
-      <c r="P374" s="3"/>
-      <c r="Q374" s="3"/>
-      <c r="R374" s="3"/>
-      <c r="S374" s="3"/>
-      <c r="T374" s="3"/>
-      <c r="U374" s="3"/>
-      <c r="V374" s="3"/>
-      <c r="W374" s="3"/>
-      <c r="X374" s="3"/>
     </row>
     <row r="375" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A375" s="16">
-        <v>45559</v>
+        <v>45558</v>
       </c>
       <c r="B375" s="8"/>
       <c r="C375" s="6"/>
@@ -11429,7 +11412,7 @@
     </row>
     <row r="376" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A376" s="16">
-        <v>45560</v>
+        <v>45559</v>
       </c>
       <c r="B376" s="8"/>
       <c r="C376" s="6"/>
@@ -11457,7 +11440,7 @@
     </row>
     <row r="377" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A377" s="16">
-        <v>45561</v>
+        <v>45560</v>
       </c>
       <c r="B377" s="8"/>
       <c r="C377" s="6"/>
@@ -11485,7 +11468,7 @@
     </row>
     <row r="378" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A378" s="16">
-        <v>45562</v>
+        <v>45561</v>
       </c>
       <c r="B378" s="8"/>
       <c r="C378" s="6"/>
@@ -11513,7 +11496,7 @@
     </row>
     <row r="379" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A379" s="16">
-        <v>45563</v>
+        <v>45562</v>
       </c>
       <c r="B379" s="8"/>
       <c r="C379" s="6"/>
@@ -11541,7 +11524,7 @@
     </row>
     <row r="380" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A380" s="16">
-        <v>45564</v>
+        <v>45563</v>
       </c>
       <c r="B380" s="8"/>
       <c r="C380" s="6"/>
@@ -11567,41 +11550,49 @@
       <c r="W380" s="3"/>
       <c r="X380" s="3"/>
     </row>
-    <row r="381" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A381" s="17">
-        <v>45565</v>
-      </c>
-      <c r="B381" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C381" s="7">
-        <v>2</v>
-      </c>
-      <c r="D381" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="E381" s="5" t="s">
-        <v>247</v>
-      </c>
+    <row r="381" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A381" s="16">
+        <v>45564</v>
+      </c>
+      <c r="B381" s="8"/>
+      <c r="C381" s="6"/>
+      <c r="D381" s="3"/>
+      <c r="E381" s="3"/>
+      <c r="F381" s="3"/>
+      <c r="G381" s="3"/>
+      <c r="H381" s="3"/>
+      <c r="I381" s="3"/>
+      <c r="J381" s="3"/>
+      <c r="K381" s="3"/>
+      <c r="L381" s="3"/>
+      <c r="M381" s="3"/>
+      <c r="N381" s="3"/>
+      <c r="O381" s="3"/>
+      <c r="P381" s="3"/>
+      <c r="Q381" s="3"/>
+      <c r="R381" s="3"/>
+      <c r="S381" s="3"/>
+      <c r="T381" s="3"/>
+      <c r="U381" s="3"/>
+      <c r="V381" s="3"/>
+      <c r="W381" s="3"/>
+      <c r="X381" s="3"/>
     </row>
     <row r="382" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A382" s="17">
         <v>45565</v>
       </c>
       <c r="B382" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C382" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D382" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E382" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F382" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="383" spans="1:24" x14ac:dyDescent="0.2">
@@ -11609,125 +11600,117 @@
         <v>45565</v>
       </c>
       <c r="B383" s="10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C383" s="7">
         <v>1</v>
       </c>
       <c r="D383" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E383" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F383" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="384" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A384" s="17">
+        <v>45565</v>
+      </c>
+      <c r="B384" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C384" s="7">
+        <v>1</v>
+      </c>
+      <c r="D384" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="384" spans="1:24" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A384" s="17">
+    <row r="385" spans="1:24" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A385" s="17">
         <v>45566</v>
       </c>
-      <c r="B384" s="10" t="s">
+      <c r="B385" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C384" s="7">
+      <c r="C385" s="7">
         <v>3</v>
       </c>
-      <c r="D384" s="5" t="s">
+      <c r="D385" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="E384" s="5" t="s">
+      <c r="E385" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="F384" s="5" t="s">
+      <c r="F385" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="G384" s="5" t="s">
+      <c r="G385" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="H384" s="5" t="s">
+      <c r="H385" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="I384" s="5" t="s">
+      <c r="I385" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="J384" s="5" t="s">
+      <c r="J385" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="K384" s="5" t="s">
+      <c r="K385" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="L384" s="5" t="s">
+      <c r="L385" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="M384" s="5" t="s">
+      <c r="M385" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="N384" s="5" t="s">
+      <c r="N385" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="O384" s="5" t="s">
+      <c r="O385" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="P384" s="5" t="s">
+      <c r="P385" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="Q384" s="5" t="s">
+      <c r="Q385" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="R384" s="5" t="s">
+      <c r="R385" s="5" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="385" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A385" s="17">
+    <row r="386" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A386" s="17">
         <v>45567</v>
       </c>
-      <c r="B385" s="10" t="s">
+      <c r="B386" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C385" s="7">
+      <c r="C386" s="7">
         <v>2</v>
       </c>
-      <c r="D385" s="5" t="s">
+      <c r="D386" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E385" s="5" t="s">
+      <c r="E386" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="F385" s="5" t="s">
+      <c r="F386" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="G385" s="5" t="s">
+      <c r="G386" s="5" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="386" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A386" s="16">
-        <v>45568</v>
-      </c>
-      <c r="B386" s="8"/>
-      <c r="C386" s="6"/>
-      <c r="D386" s="3"/>
-      <c r="E386" s="3"/>
-      <c r="F386" s="3"/>
-      <c r="G386" s="3"/>
-      <c r="H386" s="3"/>
-      <c r="I386" s="3"/>
-      <c r="J386" s="3"/>
-      <c r="K386" s="3"/>
-      <c r="L386" s="3"/>
-      <c r="M386" s="3"/>
-      <c r="N386" s="3"/>
-      <c r="O386" s="3"/>
-      <c r="P386" s="3"/>
-      <c r="Q386" s="3"/>
-      <c r="R386" s="3"/>
-      <c r="S386" s="3"/>
-      <c r="T386" s="3"/>
-      <c r="U386" s="3"/>
-      <c r="V386" s="3"/>
-      <c r="W386" s="3"/>
-      <c r="X386" s="3"/>
     </row>
     <row r="387" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A387" s="16">
-        <v>45569</v>
+        <v>45568</v>
       </c>
       <c r="B387" s="8"/>
       <c r="C387" s="6"/>
@@ -11755,7 +11738,7 @@
     </row>
     <row r="388" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A388" s="16">
-        <v>45570</v>
+        <v>45569</v>
       </c>
       <c r="B388" s="8"/>
       <c r="C388" s="6"/>
@@ -11783,7 +11766,7 @@
     </row>
     <row r="389" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389" s="16">
-        <v>45571</v>
+        <v>45570</v>
       </c>
       <c r="B389" s="8"/>
       <c r="C389" s="6"/>
@@ -11811,7 +11794,7 @@
     </row>
     <row r="390" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A390" s="16">
-        <v>45572</v>
+        <v>45571</v>
       </c>
       <c r="B390" s="8"/>
       <c r="C390" s="6"/>
@@ -11837,18 +11820,46 @@
       <c r="W390" s="3"/>
       <c r="X390" s="3"/>
     </row>
-    <row r="391" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391" s="16">
-        <v>45573</v>
-      </c>
+        <v>45572</v>
+      </c>
+      <c r="B391" s="8"/>
+      <c r="C391" s="6"/>
+      <c r="D391" s="3"/>
+      <c r="E391" s="3"/>
+      <c r="F391" s="3"/>
+      <c r="G391" s="3"/>
+      <c r="H391" s="3"/>
+      <c r="I391" s="3"/>
+      <c r="J391" s="3"/>
+      <c r="K391" s="3"/>
+      <c r="L391" s="3"/>
+      <c r="M391" s="3"/>
+      <c r="N391" s="3"/>
+      <c r="O391" s="3"/>
+      <c r="P391" s="3"/>
+      <c r="Q391" s="3"/>
+      <c r="R391" s="3"/>
+      <c r="S391" s="3"/>
+      <c r="T391" s="3"/>
+      <c r="U391" s="3"/>
+      <c r="V391" s="3"/>
+      <c r="W391" s="3"/>
+      <c r="X391" s="3"/>
     </row>
     <row r="392" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A392" s="16">
-        <v>45574</v>
+        <v>45573</v>
       </c>
     </row>
     <row r="393" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A393" s="16">
+        <v>45574</v>
+      </c>
+    </row>
+    <row r="394" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A394" s="16">
         <v>45575</v>
       </c>
     </row>
@@ -11918,192 +11929,192 @@
     <hyperlink ref="G63" r:id="rId56" xr:uid="{4549510F-312F-4CF8-9BB0-AD8656633232}"/>
     <hyperlink ref="D64" r:id="rId57" xr:uid="{207132B1-34FA-4961-9CAB-A869359197D5}"/>
     <hyperlink ref="E64" r:id="rId58" xr:uid="{2BE9CEF3-3A49-4F3D-9BFE-0F210F89020D}"/>
-    <hyperlink ref="D65" r:id="rId59" xr:uid="{4FE13D19-33B5-4516-8260-51B6A0D5BFA3}"/>
-    <hyperlink ref="E65" r:id="rId60" xr:uid="{24F13956-70D4-47E4-AA77-ED1ECE466E9B}"/>
-    <hyperlink ref="F65" r:id="rId61" xr:uid="{5E172610-43DE-4A19-B082-AC7A6BDF6B8C}"/>
-    <hyperlink ref="G65" r:id="rId62" xr:uid="{489955B8-6E8B-4186-81E4-B68218914D91}"/>
-    <hyperlink ref="D66" r:id="rId63" xr:uid="{7C2DAD79-80F7-4B2F-BCEB-89D08DAFE200}"/>
-    <hyperlink ref="E66" r:id="rId64" xr:uid="{8743C6BB-8FBF-476D-95F4-035A548BA38F}"/>
-    <hyperlink ref="F66" r:id="rId65" xr:uid="{ED99DEBC-549D-438D-B13B-26367EA3DDD7}"/>
-    <hyperlink ref="G66" r:id="rId66" xr:uid="{EA484B3E-9C61-4492-9A50-6F3964F8795D}"/>
-    <hyperlink ref="H66" r:id="rId67" xr:uid="{864AE309-4E0A-44A1-B303-A2F1A4A0297B}"/>
-    <hyperlink ref="I66" r:id="rId68" xr:uid="{3DB4FAC7-8715-4F17-B3C1-F6163570686C}"/>
-    <hyperlink ref="D67" r:id="rId69" xr:uid="{0502039E-2F36-475E-9926-BC8EC1A6FEF6}"/>
-    <hyperlink ref="E67" r:id="rId70" xr:uid="{1E7BBF5A-B989-43FB-ACC8-5895F3CDF9F0}"/>
-    <hyperlink ref="F67" r:id="rId71" xr:uid="{59ED70AC-6B48-491D-85B4-0D1E56CA68C1}"/>
-    <hyperlink ref="G67" r:id="rId72" xr:uid="{94044289-FB09-498E-9776-57B9264E0AF9}"/>
-    <hyperlink ref="H67" r:id="rId73" xr:uid="{4EC8CE29-EC3A-4841-94F1-859C65763BC4}"/>
-    <hyperlink ref="I67" r:id="rId74" xr:uid="{B584CD59-7921-4D8F-AD36-A3FBCA81B555}"/>
-    <hyperlink ref="J67" r:id="rId75" xr:uid="{BBAE8599-1A7D-4F05-8115-6EBAE89C58BE}"/>
-    <hyperlink ref="K67" r:id="rId76" xr:uid="{0D99262A-6C1A-426C-ABE1-7C2B04A698D0}"/>
-    <hyperlink ref="L67" r:id="rId77" xr:uid="{07FCB2E9-C53C-46B0-A6B6-1267A6DED228}"/>
-    <hyperlink ref="D68" r:id="rId78" xr:uid="{40C56C20-3BE4-413E-B482-72434CCD678C}"/>
-    <hyperlink ref="D69" r:id="rId79" xr:uid="{E9DE2E0A-6748-4ECA-819A-EFA6231F8B4F}"/>
-    <hyperlink ref="E69" r:id="rId80" xr:uid="{EB3A3A21-2CD6-4AD0-ADFF-83D40721D538}"/>
-    <hyperlink ref="D70" r:id="rId81" xr:uid="{576818BB-AFF0-4178-9FC2-02C6CEBCC187}"/>
-    <hyperlink ref="E70" r:id="rId82" xr:uid="{E347CC51-11FF-47F0-A280-4239A35DEDE6}"/>
-    <hyperlink ref="F70" r:id="rId83" xr:uid="{BFB69ACB-BA2D-4DE8-BB09-79D32BBEE6CD}"/>
-    <hyperlink ref="G70" r:id="rId84" xr:uid="{A472FBFF-6591-4A13-ACDD-253CF2890018}"/>
-    <hyperlink ref="H70" r:id="rId85" xr:uid="{71FE9FEC-8CD0-4B32-891F-EE29202ED9D1}"/>
-    <hyperlink ref="I70" r:id="rId86" xr:uid="{0844DFCB-3E98-4998-8BE5-C20742492164}"/>
-    <hyperlink ref="J70" r:id="rId87" xr:uid="{07F106E4-A31C-4934-A447-31C4F9AE22A6}"/>
-    <hyperlink ref="K70" r:id="rId88" xr:uid="{8C14BF1B-AEC0-44A1-9B9F-04DF8D4A1F39}"/>
-    <hyperlink ref="L70" r:id="rId89" xr:uid="{03371DBE-E492-460F-8504-18E15667A886}"/>
-    <hyperlink ref="M70" r:id="rId90" xr:uid="{701108C8-71C3-409C-927B-998B7A310164}"/>
-    <hyperlink ref="N70" r:id="rId91" xr:uid="{80577237-8D5C-4AF7-A131-734507C3992A}"/>
-    <hyperlink ref="O70" r:id="rId92" xr:uid="{755DDEB3-F86D-47E0-AB64-9F69BE1BDA35}"/>
-    <hyperlink ref="P70" r:id="rId93" xr:uid="{0CBED192-B223-4539-BB16-07BF36B16214}"/>
-    <hyperlink ref="Q70" r:id="rId94" xr:uid="{6B90EB52-8023-465A-8EF0-B373AD2D3E90}"/>
-    <hyperlink ref="R70" r:id="rId95" xr:uid="{71B825D7-0B4B-4AAE-8E55-1D28D21E1E73}"/>
-    <hyperlink ref="S70" r:id="rId96" xr:uid="{DB590046-FB32-4068-82F7-623105B6F952}"/>
-    <hyperlink ref="T70" r:id="rId97" xr:uid="{43F22B1E-5695-46C0-9297-85FFB13AC69D}"/>
-    <hyperlink ref="U70" r:id="rId98" xr:uid="{E3DB0ACB-CD59-472A-9958-0C2B51A4F314}"/>
-    <hyperlink ref="V70" r:id="rId99" xr:uid="{551E7886-6F83-46E0-8944-52C273086E64}"/>
-    <hyperlink ref="W70" r:id="rId100" xr:uid="{83835B58-B336-42F1-AC36-961A9BAA832E}"/>
-    <hyperlink ref="Y70" r:id="rId101" display="20231127\20231127_Dhaira1\20231127_Maria Cosette_Dhaira_location2_IMG_0259.MOV" xr:uid="{B282D23C-EF02-4FF6-B426-BE072A7E5B8C}"/>
-    <hyperlink ref="Z70" r:id="rId102" display="20231127\20231127_Dhaira1\20231127_Maria Cosette_Dhaira_location2_IMG_0152.JPG" xr:uid="{DB2CA9DD-BE2F-4414-A022-B732C0D34B24}"/>
-    <hyperlink ref="AA70" r:id="rId103" display="20231127\20231127_Dhaira1\20231127_Maria Cosette_Dhaira_location2_IMG_0242.JPG" xr:uid="{B3F7C7FD-B8B5-494B-909E-8D4803198C07}"/>
-    <hyperlink ref="D75" r:id="rId104" xr:uid="{344751B6-F05B-4009-95E0-CB898ADEB159}"/>
-    <hyperlink ref="E75" r:id="rId105" xr:uid="{527EF238-2A21-4DF2-89F8-38245C4F5BFA}"/>
-    <hyperlink ref="G75" r:id="rId106" xr:uid="{6D9FE7A8-3381-492D-8E7E-D0C5F8A703B7}"/>
-    <hyperlink ref="F75" r:id="rId107" xr:uid="{005F1371-3B04-4D06-BD35-F146D983F3CB}"/>
-    <hyperlink ref="E80" r:id="rId108" xr:uid="{7F29DEDF-E761-41CE-9903-99B5C7B903F5}"/>
-    <hyperlink ref="F80" r:id="rId109" xr:uid="{D7DC41C7-0CCC-4D2B-BF60-17A47162286B}"/>
-    <hyperlink ref="G80" r:id="rId110" xr:uid="{A7A2459A-1BD2-4126-826F-0649AA54B2B4}"/>
-    <hyperlink ref="H80" r:id="rId111" xr:uid="{B595072B-8DE4-42D5-AF71-E9E8B4CBD574}"/>
-    <hyperlink ref="I80" r:id="rId112" xr:uid="{6FCBEE3F-E64D-419D-B5BF-44B6368EB184}"/>
-    <hyperlink ref="J80" r:id="rId113" xr:uid="{D1FC6885-5690-4525-8A88-53518444F874}"/>
-    <hyperlink ref="K80" r:id="rId114" xr:uid="{5E7B13B8-6DBD-4BB6-ABE3-61465AEC4364}"/>
-    <hyperlink ref="D81" r:id="rId115" xr:uid="{511D87CC-D70F-41F8-A14A-30074F90CD50}"/>
-    <hyperlink ref="D82" r:id="rId116" xr:uid="{B09C1376-C013-4BA0-A8DD-628D62DD96AD}"/>
-    <hyperlink ref="D94" r:id="rId117" xr:uid="{F841E600-2066-4194-BD3B-7CD5FB386FE9}"/>
-    <hyperlink ref="E94" r:id="rId118" xr:uid="{2BAB6CC8-57B5-4B48-A87C-32635B0DF071}"/>
-    <hyperlink ref="D117" r:id="rId119" xr:uid="{05F85689-819A-4A74-95A9-61FD149B28C5}"/>
-    <hyperlink ref="E117" r:id="rId120" xr:uid="{12CB9FBB-A852-44F7-A203-CB9FE588C36B}"/>
-    <hyperlink ref="F117" r:id="rId121" xr:uid="{DA8129E8-AF9A-42E6-8881-ED8B394499F5}"/>
-    <hyperlink ref="G117" r:id="rId122" xr:uid="{BD036F21-B023-4009-813E-218A89A18C91}"/>
-    <hyperlink ref="D119" r:id="rId123" xr:uid="{900CB1FA-EFAD-4AB6-9FFF-2353AF048876}"/>
-    <hyperlink ref="D121" r:id="rId124" xr:uid="{E4F6B677-6073-4196-99C1-E99D35A90627}"/>
-    <hyperlink ref="E121" r:id="rId125" xr:uid="{14B152DA-4572-4411-BF6D-F12E7606615C}"/>
-    <hyperlink ref="D122" r:id="rId126" xr:uid="{BCC2F946-78D9-4659-923C-A6694B694855}"/>
-    <hyperlink ref="D124" r:id="rId127" xr:uid="{5DBC946C-0AFC-4E25-B2F8-CED8E25981ED}"/>
-    <hyperlink ref="E124" r:id="rId128" xr:uid="{625D7D74-28C1-4E5E-BD2A-6D2F61A8FC65}"/>
-    <hyperlink ref="D134" r:id="rId129" xr:uid="{1728EE38-2DF9-42CA-A5B1-A0E0C62751B0}"/>
-    <hyperlink ref="E134" r:id="rId130" xr:uid="{ED84C99B-9F9A-463E-95C2-927EEF5F4D13}"/>
-    <hyperlink ref="D135" r:id="rId131" xr:uid="{F447741B-7B9C-4FB3-A154-0E6BC98C5A8B}"/>
-    <hyperlink ref="D136" r:id="rId132" xr:uid="{1E58336F-5ACA-4CE1-A813-7744EAEF2457}"/>
-    <hyperlink ref="D166" r:id="rId133" xr:uid="{4D617FEC-31E7-43EC-80F1-B7B172AF456C}"/>
-    <hyperlink ref="E166" r:id="rId134" xr:uid="{4146683C-63BC-495F-B573-48F36EA57860}"/>
-    <hyperlink ref="D167" r:id="rId135" xr:uid="{71537D31-F168-464D-A79C-963E01B6DB0B}"/>
-    <hyperlink ref="E167" r:id="rId136" xr:uid="{DA03138A-A3C7-4EE3-ABD2-2CCEF85C2B33}"/>
-    <hyperlink ref="F167" r:id="rId137" xr:uid="{AF86B621-C3FB-4FD3-A9DA-FDFE19B92C03}"/>
-    <hyperlink ref="G167" r:id="rId138" xr:uid="{DB7404A4-FE8D-4B3F-9D58-6F85710783B8}"/>
-    <hyperlink ref="H167" r:id="rId139" xr:uid="{ACA995FC-1566-4E82-A94C-127401AE7BD9}"/>
-    <hyperlink ref="I167" r:id="rId140" xr:uid="{147666A0-2325-4DFE-8CFE-BBDFF6396348}"/>
-    <hyperlink ref="D168" r:id="rId141" xr:uid="{2709DD58-6608-43D7-A54D-D1641255ABC5}"/>
-    <hyperlink ref="E168" r:id="rId142" xr:uid="{2AAFDA22-3C89-46B2-A880-3E124BC14E59}"/>
-    <hyperlink ref="D169" r:id="rId143" xr:uid="{B86F5395-62A8-49E1-AD1F-EEFD763DA1B7}"/>
-    <hyperlink ref="D182" r:id="rId144" xr:uid="{72C79066-5B6E-4CE7-BACE-F1737DDA59CB}"/>
-    <hyperlink ref="D199" r:id="rId145" xr:uid="{911E8819-9B83-440C-A52F-A721E540DF80}"/>
-    <hyperlink ref="E199" r:id="rId146" xr:uid="{46F6EC9E-3D03-4FCC-B8F0-2CA7D3BC8E71}"/>
-    <hyperlink ref="F199" r:id="rId147" xr:uid="{743827E6-6FA5-4DA6-A380-0B8A6F8028F6}"/>
-    <hyperlink ref="G199" r:id="rId148" xr:uid="{0384AE93-C7CE-4B08-AD00-BD75D9657F13}"/>
-    <hyperlink ref="H199" r:id="rId149" xr:uid="{E8423CCC-96E2-40EB-B16F-9232402B57AE}"/>
-    <hyperlink ref="I199" r:id="rId150" xr:uid="{510DEB5D-9F36-4114-9BF6-096B317CE2AC}"/>
-    <hyperlink ref="D213" r:id="rId151" xr:uid="{22EAB6CF-2591-4AA6-859C-8AFE24E0FEA8}"/>
-    <hyperlink ref="E213" r:id="rId152" xr:uid="{5C69A82B-EBDA-4E1D-AC2F-53899E14F85B}"/>
-    <hyperlink ref="G213" r:id="rId153" xr:uid="{5DE9FFF6-55FD-4FBB-9165-1FE07732B157}"/>
-    <hyperlink ref="H213" r:id="rId154" xr:uid="{95CFEB41-C529-4A99-8C8C-9B6F1FD94AAA}"/>
-    <hyperlink ref="F213" r:id="rId155" xr:uid="{8AC21ADD-1DA9-4413-A0DA-37F36DBA5C94}"/>
-    <hyperlink ref="D221" r:id="rId156" xr:uid="{7944199D-9665-4DBB-9E3D-5ED823260F59}"/>
-    <hyperlink ref="E221" r:id="rId157" xr:uid="{9F9CDCB4-B37A-46AE-9CF3-823DAFCED279}"/>
-    <hyperlink ref="D234" r:id="rId158" xr:uid="{9B59D698-5FBE-4383-A17D-61A2F3975C48}"/>
-    <hyperlink ref="E234" r:id="rId159" xr:uid="{B522C5C1-368C-4F17-80FD-2D2FA384EC83}"/>
-    <hyperlink ref="F234" r:id="rId160" xr:uid="{F276E04B-4B82-4FBF-862E-203B03943397}"/>
-    <hyperlink ref="G234" r:id="rId161" xr:uid="{F6829AE6-1EFD-4DA8-81BD-6239979CD87A}"/>
-    <hyperlink ref="H234" r:id="rId162" xr:uid="{8E0056EA-F973-4C64-90C5-48047729F807}"/>
-    <hyperlink ref="D239" r:id="rId163" xr:uid="{BB4B0A54-EA34-48A1-81EC-83CA27033611}"/>
-    <hyperlink ref="E239" r:id="rId164" xr:uid="{6F79A2AB-E2A6-4ABB-9D61-317621757C05}"/>
-    <hyperlink ref="F239" r:id="rId165" xr:uid="{13304604-9C7F-4108-A2DB-0C073DD6F816}"/>
-    <hyperlink ref="G239" r:id="rId166" xr:uid="{B3134AC8-8FC9-4C20-A543-31D77BDCDFA5}"/>
-    <hyperlink ref="D247" r:id="rId167" xr:uid="{B0B75C0A-DE10-48B7-91A4-39C9B49F1190}"/>
-    <hyperlink ref="D259" r:id="rId168" xr:uid="{8A3EDDF6-53C6-45B7-BC9A-EFB77A0C6405}"/>
-    <hyperlink ref="D260" r:id="rId169" xr:uid="{7EBF8210-1C5C-475A-9EE7-23C46ED89C8B}"/>
-    <hyperlink ref="D261" r:id="rId170" xr:uid="{ED130BCB-75ED-439B-8801-7052A4A8644E}"/>
-    <hyperlink ref="D262" r:id="rId171" xr:uid="{349A15DC-EC7B-435F-8D8F-ED27A30327E2}"/>
-    <hyperlink ref="E262" r:id="rId172" xr:uid="{5CC81365-8CB1-4F4B-A7D8-44DCBA999310}"/>
-    <hyperlink ref="F262" r:id="rId173" xr:uid="{4F407D3E-2072-466D-BE81-5BEBEFBD46E4}"/>
-    <hyperlink ref="G262" r:id="rId174" xr:uid="{8C3FB8F0-4C96-4D39-9CEF-2D65F3D19C9B}"/>
-    <hyperlink ref="H262" r:id="rId175" xr:uid="{ECEBF426-3489-4245-A230-B1F3362215FB}"/>
-    <hyperlink ref="I262" r:id="rId176" xr:uid="{AD485175-2FF3-4005-AB97-E839ED91E8BD}"/>
-    <hyperlink ref="J262" r:id="rId177" xr:uid="{16E19AE0-A50A-4038-A2AB-AC86B1D5529A}"/>
-    <hyperlink ref="K262" r:id="rId178" xr:uid="{6D981592-6410-42D7-AA59-35BFAD0702AA}"/>
-    <hyperlink ref="L262" r:id="rId179" xr:uid="{9EAEC803-21CE-46CA-A8AA-B88F8BAF2A0B}"/>
-    <hyperlink ref="D263" r:id="rId180" xr:uid="{7732C70A-7F0E-48B9-A85E-E3A4EF7E3DBF}"/>
-    <hyperlink ref="D264" r:id="rId181" xr:uid="{8BFFCD31-BE20-4197-91F8-9818BA8BF4AE}"/>
-    <hyperlink ref="D272" r:id="rId182" xr:uid="{3D79C244-5F51-47DB-8DCF-8B14BE504C64}"/>
-    <hyperlink ref="D282" r:id="rId183" xr:uid="{D24407FF-13EC-4F35-8B38-4389246EB75D}"/>
-    <hyperlink ref="E282" r:id="rId184" xr:uid="{1B1D4A32-74D6-4B1A-8DD6-DD01C908B0E8}"/>
-    <hyperlink ref="F282" r:id="rId185" xr:uid="{87F6A76D-0ADD-4040-9A1F-1A367B575759}"/>
-    <hyperlink ref="G282" r:id="rId186" xr:uid="{044F46CE-6671-4F34-96C5-B69C16EA3E39}"/>
-    <hyperlink ref="H282" r:id="rId187" xr:uid="{4B4A7088-672A-4B43-A9BC-836E1ABD2AAE}"/>
-    <hyperlink ref="I282" r:id="rId188" xr:uid="{2C193EA9-29D1-4714-AB5A-C2777C7DA307}"/>
-    <hyperlink ref="J282" r:id="rId189" xr:uid="{800CF499-2C4F-4CD9-A3B6-739231958233}"/>
-    <hyperlink ref="K282" r:id="rId190" xr:uid="{E621632C-2D4B-4FB7-8A33-C147C971F519}"/>
-    <hyperlink ref="D294" r:id="rId191" xr:uid="{C07F1FE5-7D9A-4480-8193-87BB4384EDD5}"/>
-    <hyperlink ref="E301" r:id="rId192" xr:uid="{5987DCDE-C0D1-4BCC-B9F9-DBEA33D757B9}"/>
-    <hyperlink ref="D301" r:id="rId193" xr:uid="{8DF4BE91-1068-41B9-92FD-E242163D972D}"/>
-    <hyperlink ref="D302" r:id="rId194" xr:uid="{4728DC73-AD53-40CF-8C18-3D028ACD6C5C}"/>
-    <hyperlink ref="D318" r:id="rId195" xr:uid="{BFF419A3-B55B-4B4F-8276-C525791843CE}"/>
-    <hyperlink ref="D319" r:id="rId196" xr:uid="{DB200AA8-7D47-4726-BAF8-F6B5C743EE7E}"/>
-    <hyperlink ref="E319" r:id="rId197" xr:uid="{C80772A0-8A18-4052-866F-DFA6A12E4B99}"/>
-    <hyperlink ref="D325" r:id="rId198" xr:uid="{396EB1BE-791F-402C-A419-E07362BA60FC}"/>
-    <hyperlink ref="D332" r:id="rId199" xr:uid="{963E803C-F09B-4282-BA5C-168C9FA65036}"/>
-    <hyperlink ref="E332" r:id="rId200" xr:uid="{5E758D1B-3D6F-4BA6-8788-9B91A3B34088}"/>
-    <hyperlink ref="F332" r:id="rId201" xr:uid="{89C71FE4-4C36-4DF6-B50B-AD0A8E33E3E7}"/>
-    <hyperlink ref="G332" r:id="rId202" xr:uid="{F2198727-77A5-4A9D-B369-DB395C6CD098}"/>
-    <hyperlink ref="H332" r:id="rId203" xr:uid="{EFC425E2-D800-4A3D-9F83-04C528904387}"/>
-    <hyperlink ref="D362" r:id="rId204" xr:uid="{500078E0-7A47-444B-BF4C-06502CA18684}"/>
-    <hyperlink ref="E362" r:id="rId205" xr:uid="{6A72D9F5-81C4-4464-9CCE-0AED0FF6E80A}"/>
-    <hyperlink ref="D366" r:id="rId206" xr:uid="{DD8B1EBC-D47B-49C9-A8B4-F279AE2D92D5}"/>
-    <hyperlink ref="E366" r:id="rId207" xr:uid="{67EFF7BB-5C5B-47F4-AB4C-4BD6C4EB4941}"/>
-    <hyperlink ref="F366" r:id="rId208" xr:uid="{785D9193-8260-40D9-AA0A-A6ECAF1A808C}"/>
-    <hyperlink ref="G366" r:id="rId209" xr:uid="{14C9681D-4874-48B5-B25E-7E1AC14663B5}"/>
-    <hyperlink ref="H366" r:id="rId210" xr:uid="{12319D18-C183-467A-B89E-6E16433E20FF}"/>
-    <hyperlink ref="I366" r:id="rId211" xr:uid="{41254C20-C32F-4870-A4BF-0E2B698951EC}"/>
-    <hyperlink ref="J366" r:id="rId212" xr:uid="{0BACDEB3-06F5-4839-BA63-AF092671B6BC}"/>
-    <hyperlink ref="K366" r:id="rId213" xr:uid="{C91D41C4-F740-4ECE-B7D5-BDC7D31AC3DD}"/>
-    <hyperlink ref="D367" r:id="rId214" xr:uid="{B5EE64D8-4834-469C-ACBA-4D3A993910AC}"/>
-    <hyperlink ref="E367" r:id="rId215" xr:uid="{711EE95E-62E1-44FF-B968-C30F8229D18E}"/>
-    <hyperlink ref="D373" r:id="rId216" xr:uid="{20AA1588-1AD6-49A3-A26C-344DC8341E2C}"/>
-    <hyperlink ref="E373" r:id="rId217" xr:uid="{A5047222-3232-4F45-A1B0-447782D01EB8}"/>
-    <hyperlink ref="D381" r:id="rId218" xr:uid="{0A1417A7-EBA8-4641-9DC2-9C89A113558F}"/>
-    <hyperlink ref="E381" r:id="rId219" xr:uid="{542E56F6-05AE-4D44-8346-C3F3FC39FBB7}"/>
-    <hyperlink ref="D382" r:id="rId220" xr:uid="{47311264-ABB2-41C4-81B8-F9669327F3D6}"/>
-    <hyperlink ref="E382" r:id="rId221" xr:uid="{352A143E-5660-41A9-94E4-7162D82364D8}"/>
-    <hyperlink ref="F382" r:id="rId222" xr:uid="{1B497C03-0939-4720-9952-F58E194262E6}"/>
-    <hyperlink ref="D383" r:id="rId223" xr:uid="{A50A9CA3-B5F3-4948-A0FD-FCD6DE7376B6}"/>
-    <hyperlink ref="D384" r:id="rId224" xr:uid="{20DAAD2A-51FC-46A9-9D3B-CBBAD5456DF7}"/>
-    <hyperlink ref="E384" r:id="rId225" xr:uid="{9397DF03-4275-4963-A37A-21DD2CEAA03C}"/>
-    <hyperlink ref="F384" r:id="rId226" xr:uid="{CD02FEFA-3EF1-4749-B483-6D1523A103CC}"/>
-    <hyperlink ref="G384" r:id="rId227" xr:uid="{3EF974CC-D30B-4FAC-B645-F438FCDBA660}"/>
-    <hyperlink ref="H384" r:id="rId228" xr:uid="{325E095B-4C8E-4BDC-AAEC-2423078C5B12}"/>
-    <hyperlink ref="I384" r:id="rId229" xr:uid="{05070ECF-47B5-4EE7-A505-331DD170BA7A}"/>
-    <hyperlink ref="J384" r:id="rId230" xr:uid="{EEE48E95-878B-4B65-97C0-86E70EF45156}"/>
-    <hyperlink ref="K384" r:id="rId231" xr:uid="{52FA2EC9-C622-41E1-8115-99227031E76C}"/>
-    <hyperlink ref="L384" r:id="rId232" xr:uid="{E4CD4CC6-F0BE-4D83-B53B-961BE5CE6532}"/>
-    <hyperlink ref="M384" r:id="rId233" xr:uid="{3F8AF0FD-8B3D-409C-A76F-1D687AAA6C5F}"/>
-    <hyperlink ref="N384" r:id="rId234" xr:uid="{B976CA90-2546-4869-9A63-1590AB1209AC}"/>
-    <hyperlink ref="O384" r:id="rId235" xr:uid="{A1863009-A1D3-47A6-B03D-551E57070CA4}"/>
-    <hyperlink ref="P384" r:id="rId236" xr:uid="{B557EAF8-F2BF-41F2-BDFA-A9DEF7921CAA}"/>
-    <hyperlink ref="Q384" r:id="rId237" xr:uid="{DE1B0EA0-8944-4F28-B4FD-37074DF70AE1}"/>
-    <hyperlink ref="R384" r:id="rId238" xr:uid="{4FE81C3F-0FD5-4C5C-A535-419126836CEE}"/>
-    <hyperlink ref="D385" r:id="rId239" xr:uid="{E82174FD-EC20-447A-BE93-5775E081CE0B}"/>
-    <hyperlink ref="E385" r:id="rId240" xr:uid="{5623BA65-1E02-4CE5-87A4-E4376B58A659}"/>
-    <hyperlink ref="F385" r:id="rId241" xr:uid="{4634900E-8974-4C1A-9B89-5AE384FDC22F}"/>
-    <hyperlink ref="G385" r:id="rId242" xr:uid="{E6FB04BD-7879-4C61-9017-9C2B94F64B4D}"/>
-    <hyperlink ref="D80" r:id="rId243" display="20231207\20231207_Rmaysh1\GreenSoutherners136 _20231207 أطراف رميش فوسفوري.jpeg" xr:uid="{01C6AA7F-59A8-4BEF-B52B-2A6AD22A724B}"/>
-    <hyperlink ref="D79" r:id="rId244" display="20231206\20231206_Meiss El Jabal\GreenSoutherners135 _20231206 ميس الجبل وأطراف حولا فوسفوري.mp4" xr:uid="{F089EE6D-851D-4D2C-AF69-E0C07BD244CB}"/>
+    <hyperlink ref="D67" r:id="rId59" xr:uid="{7C2DAD79-80F7-4B2F-BCEB-89D08DAFE200}"/>
+    <hyperlink ref="E67" r:id="rId60" xr:uid="{8743C6BB-8FBF-476D-95F4-035A548BA38F}"/>
+    <hyperlink ref="F67" r:id="rId61" xr:uid="{ED99DEBC-549D-438D-B13B-26367EA3DDD7}"/>
+    <hyperlink ref="G67" r:id="rId62" xr:uid="{EA484B3E-9C61-4492-9A50-6F3964F8795D}"/>
+    <hyperlink ref="H67" r:id="rId63" xr:uid="{864AE309-4E0A-44A1-B303-A2F1A4A0297B}"/>
+    <hyperlink ref="I67" r:id="rId64" xr:uid="{3DB4FAC7-8715-4F17-B3C1-F6163570686C}"/>
+    <hyperlink ref="D68" r:id="rId65" xr:uid="{0502039E-2F36-475E-9926-BC8EC1A6FEF6}"/>
+    <hyperlink ref="E68" r:id="rId66" xr:uid="{1E7BBF5A-B989-43FB-ACC8-5895F3CDF9F0}"/>
+    <hyperlink ref="F68" r:id="rId67" xr:uid="{59ED70AC-6B48-491D-85B4-0D1E56CA68C1}"/>
+    <hyperlink ref="G68" r:id="rId68" xr:uid="{94044289-FB09-498E-9776-57B9264E0AF9}"/>
+    <hyperlink ref="H68" r:id="rId69" xr:uid="{4EC8CE29-EC3A-4841-94F1-859C65763BC4}"/>
+    <hyperlink ref="I68" r:id="rId70" xr:uid="{B584CD59-7921-4D8F-AD36-A3FBCA81B555}"/>
+    <hyperlink ref="J68" r:id="rId71" xr:uid="{BBAE8599-1A7D-4F05-8115-6EBAE89C58BE}"/>
+    <hyperlink ref="K68" r:id="rId72" xr:uid="{0D99262A-6C1A-426C-ABE1-7C2B04A698D0}"/>
+    <hyperlink ref="L68" r:id="rId73" xr:uid="{07FCB2E9-C53C-46B0-A6B6-1267A6DED228}"/>
+    <hyperlink ref="D69" r:id="rId74" xr:uid="{40C56C20-3BE4-413E-B482-72434CCD678C}"/>
+    <hyperlink ref="D70" r:id="rId75" xr:uid="{E9DE2E0A-6748-4ECA-819A-EFA6231F8B4F}"/>
+    <hyperlink ref="E70" r:id="rId76" xr:uid="{EB3A3A21-2CD6-4AD0-ADFF-83D40721D538}"/>
+    <hyperlink ref="D71" r:id="rId77" xr:uid="{576818BB-AFF0-4178-9FC2-02C6CEBCC187}"/>
+    <hyperlink ref="E71" r:id="rId78" xr:uid="{E347CC51-11FF-47F0-A280-4239A35DEDE6}"/>
+    <hyperlink ref="F71" r:id="rId79" xr:uid="{BFB69ACB-BA2D-4DE8-BB09-79D32BBEE6CD}"/>
+    <hyperlink ref="G71" r:id="rId80" xr:uid="{A472FBFF-6591-4A13-ACDD-253CF2890018}"/>
+    <hyperlink ref="H71" r:id="rId81" xr:uid="{71FE9FEC-8CD0-4B32-891F-EE29202ED9D1}"/>
+    <hyperlink ref="I71" r:id="rId82" xr:uid="{0844DFCB-3E98-4998-8BE5-C20742492164}"/>
+    <hyperlink ref="J71" r:id="rId83" xr:uid="{07F106E4-A31C-4934-A447-31C4F9AE22A6}"/>
+    <hyperlink ref="K71" r:id="rId84" xr:uid="{8C14BF1B-AEC0-44A1-9B9F-04DF8D4A1F39}"/>
+    <hyperlink ref="L71" r:id="rId85" xr:uid="{03371DBE-E492-460F-8504-18E15667A886}"/>
+    <hyperlink ref="M71" r:id="rId86" xr:uid="{701108C8-71C3-409C-927B-998B7A310164}"/>
+    <hyperlink ref="N71" r:id="rId87" xr:uid="{80577237-8D5C-4AF7-A131-734507C3992A}"/>
+    <hyperlink ref="O71" r:id="rId88" xr:uid="{755DDEB3-F86D-47E0-AB64-9F69BE1BDA35}"/>
+    <hyperlink ref="P71" r:id="rId89" xr:uid="{0CBED192-B223-4539-BB16-07BF36B16214}"/>
+    <hyperlink ref="Q71" r:id="rId90" xr:uid="{6B90EB52-8023-465A-8EF0-B373AD2D3E90}"/>
+    <hyperlink ref="R71" r:id="rId91" xr:uid="{71B825D7-0B4B-4AAE-8E55-1D28D21E1E73}"/>
+    <hyperlink ref="S71" r:id="rId92" xr:uid="{DB590046-FB32-4068-82F7-623105B6F952}"/>
+    <hyperlink ref="T71" r:id="rId93" xr:uid="{43F22B1E-5695-46C0-9297-85FFB13AC69D}"/>
+    <hyperlink ref="U71" r:id="rId94" xr:uid="{E3DB0ACB-CD59-472A-9958-0C2B51A4F314}"/>
+    <hyperlink ref="V71" r:id="rId95" xr:uid="{551E7886-6F83-46E0-8944-52C273086E64}"/>
+    <hyperlink ref="W71" r:id="rId96" xr:uid="{83835B58-B336-42F1-AC36-961A9BAA832E}"/>
+    <hyperlink ref="Y71" r:id="rId97" display="20231127\20231127_Dhaira1\20231127_Maria Cosette_Dhaira_location2_IMG_0259.MOV" xr:uid="{B282D23C-EF02-4FF6-B426-BE072A7E5B8C}"/>
+    <hyperlink ref="Z71" r:id="rId98" display="20231127\20231127_Dhaira1\20231127_Maria Cosette_Dhaira_location2_IMG_0152.JPG" xr:uid="{DB2CA9DD-BE2F-4414-A022-B732C0D34B24}"/>
+    <hyperlink ref="AA71" r:id="rId99" display="20231127\20231127_Dhaira1\20231127_Maria Cosette_Dhaira_location2_IMG_0242.JPG" xr:uid="{B3F7C7FD-B8B5-494B-909E-8D4803198C07}"/>
+    <hyperlink ref="D76" r:id="rId100" xr:uid="{344751B6-F05B-4009-95E0-CB898ADEB159}"/>
+    <hyperlink ref="E76" r:id="rId101" xr:uid="{527EF238-2A21-4DF2-89F8-38245C4F5BFA}"/>
+    <hyperlink ref="G76" r:id="rId102" xr:uid="{6D9FE7A8-3381-492D-8E7E-D0C5F8A703B7}"/>
+    <hyperlink ref="F76" r:id="rId103" xr:uid="{005F1371-3B04-4D06-BD35-F146D983F3CB}"/>
+    <hyperlink ref="E81" r:id="rId104" xr:uid="{7F29DEDF-E761-41CE-9903-99B5C7B903F5}"/>
+    <hyperlink ref="F81" r:id="rId105" xr:uid="{D7DC41C7-0CCC-4D2B-BF60-17A47162286B}"/>
+    <hyperlink ref="G81" r:id="rId106" xr:uid="{A7A2459A-1BD2-4126-826F-0649AA54B2B4}"/>
+    <hyperlink ref="H81" r:id="rId107" xr:uid="{B595072B-8DE4-42D5-AF71-E9E8B4CBD574}"/>
+    <hyperlink ref="I81" r:id="rId108" xr:uid="{6FCBEE3F-E64D-419D-B5BF-44B6368EB184}"/>
+    <hyperlink ref="J81" r:id="rId109" xr:uid="{D1FC6885-5690-4525-8A88-53518444F874}"/>
+    <hyperlink ref="K81" r:id="rId110" xr:uid="{5E7B13B8-6DBD-4BB6-ABE3-61465AEC4364}"/>
+    <hyperlink ref="D82" r:id="rId111" xr:uid="{511D87CC-D70F-41F8-A14A-30074F90CD50}"/>
+    <hyperlink ref="D83" r:id="rId112" xr:uid="{B09C1376-C013-4BA0-A8DD-628D62DD96AD}"/>
+    <hyperlink ref="D95" r:id="rId113" xr:uid="{F841E600-2066-4194-BD3B-7CD5FB386FE9}"/>
+    <hyperlink ref="E95" r:id="rId114" xr:uid="{2BAB6CC8-57B5-4B48-A87C-32635B0DF071}"/>
+    <hyperlink ref="D118" r:id="rId115" xr:uid="{05F85689-819A-4A74-95A9-61FD149B28C5}"/>
+    <hyperlink ref="E118" r:id="rId116" xr:uid="{12CB9FBB-A852-44F7-A203-CB9FE588C36B}"/>
+    <hyperlink ref="F118" r:id="rId117" xr:uid="{DA8129E8-AF9A-42E6-8881-ED8B394499F5}"/>
+    <hyperlink ref="G118" r:id="rId118" xr:uid="{BD036F21-B023-4009-813E-218A89A18C91}"/>
+    <hyperlink ref="D120" r:id="rId119" xr:uid="{900CB1FA-EFAD-4AB6-9FFF-2353AF048876}"/>
+    <hyperlink ref="D122" r:id="rId120" xr:uid="{E4F6B677-6073-4196-99C1-E99D35A90627}"/>
+    <hyperlink ref="E122" r:id="rId121" xr:uid="{14B152DA-4572-4411-BF6D-F12E7606615C}"/>
+    <hyperlink ref="D123" r:id="rId122" xr:uid="{BCC2F946-78D9-4659-923C-A6694B694855}"/>
+    <hyperlink ref="D125" r:id="rId123" xr:uid="{5DBC946C-0AFC-4E25-B2F8-CED8E25981ED}"/>
+    <hyperlink ref="E125" r:id="rId124" xr:uid="{625D7D74-28C1-4E5E-BD2A-6D2F61A8FC65}"/>
+    <hyperlink ref="D135" r:id="rId125" xr:uid="{1728EE38-2DF9-42CA-A5B1-A0E0C62751B0}"/>
+    <hyperlink ref="E135" r:id="rId126" xr:uid="{ED84C99B-9F9A-463E-95C2-927EEF5F4D13}"/>
+    <hyperlink ref="D136" r:id="rId127" xr:uid="{F447741B-7B9C-4FB3-A154-0E6BC98C5A8B}"/>
+    <hyperlink ref="D137" r:id="rId128" xr:uid="{1E58336F-5ACA-4CE1-A813-7744EAEF2457}"/>
+    <hyperlink ref="D167" r:id="rId129" xr:uid="{4D617FEC-31E7-43EC-80F1-B7B172AF456C}"/>
+    <hyperlink ref="E167" r:id="rId130" xr:uid="{4146683C-63BC-495F-B573-48F36EA57860}"/>
+    <hyperlink ref="D168" r:id="rId131" xr:uid="{71537D31-F168-464D-A79C-963E01B6DB0B}"/>
+    <hyperlink ref="E168" r:id="rId132" xr:uid="{DA03138A-A3C7-4EE3-ABD2-2CCEF85C2B33}"/>
+    <hyperlink ref="F168" r:id="rId133" xr:uid="{AF86B621-C3FB-4FD3-A9DA-FDFE19B92C03}"/>
+    <hyperlink ref="G168" r:id="rId134" xr:uid="{DB7404A4-FE8D-4B3F-9D58-6F85710783B8}"/>
+    <hyperlink ref="H168" r:id="rId135" xr:uid="{ACA995FC-1566-4E82-A94C-127401AE7BD9}"/>
+    <hyperlink ref="I168" r:id="rId136" xr:uid="{147666A0-2325-4DFE-8CFE-BBDFF6396348}"/>
+    <hyperlink ref="D169" r:id="rId137" xr:uid="{2709DD58-6608-43D7-A54D-D1641255ABC5}"/>
+    <hyperlink ref="E169" r:id="rId138" xr:uid="{2AAFDA22-3C89-46B2-A880-3E124BC14E59}"/>
+    <hyperlink ref="D170" r:id="rId139" xr:uid="{B86F5395-62A8-49E1-AD1F-EEFD763DA1B7}"/>
+    <hyperlink ref="D183" r:id="rId140" xr:uid="{72C79066-5B6E-4CE7-BACE-F1737DDA59CB}"/>
+    <hyperlink ref="D200" r:id="rId141" xr:uid="{911E8819-9B83-440C-A52F-A721E540DF80}"/>
+    <hyperlink ref="E200" r:id="rId142" xr:uid="{46F6EC9E-3D03-4FCC-B8F0-2CA7D3BC8E71}"/>
+    <hyperlink ref="F200" r:id="rId143" xr:uid="{743827E6-6FA5-4DA6-A380-0B8A6F8028F6}"/>
+    <hyperlink ref="G200" r:id="rId144" xr:uid="{0384AE93-C7CE-4B08-AD00-BD75D9657F13}"/>
+    <hyperlink ref="H200" r:id="rId145" xr:uid="{E8423CCC-96E2-40EB-B16F-9232402B57AE}"/>
+    <hyperlink ref="I200" r:id="rId146" xr:uid="{510DEB5D-9F36-4114-9BF6-096B317CE2AC}"/>
+    <hyperlink ref="D214" r:id="rId147" xr:uid="{22EAB6CF-2591-4AA6-859C-8AFE24E0FEA8}"/>
+    <hyperlink ref="E214" r:id="rId148" xr:uid="{5C69A82B-EBDA-4E1D-AC2F-53899E14F85B}"/>
+    <hyperlink ref="G214" r:id="rId149" xr:uid="{5DE9FFF6-55FD-4FBB-9165-1FE07732B157}"/>
+    <hyperlink ref="H214" r:id="rId150" xr:uid="{95CFEB41-C529-4A99-8C8C-9B6F1FD94AAA}"/>
+    <hyperlink ref="F214" r:id="rId151" xr:uid="{8AC21ADD-1DA9-4413-A0DA-37F36DBA5C94}"/>
+    <hyperlink ref="D222" r:id="rId152" xr:uid="{7944199D-9665-4DBB-9E3D-5ED823260F59}"/>
+    <hyperlink ref="E222" r:id="rId153" xr:uid="{9F9CDCB4-B37A-46AE-9CF3-823DAFCED279}"/>
+    <hyperlink ref="D235" r:id="rId154" xr:uid="{9B59D698-5FBE-4383-A17D-61A2F3975C48}"/>
+    <hyperlink ref="E235" r:id="rId155" xr:uid="{B522C5C1-368C-4F17-80FD-2D2FA384EC83}"/>
+    <hyperlink ref="F235" r:id="rId156" xr:uid="{F276E04B-4B82-4FBF-862E-203B03943397}"/>
+    <hyperlink ref="G235" r:id="rId157" xr:uid="{F6829AE6-1EFD-4DA8-81BD-6239979CD87A}"/>
+    <hyperlink ref="H235" r:id="rId158" xr:uid="{8E0056EA-F973-4C64-90C5-48047729F807}"/>
+    <hyperlink ref="D240" r:id="rId159" xr:uid="{BB4B0A54-EA34-48A1-81EC-83CA27033611}"/>
+    <hyperlink ref="E240" r:id="rId160" xr:uid="{6F79A2AB-E2A6-4ABB-9D61-317621757C05}"/>
+    <hyperlink ref="F240" r:id="rId161" xr:uid="{13304604-9C7F-4108-A2DB-0C073DD6F816}"/>
+    <hyperlink ref="G240" r:id="rId162" xr:uid="{B3134AC8-8FC9-4C20-A543-31D77BDCDFA5}"/>
+    <hyperlink ref="D248" r:id="rId163" xr:uid="{B0B75C0A-DE10-48B7-91A4-39C9B49F1190}"/>
+    <hyperlink ref="D260" r:id="rId164" xr:uid="{8A3EDDF6-53C6-45B7-BC9A-EFB77A0C6405}"/>
+    <hyperlink ref="D261" r:id="rId165" xr:uid="{7EBF8210-1C5C-475A-9EE7-23C46ED89C8B}"/>
+    <hyperlink ref="D262" r:id="rId166" xr:uid="{ED130BCB-75ED-439B-8801-7052A4A8644E}"/>
+    <hyperlink ref="D263" r:id="rId167" xr:uid="{349A15DC-EC7B-435F-8D8F-ED27A30327E2}"/>
+    <hyperlink ref="E263" r:id="rId168" xr:uid="{5CC81365-8CB1-4F4B-A7D8-44DCBA999310}"/>
+    <hyperlink ref="F263" r:id="rId169" xr:uid="{4F407D3E-2072-466D-BE81-5BEBEFBD46E4}"/>
+    <hyperlink ref="G263" r:id="rId170" xr:uid="{8C3FB8F0-4C96-4D39-9CEF-2D65F3D19C9B}"/>
+    <hyperlink ref="H263" r:id="rId171" xr:uid="{ECEBF426-3489-4245-A230-B1F3362215FB}"/>
+    <hyperlink ref="I263" r:id="rId172" xr:uid="{AD485175-2FF3-4005-AB97-E839ED91E8BD}"/>
+    <hyperlink ref="J263" r:id="rId173" xr:uid="{16E19AE0-A50A-4038-A2AB-AC86B1D5529A}"/>
+    <hyperlink ref="K263" r:id="rId174" xr:uid="{6D981592-6410-42D7-AA59-35BFAD0702AA}"/>
+    <hyperlink ref="L263" r:id="rId175" xr:uid="{9EAEC803-21CE-46CA-A8AA-B88F8BAF2A0B}"/>
+    <hyperlink ref="D264" r:id="rId176" xr:uid="{7732C70A-7F0E-48B9-A85E-E3A4EF7E3DBF}"/>
+    <hyperlink ref="D265" r:id="rId177" xr:uid="{8BFFCD31-BE20-4197-91F8-9818BA8BF4AE}"/>
+    <hyperlink ref="D273" r:id="rId178" xr:uid="{3D79C244-5F51-47DB-8DCF-8B14BE504C64}"/>
+    <hyperlink ref="D283" r:id="rId179" xr:uid="{D24407FF-13EC-4F35-8B38-4389246EB75D}"/>
+    <hyperlink ref="E283" r:id="rId180" xr:uid="{1B1D4A32-74D6-4B1A-8DD6-DD01C908B0E8}"/>
+    <hyperlink ref="F283" r:id="rId181" xr:uid="{87F6A76D-0ADD-4040-9A1F-1A367B575759}"/>
+    <hyperlink ref="G283" r:id="rId182" xr:uid="{044F46CE-6671-4F34-96C5-B69C16EA3E39}"/>
+    <hyperlink ref="H283" r:id="rId183" xr:uid="{4B4A7088-672A-4B43-A9BC-836E1ABD2AAE}"/>
+    <hyperlink ref="I283" r:id="rId184" xr:uid="{2C193EA9-29D1-4714-AB5A-C2777C7DA307}"/>
+    <hyperlink ref="J283" r:id="rId185" xr:uid="{800CF499-2C4F-4CD9-A3B6-739231958233}"/>
+    <hyperlink ref="K283" r:id="rId186" xr:uid="{E621632C-2D4B-4FB7-8A33-C147C971F519}"/>
+    <hyperlink ref="D295" r:id="rId187" xr:uid="{C07F1FE5-7D9A-4480-8193-87BB4384EDD5}"/>
+    <hyperlink ref="E302" r:id="rId188" xr:uid="{5987DCDE-C0D1-4BCC-B9F9-DBEA33D757B9}"/>
+    <hyperlink ref="D302" r:id="rId189" xr:uid="{8DF4BE91-1068-41B9-92FD-E242163D972D}"/>
+    <hyperlink ref="D303" r:id="rId190" xr:uid="{4728DC73-AD53-40CF-8C18-3D028ACD6C5C}"/>
+    <hyperlink ref="D319" r:id="rId191" xr:uid="{BFF419A3-B55B-4B4F-8276-C525791843CE}"/>
+    <hyperlink ref="D320" r:id="rId192" xr:uid="{DB200AA8-7D47-4726-BAF8-F6B5C743EE7E}"/>
+    <hyperlink ref="E320" r:id="rId193" xr:uid="{C80772A0-8A18-4052-866F-DFA6A12E4B99}"/>
+    <hyperlink ref="D326" r:id="rId194" xr:uid="{396EB1BE-791F-402C-A419-E07362BA60FC}"/>
+    <hyperlink ref="D333" r:id="rId195" xr:uid="{963E803C-F09B-4282-BA5C-168C9FA65036}"/>
+    <hyperlink ref="E333" r:id="rId196" xr:uid="{5E758D1B-3D6F-4BA6-8788-9B91A3B34088}"/>
+    <hyperlink ref="F333" r:id="rId197" xr:uid="{89C71FE4-4C36-4DF6-B50B-AD0A8E33E3E7}"/>
+    <hyperlink ref="G333" r:id="rId198" xr:uid="{F2198727-77A5-4A9D-B369-DB395C6CD098}"/>
+    <hyperlink ref="H333" r:id="rId199" xr:uid="{EFC425E2-D800-4A3D-9F83-04C528904387}"/>
+    <hyperlink ref="D363" r:id="rId200" xr:uid="{500078E0-7A47-444B-BF4C-06502CA18684}"/>
+    <hyperlink ref="E363" r:id="rId201" xr:uid="{6A72D9F5-81C4-4464-9CCE-0AED0FF6E80A}"/>
+    <hyperlink ref="D367" r:id="rId202" xr:uid="{DD8B1EBC-D47B-49C9-A8B4-F279AE2D92D5}"/>
+    <hyperlink ref="E367" r:id="rId203" xr:uid="{67EFF7BB-5C5B-47F4-AB4C-4BD6C4EB4941}"/>
+    <hyperlink ref="F367" r:id="rId204" xr:uid="{785D9193-8260-40D9-AA0A-A6ECAF1A808C}"/>
+    <hyperlink ref="G367" r:id="rId205" xr:uid="{14C9681D-4874-48B5-B25E-7E1AC14663B5}"/>
+    <hyperlink ref="H367" r:id="rId206" xr:uid="{12319D18-C183-467A-B89E-6E16433E20FF}"/>
+    <hyperlink ref="I367" r:id="rId207" xr:uid="{41254C20-C32F-4870-A4BF-0E2B698951EC}"/>
+    <hyperlink ref="J367" r:id="rId208" xr:uid="{0BACDEB3-06F5-4839-BA63-AF092671B6BC}"/>
+    <hyperlink ref="K367" r:id="rId209" xr:uid="{C91D41C4-F740-4ECE-B7D5-BDC7D31AC3DD}"/>
+    <hyperlink ref="D368" r:id="rId210" xr:uid="{B5EE64D8-4834-469C-ACBA-4D3A993910AC}"/>
+    <hyperlink ref="E368" r:id="rId211" xr:uid="{711EE95E-62E1-44FF-B968-C30F8229D18E}"/>
+    <hyperlink ref="D374" r:id="rId212" xr:uid="{20AA1588-1AD6-49A3-A26C-344DC8341E2C}"/>
+    <hyperlink ref="E374" r:id="rId213" xr:uid="{A5047222-3232-4F45-A1B0-447782D01EB8}"/>
+    <hyperlink ref="D382" r:id="rId214" xr:uid="{0A1417A7-EBA8-4641-9DC2-9C89A113558F}"/>
+    <hyperlink ref="E382" r:id="rId215" xr:uid="{542E56F6-05AE-4D44-8346-C3F3FC39FBB7}"/>
+    <hyperlink ref="D383" r:id="rId216" xr:uid="{47311264-ABB2-41C4-81B8-F9669327F3D6}"/>
+    <hyperlink ref="E383" r:id="rId217" xr:uid="{352A143E-5660-41A9-94E4-7162D82364D8}"/>
+    <hyperlink ref="F383" r:id="rId218" xr:uid="{1B497C03-0939-4720-9952-F58E194262E6}"/>
+    <hyperlink ref="D384" r:id="rId219" xr:uid="{A50A9CA3-B5F3-4948-A0FD-FCD6DE7376B6}"/>
+    <hyperlink ref="D385" r:id="rId220" xr:uid="{20DAAD2A-51FC-46A9-9D3B-CBBAD5456DF7}"/>
+    <hyperlink ref="E385" r:id="rId221" xr:uid="{9397DF03-4275-4963-A37A-21DD2CEAA03C}"/>
+    <hyperlink ref="F385" r:id="rId222" xr:uid="{CD02FEFA-3EF1-4749-B483-6D1523A103CC}"/>
+    <hyperlink ref="G385" r:id="rId223" xr:uid="{3EF974CC-D30B-4FAC-B645-F438FCDBA660}"/>
+    <hyperlink ref="H385" r:id="rId224" xr:uid="{325E095B-4C8E-4BDC-AAEC-2423078C5B12}"/>
+    <hyperlink ref="I385" r:id="rId225" xr:uid="{05070ECF-47B5-4EE7-A505-331DD170BA7A}"/>
+    <hyperlink ref="J385" r:id="rId226" xr:uid="{EEE48E95-878B-4B65-97C0-86E70EF45156}"/>
+    <hyperlink ref="K385" r:id="rId227" xr:uid="{52FA2EC9-C622-41E1-8115-99227031E76C}"/>
+    <hyperlink ref="L385" r:id="rId228" xr:uid="{E4CD4CC6-F0BE-4D83-B53B-961BE5CE6532}"/>
+    <hyperlink ref="M385" r:id="rId229" xr:uid="{3F8AF0FD-8B3D-409C-A76F-1D687AAA6C5F}"/>
+    <hyperlink ref="N385" r:id="rId230" xr:uid="{B976CA90-2546-4869-9A63-1590AB1209AC}"/>
+    <hyperlink ref="O385" r:id="rId231" xr:uid="{A1863009-A1D3-47A6-B03D-551E57070CA4}"/>
+    <hyperlink ref="P385" r:id="rId232" xr:uid="{B557EAF8-F2BF-41F2-BDFA-A9DEF7921CAA}"/>
+    <hyperlink ref="Q385" r:id="rId233" xr:uid="{DE1B0EA0-8944-4F28-B4FD-37074DF70AE1}"/>
+    <hyperlink ref="R385" r:id="rId234" xr:uid="{4FE81C3F-0FD5-4C5C-A535-419126836CEE}"/>
+    <hyperlink ref="D386" r:id="rId235" xr:uid="{E82174FD-EC20-447A-BE93-5775E081CE0B}"/>
+    <hyperlink ref="E386" r:id="rId236" xr:uid="{5623BA65-1E02-4CE5-87A4-E4376B58A659}"/>
+    <hyperlink ref="F386" r:id="rId237" xr:uid="{4634900E-8974-4C1A-9B89-5AE384FDC22F}"/>
+    <hyperlink ref="G386" r:id="rId238" xr:uid="{E6FB04BD-7879-4C61-9017-9C2B94F64B4D}"/>
+    <hyperlink ref="D81" r:id="rId239" display="20231207\20231207_Rmaysh1\GreenSoutherners136 _20231207 أطراف رميش فوسفوري.jpeg" xr:uid="{01C6AA7F-59A8-4BEF-B52B-2A6AD22A724B}"/>
+    <hyperlink ref="D80" r:id="rId240" display="20231206\20231206_Meiss El Jabal\GreenSoutherners135 _20231206 ميس الجبل وأطراف حولا فوسفوري.mp4" xr:uid="{F089EE6D-851D-4D2C-AF69-E0C07BD244CB}"/>
+    <hyperlink ref="D65" r:id="rId241" xr:uid="{F31E79AC-496B-BB41-916A-1A30BC89E783}"/>
+    <hyperlink ref="E65" r:id="rId242" xr:uid="{23C58951-E69D-6D48-BBA8-C14AEBB53FE4}"/>
+    <hyperlink ref="F65" r:id="rId243" xr:uid="{E088F275-807C-F44B-B23E-635C00B32E17}"/>
+    <hyperlink ref="G65" r:id="rId244" xr:uid="{539A5CC5-DD45-584B-A75B-274F8D218DFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId245"/>
